--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B788623A-804E-7C4D-8EFF-533643243B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB192EF-3098-FA4D-A6C6-1D81C71661D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -140,9 +140,6 @@
     <t>Phase : A1</t>
   </si>
   <si>
-    <t>Phase : A2</t>
-  </si>
-  <si>
     <t>Etude d'opportunité</t>
   </si>
   <si>
@@ -210,6 +207,30 @@
   </si>
   <si>
     <t>Révision des points abordés en A1</t>
+  </si>
+  <si>
+    <t>Finalisation de la modélisation simple</t>
+  </si>
+  <si>
+    <t>Finalisation de la maquette simple</t>
+  </si>
+  <si>
+    <t>Phase : A2 - Sprint 1</t>
+  </si>
+  <si>
+    <t>Phase : A3 - Sprint 2</t>
+  </si>
+  <si>
+    <t>Phase : A4 - Sprint 3</t>
+  </si>
+  <si>
+    <t>Réunion A2</t>
+  </si>
+  <si>
+    <t>PV réunion A2</t>
+  </si>
+  <si>
+    <t>Révision des points abordés en A2</t>
   </si>
 </sst>
 </file>
@@ -1126,6 +1147,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1133,20 +1166,8 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1205,7 +1226,67 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1332,15 +1413,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstColumn" dxfId="14"/>
+      <tableStyleElement type="lastColumn" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1699,11 +1780,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL32"/>
+  <dimension ref="A1:BL44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1736,8 +1817,8 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="70" t="s">
-        <v>39</v>
+      <c r="B2" s="71" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -1748,7 +1829,7 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
-      <c r="B3" s="70"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -1760,118 +1841,118 @@
       <c r="A4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="64" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="71">
+      <c r="D4" s="69"/>
+      <c r="E4" s="67">
         <v>44459</v>
       </c>
-      <c r="F4" s="71"/>
+      <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="65"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="63">
         <v>2</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="64">
         <f>I6</f>
         <v>44466</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="67">
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="64">
         <f>P6</f>
         <v>44473</v>
       </c>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="67">
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="64">
         <f>W6</f>
         <v>44480</v>
       </c>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="67">
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="64">
         <f>AD6</f>
         <v>44487</v>
       </c>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="68"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="67">
+      <c r="AE5" s="65"/>
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="65"/>
+      <c r="AH5" s="65"/>
+      <c r="AI5" s="65"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="64">
         <f>AK6</f>
         <v>44494</v>
       </c>
-      <c r="AL5" s="68"/>
-      <c r="AM5" s="68"/>
-      <c r="AN5" s="68"/>
-      <c r="AO5" s="68"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="67">
+      <c r="AL5" s="65"/>
+      <c r="AM5" s="65"/>
+      <c r="AN5" s="65"/>
+      <c r="AO5" s="65"/>
+      <c r="AP5" s="65"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="64">
         <f>AR6</f>
         <v>44501</v>
       </c>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="68"/>
-      <c r="AV5" s="68"/>
-      <c r="AW5" s="68"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="67">
+      <c r="AS5" s="65"/>
+      <c r="AT5" s="65"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="64">
         <f>AY6</f>
         <v>44508</v>
       </c>
-      <c r="AZ5" s="68"/>
-      <c r="BA5" s="68"/>
-      <c r="BB5" s="68"/>
-      <c r="BC5" s="68"/>
-      <c r="BD5" s="68"/>
-      <c r="BE5" s="69"/>
-      <c r="BF5" s="67">
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="65"/>
+      <c r="BC5" s="65"/>
+      <c r="BD5" s="65"/>
+      <c r="BE5" s="66"/>
+      <c r="BF5" s="64">
         <f>BF6</f>
         <v>44515</v>
       </c>
-      <c r="BG5" s="68"/>
-      <c r="BH5" s="68"/>
-      <c r="BI5" s="68"/>
-      <c r="BJ5" s="68"/>
-      <c r="BK5" s="68"/>
-      <c r="BL5" s="69"/>
+      <c r="BG5" s="65"/>
+      <c r="BH5" s="65"/>
+      <c r="BI5" s="65"/>
+      <c r="BJ5" s="65"/>
+      <c r="BK5" s="65"/>
+      <c r="BL5" s="66"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
       <c r="I6" s="55">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44466</v>
@@ -2350,7 +2431,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="15"/>
@@ -2358,7 +2439,7 @@
       <c r="F8" s="48"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H29" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H41" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="26"/>
@@ -2423,10 +2504,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="16">
         <v>1</v>
@@ -2504,10 +2585,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="16">
         <v>1</v>
@@ -2583,10 +2664,10 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="16">
         <v>1</v>
@@ -2735,10 +2816,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="19">
         <v>1</v>
@@ -2814,10 +2895,10 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="19">
         <v>1</v>
@@ -2894,10 +2975,10 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="19">
         <v>1</v>
@@ -3046,10 +3127,10 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="22">
         <v>1</v>
@@ -3125,13 +3206,13 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="22">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E18" s="60">
         <v>44471</v>
@@ -3204,13 +3285,13 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="60">
         <v>44478</v>
@@ -3283,13 +3364,13 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="60">
         <v>44477</v>
@@ -3362,13 +3443,13 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E21" s="60">
         <v>44477</v>
@@ -3441,24 +3522,24 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="60">
-        <v>44487</v>
+        <v>44488</v>
       </c>
       <c r="F22" s="60">
-        <v>44491</v>
+        <v>44488</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
@@ -3522,7 +3603,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="24"/>
@@ -3593,19 +3674,19 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="25">
         <v>0</v>
       </c>
       <c r="E24" s="61">
+        <v>44488</v>
+      </c>
+      <c r="F24" s="61">
         <v>44491</v>
-      </c>
-      <c r="F24" s="61">
-        <v>44494</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13">
@@ -3672,24 +3753,24 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="25">
         <v>0</v>
       </c>
       <c r="E25" s="61">
-        <v>44491</v>
+        <v>44489</v>
       </c>
       <c r="F25" s="61">
-        <v>44498</v>
+        <v>44493</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
@@ -3750,15 +3831,25 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
+      <c r="B26" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="25">
+        <v>0</v>
+      </c>
+      <c r="E26" s="61">
+        <v>44489</v>
+      </c>
+      <c r="F26" s="61">
+        <v>44493</v>
+      </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="13" t="str">
+      <c r="H26" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
@@ -3819,15 +3910,25 @@
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
+      <c r="B27" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0</v>
+      </c>
+      <c r="E27" s="61">
+        <v>44489</v>
+      </c>
+      <c r="F27" s="61">
+        <v>44493</v>
+      </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="13" t="str">
+      <c r="H27" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
@@ -3888,15 +3989,25 @@
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
+      <c r="B28" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="25">
+        <v>0</v>
+      </c>
+      <c r="E28" s="61">
+        <v>44505</v>
+      </c>
+      <c r="F28" s="61">
+        <v>44505</v>
+      </c>
       <c r="G28" s="13"/>
-      <c r="H28" s="13" t="str">
+      <c r="H28" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
@@ -3957,13 +4068,15 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
+        <v>9</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13" t="str">
         <f t="shared" si="5"/>
@@ -4026,18 +4139,872 @@
       <c r="BK29" s="26"/>
       <c r="BL29" s="26"/>
     </row>
-    <row r="30" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G30" s="6"/>
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="25">
+        <v>0</v>
+      </c>
+      <c r="E30" s="61">
+        <v>44505</v>
+      </c>
+      <c r="F30" s="61">
+        <v>44508</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="26"/>
+      <c r="AN30" s="26"/>
+      <c r="AO30" s="26"/>
+      <c r="AP30" s="26"/>
+      <c r="AQ30" s="26"/>
+      <c r="AR30" s="26"/>
+      <c r="AS30" s="26"/>
+      <c r="AT30" s="26"/>
+      <c r="AU30" s="26"/>
+      <c r="AV30" s="26"/>
+      <c r="AW30" s="26"/>
+      <c r="AX30" s="26"/>
+      <c r="AY30" s="26"/>
+      <c r="AZ30" s="26"/>
+      <c r="BA30" s="26"/>
+      <c r="BB30" s="26"/>
+      <c r="BC30" s="26"/>
+      <c r="BD30" s="26"/>
+      <c r="BE30" s="26"/>
+      <c r="BF30" s="26"/>
+      <c r="BG30" s="26"/>
+      <c r="BH30" s="26"/>
+      <c r="BI30" s="26"/>
+      <c r="BJ30" s="26"/>
+      <c r="BK30" s="26"/>
+      <c r="BL30" s="26"/>
     </row>
-    <row r="31" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="10"/>
-      <c r="F31" s="31"/>
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="25">
+        <v>0</v>
+      </c>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="26"/>
+      <c r="AN31" s="26"/>
+      <c r="AO31" s="26"/>
+      <c r="AP31" s="26"/>
+      <c r="AQ31" s="26"/>
+      <c r="AR31" s="26"/>
+      <c r="AS31" s="26"/>
+      <c r="AT31" s="26"/>
+      <c r="AU31" s="26"/>
+      <c r="AV31" s="26"/>
+      <c r="AW31" s="26"/>
+      <c r="AX31" s="26"/>
+      <c r="AY31" s="26"/>
+      <c r="AZ31" s="26"/>
+      <c r="BA31" s="26"/>
+      <c r="BB31" s="26"/>
+      <c r="BC31" s="26"/>
+      <c r="BD31" s="26"/>
+      <c r="BE31" s="26"/>
+      <c r="BF31" s="26"/>
+      <c r="BG31" s="26"/>
+      <c r="BH31" s="26"/>
+      <c r="BI31" s="26"/>
+      <c r="BJ31" s="26"/>
+      <c r="BK31" s="26"/>
+      <c r="BL31" s="26"/>
     </row>
-    <row r="32" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="11"/>
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="26"/>
+      <c r="AM32" s="26"/>
+      <c r="AN32" s="26"/>
+      <c r="AO32" s="26"/>
+      <c r="AP32" s="26"/>
+      <c r="AQ32" s="26"/>
+      <c r="AR32" s="26"/>
+      <c r="AS32" s="26"/>
+      <c r="AT32" s="26"/>
+      <c r="AU32" s="26"/>
+      <c r="AV32" s="26"/>
+      <c r="AW32" s="26"/>
+      <c r="AX32" s="26"/>
+      <c r="AY32" s="26"/>
+      <c r="AZ32" s="26"/>
+      <c r="BA32" s="26"/>
+      <c r="BB32" s="26"/>
+      <c r="BC32" s="26"/>
+      <c r="BD32" s="26"/>
+      <c r="BE32" s="26"/>
+      <c r="BF32" s="26"/>
+      <c r="BG32" s="26"/>
+      <c r="BH32" s="26"/>
+      <c r="BI32" s="26"/>
+      <c r="BJ32" s="26"/>
+      <c r="BK32" s="26"/>
+      <c r="BL32" s="26"/>
+    </row>
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="26"/>
+      <c r="AN33" s="26"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="26"/>
+      <c r="AQ33" s="26"/>
+      <c r="AR33" s="26"/>
+      <c r="AS33" s="26"/>
+      <c r="AT33" s="26"/>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="26"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="26"/>
+      <c r="AY33" s="26"/>
+      <c r="AZ33" s="26"/>
+      <c r="BA33" s="26"/>
+      <c r="BB33" s="26"/>
+      <c r="BC33" s="26"/>
+      <c r="BD33" s="26"/>
+      <c r="BE33" s="26"/>
+      <c r="BF33" s="26"/>
+      <c r="BG33" s="26"/>
+      <c r="BH33" s="26"/>
+      <c r="BI33" s="26"/>
+      <c r="BJ33" s="26"/>
+      <c r="BK33" s="26"/>
+      <c r="BL33" s="26"/>
+    </row>
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="26"/>
+      <c r="AM34" s="26"/>
+      <c r="AN34" s="26"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="26"/>
+      <c r="AQ34" s="26"/>
+      <c r="AR34" s="26"/>
+      <c r="AS34" s="26"/>
+      <c r="AT34" s="26"/>
+      <c r="AU34" s="26"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="26"/>
+      <c r="AY34" s="26"/>
+      <c r="AZ34" s="26"/>
+      <c r="BA34" s="26"/>
+      <c r="BB34" s="26"/>
+      <c r="BC34" s="26"/>
+      <c r="BD34" s="26"/>
+      <c r="BE34" s="26"/>
+      <c r="BF34" s="26"/>
+      <c r="BG34" s="26"/>
+      <c r="BH34" s="26"/>
+      <c r="BI34" s="26"/>
+      <c r="BJ34" s="26"/>
+      <c r="BK34" s="26"/>
+      <c r="BL34" s="26"/>
+    </row>
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="26"/>
+      <c r="AS35" s="26"/>
+      <c r="AT35" s="26"/>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="26"/>
+      <c r="AY35" s="26"/>
+      <c r="AZ35" s="26"/>
+      <c r="BA35" s="26"/>
+      <c r="BB35" s="26"/>
+      <c r="BC35" s="26"/>
+      <c r="BD35" s="26"/>
+      <c r="BE35" s="26"/>
+      <c r="BF35" s="26"/>
+      <c r="BG35" s="26"/>
+      <c r="BH35" s="26"/>
+      <c r="BI35" s="26"/>
+      <c r="BJ35" s="26"/>
+      <c r="BK35" s="26"/>
+      <c r="BL35" s="26"/>
+    </row>
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="26"/>
+      <c r="AN36" s="26"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="26"/>
+      <c r="AQ36" s="26"/>
+      <c r="AR36" s="26"/>
+      <c r="AS36" s="26"/>
+      <c r="AT36" s="26"/>
+      <c r="AU36" s="26"/>
+      <c r="AV36" s="26"/>
+      <c r="AW36" s="26"/>
+      <c r="AX36" s="26"/>
+      <c r="AY36" s="26"/>
+      <c r="AZ36" s="26"/>
+      <c r="BA36" s="26"/>
+      <c r="BB36" s="26"/>
+      <c r="BC36" s="26"/>
+      <c r="BD36" s="26"/>
+      <c r="BE36" s="26"/>
+      <c r="BF36" s="26"/>
+      <c r="BG36" s="26"/>
+      <c r="BH36" s="26"/>
+      <c r="BI36" s="26"/>
+      <c r="BJ36" s="26"/>
+      <c r="BK36" s="26"/>
+      <c r="BL36" s="26"/>
+    </row>
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="26"/>
+      <c r="AK37" s="26"/>
+      <c r="AL37" s="26"/>
+      <c r="AM37" s="26"/>
+      <c r="AN37" s="26"/>
+      <c r="AO37" s="26"/>
+      <c r="AP37" s="26"/>
+      <c r="AQ37" s="26"/>
+      <c r="AR37" s="26"/>
+      <c r="AS37" s="26"/>
+      <c r="AT37" s="26"/>
+      <c r="AU37" s="26"/>
+      <c r="AV37" s="26"/>
+      <c r="AW37" s="26"/>
+      <c r="AX37" s="26"/>
+      <c r="AY37" s="26"/>
+      <c r="AZ37" s="26"/>
+      <c r="BA37" s="26"/>
+      <c r="BB37" s="26"/>
+      <c r="BC37" s="26"/>
+      <c r="BD37" s="26"/>
+      <c r="BE37" s="26"/>
+      <c r="BF37" s="26"/>
+      <c r="BG37" s="26"/>
+      <c r="BH37" s="26"/>
+      <c r="BI37" s="26"/>
+      <c r="BJ37" s="26"/>
+      <c r="BK37" s="26"/>
+      <c r="BL37" s="26"/>
+    </row>
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="26"/>
+      <c r="AN38" s="26"/>
+      <c r="AO38" s="26"/>
+      <c r="AP38" s="26"/>
+      <c r="AQ38" s="26"/>
+      <c r="AR38" s="26"/>
+      <c r="AS38" s="26"/>
+      <c r="AT38" s="26"/>
+      <c r="AU38" s="26"/>
+      <c r="AV38" s="26"/>
+      <c r="AW38" s="26"/>
+      <c r="AX38" s="26"/>
+      <c r="AY38" s="26"/>
+      <c r="AZ38" s="26"/>
+      <c r="BA38" s="26"/>
+      <c r="BB38" s="26"/>
+      <c r="BC38" s="26"/>
+      <c r="BD38" s="26"/>
+      <c r="BE38" s="26"/>
+      <c r="BF38" s="26"/>
+      <c r="BG38" s="26"/>
+      <c r="BH38" s="26"/>
+      <c r="BI38" s="26"/>
+      <c r="BJ38" s="26"/>
+      <c r="BK38" s="26"/>
+      <c r="BL38" s="26"/>
+    </row>
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="26"/>
+      <c r="AK39" s="26"/>
+      <c r="AL39" s="26"/>
+      <c r="AM39" s="26"/>
+      <c r="AN39" s="26"/>
+      <c r="AO39" s="26"/>
+      <c r="AP39" s="26"/>
+      <c r="AQ39" s="26"/>
+      <c r="AR39" s="26"/>
+      <c r="AS39" s="26"/>
+      <c r="AT39" s="26"/>
+      <c r="AU39" s="26"/>
+      <c r="AV39" s="26"/>
+      <c r="AW39" s="26"/>
+      <c r="AX39" s="26"/>
+      <c r="AY39" s="26"/>
+      <c r="AZ39" s="26"/>
+      <c r="BA39" s="26"/>
+      <c r="BB39" s="26"/>
+      <c r="BC39" s="26"/>
+      <c r="BD39" s="26"/>
+      <c r="BE39" s="26"/>
+      <c r="BF39" s="26"/>
+      <c r="BG39" s="26"/>
+      <c r="BH39" s="26"/>
+      <c r="BI39" s="26"/>
+      <c r="BJ39" s="26"/>
+      <c r="BK39" s="26"/>
+      <c r="BL39" s="26"/>
+    </row>
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="26"/>
+      <c r="AN40" s="26"/>
+      <c r="AO40" s="26"/>
+      <c r="AP40" s="26"/>
+      <c r="AQ40" s="26"/>
+      <c r="AR40" s="26"/>
+      <c r="AS40" s="26"/>
+      <c r="AT40" s="26"/>
+      <c r="AU40" s="26"/>
+      <c r="AV40" s="26"/>
+      <c r="AW40" s="26"/>
+      <c r="AX40" s="26"/>
+      <c r="AY40" s="26"/>
+      <c r="AZ40" s="26"/>
+      <c r="BA40" s="26"/>
+      <c r="BB40" s="26"/>
+      <c r="BC40" s="26"/>
+      <c r="BD40" s="26"/>
+      <c r="BE40" s="26"/>
+      <c r="BF40" s="26"/>
+      <c r="BG40" s="26"/>
+      <c r="BH40" s="26"/>
+      <c r="BI40" s="26"/>
+      <c r="BJ40" s="26"/>
+      <c r="BK40" s="26"/>
+      <c r="BL40" s="26"/>
+    </row>
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="26"/>
+      <c r="AF41" s="26"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
+      <c r="AJ41" s="26"/>
+      <c r="AK41" s="26"/>
+      <c r="AL41" s="26"/>
+      <c r="AM41" s="26"/>
+      <c r="AN41" s="26"/>
+      <c r="AO41" s="26"/>
+      <c r="AP41" s="26"/>
+      <c r="AQ41" s="26"/>
+      <c r="AR41" s="26"/>
+      <c r="AS41" s="26"/>
+      <c r="AT41" s="26"/>
+      <c r="AU41" s="26"/>
+      <c r="AV41" s="26"/>
+      <c r="AW41" s="26"/>
+      <c r="AX41" s="26"/>
+      <c r="AY41" s="26"/>
+      <c r="AZ41" s="26"/>
+      <c r="BA41" s="26"/>
+      <c r="BB41" s="26"/>
+      <c r="BC41" s="26"/>
+      <c r="BD41" s="26"/>
+      <c r="BE41" s="26"/>
+      <c r="BF41" s="26"/>
+      <c r="BG41" s="26"/>
+      <c r="BH41" s="26"/>
+      <c r="BI41" s="26"/>
+      <c r="BJ41" s="26"/>
+      <c r="BK41" s="26"/>
+      <c r="BL41" s="26"/>
+    </row>
+    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="10"/>
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="E4:F4"/>
@@ -4045,15 +5012,9 @@
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8:D29">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="D8:D28 D41">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4066,16 +5027,70 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:BL29">
-    <cfRule type="expression" dxfId="2" priority="33">
+  <conditionalFormatting sqref="I6:BL28 I41:BL41">
+    <cfRule type="expression" dxfId="8" priority="41">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL29">
-    <cfRule type="expression" dxfId="1" priority="27">
+  <conditionalFormatting sqref="I8:BL28 I41:BL41">
+    <cfRule type="expression" dxfId="7" priority="35">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="36" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D34">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C6CDA553-F00B-9040-AE03-37F25434701D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:BL34">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:BL34">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D40">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EA2270A7-BB26-9A40-B9F1-5C26EEBB949D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL40">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL40">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4106,7 +5121,37 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D8:D29</xm:sqref>
+          <xm:sqref>D8:D28 D41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C6CDA553-F00B-9040-AE03-37F25434701D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D29:D34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EA2270A7-BB26-9A40-B9F1-5C26EEBB949D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D35:D40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1063099D-EE19-B24F-B245-9FE26DBD2929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E34538-A5D1-43D8-AC3B-2B2BB3B2127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="11" r:id="rId1"/>
@@ -245,15 +245,6 @@
     <t>Révision des points abordés en Point de contrôle (A2.1)</t>
   </si>
   <si>
-    <t>Phase : A0 (Réunion 1)</t>
-  </si>
-  <si>
-    <t>Phase : A1 (Réunion 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase : A2 (Réunion 3) - Sprint 1 </t>
-  </si>
-  <si>
     <t>Phase : Point de contrôle (A2.1) (Réunion 4) - Sprint 2</t>
   </si>
   <si>
@@ -267,18 +258,6 @@
   </si>
   <si>
     <t>Révision des points abordés en Point de contrôle (A3.2)</t>
-  </si>
-  <si>
-    <t>Phase : Point de contrôle (A3.1) (Réunion 1) - Sprint 4</t>
-  </si>
-  <si>
-    <t>Phase : Point de contrôle (A3.2) (Réunion 2) - Sprint 5</t>
-  </si>
-  <si>
-    <t>Phase : A4 (Réunion 3) - Sprint 6</t>
-  </si>
-  <si>
-    <t>Phase : A5 (Réunion 4) - Sprint 7</t>
   </si>
   <si>
     <t>Réunion A4</t>
@@ -299,10 +278,31 @@
     <t>Réunion A5</t>
   </si>
   <si>
-    <t>Phase : Finale - Sprint 8</t>
+    <t>Reddition à 12h00</t>
   </si>
   <si>
-    <t>Reddition à 12h00</t>
+    <t>Phase : A0 (Réunion 1) - Sprint 1</t>
+  </si>
+  <si>
+    <t>Phase : A1 (Réunion 2) - Sprint 1</t>
+  </si>
+  <si>
+    <t>Phase : A2 (Réunion 3) - Sprint 2</t>
+  </si>
+  <si>
+    <t>Phase : Point de contrôle (A3.1) (Réunion 1) - Sprint 3</t>
+  </si>
+  <si>
+    <t>Phase : Point de contrôle (A3.2) (Réunion 2) - Sprint 3</t>
+  </si>
+  <si>
+    <t>Phase : A4 (Réunion 3) - Sprint 4</t>
+  </si>
+  <si>
+    <t>Phase : A5 (Réunion 4) - Sprint 5</t>
+  </si>
+  <si>
+    <t>Phase : Finale - Sprint 5</t>
   </si>
 </sst>
 </file>
@@ -1108,28 +1108,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="38" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1141,6 +1119,28 @@
     </xf>
     <xf numFmtId="168" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1199,37 +1199,7 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <fill>
         <patternFill>
@@ -1686,15 +1656,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="47"/>
-      <tableStyleElement type="headerRow" dxfId="46"/>
-      <tableStyleElement type="totalRow" dxfId="45"/>
-      <tableStyleElement type="firstColumn" dxfId="44"/>
-      <tableStyleElement type="lastColumn" dxfId="43"/>
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
-      <tableStyleElement type="secondRowStripe" dxfId="41"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="40"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="totalRow" dxfId="42"/>
+      <tableStyleElement type="firstColumn" dxfId="41"/>
+      <tableStyleElement type="lastColumn" dxfId="40"/>
+      <tableStyleElement type="firstRowStripe" dxfId="39"/>
+      <tableStyleElement type="secondRowStripe" dxfId="38"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="37"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="36"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2055,26 +2025,26 @@
   </sheetPr>
   <dimension ref="A1:BL67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B4"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="78" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="48.1796875" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="2.5" customWidth="1"/>
-    <col min="8" max="8" width="9.5" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5" customWidth="1"/>
-    <col min="69" max="70" width="10.5"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="2.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.453125" customWidth="1"/>
+    <col min="69" max="70" width="10.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2088,9 +2058,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="21"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="48" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1"/>
@@ -2100,9 +2070,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="21"/>
-      <c r="B3" s="43"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2110,122 +2080,122 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="44">
         <v>44459</v>
       </c>
       <c r="F4" s="44"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="36">
         <v>2</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="41">
         <f>I6</f>
         <v>44466</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="40">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="41">
         <f>P6</f>
         <v>44473</v>
       </c>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="40">
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="41">
         <f>W6</f>
         <v>44480</v>
       </c>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="40">
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="41">
         <f>AD6</f>
         <v>44487</v>
       </c>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="40">
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="41">
         <f>AK6</f>
         <v>44494</v>
       </c>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="40">
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="41">
         <f>AR6</f>
         <v>44501</v>
       </c>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="42"/>
-      <c r="AY5" s="40">
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="41">
         <f>AY6</f>
         <v>44508</v>
       </c>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="42"/>
-      <c r="BF5" s="40">
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="41">
         <f>BF6</f>
         <v>44515</v>
       </c>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41"/>
-      <c r="BJ5" s="41"/>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="42"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="43"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="I6" s="31">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44466</v>
@@ -2451,7 +2421,7 @@
         <v>44521</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
@@ -2699,7 +2669,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
@@ -2772,7 +2742,7 @@
       <c r="BK8" s="17"/>
       <c r="BL8" s="17"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
@@ -2853,7 +2823,7 @@
       <c r="BK9" s="17"/>
       <c r="BL9" s="17"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
@@ -2934,7 +2904,7 @@
       <c r="BK10" s="17"/>
       <c r="BL10" s="17"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20"/>
       <c r="B11" s="27" t="s">
         <v>25</v>
@@ -3013,12 +2983,12 @@
       <c r="BK11" s="17"/>
       <c r="BL11" s="17"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="15"/>
@@ -3086,7 +3056,7 @@
       <c r="BK12" s="17"/>
       <c r="BL12" s="17"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="21"/>
       <c r="B13" s="27" t="s">
         <v>20</v>
@@ -3165,7 +3135,7 @@
       <c r="BK13" s="17"/>
       <c r="BL13" s="17"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20"/>
       <c r="B14" s="27" t="s">
         <v>26</v>
@@ -3245,7 +3215,7 @@
       <c r="BK14" s="17"/>
       <c r="BL14" s="17"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="20"/>
       <c r="B15" s="27" t="s">
         <v>22</v>
@@ -3324,12 +3294,12 @@
       <c r="BK15" s="17"/>
       <c r="BL15" s="17"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="15"/>
@@ -3397,7 +3367,7 @@
       <c r="BK16" s="17"/>
       <c r="BL16" s="17"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20"/>
       <c r="B17" s="27" t="s">
         <v>27</v>
@@ -3476,7 +3446,7 @@
       <c r="BK17" s="17"/>
       <c r="BL17" s="17"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="20"/>
       <c r="B18" s="27" t="s">
         <v>28</v>
@@ -3555,7 +3525,7 @@
       <c r="BK18" s="17"/>
       <c r="BL18" s="17"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20"/>
       <c r="B19" s="27" t="s">
         <v>29</v>
@@ -3634,7 +3604,7 @@
       <c r="BK19" s="17"/>
       <c r="BL19" s="17"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="20"/>
       <c r="B20" s="27" t="s">
         <v>32</v>
@@ -3713,7 +3683,7 @@
       <c r="BK20" s="17"/>
       <c r="BL20" s="17"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20"/>
       <c r="B21" s="27" t="s">
         <v>38</v>
@@ -3792,7 +3762,7 @@
       <c r="BK21" s="17"/>
       <c r="BL21" s="17"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="20"/>
       <c r="B22" s="27" t="s">
         <v>30</v>
@@ -3871,12 +3841,12 @@
       <c r="BK22" s="17"/>
       <c r="BL22" s="17"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="15"/>
@@ -3944,7 +3914,7 @@
       <c r="BK23" s="17"/>
       <c r="BL23" s="17"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="20"/>
       <c r="B24" s="27" t="s">
         <v>31</v>
@@ -4023,7 +3993,7 @@
       <c r="BK24" s="17"/>
       <c r="BL24" s="17"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20"/>
       <c r="B25" s="27" t="s">
         <v>41</v>
@@ -4102,7 +4072,7 @@
       <c r="BK25" s="17"/>
       <c r="BL25" s="17"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20"/>
       <c r="B26" s="27" t="s">
         <v>42</v>
@@ -4181,7 +4151,7 @@
       <c r="BK26" s="17"/>
       <c r="BL26" s="17"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20"/>
       <c r="B27" s="27" t="s">
         <v>43</v>
@@ -4260,21 +4230,21 @@
       <c r="BK27" s="17"/>
       <c r="BL27" s="17"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20"/>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="39">
         <v>0</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="40">
         <v>44505</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="40">
         <v>44505</v>
       </c>
       <c r="G28" s="13"/>
@@ -4339,12 +4309,12 @@
       <c r="BK28" s="17"/>
       <c r="BL28" s="17"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="15"/>
@@ -4412,7 +4382,7 @@
       <c r="BK29" s="17"/>
       <c r="BL29" s="17"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="20"/>
       <c r="B30" s="27" t="s">
         <v>45</v>
@@ -4489,7 +4459,7 @@
       <c r="BK30" s="17"/>
       <c r="BL30" s="17"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20"/>
       <c r="B31" s="27" t="s">
         <v>46</v>
@@ -4564,7 +4534,7 @@
       <c r="BK31" s="17"/>
       <c r="BL31" s="17"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20"/>
       <c r="B32" s="27"/>
       <c r="C32" s="25"/>
@@ -4633,7 +4603,7 @@
       <c r="BK32" s="17"/>
       <c r="BL32" s="17"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20"/>
       <c r="B33" s="27" t="s">
         <v>53</v>
@@ -4712,12 +4682,12 @@
       <c r="BK33" s="17"/>
       <c r="BL33" s="17"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="15"/>
@@ -4785,7 +4755,7 @@
       <c r="BK34" s="17"/>
       <c r="BL34" s="17"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20"/>
       <c r="B35" s="27" t="s">
         <v>54</v>
@@ -4858,7 +4828,7 @@
       <c r="BK35" s="17"/>
       <c r="BL35" s="17"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20"/>
       <c r="B36" s="27" t="s">
         <v>55</v>
@@ -4933,7 +4903,7 @@
       <c r="BK36" s="17"/>
       <c r="BL36" s="17"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20"/>
       <c r="B37" s="27"/>
       <c r="C37" s="25"/>
@@ -5002,21 +4972,21 @@
       <c r="BK37" s="17"/>
       <c r="BL37" s="17"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="20"/>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="39">
         <v>0</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E38" s="40">
         <v>44550</v>
       </c>
-      <c r="F38" s="48">
+      <c r="F38" s="40">
         <v>44555</v>
       </c>
       <c r="G38" s="13"/>
@@ -5081,12 +5051,12 @@
       <c r="BK38" s="17"/>
       <c r="BL38" s="17"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="15"/>
@@ -5154,7 +5124,7 @@
       <c r="BK39" s="17"/>
       <c r="BL39" s="17"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="20"/>
       <c r="B40" s="27" t="s">
         <v>48</v>
@@ -5227,7 +5197,7 @@
       <c r="BK40" s="17"/>
       <c r="BL40" s="17"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="20"/>
       <c r="B41" s="27" t="s">
         <v>49</v>
@@ -5302,7 +5272,7 @@
       <c r="BK41" s="17"/>
       <c r="BL41" s="17"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="20"/>
       <c r="B42" s="27"/>
       <c r="C42" s="25"/>
@@ -5368,7 +5338,7 @@
       <c r="BK42" s="17"/>
       <c r="BL42" s="17"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="20"/>
       <c r="B43" s="27" t="s">
         <v>50</v>
@@ -5447,12 +5417,12 @@
       <c r="BK43" s="17"/>
       <c r="BL43" s="17"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="15"/>
@@ -5520,7 +5490,7 @@
       <c r="BK44" s="17"/>
       <c r="BL44" s="17"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="20"/>
       <c r="B45" s="27" t="s">
         <v>51</v>
@@ -5593,7 +5563,7 @@
       <c r="BK45" s="17"/>
       <c r="BL45" s="17"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20"/>
       <c r="B46" s="27" t="s">
         <v>52</v>
@@ -5668,7 +5638,7 @@
       <c r="BK46" s="17"/>
       <c r="BL46" s="17"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="20"/>
       <c r="B47" s="27"/>
       <c r="C47" s="25"/>
@@ -5737,10 +5707,10 @@
       <c r="BK47" s="17"/>
       <c r="BL47" s="17"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="20"/>
       <c r="B48" s="27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>33</v>
@@ -5816,12 +5786,12 @@
       <c r="BK48" s="17"/>
       <c r="BL48" s="17"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="15"/>
@@ -5889,10 +5859,10 @@
       <c r="BK49" s="17"/>
       <c r="BL49" s="17"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="20"/>
       <c r="B50" s="27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="16">
@@ -5962,10 +5932,10 @@
       <c r="BK50" s="17"/>
       <c r="BL50" s="17"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="20"/>
       <c r="B51" s="27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C51" s="25" t="s">
         <v>33</v>
@@ -6037,7 +6007,7 @@
       <c r="BK51" s="17"/>
       <c r="BL51" s="17"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20"/>
       <c r="B52" s="27"/>
       <c r="C52" s="25"/>
@@ -6106,21 +6076,21 @@
       <c r="BK52" s="17"/>
       <c r="BL52" s="17"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="20"/>
-      <c r="B53" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="46" t="s">
+      <c r="B53" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="47">
+      <c r="D53" s="39">
         <v>0</v>
       </c>
-      <c r="E53" s="48">
+      <c r="E53" s="40">
         <v>44655</v>
       </c>
-      <c r="F53" s="48">
+      <c r="F53" s="40">
         <v>44667</v>
       </c>
       <c r="G53" s="13"/>
@@ -6185,12 +6155,12 @@
       <c r="BK53" s="17"/>
       <c r="BL53" s="17"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C54" s="24"/>
       <c r="D54" s="15"/>
@@ -6258,10 +6228,10 @@
       <c r="BK54" s="17"/>
       <c r="BL54" s="17"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="20"/>
       <c r="B55" s="27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C55" s="25"/>
       <c r="D55" s="16">
@@ -6331,10 +6301,10 @@
       <c r="BK55" s="17"/>
       <c r="BL55" s="17"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="20"/>
       <c r="B56" s="27" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C56" s="25" t="s">
         <v>33</v>
@@ -6406,7 +6376,7 @@
       <c r="BK56" s="17"/>
       <c r="BL56" s="17"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="20"/>
       <c r="B57" s="27"/>
       <c r="C57" s="25"/>
@@ -6475,10 +6445,10 @@
       <c r="BK57" s="17"/>
       <c r="BL57" s="17"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="20"/>
       <c r="B58" s="27" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C58" s="25" t="s">
         <v>33</v>
@@ -6554,12 +6524,12 @@
       <c r="BK58" s="17"/>
       <c r="BL58" s="17"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="15"/>
@@ -6627,10 +6597,10 @@
       <c r="BK59" s="17"/>
       <c r="BL59" s="17"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="20"/>
       <c r="B60" s="27" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C60" s="25"/>
       <c r="D60" s="16">
@@ -6700,10 +6670,10 @@
       <c r="BK60" s="17"/>
       <c r="BL60" s="17"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="20"/>
       <c r="B61" s="27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>33</v>
@@ -6775,7 +6745,7 @@
       <c r="BK61" s="17"/>
       <c r="BL61" s="17"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="20"/>
       <c r="B62" s="27"/>
       <c r="C62" s="25"/>
@@ -6844,19 +6814,19 @@
       <c r="BK62" s="17"/>
       <c r="BL62" s="17"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="20"/>
-      <c r="B63" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="46" t="s">
+      <c r="B63" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="47"/>
-      <c r="E63" s="48">
+      <c r="D63" s="39"/>
+      <c r="E63" s="40">
         <v>44330</v>
       </c>
-      <c r="F63" s="48">
+      <c r="F63" s="40">
         <v>44330</v>
       </c>
       <c r="G63" s="13"/>
@@ -6921,7 +6891,7 @@
       <c r="BK63" s="17"/>
       <c r="BL63" s="17"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="20" t="s">
         <v>10</v>
       </c>
@@ -6992,18 +6962,24 @@
       <c r="BK64" s="17"/>
       <c r="BL64" s="17"/>
     </row>
-    <row r="65" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C66" s="10"/>
       <c r="F66" s="22"/>
     </row>
-    <row r="67" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C67" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="E4:F4"/>
@@ -7011,12 +6987,6 @@
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:D28 D52 D64">
     <cfRule type="dataBar" priority="87">
@@ -7033,15 +7003,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL33 I49:BL52 I64:BL64">
-    <cfRule type="expression" dxfId="38" priority="106">
+    <cfRule type="expression" dxfId="35" priority="106">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BL33 I49:BL52 I64:BL64">
-    <cfRule type="expression" dxfId="37" priority="100">
+    <cfRule type="expression" dxfId="34" priority="100">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="101" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7074,15 +7044,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL37">
-    <cfRule type="expression" dxfId="35" priority="69">
+    <cfRule type="expression" dxfId="32" priority="69">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL37">
-    <cfRule type="expression" dxfId="34" priority="67">
+    <cfRule type="expression" dxfId="31" priority="67">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="68" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7115,15 +7085,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="32" priority="63">
+    <cfRule type="expression" dxfId="29" priority="63">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="31" priority="61">
+    <cfRule type="expression" dxfId="28" priority="61">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="62" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7142,15 +7112,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL42">
-    <cfRule type="expression" dxfId="29" priority="60">
+    <cfRule type="expression" dxfId="26" priority="60">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL42">
-    <cfRule type="expression" dxfId="28" priority="58">
+    <cfRule type="expression" dxfId="25" priority="58">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="59" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7183,15 +7153,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="26" priority="54">
+    <cfRule type="expression" dxfId="23" priority="54">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="25" priority="52">
+    <cfRule type="expression" dxfId="22" priority="52">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="53" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7210,15 +7180,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL47">
-    <cfRule type="expression" dxfId="23" priority="51">
+    <cfRule type="expression" dxfId="20" priority="51">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL47">
-    <cfRule type="expression" dxfId="22" priority="49">
+    <cfRule type="expression" dxfId="19" priority="49">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="50" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7251,15 +7221,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="20" priority="45">
+    <cfRule type="expression" dxfId="17" priority="45">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="19" priority="43">
+    <cfRule type="expression" dxfId="16" priority="43">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="44" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7404,28 +7374,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:BL57">
-    <cfRule type="expression" dxfId="17" priority="30">
+    <cfRule type="expression" dxfId="14" priority="30">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:BL57">
-    <cfRule type="expression" dxfId="16" priority="28">
+    <cfRule type="expression" dxfId="13" priority="28">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="29" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="14" priority="26">
+    <cfRule type="expression" dxfId="11" priority="26">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="13" priority="24">
+    <cfRule type="expression" dxfId="10" priority="24">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="25" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7486,28 +7456,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BL62">
-    <cfRule type="expression" dxfId="11" priority="20">
+    <cfRule type="expression" dxfId="8" priority="20">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BL62">
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="7" priority="18">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="19" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="5" priority="16">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="7" priority="14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E34538-A5D1-43D8-AC3B-2B2BB3B2127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F0A0C-3425-EB45-BD46-6AA3220B1523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -245,12 +245,6 @@
     <t>Révision des points abordés en Point de contrôle (A2.1)</t>
   </si>
   <si>
-    <t>Phase : Point de contrôle (A2.1) (Réunion 4) - Sprint 2</t>
-  </si>
-  <si>
-    <t>Phase : A3 (Réunion 5) - Sprint 3</t>
-  </si>
-  <si>
     <t>Réunion Point de contrôle (A3.2)</t>
   </si>
   <si>
@@ -284,25 +278,37 @@
     <t>Phase : A0 (Réunion 1) - Sprint 1</t>
   </si>
   <si>
-    <t>Phase : A1 (Réunion 2) - Sprint 1</t>
+    <t>Phase : A1 (Réunion 2) - Sprint 2</t>
   </si>
   <si>
-    <t>Phase : A2 (Réunion 3) - Sprint 2</t>
+    <t>Phase : A2 (Réunion 3) - Sprint 3</t>
   </si>
   <si>
-    <t>Phase : Point de contrôle (A3.1) (Réunion 1) - Sprint 3</t>
+    <t>Phase : Point de contrôle (A2.1) (Réunion 4) - Sprint 4</t>
   </si>
   <si>
-    <t>Phase : Point de contrôle (A3.2) (Réunion 2) - Sprint 3</t>
+    <t>Phase : A3 (Réunion 5) - Sprint 5</t>
   </si>
   <si>
-    <t>Phase : A4 (Réunion 3) - Sprint 4</t>
+    <t>Phase : Point de contrôle (A3.1) (Réunion 1) - Sprint 6</t>
   </si>
   <si>
-    <t>Phase : A5 (Réunion 4) - Sprint 5</t>
+    <t>Phase : Point de contrôle (A3.2) (Réunion 2) - Sprint 7</t>
   </si>
   <si>
-    <t>Phase : Finale - Sprint 5</t>
+    <t>Phase : A4 (Réunion 3) - Sprint 8</t>
+  </si>
+  <si>
+    <t>Phase : A5 (Réunion 4) - Sprint 9</t>
+  </si>
+  <si>
+    <t>Phase : Finale - Sprint 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place du login </t>
+  </si>
+  <si>
+    <t>Démarrage de la base de donnée</t>
   </si>
 </sst>
 </file>
@@ -1120,6 +1126,13 @@
     <xf numFmtId="168" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1129,18 +1142,11 @@
     <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1199,7 +1205,37 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1656,15 +1692,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="44"/>
-      <tableStyleElement type="headerRow" dxfId="43"/>
-      <tableStyleElement type="totalRow" dxfId="42"/>
-      <tableStyleElement type="firstColumn" dxfId="41"/>
-      <tableStyleElement type="lastColumn" dxfId="40"/>
-      <tableStyleElement type="firstRowStripe" dxfId="39"/>
-      <tableStyleElement type="secondRowStripe" dxfId="38"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="37"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="36"/>
+      <tableStyleElement type="wholeTable" dxfId="47"/>
+      <tableStyleElement type="headerRow" dxfId="46"/>
+      <tableStyleElement type="totalRow" dxfId="45"/>
+      <tableStyleElement type="firstColumn" dxfId="44"/>
+      <tableStyleElement type="lastColumn" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="42"/>
+      <tableStyleElement type="secondRowStripe" dxfId="41"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="40"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2023,28 +2059,28 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL67"/>
+  <dimension ref="A1:BL68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="78" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="48.1796875" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="20" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="2.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.453125" customWidth="1"/>
-    <col min="69" max="70" width="10.453125"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="9.5" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5" customWidth="1"/>
+    <col min="69" max="70" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2058,9 +2094,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1"/>
@@ -2070,9 +2106,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="48"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2080,122 +2116,122 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="44">
+      <c r="D4" s="42"/>
+      <c r="E4" s="48">
         <v>44459</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="48"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="36">
         <v>2</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="44">
         <f>I6</f>
         <v>44466</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="41">
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="44">
         <f>P6</f>
         <v>44473</v>
       </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="41">
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="44">
         <f>W6</f>
         <v>44480</v>
       </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="41">
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="44">
         <f>AD6</f>
         <v>44487</v>
       </c>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="41">
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="44">
         <f>AK6</f>
         <v>44494</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="41">
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="44">
         <f>AR6</f>
         <v>44501</v>
       </c>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="41">
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="44">
         <f>AY6</f>
         <v>44508</v>
       </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="41">
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="44">
         <f>BF6</f>
         <v>44515</v>
       </c>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="43"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="46"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
       <c r="I6" s="31">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44466</v>
@@ -2421,7 +2457,7 @@
         <v>44521</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
@@ -2669,7 +2705,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
@@ -2682,7 +2718,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H64" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H65" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="17"/>
@@ -2742,7 +2778,7 @@
       <c r="BK8" s="17"/>
       <c r="BL8" s="17"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
@@ -2823,7 +2859,7 @@
       <c r="BK9" s="17"/>
       <c r="BL9" s="17"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
@@ -2904,7 +2940,7 @@
       <c r="BK10" s="17"/>
       <c r="BL10" s="17"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="27" t="s">
         <v>25</v>
@@ -2983,12 +3019,12 @@
       <c r="BK11" s="17"/>
       <c r="BL11" s="17"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="15"/>
@@ -3056,7 +3092,7 @@
       <c r="BK12" s="17"/>
       <c r="BL12" s="17"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="27" t="s">
         <v>20</v>
@@ -3135,7 +3171,7 @@
       <c r="BK13" s="17"/>
       <c r="BL13" s="17"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="27" t="s">
         <v>26</v>
@@ -3215,7 +3251,7 @@
       <c r="BK14" s="17"/>
       <c r="BL14" s="17"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="27" t="s">
         <v>22</v>
@@ -3294,12 +3330,12 @@
       <c r="BK15" s="17"/>
       <c r="BL15" s="17"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="15"/>
@@ -3367,7 +3403,7 @@
       <c r="BK16" s="17"/>
       <c r="BL16" s="17"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="27" t="s">
         <v>27</v>
@@ -3446,7 +3482,7 @@
       <c r="BK17" s="17"/>
       <c r="BL17" s="17"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="27" t="s">
         <v>28</v>
@@ -3525,7 +3561,7 @@
       <c r="BK18" s="17"/>
       <c r="BL18" s="17"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="27" t="s">
         <v>29</v>
@@ -3604,7 +3640,7 @@
       <c r="BK19" s="17"/>
       <c r="BL19" s="17"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="27" t="s">
         <v>32</v>
@@ -3683,7 +3719,7 @@
       <c r="BK20" s="17"/>
       <c r="BL20" s="17"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="27" t="s">
         <v>38</v>
@@ -3762,7 +3798,7 @@
       <c r="BK21" s="17"/>
       <c r="BL21" s="17"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="27" t="s">
         <v>30</v>
@@ -3841,12 +3877,12 @@
       <c r="BK22" s="17"/>
       <c r="BL22" s="17"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="15"/>
@@ -3914,7 +3950,7 @@
       <c r="BK23" s="17"/>
       <c r="BL23" s="17"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="27" t="s">
         <v>31</v>
@@ -3993,7 +4029,7 @@
       <c r="BK24" s="17"/>
       <c r="BL24" s="17"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="27" t="s">
         <v>41</v>
@@ -4072,7 +4108,7 @@
       <c r="BK25" s="17"/>
       <c r="BL25" s="17"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="27" t="s">
         <v>42</v>
@@ -4151,7 +4187,7 @@
       <c r="BK26" s="17"/>
       <c r="BL26" s="17"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="27" t="s">
         <v>43</v>
@@ -4230,7 +4266,7 @@
       <c r="BK27" s="17"/>
       <c r="BL27" s="17"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="37" t="s">
         <v>44</v>
@@ -4309,12 +4345,12 @@
       <c r="BK28" s="17"/>
       <c r="BL28" s="17"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="15"/>
@@ -4382,7 +4418,7 @@
       <c r="BK29" s="17"/>
       <c r="BL29" s="17"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="27" t="s">
         <v>45</v>
@@ -4459,7 +4495,7 @@
       <c r="BK30" s="17"/>
       <c r="BL30" s="17"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="27" t="s">
         <v>46</v>
@@ -4534,17 +4570,27 @@
       <c r="BK31" s="17"/>
       <c r="BL31" s="17"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
+      <c r="B32" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+      <c r="E32" s="34">
+        <v>44508</v>
+      </c>
+      <c r="F32" s="34">
+        <v>44514</v>
+      </c>
       <c r="G32" s="13"/>
-      <c r="H32" s="13" t="str">
+      <c r="H32" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
@@ -4603,10 +4649,10 @@
       <c r="BK32" s="17"/>
       <c r="BL32" s="17"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="27" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>33</v>
@@ -4615,15 +4661,15 @@
         <v>0</v>
       </c>
       <c r="E33" s="34">
-        <v>44522</v>
+        <v>44508</v>
       </c>
       <c r="F33" s="34">
-        <v>44534</v>
+        <v>44521</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
@@ -4682,21 +4728,27 @@
       <c r="BK33" s="17"/>
       <c r="BL33" s="17"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0</v>
+      </c>
+      <c r="E34" s="34">
+        <v>44522</v>
+      </c>
+      <c r="F34" s="34">
+        <v>44534</v>
+      </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="13" t="str">
+      <c r="H34" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
@@ -4755,17 +4807,17 @@
       <c r="BK34" s="17"/>
       <c r="BL34" s="17"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="20"/>
-      <c r="B35" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="16">
-        <v>0</v>
-      </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13" t="str">
         <f t="shared" si="5"/>
@@ -4828,14 +4880,12 @@
       <c r="BK35" s="17"/>
       <c r="BL35" s="17"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C36" s="25"/>
       <c r="D36" s="16">
         <v>0</v>
       </c>
@@ -4903,11 +4953,17 @@
       <c r="BK36" s="17"/>
       <c r="BL36" s="17"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="16"/>
+      <c r="B37" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0</v>
+      </c>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
       <c r="G37" s="13"/>
@@ -4972,27 +5028,17 @@
       <c r="BK37" s="17"/>
       <c r="BL37" s="17"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
-      <c r="B38" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="39">
-        <v>0</v>
-      </c>
-      <c r="E38" s="40">
-        <v>44550</v>
-      </c>
-      <c r="F38" s="40">
-        <v>44555</v>
-      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="13">
+      <c r="H38" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
@@ -5051,21 +5097,27 @@
       <c r="BK38" s="17"/>
       <c r="BL38" s="17"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="30"/>
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="40">
+        <v>44550</v>
+      </c>
+      <c r="F39" s="40">
+        <v>44555</v>
+      </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="13" t="str">
+      <c r="H39" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
@@ -5124,17 +5176,17 @@
       <c r="BK39" s="17"/>
       <c r="BL39" s="17"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="20"/>
-      <c r="B40" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="16">
-        <v>0</v>
-      </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="30"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13" t="str">
         <f t="shared" si="5"/>
@@ -5197,14 +5249,12 @@
       <c r="BK40" s="17"/>
       <c r="BL40" s="17"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C41" s="25"/>
       <c r="D41" s="16">
         <v>0</v>
       </c>
@@ -5272,15 +5322,24 @@
       <c r="BK41" s="17"/>
       <c r="BL41" s="17"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="16"/>
+      <c r="B42" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0</v>
+      </c>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="H42" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
@@ -5338,28 +5397,15 @@
       <c r="BK42" s="17"/>
       <c r="BL42" s="17"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
-      <c r="B43" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="16">
-        <v>0</v>
-      </c>
-      <c r="E43" s="34">
-        <v>44613</v>
-      </c>
-      <c r="F43" s="34">
-        <v>44625</v>
-      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="13">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
+      <c r="H43" s="13"/>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
@@ -5417,21 +5463,27 @@
       <c r="BK43" s="17"/>
       <c r="BL43" s="17"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30"/>
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="16">
+        <v>0</v>
+      </c>
+      <c r="E44" s="34">
+        <v>44613</v>
+      </c>
+      <c r="F44" s="34">
+        <v>44625</v>
+      </c>
       <c r="G44" s="13"/>
-      <c r="H44" s="13" t="str">
+      <c r="H44" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
@@ -5490,17 +5542,17 @@
       <c r="BK44" s="17"/>
       <c r="BL44" s="17"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="20"/>
-      <c r="B45" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="16">
-        <v>0</v>
-      </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13" t="str">
         <f t="shared" si="5"/>
@@ -5563,14 +5615,12 @@
       <c r="BK45" s="17"/>
       <c r="BL45" s="17"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C46" s="25"/>
       <c r="D46" s="16">
         <v>0</v>
       </c>
@@ -5638,11 +5688,17 @@
       <c r="BK46" s="17"/>
       <c r="BL46" s="17"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="16"/>
+      <c r="B47" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="16">
+        <v>0</v>
+      </c>
       <c r="E47" s="34"/>
       <c r="F47" s="34"/>
       <c r="G47" s="13"/>
@@ -5707,27 +5763,17 @@
       <c r="BK47" s="17"/>
       <c r="BL47" s="17"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
-      <c r="B48" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="16">
-        <v>0</v>
-      </c>
-      <c r="E48" s="34">
-        <v>44641</v>
-      </c>
-      <c r="F48" s="34">
-        <v>44653</v>
-      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="13">
+      <c r="H48" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
@@ -5786,21 +5832,27 @@
       <c r="BK48" s="17"/>
       <c r="BL48" s="17"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="30"/>
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="16">
+        <v>0</v>
+      </c>
+      <c r="E49" s="34">
+        <v>44641</v>
+      </c>
+      <c r="F49" s="34">
+        <v>44653</v>
+      </c>
       <c r="G49" s="13"/>
-      <c r="H49" s="13" t="str">
+      <c r="H49" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
@@ -5859,17 +5911,17 @@
       <c r="BK49" s="17"/>
       <c r="BL49" s="17"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="20"/>
-      <c r="B50" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="16">
-        <v>0</v>
-      </c>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="30"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13" t="str">
         <f t="shared" si="5"/>
@@ -5932,14 +5984,12 @@
       <c r="BK50" s="17"/>
       <c r="BL50" s="17"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C51" s="25"/>
       <c r="D51" s="16">
         <v>0</v>
       </c>
@@ -6007,11 +6057,17 @@
       <c r="BK51" s="17"/>
       <c r="BL51" s="17"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="16"/>
+      <c r="B52" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0</v>
+      </c>
       <c r="E52" s="34"/>
       <c r="F52" s="34"/>
       <c r="G52" s="13"/>
@@ -6076,27 +6132,17 @@
       <c r="BK52" s="17"/>
       <c r="BL52" s="17"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
-      <c r="B53" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="39">
-        <v>0</v>
-      </c>
-      <c r="E53" s="40">
-        <v>44655</v>
-      </c>
-      <c r="F53" s="40">
-        <v>44667</v>
-      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
       <c r="G53" s="13"/>
-      <c r="H53" s="13">
+      <c r="H53" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
@@ -6155,21 +6201,27 @@
       <c r="BK53" s="17"/>
       <c r="BL53" s="17"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="30"/>
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+      <c r="B54" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="39">
+        <v>0</v>
+      </c>
+      <c r="E54" s="40">
+        <v>44655</v>
+      </c>
+      <c r="F54" s="40">
+        <v>44667</v>
+      </c>
       <c r="G54" s="13"/>
-      <c r="H54" s="13" t="str">
+      <c r="H54" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
@@ -6228,17 +6280,17 @@
       <c r="BK54" s="17"/>
       <c r="BL54" s="17"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="20"/>
-      <c r="B55" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="16">
-        <v>0</v>
-      </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="30"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13" t="str">
         <f t="shared" si="5"/>
@@ -6301,14 +6353,12 @@
       <c r="BK55" s="17"/>
       <c r="BL55" s="17"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C56" s="25"/>
       <c r="D56" s="16">
         <v>0</v>
       </c>
@@ -6376,11 +6426,17 @@
       <c r="BK56" s="17"/>
       <c r="BL56" s="17"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="16"/>
+      <c r="B57" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="16">
+        <v>0</v>
+      </c>
       <c r="E57" s="34"/>
       <c r="F57" s="34"/>
       <c r="G57" s="13"/>
@@ -6445,27 +6501,17 @@
       <c r="BK57" s="17"/>
       <c r="BL57" s="17"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
-      <c r="B58" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="16">
-        <v>0</v>
-      </c>
-      <c r="E58" s="34">
-        <v>44690</v>
-      </c>
-      <c r="F58" s="34">
-        <v>44702</v>
-      </c>
+      <c r="B58" s="27"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="13">
+      <c r="H58" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
@@ -6524,21 +6570,27 @@
       <c r="BK58" s="17"/>
       <c r="BL58" s="17"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="30"/>
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20"/>
+      <c r="B59" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="16">
+        <v>0</v>
+      </c>
+      <c r="E59" s="34">
+        <v>44690</v>
+      </c>
+      <c r="F59" s="34">
+        <v>44702</v>
+      </c>
       <c r="G59" s="13"/>
-      <c r="H59" s="13" t="str">
+      <c r="H59" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
@@ -6597,17 +6649,17 @@
       <c r="BK59" s="17"/>
       <c r="BL59" s="17"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="20"/>
-      <c r="B60" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="16">
-        <v>0</v>
-      </c>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="30"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13" t="str">
         <f t="shared" si="5"/>
@@ -6670,14 +6722,12 @@
       <c r="BK60" s="17"/>
       <c r="BL60" s="17"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C61" s="25"/>
       <c r="D61" s="16">
         <v>0</v>
       </c>
@@ -6745,11 +6795,17 @@
       <c r="BK61" s="17"/>
       <c r="BL61" s="17"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="16"/>
+      <c r="B62" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="16">
+        <v>0</v>
+      </c>
       <c r="E62" s="34"/>
       <c r="F62" s="34"/>
       <c r="G62" s="13"/>
@@ -6814,25 +6870,17 @@
       <c r="BK62" s="17"/>
       <c r="BL62" s="17"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
-      <c r="B63" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="40">
-        <v>44330</v>
-      </c>
-      <c r="F63" s="40">
-        <v>44330</v>
-      </c>
+      <c r="B63" s="27"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="13">
+      <c r="H63" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
@@ -6891,19 +6939,25 @@
       <c r="BK63" s="17"/>
       <c r="BL63" s="17"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="28"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="20"/>
+      <c r="B64" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="39"/>
+      <c r="E64" s="40">
+        <v>44330</v>
+      </c>
+      <c r="F64" s="40">
+        <v>44330</v>
+      </c>
       <c r="G64" s="13"/>
-      <c r="H64" s="13" t="str">
+      <c r="H64" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
@@ -6962,24 +7016,89 @@
       <c r="BK64" s="17"/>
       <c r="BL64" s="17"/>
     </row>
-    <row r="65" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G65" s="6"/>
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="28"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="17"/>
+      <c r="Z65" s="17"/>
+      <c r="AA65" s="17"/>
+      <c r="AB65" s="17"/>
+      <c r="AC65" s="17"/>
+      <c r="AD65" s="17"/>
+      <c r="AE65" s="17"/>
+      <c r="AF65" s="17"/>
+      <c r="AG65" s="17"/>
+      <c r="AH65" s="17"/>
+      <c r="AI65" s="17"/>
+      <c r="AJ65" s="17"/>
+      <c r="AK65" s="17"/>
+      <c r="AL65" s="17"/>
+      <c r="AM65" s="17"/>
+      <c r="AN65" s="17"/>
+      <c r="AO65" s="17"/>
+      <c r="AP65" s="17"/>
+      <c r="AQ65" s="17"/>
+      <c r="AR65" s="17"/>
+      <c r="AS65" s="17"/>
+      <c r="AT65" s="17"/>
+      <c r="AU65" s="17"/>
+      <c r="AV65" s="17"/>
+      <c r="AW65" s="17"/>
+      <c r="AX65" s="17"/>
+      <c r="AY65" s="17"/>
+      <c r="AZ65" s="17"/>
+      <c r="BA65" s="17"/>
+      <c r="BB65" s="17"/>
+      <c r="BC65" s="17"/>
+      <c r="BD65" s="17"/>
+      <c r="BE65" s="17"/>
+      <c r="BF65" s="17"/>
+      <c r="BG65" s="17"/>
+      <c r="BH65" s="17"/>
+      <c r="BI65" s="17"/>
+      <c r="BJ65" s="17"/>
+      <c r="BK65" s="17"/>
+      <c r="BL65" s="17"/>
     </row>
-    <row r="66" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C66" s="10"/>
-      <c r="F66" s="22"/>
+    <row r="66" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C67" s="11"/>
+    <row r="67" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="10"/>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="B2:B4"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="E4:F4"/>
@@ -6987,9 +7106,15 @@
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D23:D28 D52 D64">
-    <cfRule type="dataBar" priority="87">
+  <conditionalFormatting sqref="D23:D28 D53 D65">
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7002,21 +7127,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:BL33 I49:BL52 I64:BL64">
-    <cfRule type="expression" dxfId="35" priority="106">
+  <conditionalFormatting sqref="I6:BL31 I50:BL53 I65:BL65 I33:BL34">
+    <cfRule type="expression" dxfId="38" priority="110">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL33 I49:BL52 I64:BL64">
-    <cfRule type="expression" dxfId="34" priority="100">
+  <conditionalFormatting sqref="I8:BL31 I50:BL53 I65:BL65 I33:BL34">
+    <cfRule type="expression" dxfId="37" priority="104">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="105" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D32">
-    <cfRule type="dataBar" priority="70">
+  <conditionalFormatting sqref="D29:D31 D33">
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7029,8 +7154,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34 D37">
-    <cfRule type="dataBar" priority="66">
+  <conditionalFormatting sqref="D35 D38">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7043,21 +7168,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL37">
-    <cfRule type="expression" dxfId="32" priority="69">
+  <conditionalFormatting sqref="I35:BL38">
+    <cfRule type="expression" dxfId="35" priority="73">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL37">
-    <cfRule type="expression" dxfId="31" priority="67">
+  <conditionalFormatting sqref="I35:BL38">
+    <cfRule type="expression" dxfId="34" priority="71">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="72" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D36">
-    <cfRule type="dataBar" priority="65">
+  <conditionalFormatting sqref="D36:D37">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7070,8 +7195,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="dataBar" priority="64">
+  <conditionalFormatting sqref="D34">
+    <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7084,21 +7209,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="29" priority="63">
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="32" priority="67">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="28" priority="61">
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="31" priority="65">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="66" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="dataBar" priority="57">
+  <conditionalFormatting sqref="D40">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7111,21 +7236,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL42">
-    <cfRule type="expression" dxfId="26" priority="60">
+  <conditionalFormatting sqref="I40:BL43">
+    <cfRule type="expression" dxfId="29" priority="64">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL42">
-    <cfRule type="expression" dxfId="25" priority="58">
+  <conditionalFormatting sqref="I40:BL43">
+    <cfRule type="expression" dxfId="28" priority="62">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="63" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D42">
-    <cfRule type="dataBar" priority="56">
+  <conditionalFormatting sqref="D41:D43">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7138,8 +7263,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="dataBar" priority="55">
+  <conditionalFormatting sqref="D39">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7152,21 +7277,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="23" priority="54">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="26" priority="58">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="22" priority="52">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="25" priority="56">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="57" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44 D47">
-    <cfRule type="dataBar" priority="48">
+  <conditionalFormatting sqref="D45 D48">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7179,21 +7304,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL47">
-    <cfRule type="expression" dxfId="20" priority="51">
+  <conditionalFormatting sqref="I45:BL48">
+    <cfRule type="expression" dxfId="23" priority="55">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL47">
-    <cfRule type="expression" dxfId="19" priority="49">
+  <conditionalFormatting sqref="I45:BL48">
+    <cfRule type="expression" dxfId="22" priority="53">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="54" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D46">
-    <cfRule type="dataBar" priority="47">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7206,8 +7331,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="dataBar" priority="46">
+  <conditionalFormatting sqref="D44">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7220,21 +7345,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="17" priority="45">
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="20" priority="49">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="16" priority="43">
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="19" priority="47">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="48" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="dataBar" priority="39">
+  <conditionalFormatting sqref="D50">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7247,8 +7372,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50:D51">
-    <cfRule type="dataBar" priority="38">
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7261,8 +7386,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="dataBar" priority="37">
+  <conditionalFormatting sqref="D49">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7276,7 +7401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D21">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7290,7 +7415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7304,7 +7429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D15">
-    <cfRule type="dataBar" priority="34">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7318,7 +7443,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D11">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7332,7 +7457,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7346,7 +7471,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7359,8 +7484,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="dataBar" priority="27">
+  <conditionalFormatting sqref="D58">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7373,12 +7498,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL57">
+  <conditionalFormatting sqref="I55:BL58">
+    <cfRule type="expression" dxfId="17" priority="34">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:BL58">
+    <cfRule type="expression" dxfId="16" priority="32">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="33" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:BL54">
     <cfRule type="expression" dxfId="14" priority="30">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL57">
+  <conditionalFormatting sqref="I54:BL54">
     <cfRule type="expression" dxfId="13" priority="28">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -7386,21 +7524,8 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="11" priority="26">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="10" priority="24">
-      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="25" stopIfTrue="1">
-      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="dataBar" priority="23">
+  <conditionalFormatting sqref="D55">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7413,8 +7538,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D56">
-    <cfRule type="dataBar" priority="22">
+  <conditionalFormatting sqref="D56:D57">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7427,8 +7552,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="D54">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7441,8 +7566,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="D63">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7455,12 +7580,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL62">
+  <conditionalFormatting sqref="I60:BL63">
+    <cfRule type="expression" dxfId="11" priority="24">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60:BL63">
+    <cfRule type="expression" dxfId="10" priority="22">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59:BL59">
     <cfRule type="expression" dxfId="8" priority="20">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL62">
+  <conditionalFormatting sqref="I59:BL59">
     <cfRule type="expression" dxfId="7" priority="18">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -7468,21 +7606,8 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="5" priority="16">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="4" priority="14">
-      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
-      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="D60">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7495,8 +7620,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60:D61">
-    <cfRule type="dataBar" priority="12">
+  <conditionalFormatting sqref="D61:D62">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7509,8 +7634,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="dataBar" priority="11">
+  <conditionalFormatting sqref="D59">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7523,20 +7648,47 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL63">
-    <cfRule type="expression" dxfId="2" priority="6">
+  <conditionalFormatting sqref="I64:BL64">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL63">
-    <cfRule type="expression" dxfId="1" priority="4">
+  <conditionalFormatting sqref="I64:BL64">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{627E5414-EFBD-2C42-A412-3BA81AF60A4A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:BL32">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:BL32">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7545,7 +7697,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{627E5414-EFBD-2C42-A412-3BA81AF60A4A}</x14:id>
+          <x14:id>{2F5C4985-1683-EE42-9D0D-BAF43CD41741}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7577,7 +7729,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D23:D28 D52 D64</xm:sqref>
+          <xm:sqref>D23:D28 D53 D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C6CDA553-F00B-9040-AE03-37F25434701D}">
@@ -7592,7 +7744,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29:D32</xm:sqref>
+          <xm:sqref>D29:D31 D33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EA2270A7-BB26-9A40-B9F1-5C26EEBB949D}">
@@ -7607,7 +7759,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D34 D37</xm:sqref>
+          <xm:sqref>D35 D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E4EE069E-C472-0944-A911-E48D9F42339F}">
@@ -7622,7 +7774,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35:D36</xm:sqref>
+          <xm:sqref>D36:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C8FF7762-F345-FF40-A144-7AE3B89EFCF2}">
@@ -7637,7 +7789,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33</xm:sqref>
+          <xm:sqref>D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{701C6075-BBFA-2041-BF31-AB7671F8D645}">
@@ -7652,7 +7804,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D39</xm:sqref>
+          <xm:sqref>D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{10E76EB4-A5D9-8B42-B2BB-1EBDB5A5BA3B}">
@@ -7667,7 +7819,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D40:D42</xm:sqref>
+          <xm:sqref>D41:D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4846BB50-9C38-B546-942F-3725EC660D66}">
@@ -7682,7 +7834,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38</xm:sqref>
+          <xm:sqref>D39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AB17F493-D7F0-324C-9ACF-0E3094A618A9}">
@@ -7697,7 +7849,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D44 D47</xm:sqref>
+          <xm:sqref>D45 D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BAFA23E1-0287-9548-9649-D32F5548852F}">
@@ -7712,7 +7864,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D45:D46</xm:sqref>
+          <xm:sqref>D46:D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{896E2E65-6068-2F47-9A75-C55D7249861B}">
@@ -7727,7 +7879,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D43</xm:sqref>
+          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C6A06403-670F-534E-8F21-DC42DB09F967}">
@@ -7742,7 +7894,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D49</xm:sqref>
+          <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49BCE480-64E7-FB45-BE4B-CA0DD84C9037}">
@@ -7757,7 +7909,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D50:D51</xm:sqref>
+          <xm:sqref>D51:D52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9B8BE527-1549-6A4B-AC6C-9418AA24E56A}">
@@ -7772,7 +7924,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D48</xm:sqref>
+          <xm:sqref>D49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BA965817-9865-AA4D-8FEB-DBA7CEB1546C}">
@@ -7877,7 +8029,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D57</xm:sqref>
+          <xm:sqref>D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{75140910-7661-7F4D-A3E6-D6286731FED3}">
@@ -7892,7 +8044,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D54</xm:sqref>
+          <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49707186-E25F-794E-9B85-F885402851F1}">
@@ -7907,7 +8059,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D55:D56</xm:sqref>
+          <xm:sqref>D56:D57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{165531A5-C2ED-9546-B5E7-C4386BF336F6}">
@@ -7922,7 +8074,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D53</xm:sqref>
+          <xm:sqref>D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{01BC5A8C-D1ED-3D4E-A06C-49C16745AE5B}">
@@ -7937,7 +8089,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D62</xm:sqref>
+          <xm:sqref>D63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A7115771-2ACC-D648-98B3-635DA27D5FB4}">
@@ -7952,7 +8104,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D59</xm:sqref>
+          <xm:sqref>D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09550F3A-3C2A-D040-9039-DDFAE031CDCD}">
@@ -7967,7 +8119,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D60:D61</xm:sqref>
+          <xm:sqref>D61:D62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC05D890-89A5-074B-8AD8-FC3A9C9788E8}">
@@ -7982,7 +8134,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D58</xm:sqref>
+          <xm:sqref>D59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{627E5414-EFBD-2C42-A412-3BA81AF60A4A}">
@@ -7997,7 +8149,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D63</xm:sqref>
+          <xm:sqref>D64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2F5C4985-1683-EE42-9D0D-BAF43CD41741}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F0A0C-3425-EB45-BD46-6AA3220B1523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06EB8E8-364B-4641-9A96-15C66B61AC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="11" r:id="rId1"/>
@@ -278,37 +278,37 @@
     <t>Phase : A0 (Réunion 1) - Sprint 1</t>
   </si>
   <si>
-    <t>Phase : A1 (Réunion 2) - Sprint 2</t>
-  </si>
-  <si>
-    <t>Phase : A2 (Réunion 3) - Sprint 3</t>
-  </si>
-  <si>
-    <t>Phase : Point de contrôle (A2.1) (Réunion 4) - Sprint 4</t>
-  </si>
-  <si>
-    <t>Phase : A3 (Réunion 5) - Sprint 5</t>
-  </si>
-  <si>
-    <t>Phase : Point de contrôle (A3.1) (Réunion 1) - Sprint 6</t>
-  </si>
-  <si>
-    <t>Phase : Point de contrôle (A3.2) (Réunion 2) - Sprint 7</t>
-  </si>
-  <si>
-    <t>Phase : A4 (Réunion 3) - Sprint 8</t>
-  </si>
-  <si>
-    <t>Phase : A5 (Réunion 4) - Sprint 9</t>
-  </si>
-  <si>
-    <t>Phase : Finale - Sprint 10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mise en place du login </t>
   </si>
   <si>
     <t>Démarrage de la base de donnée</t>
+  </si>
+  <si>
+    <t>Phase : A1 (Réunion 2) - Sprint 1</t>
+  </si>
+  <si>
+    <t>Phase : A2 (Réunion 3) - Sprint 2</t>
+  </si>
+  <si>
+    <t>Phase : Point de contrôle (A2.1) (Réunion 4) - Sprint 2</t>
+  </si>
+  <si>
+    <t>Phase : A3 (Réunion 5) - Sprint 3</t>
+  </si>
+  <si>
+    <t>Phase : Point de contrôle (A3.1) (Réunion 1) - Sprint 3</t>
+  </si>
+  <si>
+    <t>Phase : Point de contrôle (A3.2) (Réunion 2) - Sprint 3</t>
+  </si>
+  <si>
+    <t>Phase : A4 (Réunion 3) - Sprint 4</t>
+  </si>
+  <si>
+    <t>Phase : A5 (Réunion 4) - Sprint 5</t>
+  </si>
+  <si>
+    <t>Phase : Finale - Sprint 5</t>
   </si>
 </sst>
 </file>
@@ -1126,13 +1126,6 @@
     <xf numFmtId="168" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1142,11 +1135,18 @@
     <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2061,26 +2061,26 @@
   </sheetPr>
   <dimension ref="A1:BL68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="78" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="49" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="48.1796875" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="2.5" customWidth="1"/>
-    <col min="8" max="8" width="9.5" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5" customWidth="1"/>
-    <col min="69" max="70" width="10.5"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="2.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.453125" customWidth="1"/>
+    <col min="69" max="70" width="10.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2094,9 +2094,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="21"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1"/>
@@ -2106,9 +2106,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="21"/>
-      <c r="B3" s="47"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2116,122 +2116,122 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="48">
+      <c r="D4" s="46"/>
+      <c r="E4" s="44">
         <v>44459</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="44"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="36">
         <v>2</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="41">
         <f>I6</f>
         <v>44466</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="44">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="41">
         <f>P6</f>
         <v>44473</v>
       </c>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="44">
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="41">
         <f>W6</f>
         <v>44480</v>
       </c>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="44">
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="41">
         <f>AD6</f>
         <v>44487</v>
       </c>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="44">
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="41">
         <f>AK6</f>
         <v>44494</v>
       </c>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="44">
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="41">
         <f>AR6</f>
         <v>44501</v>
       </c>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="44">
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="41">
         <f>AY6</f>
         <v>44508</v>
       </c>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="44">
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="41">
         <f>BF6</f>
         <v>44515</v>
       </c>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="46"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="43"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="I6" s="31">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44466</v>
@@ -2457,7 +2457,7 @@
         <v>44521</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="BK8" s="17"/>
       <c r="BL8" s="17"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
@@ -2859,7 +2859,7 @@
       <c r="BK9" s="17"/>
       <c r="BL9" s="17"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
@@ -2940,7 +2940,7 @@
       <c r="BK10" s="17"/>
       <c r="BL10" s="17"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20"/>
       <c r="B11" s="27" t="s">
         <v>25</v>
@@ -3019,7 +3019,7 @@
       <c r="BK11" s="17"/>
       <c r="BL11" s="17"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="21" t="s">
         <v>8</v>
       </c>
@@ -3092,7 +3092,7 @@
       <c r="BK12" s="17"/>
       <c r="BL12" s="17"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="21"/>
       <c r="B13" s="27" t="s">
         <v>20</v>
@@ -3171,7 +3171,7 @@
       <c r="BK13" s="17"/>
       <c r="BL13" s="17"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20"/>
       <c r="B14" s="27" t="s">
         <v>26</v>
@@ -3251,7 +3251,7 @@
       <c r="BK14" s="17"/>
       <c r="BL14" s="17"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="20"/>
       <c r="B15" s="27" t="s">
         <v>22</v>
@@ -3330,12 +3330,12 @@
       <c r="BK15" s="17"/>
       <c r="BL15" s="17"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="15"/>
@@ -3403,7 +3403,7 @@
       <c r="BK16" s="17"/>
       <c r="BL16" s="17"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20"/>
       <c r="B17" s="27" t="s">
         <v>27</v>
@@ -3482,7 +3482,7 @@
       <c r="BK17" s="17"/>
       <c r="BL17" s="17"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="20"/>
       <c r="B18" s="27" t="s">
         <v>28</v>
@@ -3561,7 +3561,7 @@
       <c r="BK18" s="17"/>
       <c r="BL18" s="17"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20"/>
       <c r="B19" s="27" t="s">
         <v>29</v>
@@ -3640,7 +3640,7 @@
       <c r="BK19" s="17"/>
       <c r="BL19" s="17"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="20"/>
       <c r="B20" s="27" t="s">
         <v>32</v>
@@ -3719,7 +3719,7 @@
       <c r="BK20" s="17"/>
       <c r="BL20" s="17"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20"/>
       <c r="B21" s="27" t="s">
         <v>38</v>
@@ -3798,7 +3798,7 @@
       <c r="BK21" s="17"/>
       <c r="BL21" s="17"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="20"/>
       <c r="B22" s="27" t="s">
         <v>30</v>
@@ -3877,12 +3877,12 @@
       <c r="BK22" s="17"/>
       <c r="BL22" s="17"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="15"/>
@@ -3950,7 +3950,7 @@
       <c r="BK23" s="17"/>
       <c r="BL23" s="17"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="20"/>
       <c r="B24" s="27" t="s">
         <v>31</v>
@@ -4029,7 +4029,7 @@
       <c r="BK24" s="17"/>
       <c r="BL24" s="17"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20"/>
       <c r="B25" s="27" t="s">
         <v>41</v>
@@ -4108,7 +4108,7 @@
       <c r="BK25" s="17"/>
       <c r="BL25" s="17"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20"/>
       <c r="B26" s="27" t="s">
         <v>42</v>
@@ -4187,7 +4187,7 @@
       <c r="BK26" s="17"/>
       <c r="BL26" s="17"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20"/>
       <c r="B27" s="27" t="s">
         <v>43</v>
@@ -4266,7 +4266,7 @@
       <c r="BK27" s="17"/>
       <c r="BL27" s="17"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20"/>
       <c r="B28" s="37" t="s">
         <v>44</v>
@@ -4345,12 +4345,12 @@
       <c r="BK28" s="17"/>
       <c r="BL28" s="17"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="15"/>
@@ -4418,7 +4418,7 @@
       <c r="BK29" s="17"/>
       <c r="BL29" s="17"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="20"/>
       <c r="B30" s="27" t="s">
         <v>45</v>
@@ -4495,7 +4495,7 @@
       <c r="BK30" s="17"/>
       <c r="BL30" s="17"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20"/>
       <c r="B31" s="27" t="s">
         <v>46</v>
@@ -4570,10 +4570,10 @@
       <c r="BK31" s="17"/>
       <c r="BL31" s="17"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20"/>
       <c r="B32" s="27" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>33</v>
@@ -4649,10 +4649,10 @@
       <c r="BK32" s="17"/>
       <c r="BL32" s="17"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20"/>
       <c r="B33" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>33</v>
@@ -4728,7 +4728,7 @@
       <c r="BK33" s="17"/>
       <c r="BL33" s="17"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="20"/>
       <c r="B34" s="27" t="s">
         <v>53</v>
@@ -4807,12 +4807,12 @@
       <c r="BK34" s="17"/>
       <c r="BL34" s="17"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="15"/>
@@ -4880,7 +4880,7 @@
       <c r="BK35" s="17"/>
       <c r="BL35" s="17"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20"/>
       <c r="B36" s="27" t="s">
         <v>54</v>
@@ -4953,7 +4953,7 @@
       <c r="BK36" s="17"/>
       <c r="BL36" s="17"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20"/>
       <c r="B37" s="27" t="s">
         <v>55</v>
@@ -5028,7 +5028,7 @@
       <c r="BK37" s="17"/>
       <c r="BL37" s="17"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="20"/>
       <c r="B38" s="27"/>
       <c r="C38" s="25"/>
@@ -5097,7 +5097,7 @@
       <c r="BK38" s="17"/>
       <c r="BL38" s="17"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="20"/>
       <c r="B39" s="37" t="s">
         <v>47</v>
@@ -5176,12 +5176,12 @@
       <c r="BK39" s="17"/>
       <c r="BL39" s="17"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="15"/>
@@ -5249,7 +5249,7 @@
       <c r="BK40" s="17"/>
       <c r="BL40" s="17"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="20"/>
       <c r="B41" s="27" t="s">
         <v>48</v>
@@ -5322,7 +5322,7 @@
       <c r="BK41" s="17"/>
       <c r="BL41" s="17"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="20"/>
       <c r="B42" s="27" t="s">
         <v>49</v>
@@ -5397,7 +5397,7 @@
       <c r="BK42" s="17"/>
       <c r="BL42" s="17"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="20"/>
       <c r="B43" s="27"/>
       <c r="C43" s="25"/>
@@ -5463,7 +5463,7 @@
       <c r="BK43" s="17"/>
       <c r="BL43" s="17"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="20"/>
       <c r="B44" s="27" t="s">
         <v>50</v>
@@ -5542,12 +5542,12 @@
       <c r="BK44" s="17"/>
       <c r="BL44" s="17"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="15"/>
@@ -5615,7 +5615,7 @@
       <c r="BK45" s="17"/>
       <c r="BL45" s="17"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20"/>
       <c r="B46" s="27" t="s">
         <v>51</v>
@@ -5688,7 +5688,7 @@
       <c r="BK46" s="17"/>
       <c r="BL46" s="17"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="20"/>
       <c r="B47" s="27" t="s">
         <v>52</v>
@@ -5763,7 +5763,7 @@
       <c r="BK47" s="17"/>
       <c r="BL47" s="17"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="20"/>
       <c r="B48" s="27"/>
       <c r="C48" s="25"/>
@@ -5832,7 +5832,7 @@
       <c r="BK48" s="17"/>
       <c r="BL48" s="17"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="20"/>
       <c r="B49" s="27" t="s">
         <v>56</v>
@@ -5911,12 +5911,12 @@
       <c r="BK49" s="17"/>
       <c r="BL49" s="17"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="15"/>
@@ -5984,7 +5984,7 @@
       <c r="BK50" s="17"/>
       <c r="BL50" s="17"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="20"/>
       <c r="B51" s="27" t="s">
         <v>57</v>
@@ -6057,7 +6057,7 @@
       <c r="BK51" s="17"/>
       <c r="BL51" s="17"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20"/>
       <c r="B52" s="27" t="s">
         <v>58</v>
@@ -6132,7 +6132,7 @@
       <c r="BK52" s="17"/>
       <c r="BL52" s="17"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="20"/>
       <c r="B53" s="27"/>
       <c r="C53" s="25"/>
@@ -6201,7 +6201,7 @@
       <c r="BK53" s="17"/>
       <c r="BL53" s="17"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="20"/>
       <c r="B54" s="37" t="s">
         <v>59</v>
@@ -6280,12 +6280,12 @@
       <c r="BK54" s="17"/>
       <c r="BL54" s="17"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C55" s="24"/>
       <c r="D55" s="15"/>
@@ -6353,7 +6353,7 @@
       <c r="BK55" s="17"/>
       <c r="BL55" s="17"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="20"/>
       <c r="B56" s="27" t="s">
         <v>60</v>
@@ -6426,7 +6426,7 @@
       <c r="BK56" s="17"/>
       <c r="BL56" s="17"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="20"/>
       <c r="B57" s="27" t="s">
         <v>61</v>
@@ -6501,7 +6501,7 @@
       <c r="BK57" s="17"/>
       <c r="BL57" s="17"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="20"/>
       <c r="B58" s="27"/>
       <c r="C58" s="25"/>
@@ -6570,7 +6570,7 @@
       <c r="BK58" s="17"/>
       <c r="BL58" s="17"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="20"/>
       <c r="B59" s="27" t="s">
         <v>64</v>
@@ -6649,12 +6649,12 @@
       <c r="BK59" s="17"/>
       <c r="BL59" s="17"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="15"/>
@@ -6722,7 +6722,7 @@
       <c r="BK60" s="17"/>
       <c r="BL60" s="17"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="20"/>
       <c r="B61" s="27" t="s">
         <v>63</v>
@@ -6795,7 +6795,7 @@
       <c r="BK61" s="17"/>
       <c r="BL61" s="17"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="20"/>
       <c r="B62" s="27" t="s">
         <v>62</v>
@@ -6870,7 +6870,7 @@
       <c r="BK62" s="17"/>
       <c r="BL62" s="17"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="20"/>
       <c r="B63" s="27"/>
       <c r="C63" s="25"/>
@@ -6939,7 +6939,7 @@
       <c r="BK63" s="17"/>
       <c r="BL63" s="17"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="20"/>
       <c r="B64" s="37" t="s">
         <v>65</v>
@@ -7016,7 +7016,7 @@
       <c r="BK64" s="17"/>
       <c r="BL64" s="17"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="20" t="s">
         <v>10</v>
       </c>
@@ -7087,18 +7087,24 @@
       <c r="BK65" s="17"/>
       <c r="BL65" s="17"/>
     </row>
-    <row r="66" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C67" s="10"/>
       <c r="F67" s="22"/>
     </row>
-    <row r="68" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C68" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="E4:F4"/>
@@ -7106,12 +7112,6 @@
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:D28 D53 D65">
     <cfRule type="dataBar" priority="91">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06EB8E8-364B-4641-9A96-15C66B61AC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B90E64-38CC-C441-B70C-6290F2BC56F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -281,9 +281,6 @@
     <t xml:space="preserve">Mise en place du login </t>
   </si>
   <si>
-    <t>Démarrage de la base de donnée</t>
-  </si>
-  <si>
     <t>Phase : A1 (Réunion 2) - Sprint 1</t>
   </si>
   <si>
@@ -309,6 +306,12 @@
   </si>
   <si>
     <t>Phase : Finale - Sprint 5</t>
+  </si>
+  <si>
+    <t>Document qualité</t>
+  </si>
+  <si>
+    <t>Recherche sur la sécurité</t>
   </si>
 </sst>
 </file>
@@ -1126,6 +1129,13 @@
     <xf numFmtId="168" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1135,18 +1145,11 @@
     <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1205,7 +1208,37 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="51">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1692,15 +1725,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="47"/>
-      <tableStyleElement type="headerRow" dxfId="46"/>
-      <tableStyleElement type="totalRow" dxfId="45"/>
-      <tableStyleElement type="firstColumn" dxfId="44"/>
-      <tableStyleElement type="lastColumn" dxfId="43"/>
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
-      <tableStyleElement type="secondRowStripe" dxfId="41"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="40"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
+      <tableStyleElement type="wholeTable" dxfId="50"/>
+      <tableStyleElement type="headerRow" dxfId="49"/>
+      <tableStyleElement type="totalRow" dxfId="48"/>
+      <tableStyleElement type="firstColumn" dxfId="47"/>
+      <tableStyleElement type="lastColumn" dxfId="46"/>
+      <tableStyleElement type="firstRowStripe" dxfId="45"/>
+      <tableStyleElement type="secondRowStripe" dxfId="44"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="43"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="42"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2059,28 +2092,28 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL68"/>
+  <dimension ref="A1:BL69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="49" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="106" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="48.1796875" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="20" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="2.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.453125" customWidth="1"/>
-    <col min="69" max="70" width="10.453125"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="9.5" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5" customWidth="1"/>
+    <col min="69" max="70" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2094,9 +2127,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1"/>
@@ -2106,9 +2139,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="48"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2116,122 +2149,122 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="44">
+      <c r="D4" s="42"/>
+      <c r="E4" s="48">
         <v>44459</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="48"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="36">
         <v>2</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="44">
         <f>I6</f>
         <v>44466</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="41">
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="44">
         <f>P6</f>
         <v>44473</v>
       </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="41">
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="44">
         <f>W6</f>
         <v>44480</v>
       </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="41">
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="44">
         <f>AD6</f>
         <v>44487</v>
       </c>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="41">
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="44">
         <f>AK6</f>
         <v>44494</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="41">
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="44">
         <f>AR6</f>
         <v>44501</v>
       </c>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="41">
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="44">
         <f>AY6</f>
         <v>44508</v>
       </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="41">
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="44">
         <f>BF6</f>
         <v>44515</v>
       </c>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="43"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="46"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
       <c r="I6" s="31">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44466</v>
@@ -2457,7 +2490,7 @@
         <v>44521</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
@@ -2705,7 +2738,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
@@ -2718,7 +2751,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H65" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H66" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="17"/>
@@ -2778,7 +2811,7 @@
       <c r="BK8" s="17"/>
       <c r="BL8" s="17"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
@@ -2859,7 +2892,7 @@
       <c r="BK9" s="17"/>
       <c r="BL9" s="17"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
@@ -2940,7 +2973,7 @@
       <c r="BK10" s="17"/>
       <c r="BL10" s="17"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="27" t="s">
         <v>25</v>
@@ -3019,7 +3052,7 @@
       <c r="BK11" s="17"/>
       <c r="BL11" s="17"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>8</v>
       </c>
@@ -3092,7 +3125,7 @@
       <c r="BK12" s="17"/>
       <c r="BL12" s="17"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="27" t="s">
         <v>20</v>
@@ -3171,7 +3204,7 @@
       <c r="BK13" s="17"/>
       <c r="BL13" s="17"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="27" t="s">
         <v>26</v>
@@ -3251,7 +3284,7 @@
       <c r="BK14" s="17"/>
       <c r="BL14" s="17"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="27" t="s">
         <v>22</v>
@@ -3330,12 +3363,12 @@
       <c r="BK15" s="17"/>
       <c r="BL15" s="17"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="15"/>
@@ -3403,7 +3436,7 @@
       <c r="BK16" s="17"/>
       <c r="BL16" s="17"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="27" t="s">
         <v>27</v>
@@ -3482,7 +3515,7 @@
       <c r="BK17" s="17"/>
       <c r="BL17" s="17"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="27" t="s">
         <v>28</v>
@@ -3561,7 +3594,7 @@
       <c r="BK18" s="17"/>
       <c r="BL18" s="17"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="27" t="s">
         <v>29</v>
@@ -3640,7 +3673,7 @@
       <c r="BK19" s="17"/>
       <c r="BL19" s="17"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="27" t="s">
         <v>32</v>
@@ -3719,7 +3752,7 @@
       <c r="BK20" s="17"/>
       <c r="BL20" s="17"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="27" t="s">
         <v>38</v>
@@ -3798,7 +3831,7 @@
       <c r="BK21" s="17"/>
       <c r="BL21" s="17"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="27" t="s">
         <v>30</v>
@@ -3877,12 +3910,12 @@
       <c r="BK22" s="17"/>
       <c r="BL22" s="17"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="15"/>
@@ -3950,7 +3983,7 @@
       <c r="BK23" s="17"/>
       <c r="BL23" s="17"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="27" t="s">
         <v>31</v>
@@ -4029,7 +4062,7 @@
       <c r="BK24" s="17"/>
       <c r="BL24" s="17"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="27" t="s">
         <v>41</v>
@@ -4038,7 +4071,7 @@
         <v>33</v>
       </c>
       <c r="D25" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="34">
         <v>44489</v>
@@ -4108,7 +4141,7 @@
       <c r="BK25" s="17"/>
       <c r="BL25" s="17"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="27" t="s">
         <v>42</v>
@@ -4117,7 +4150,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E26" s="34">
         <v>44489</v>
@@ -4187,7 +4220,7 @@
       <c r="BK26" s="17"/>
       <c r="BL26" s="17"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="27" t="s">
         <v>43</v>
@@ -4196,7 +4229,7 @@
         <v>39</v>
       </c>
       <c r="D27" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E27" s="34">
         <v>44489</v>
@@ -4266,7 +4299,7 @@
       <c r="BK27" s="17"/>
       <c r="BL27" s="17"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="37" t="s">
         <v>44</v>
@@ -4275,7 +4308,7 @@
         <v>33</v>
       </c>
       <c r="D28" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="40">
         <v>44505</v>
@@ -4345,12 +4378,12 @@
       <c r="BK28" s="17"/>
       <c r="BL28" s="17"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="15"/>
@@ -4418,14 +4451,14 @@
       <c r="BK29" s="17"/>
       <c r="BL29" s="17"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="34">
         <v>44505</v>
@@ -4495,7 +4528,7 @@
       <c r="BK30" s="17"/>
       <c r="BL30" s="17"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="27" t="s">
         <v>46</v>
@@ -4504,14 +4537,18 @@
         <v>33</v>
       </c>
       <c r="D31" s="16">
-        <v>0</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="34">
+        <v>44505</v>
+      </c>
+      <c r="F31" s="34">
+        <v>44508</v>
+      </c>
       <c r="G31" s="13"/>
-      <c r="H31" s="13" t="str">
+      <c r="H31" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
@@ -4570,16 +4607,16 @@
       <c r="BK31" s="17"/>
       <c r="BL31" s="17"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D32" s="16">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E32" s="34">
         <v>44508</v>
@@ -4649,19 +4686,19 @@
       <c r="BK32" s="17"/>
       <c r="BL32" s="17"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D33" s="16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E33" s="34">
-        <v>44508</v>
+        <v>44515</v>
       </c>
       <c r="F33" s="34">
         <v>44521</v>
@@ -4669,7 +4706,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
@@ -4728,27 +4765,27 @@
       <c r="BK33" s="17"/>
       <c r="BL33" s="17"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="27" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D34" s="16">
         <v>0</v>
       </c>
       <c r="E34" s="34">
-        <v>44522</v>
+        <v>44515</v>
       </c>
       <c r="F34" s="34">
-        <v>44534</v>
+        <v>44521</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
@@ -4807,21 +4844,27 @@
       <c r="BK34" s="17"/>
       <c r="BL34" s="17"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="34">
+        <v>44526</v>
+      </c>
+      <c r="F35" s="34">
+        <v>44526</v>
+      </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="13" t="str">
+      <c r="H35" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
@@ -4880,17 +4923,17 @@
       <c r="BK35" s="17"/>
       <c r="BL35" s="17"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="20"/>
-      <c r="B36" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="16">
-        <v>0</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13" t="str">
         <f t="shared" si="5"/>
@@ -4953,14 +4996,12 @@
       <c r="BK36" s="17"/>
       <c r="BL36" s="17"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C37" s="25"/>
       <c r="D37" s="16">
         <v>0</v>
       </c>
@@ -5028,11 +5069,17 @@
       <c r="BK37" s="17"/>
       <c r="BL37" s="17"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="16"/>
+      <c r="B38" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0</v>
+      </c>
       <c r="E38" s="34"/>
       <c r="F38" s="34"/>
       <c r="G38" s="13"/>
@@ -5097,27 +5144,17 @@
       <c r="BK38" s="17"/>
       <c r="BL38" s="17"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
-      <c r="B39" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="39">
-        <v>0</v>
-      </c>
-      <c r="E39" s="40">
-        <v>44550</v>
-      </c>
-      <c r="F39" s="40">
-        <v>44555</v>
-      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="13">
+      <c r="H39" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
@@ -5176,21 +5213,27 @@
       <c r="BK39" s="17"/>
       <c r="BL39" s="17"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30"/>
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="39">
+        <v>0</v>
+      </c>
+      <c r="E40" s="40">
+        <v>44550</v>
+      </c>
+      <c r="F40" s="40">
+        <v>44555</v>
+      </c>
       <c r="G40" s="13"/>
-      <c r="H40" s="13" t="str">
+      <c r="H40" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
@@ -5249,17 +5292,17 @@
       <c r="BK40" s="17"/>
       <c r="BL40" s="17"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="20"/>
-      <c r="B41" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="16">
-        <v>0</v>
-      </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="30"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13" t="str">
         <f t="shared" si="5"/>
@@ -5322,14 +5365,12 @@
       <c r="BK41" s="17"/>
       <c r="BL41" s="17"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C42" s="25"/>
       <c r="D42" s="16">
         <v>0</v>
       </c>
@@ -5397,15 +5438,24 @@
       <c r="BK42" s="17"/>
       <c r="BL42" s="17"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="16"/>
+      <c r="B43" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="16">
+        <v>0</v>
+      </c>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="H43" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
@@ -5463,28 +5513,15 @@
       <c r="BK43" s="17"/>
       <c r="BL43" s="17"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
-      <c r="B44" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="16">
-        <v>0</v>
-      </c>
-      <c r="E44" s="34">
-        <v>44613</v>
-      </c>
-      <c r="F44" s="34">
-        <v>44625</v>
-      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="13">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
+      <c r="H44" s="13"/>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
@@ -5542,21 +5579,27 @@
       <c r="BK44" s="17"/>
       <c r="BL44" s="17"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30"/>
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="16">
+        <v>0</v>
+      </c>
+      <c r="E45" s="34">
+        <v>44613</v>
+      </c>
+      <c r="F45" s="34">
+        <v>44625</v>
+      </c>
       <c r="G45" s="13"/>
-      <c r="H45" s="13" t="str">
+      <c r="H45" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
@@ -5615,17 +5658,17 @@
       <c r="BK45" s="17"/>
       <c r="BL45" s="17"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="20"/>
-      <c r="B46" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="16">
-        <v>0</v>
-      </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="30"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13" t="str">
         <f t="shared" si="5"/>
@@ -5688,14 +5731,12 @@
       <c r="BK46" s="17"/>
       <c r="BL46" s="17"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C47" s="25"/>
       <c r="D47" s="16">
         <v>0</v>
       </c>
@@ -5763,11 +5804,17 @@
       <c r="BK47" s="17"/>
       <c r="BL47" s="17"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="16"/>
+      <c r="B48" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0</v>
+      </c>
       <c r="E48" s="34"/>
       <c r="F48" s="34"/>
       <c r="G48" s="13"/>
@@ -5832,27 +5879,17 @@
       <c r="BK48" s="17"/>
       <c r="BL48" s="17"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
-      <c r="B49" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="16">
-        <v>0</v>
-      </c>
-      <c r="E49" s="34">
-        <v>44641</v>
-      </c>
-      <c r="F49" s="34">
-        <v>44653</v>
-      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="13">
+      <c r="H49" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
@@ -5911,21 +5948,27 @@
       <c r="BK49" s="17"/>
       <c r="BL49" s="17"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="30"/>
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+      <c r="B50" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0</v>
+      </c>
+      <c r="E50" s="34">
+        <v>44641</v>
+      </c>
+      <c r="F50" s="34">
+        <v>44653</v>
+      </c>
       <c r="G50" s="13"/>
-      <c r="H50" s="13" t="str">
+      <c r="H50" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
@@ -5984,17 +6027,17 @@
       <c r="BK50" s="17"/>
       <c r="BL50" s="17"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="20"/>
-      <c r="B51" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="16">
-        <v>0</v>
-      </c>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="30"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13" t="str">
         <f t="shared" si="5"/>
@@ -6057,14 +6100,12 @@
       <c r="BK51" s="17"/>
       <c r="BL51" s="17"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C52" s="25"/>
       <c r="D52" s="16">
         <v>0</v>
       </c>
@@ -6132,11 +6173,17 @@
       <c r="BK52" s="17"/>
       <c r="BL52" s="17"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="16"/>
+      <c r="B53" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="16">
+        <v>0</v>
+      </c>
       <c r="E53" s="34"/>
       <c r="F53" s="34"/>
       <c r="G53" s="13"/>
@@ -6201,27 +6248,17 @@
       <c r="BK53" s="17"/>
       <c r="BL53" s="17"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
-      <c r="B54" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="39">
-        <v>0</v>
-      </c>
-      <c r="E54" s="40">
-        <v>44655</v>
-      </c>
-      <c r="F54" s="40">
-        <v>44667</v>
-      </c>
+      <c r="B54" s="27"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="13">
+      <c r="H54" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
@@ -6280,21 +6317,27 @@
       <c r="BK54" s="17"/>
       <c r="BL54" s="17"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="30"/>
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+      <c r="B55" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="39">
+        <v>0</v>
+      </c>
+      <c r="E55" s="40">
+        <v>44655</v>
+      </c>
+      <c r="F55" s="40">
+        <v>44667</v>
+      </c>
       <c r="G55" s="13"/>
-      <c r="H55" s="13" t="str">
+      <c r="H55" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
@@ -6353,17 +6396,17 @@
       <c r="BK55" s="17"/>
       <c r="BL55" s="17"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="20"/>
-      <c r="B56" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="16">
-        <v>0</v>
-      </c>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13" t="str">
         <f t="shared" si="5"/>
@@ -6426,14 +6469,12 @@
       <c r="BK56" s="17"/>
       <c r="BL56" s="17"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C57" s="25"/>
       <c r="D57" s="16">
         <v>0</v>
       </c>
@@ -6501,11 +6542,17 @@
       <c r="BK57" s="17"/>
       <c r="BL57" s="17"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="16"/>
+      <c r="B58" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="16">
+        <v>0</v>
+      </c>
       <c r="E58" s="34"/>
       <c r="F58" s="34"/>
       <c r="G58" s="13"/>
@@ -6570,27 +6617,17 @@
       <c r="BK58" s="17"/>
       <c r="BL58" s="17"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
-      <c r="B59" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="16">
-        <v>0</v>
-      </c>
-      <c r="E59" s="34">
-        <v>44690</v>
-      </c>
-      <c r="F59" s="34">
-        <v>44702</v>
-      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="13">
+      <c r="H59" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
@@ -6649,21 +6686,27 @@
       <c r="BK59" s="17"/>
       <c r="BL59" s="17"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="30"/>
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20"/>
+      <c r="B60" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="16">
+        <v>0</v>
+      </c>
+      <c r="E60" s="34">
+        <v>44690</v>
+      </c>
+      <c r="F60" s="34">
+        <v>44702</v>
+      </c>
       <c r="G60" s="13"/>
-      <c r="H60" s="13" t="str">
+      <c r="H60" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
@@ -6722,17 +6765,17 @@
       <c r="BK60" s="17"/>
       <c r="BL60" s="17"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="20"/>
-      <c r="B61" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="16">
-        <v>0</v>
-      </c>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="30"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13" t="str">
         <f t="shared" si="5"/>
@@ -6795,14 +6838,12 @@
       <c r="BK61" s="17"/>
       <c r="BL61" s="17"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C62" s="25"/>
       <c r="D62" s="16">
         <v>0</v>
       </c>
@@ -6870,11 +6911,17 @@
       <c r="BK62" s="17"/>
       <c r="BL62" s="17"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="16"/>
+      <c r="B63" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="16">
+        <v>0</v>
+      </c>
       <c r="E63" s="34"/>
       <c r="F63" s="34"/>
       <c r="G63" s="13"/>
@@ -6939,25 +6986,17 @@
       <c r="BK63" s="17"/>
       <c r="BL63" s="17"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
-      <c r="B64" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40">
-        <v>44330</v>
-      </c>
-      <c r="F64" s="40">
-        <v>44330</v>
-      </c>
+      <c r="B64" s="27"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="13">
+      <c r="H64" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
@@ -7016,19 +7055,25 @@
       <c r="BK64" s="17"/>
       <c r="BL64" s="17"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="28"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="20"/>
+      <c r="B65" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="39"/>
+      <c r="E65" s="40">
+        <v>44330</v>
+      </c>
+      <c r="F65" s="40">
+        <v>44330</v>
+      </c>
       <c r="G65" s="13"/>
-      <c r="H65" s="13" t="str">
+      <c r="H65" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
@@ -7087,24 +7132,89 @@
       <c r="BK65" s="17"/>
       <c r="BL65" s="17"/>
     </row>
-    <row r="66" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G66" s="6"/>
+    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="28"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="17"/>
+      <c r="Y66" s="17"/>
+      <c r="Z66" s="17"/>
+      <c r="AA66" s="17"/>
+      <c r="AB66" s="17"/>
+      <c r="AC66" s="17"/>
+      <c r="AD66" s="17"/>
+      <c r="AE66" s="17"/>
+      <c r="AF66" s="17"/>
+      <c r="AG66" s="17"/>
+      <c r="AH66" s="17"/>
+      <c r="AI66" s="17"/>
+      <c r="AJ66" s="17"/>
+      <c r="AK66" s="17"/>
+      <c r="AL66" s="17"/>
+      <c r="AM66" s="17"/>
+      <c r="AN66" s="17"/>
+      <c r="AO66" s="17"/>
+      <c r="AP66" s="17"/>
+      <c r="AQ66" s="17"/>
+      <c r="AR66" s="17"/>
+      <c r="AS66" s="17"/>
+      <c r="AT66" s="17"/>
+      <c r="AU66" s="17"/>
+      <c r="AV66" s="17"/>
+      <c r="AW66" s="17"/>
+      <c r="AX66" s="17"/>
+      <c r="AY66" s="17"/>
+      <c r="AZ66" s="17"/>
+      <c r="BA66" s="17"/>
+      <c r="BB66" s="17"/>
+      <c r="BC66" s="17"/>
+      <c r="BD66" s="17"/>
+      <c r="BE66" s="17"/>
+      <c r="BF66" s="17"/>
+      <c r="BG66" s="17"/>
+      <c r="BH66" s="17"/>
+      <c r="BI66" s="17"/>
+      <c r="BJ66" s="17"/>
+      <c r="BK66" s="17"/>
+      <c r="BL66" s="17"/>
     </row>
-    <row r="67" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C67" s="10"/>
-      <c r="F67" s="22"/>
+    <row r="67" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="11"/>
+    <row r="68" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="10"/>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="B2:B4"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="E4:F4"/>
@@ -7112,9 +7222,15 @@
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D23:D28 D53 D65">
-    <cfRule type="dataBar" priority="91">
+  <conditionalFormatting sqref="D23:D28 D54 D66">
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7127,21 +7243,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:BL31 I50:BL53 I65:BL65 I33:BL34">
-    <cfRule type="expression" dxfId="38" priority="110">
+  <conditionalFormatting sqref="I6:BL31 I51:BL54 I66:BL66 I34:BL35">
+    <cfRule type="expression" dxfId="41" priority="114">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL31 I50:BL53 I65:BL65 I33:BL34">
-    <cfRule type="expression" dxfId="37" priority="104">
+  <conditionalFormatting sqref="I8:BL31 I51:BL54 I66:BL66 I34:BL35">
+    <cfRule type="expression" dxfId="40" priority="108">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="109" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D31 D33">
-    <cfRule type="dataBar" priority="74">
+  <conditionalFormatting sqref="D29:D31 D34">
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7154,8 +7270,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 D38">
-    <cfRule type="dataBar" priority="70">
+  <conditionalFormatting sqref="D36 D39">
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7168,21 +7284,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL38">
-    <cfRule type="expression" dxfId="35" priority="73">
+  <conditionalFormatting sqref="I36:BL39">
+    <cfRule type="expression" dxfId="38" priority="77">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL38">
-    <cfRule type="expression" dxfId="34" priority="71">
+  <conditionalFormatting sqref="I36:BL39">
+    <cfRule type="expression" dxfId="37" priority="75">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="76" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:D37">
-    <cfRule type="dataBar" priority="69">
+  <conditionalFormatting sqref="D37:D38">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7195,8 +7311,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="dataBar" priority="68">
+  <conditionalFormatting sqref="D35">
+    <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7209,21 +7325,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="32" priority="67">
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="35" priority="71">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="31" priority="65">
+  <conditionalFormatting sqref="I40:BL40">
+    <cfRule type="expression" dxfId="34" priority="69">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="70" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="dataBar" priority="61">
+  <conditionalFormatting sqref="D41">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7236,21 +7352,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL43">
-    <cfRule type="expression" dxfId="29" priority="64">
+  <conditionalFormatting sqref="I41:BL44">
+    <cfRule type="expression" dxfId="32" priority="68">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL43">
-    <cfRule type="expression" dxfId="28" priority="62">
+  <conditionalFormatting sqref="I41:BL44">
+    <cfRule type="expression" dxfId="31" priority="66">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="67" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D43">
-    <cfRule type="dataBar" priority="60">
+  <conditionalFormatting sqref="D42:D44">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7263,8 +7379,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="dataBar" priority="59">
+  <conditionalFormatting sqref="D40">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7277,21 +7393,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="26" priority="58">
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="29" priority="62">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="25" priority="56">
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="28" priority="60">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="61" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45 D48">
-    <cfRule type="dataBar" priority="52">
+  <conditionalFormatting sqref="D46 D49">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7304,21 +7420,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL48">
-    <cfRule type="expression" dxfId="23" priority="55">
+  <conditionalFormatting sqref="I46:BL49">
+    <cfRule type="expression" dxfId="26" priority="59">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL48">
-    <cfRule type="expression" dxfId="22" priority="53">
+  <conditionalFormatting sqref="I46:BL49">
+    <cfRule type="expression" dxfId="25" priority="57">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="58" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D47">
-    <cfRule type="dataBar" priority="51">
+  <conditionalFormatting sqref="D47:D48">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7331,8 +7447,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="dataBar" priority="50">
+  <conditionalFormatting sqref="D45">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7345,21 +7461,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="20" priority="49">
+  <conditionalFormatting sqref="I50:BL50">
+    <cfRule type="expression" dxfId="23" priority="53">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL49">
-    <cfRule type="expression" dxfId="19" priority="47">
+  <conditionalFormatting sqref="I50:BL50">
+    <cfRule type="expression" dxfId="22" priority="51">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="52" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="dataBar" priority="43">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7372,8 +7488,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
-    <cfRule type="dataBar" priority="42">
+  <conditionalFormatting sqref="D52:D53">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7386,8 +7502,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="dataBar" priority="41">
+  <conditionalFormatting sqref="D50">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7401,7 +7517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D21">
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7415,7 +7531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="dataBar" priority="39">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7429,7 +7545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D15">
-    <cfRule type="dataBar" priority="38">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7443,7 +7559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D11">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7457,7 +7573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7471,7 +7587,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7484,8 +7600,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="dataBar" priority="31">
+  <conditionalFormatting sqref="D59">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7498,12 +7614,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL58">
+  <conditionalFormatting sqref="I56:BL59">
+    <cfRule type="expression" dxfId="20" priority="38">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56:BL59">
+    <cfRule type="expression" dxfId="19" priority="36">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="37" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:BL55">
     <cfRule type="expression" dxfId="17" priority="34">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL58">
+  <conditionalFormatting sqref="I55:BL55">
     <cfRule type="expression" dxfId="16" priority="32">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -7511,21 +7640,8 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="14" priority="30">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="13" priority="28">
-      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="29" stopIfTrue="1">
-      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="dataBar" priority="27">
+  <conditionalFormatting sqref="D56">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7538,8 +7654,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D57">
-    <cfRule type="dataBar" priority="26">
+  <conditionalFormatting sqref="D57:D58">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7552,8 +7668,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="D55">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7566,8 +7682,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="D64">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7580,12 +7696,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL63">
+  <conditionalFormatting sqref="I61:BL64">
+    <cfRule type="expression" dxfId="14" priority="28">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61:BL64">
+    <cfRule type="expression" dxfId="13" priority="26">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="27" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="11" priority="24">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL63">
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="10" priority="22">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -7593,21 +7722,8 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="8" priority="20">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL59">
-    <cfRule type="expression" dxfId="7" priority="18">
-      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="19" stopIfTrue="1">
-      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="D61">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7620,8 +7736,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61:D62">
-    <cfRule type="dataBar" priority="16">
+  <conditionalFormatting sqref="D62:D63">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7634,8 +7750,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="dataBar" priority="15">
+  <conditionalFormatting sqref="D60">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7648,21 +7764,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:BL64">
-    <cfRule type="expression" dxfId="5" priority="10">
+  <conditionalFormatting sqref="I65:BL65">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:BL64">
-    <cfRule type="expression" dxfId="4" priority="8">
+  <conditionalFormatting sqref="I65:BL65">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="13" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="D65">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7676,11 +7792,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:BL32">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2F5C4985-1683-EE42-9D0D-BAF43CD41741}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:BL33">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
+  <conditionalFormatting sqref="I33:BL33">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -7688,7 +7831,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7697,7 +7840,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2F5C4985-1683-EE42-9D0D-BAF43CD41741}</x14:id>
+          <x14:id>{7CD6064B-B17C-3642-93C7-3FE042B15E7C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7729,7 +7872,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D23:D28 D53 D65</xm:sqref>
+          <xm:sqref>D23:D28 D54 D66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C6CDA553-F00B-9040-AE03-37F25434701D}">
@@ -7744,7 +7887,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29:D31 D33</xm:sqref>
+          <xm:sqref>D29:D31 D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EA2270A7-BB26-9A40-B9F1-5C26EEBB949D}">
@@ -7759,7 +7902,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35 D38</xm:sqref>
+          <xm:sqref>D36 D39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E4EE069E-C472-0944-A911-E48D9F42339F}">
@@ -7774,7 +7917,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36:D37</xm:sqref>
+          <xm:sqref>D37:D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C8FF7762-F345-FF40-A144-7AE3B89EFCF2}">
@@ -7789,7 +7932,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D34</xm:sqref>
+          <xm:sqref>D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{701C6075-BBFA-2041-BF31-AB7671F8D645}">
@@ -7804,7 +7947,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D40</xm:sqref>
+          <xm:sqref>D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{10E76EB4-A5D9-8B42-B2BB-1EBDB5A5BA3B}">
@@ -7819,7 +7962,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D41:D43</xm:sqref>
+          <xm:sqref>D42:D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4846BB50-9C38-B546-942F-3725EC660D66}">
@@ -7834,7 +7977,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D39</xm:sqref>
+          <xm:sqref>D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AB17F493-D7F0-324C-9ACF-0E3094A618A9}">
@@ -7849,7 +7992,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D45 D48</xm:sqref>
+          <xm:sqref>D46 D49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BAFA23E1-0287-9548-9649-D32F5548852F}">
@@ -7864,7 +8007,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D46:D47</xm:sqref>
+          <xm:sqref>D47:D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{896E2E65-6068-2F47-9A75-C55D7249861B}">
@@ -7879,7 +8022,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D44</xm:sqref>
+          <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C6A06403-670F-534E-8F21-DC42DB09F967}">
@@ -7894,7 +8037,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D50</xm:sqref>
+          <xm:sqref>D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49BCE480-64E7-FB45-BE4B-CA0DD84C9037}">
@@ -7909,7 +8052,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D51:D52</xm:sqref>
+          <xm:sqref>D52:D53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9B8BE527-1549-6A4B-AC6C-9418AA24E56A}">
@@ -7924,7 +8067,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D49</xm:sqref>
+          <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BA965817-9865-AA4D-8FEB-DBA7CEB1546C}">
@@ -8029,7 +8172,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D58</xm:sqref>
+          <xm:sqref>D59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{75140910-7661-7F4D-A3E6-D6286731FED3}">
@@ -8044,7 +8187,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D55</xm:sqref>
+          <xm:sqref>D56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49707186-E25F-794E-9B85-F885402851F1}">
@@ -8059,7 +8202,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D56:D57</xm:sqref>
+          <xm:sqref>D57:D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{165531A5-C2ED-9546-B5E7-C4386BF336F6}">
@@ -8074,7 +8217,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D54</xm:sqref>
+          <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{01BC5A8C-D1ED-3D4E-A06C-49C16745AE5B}">
@@ -8089,7 +8232,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D63</xm:sqref>
+          <xm:sqref>D64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A7115771-2ACC-D648-98B3-635DA27D5FB4}">
@@ -8104,7 +8247,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D60</xm:sqref>
+          <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09550F3A-3C2A-D040-9039-DDFAE031CDCD}">
@@ -8119,7 +8262,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D61:D62</xm:sqref>
+          <xm:sqref>D62:D63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC05D890-89A5-074B-8AD8-FC3A9C9788E8}">
@@ -8134,7 +8277,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D59</xm:sqref>
+          <xm:sqref>D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{627E5414-EFBD-2C42-A412-3BA81AF60A4A}">
@@ -8149,7 +8292,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D64</xm:sqref>
+          <xm:sqref>D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2F5C4985-1683-EE42-9D0D-BAF43CD41741}">
@@ -8166,6 +8309,21 @@
           </x14:cfRule>
           <xm:sqref>D32</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7CD6064B-B17C-3642-93C7-3FE042B15E7C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B90E64-38CC-C441-B70C-6290F2BC56F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD413F7-30A9-E946-A64A-C922C1A53B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,10 +308,10 @@
     <t>Phase : Finale - Sprint 5</t>
   </si>
   <si>
-    <t>Document qualité</t>
+    <t>Document : Plan d'Assurance Qualité</t>
   </si>
   <si>
-    <t>Recherche sur la sécurité</t>
+    <t>Modélisation BDD</t>
   </si>
 </sst>
 </file>
@@ -1129,13 +1129,6 @@
     <xf numFmtId="168" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1145,11 +1138,18 @@
     <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2095,8 +2095,8 @@
   <dimension ref="A1:BL69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="106" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1"/>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="47"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2153,341 +2153,341 @@
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="48">
+      <c r="D4" s="46"/>
+      <c r="E4" s="44">
         <v>44459</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="36">
-        <v>2</v>
-      </c>
-      <c r="I5" s="44">
+        <v>6</v>
+      </c>
+      <c r="I5" s="41">
         <f>I6</f>
-        <v>44466</v>
-      </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="44">
+        <v>44494</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="41">
         <f>P6</f>
-        <v>44473</v>
-      </c>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="44">
+        <v>44501</v>
+      </c>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="41">
         <f>W6</f>
-        <v>44480</v>
-      </c>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="44">
+        <v>44508</v>
+      </c>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="41">
         <f>AD6</f>
-        <v>44487</v>
-      </c>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="44">
+        <v>44515</v>
+      </c>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="41">
         <f>AK6</f>
-        <v>44494</v>
-      </c>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="44">
+        <v>44522</v>
+      </c>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="41">
         <f>AR6</f>
-        <v>44501</v>
-      </c>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="44">
+        <v>44529</v>
+      </c>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="41">
         <f>AY6</f>
-        <v>44508</v>
-      </c>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="44">
+        <v>44536</v>
+      </c>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="41">
         <f>BF6</f>
-        <v>44515</v>
-      </c>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="46"/>
+        <v>44543</v>
+      </c>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="43"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="I6" s="31">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
-        <v>44466</v>
+        <v>44494</v>
       </c>
       <c r="J6" s="32">
         <f>I6+1</f>
-        <v>44467</v>
+        <v>44495</v>
       </c>
       <c r="K6" s="32">
         <f t="shared" ref="K6:AX6" si="0">J6+1</f>
-        <v>44468</v>
+        <v>44496</v>
       </c>
       <c r="L6" s="32">
         <f t="shared" si="0"/>
-        <v>44469</v>
+        <v>44497</v>
       </c>
       <c r="M6" s="32">
         <f t="shared" si="0"/>
-        <v>44470</v>
+        <v>44498</v>
       </c>
       <c r="N6" s="32">
         <f t="shared" si="0"/>
-        <v>44471</v>
+        <v>44499</v>
       </c>
       <c r="O6" s="33">
         <f t="shared" si="0"/>
-        <v>44472</v>
+        <v>44500</v>
       </c>
       <c r="P6" s="31">
         <f>O6+1</f>
-        <v>44473</v>
+        <v>44501</v>
       </c>
       <c r="Q6" s="32">
         <f>P6+1</f>
-        <v>44474</v>
+        <v>44502</v>
       </c>
       <c r="R6" s="32">
         <f t="shared" si="0"/>
-        <v>44475</v>
+        <v>44503</v>
       </c>
       <c r="S6" s="32">
         <f t="shared" si="0"/>
-        <v>44476</v>
+        <v>44504</v>
       </c>
       <c r="T6" s="32">
         <f t="shared" si="0"/>
-        <v>44477</v>
+        <v>44505</v>
       </c>
       <c r="U6" s="32">
         <f t="shared" si="0"/>
-        <v>44478</v>
+        <v>44506</v>
       </c>
       <c r="V6" s="33">
         <f t="shared" si="0"/>
-        <v>44479</v>
+        <v>44507</v>
       </c>
       <c r="W6" s="31">
         <f>V6+1</f>
-        <v>44480</v>
+        <v>44508</v>
       </c>
       <c r="X6" s="32">
         <f>W6+1</f>
-        <v>44481</v>
+        <v>44509</v>
       </c>
       <c r="Y6" s="32">
         <f t="shared" si="0"/>
-        <v>44482</v>
+        <v>44510</v>
       </c>
       <c r="Z6" s="32">
         <f t="shared" si="0"/>
-        <v>44483</v>
+        <v>44511</v>
       </c>
       <c r="AA6" s="32">
         <f t="shared" si="0"/>
-        <v>44484</v>
+        <v>44512</v>
       </c>
       <c r="AB6" s="32">
         <f t="shared" si="0"/>
-        <v>44485</v>
+        <v>44513</v>
       </c>
       <c r="AC6" s="33">
         <f t="shared" si="0"/>
-        <v>44486</v>
+        <v>44514</v>
       </c>
       <c r="AD6" s="31">
         <f>AC6+1</f>
-        <v>44487</v>
+        <v>44515</v>
       </c>
       <c r="AE6" s="32">
         <f>AD6+1</f>
-        <v>44488</v>
+        <v>44516</v>
       </c>
       <c r="AF6" s="32">
         <f t="shared" si="0"/>
-        <v>44489</v>
+        <v>44517</v>
       </c>
       <c r="AG6" s="32">
         <f t="shared" si="0"/>
-        <v>44490</v>
+        <v>44518</v>
       </c>
       <c r="AH6" s="32">
         <f t="shared" si="0"/>
-        <v>44491</v>
+        <v>44519</v>
       </c>
       <c r="AI6" s="32">
         <f t="shared" si="0"/>
-        <v>44492</v>
+        <v>44520</v>
       </c>
       <c r="AJ6" s="33">
         <f t="shared" si="0"/>
-        <v>44493</v>
+        <v>44521</v>
       </c>
       <c r="AK6" s="31">
         <f>AJ6+1</f>
-        <v>44494</v>
+        <v>44522</v>
       </c>
       <c r="AL6" s="32">
         <f>AK6+1</f>
-        <v>44495</v>
+        <v>44523</v>
       </c>
       <c r="AM6" s="32">
         <f t="shared" si="0"/>
-        <v>44496</v>
+        <v>44524</v>
       </c>
       <c r="AN6" s="32">
         <f t="shared" si="0"/>
-        <v>44497</v>
+        <v>44525</v>
       </c>
       <c r="AO6" s="32">
         <f t="shared" si="0"/>
-        <v>44498</v>
+        <v>44526</v>
       </c>
       <c r="AP6" s="32">
         <f t="shared" si="0"/>
-        <v>44499</v>
+        <v>44527</v>
       </c>
       <c r="AQ6" s="33">
         <f t="shared" si="0"/>
-        <v>44500</v>
+        <v>44528</v>
       </c>
       <c r="AR6" s="31">
         <f>AQ6+1</f>
-        <v>44501</v>
+        <v>44529</v>
       </c>
       <c r="AS6" s="32">
         <f>AR6+1</f>
-        <v>44502</v>
+        <v>44530</v>
       </c>
       <c r="AT6" s="32">
         <f t="shared" si="0"/>
-        <v>44503</v>
+        <v>44531</v>
       </c>
       <c r="AU6" s="32">
         <f t="shared" si="0"/>
-        <v>44504</v>
+        <v>44532</v>
       </c>
       <c r="AV6" s="32">
         <f t="shared" si="0"/>
-        <v>44505</v>
+        <v>44533</v>
       </c>
       <c r="AW6" s="32">
         <f t="shared" si="0"/>
-        <v>44506</v>
+        <v>44534</v>
       </c>
       <c r="AX6" s="33">
         <f t="shared" si="0"/>
-        <v>44507</v>
+        <v>44535</v>
       </c>
       <c r="AY6" s="31">
         <f>AX6+1</f>
-        <v>44508</v>
+        <v>44536</v>
       </c>
       <c r="AZ6" s="32">
         <f>AY6+1</f>
-        <v>44509</v>
+        <v>44537</v>
       </c>
       <c r="BA6" s="32">
         <f t="shared" ref="BA6:BE6" si="1">AZ6+1</f>
-        <v>44510</v>
+        <v>44538</v>
       </c>
       <c r="BB6" s="32">
         <f t="shared" si="1"/>
-        <v>44511</v>
+        <v>44539</v>
       </c>
       <c r="BC6" s="32">
         <f t="shared" si="1"/>
-        <v>44512</v>
+        <v>44540</v>
       </c>
       <c r="BD6" s="32">
         <f t="shared" si="1"/>
-        <v>44513</v>
+        <v>44541</v>
       </c>
       <c r="BE6" s="33">
         <f t="shared" si="1"/>
-        <v>44514</v>
+        <v>44542</v>
       </c>
       <c r="BF6" s="31">
         <f>BE6+1</f>
-        <v>44515</v>
+        <v>44543</v>
       </c>
       <c r="BG6" s="32">
         <f>BF6+1</f>
-        <v>44516</v>
+        <v>44544</v>
       </c>
       <c r="BH6" s="32">
         <f t="shared" ref="BH6:BL6" si="2">BG6+1</f>
-        <v>44517</v>
+        <v>44545</v>
       </c>
       <c r="BI6" s="32">
         <f t="shared" si="2"/>
-        <v>44518</v>
+        <v>44546</v>
       </c>
       <c r="BJ6" s="32">
         <f t="shared" si="2"/>
-        <v>44519</v>
+        <v>44547</v>
       </c>
       <c r="BK6" s="32">
         <f t="shared" si="2"/>
-        <v>44520</v>
+        <v>44548</v>
       </c>
       <c r="BL6" s="33">
         <f t="shared" si="2"/>
-        <v>44521</v>
+        <v>44549</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4695,18 +4695,18 @@
         <v>35</v>
       </c>
       <c r="D33" s="16">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="E33" s="34">
         <v>44515</v>
       </c>
       <c r="F33" s="34">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
@@ -7215,6 +7215,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="E4:F4"/>
@@ -7222,12 +7228,6 @@
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:D28 D54 D66">
     <cfRule type="dataBar" priority="95">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD413F7-30A9-E946-A64A-C922C1A53B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D647829A-ABF0-E144-8D5E-08C5CE4AF2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1129,6 +1129,13 @@
     <xf numFmtId="168" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1138,18 +1145,11 @@
     <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2096,7 +2096,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="106" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1"/>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="48"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2153,118 +2153,118 @@
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="44">
+      <c r="D4" s="42"/>
+      <c r="E4" s="48">
         <v>44459</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="36">
         <v>6</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="44">
         <f>I6</f>
         <v>44494</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="41">
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="44">
         <f>P6</f>
         <v>44501</v>
       </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="41">
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="44">
         <f>W6</f>
         <v>44508</v>
       </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="41">
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="44">
         <f>AD6</f>
         <v>44515</v>
       </c>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="41">
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="44">
         <f>AK6</f>
         <v>44522</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="41">
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="44">
         <f>AR6</f>
         <v>44529</v>
       </c>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="41">
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="44">
         <f>AY6</f>
         <v>44536</v>
       </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="41">
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="44">
         <f>BF6</f>
         <v>44543</v>
       </c>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="43"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="46"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
       <c r="I6" s="31">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44494</v>
@@ -7215,12 +7215,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="B2:B4"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="E4:F4"/>
@@ -7228,6 +7222,12 @@
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:D28 D54 D66">
     <cfRule type="dataBar" priority="95">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D647829A-ABF0-E144-8D5E-08C5CE4AF2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D07EA-9669-CF43-8792-A5A0FC73AF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -239,12 +239,6 @@
     <t>Réunion Point de contrôle (A2.1)</t>
   </si>
   <si>
-    <t>PV réunion Point de contrôle (A2.1)</t>
-  </si>
-  <si>
-    <t>Révision des points abordés en Point de contrôle (A2.1)</t>
-  </si>
-  <si>
     <t>Réunion Point de contrôle (A3.2)</t>
   </si>
   <si>
@@ -312,6 +306,33 @@
   </si>
   <si>
     <t>Modélisation BDD</t>
+  </si>
+  <si>
+    <t>Phase : Point de contrôle (A2.2) (Réunion 5) - Sprint 2</t>
+  </si>
+  <si>
+    <t>PV réunion A2.1</t>
+  </si>
+  <si>
+    <t>Réunion Point de contrôle (A2.2)</t>
+  </si>
+  <si>
+    <t>PV réunion Point de contrôle (A2.2)</t>
+  </si>
+  <si>
+    <t>Révision des points abordés en Point de contrôle (A2.2)</t>
+  </si>
+  <si>
+    <t>CC, AM</t>
+  </si>
+  <si>
+    <t>Création et insertion de la base de donnée</t>
+  </si>
+  <si>
+    <t>Mquettes sur Visual Studio</t>
+  </si>
+  <si>
+    <t>Recherche sécurité</t>
   </si>
 </sst>
 </file>
@@ -1129,13 +1150,6 @@
     <xf numFmtId="168" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1145,11 +1159,18 @@
     <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1208,7 +1229,97 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1725,15 +1836,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="50"/>
-      <tableStyleElement type="headerRow" dxfId="49"/>
-      <tableStyleElement type="totalRow" dxfId="48"/>
-      <tableStyleElement type="firstColumn" dxfId="47"/>
-      <tableStyleElement type="lastColumn" dxfId="46"/>
-      <tableStyleElement type="firstRowStripe" dxfId="45"/>
-      <tableStyleElement type="secondRowStripe" dxfId="44"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="43"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="42"/>
+      <tableStyleElement type="wholeTable" dxfId="59"/>
+      <tableStyleElement type="headerRow" dxfId="58"/>
+      <tableStyleElement type="totalRow" dxfId="57"/>
+      <tableStyleElement type="firstColumn" dxfId="56"/>
+      <tableStyleElement type="lastColumn" dxfId="55"/>
+      <tableStyleElement type="firstRowStripe" dxfId="54"/>
+      <tableStyleElement type="secondRowStripe" dxfId="53"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="52"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="51"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2092,11 +2203,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL69"/>
+  <dimension ref="A1:BL75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="106" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <pane ySplit="7" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2129,7 +2240,7 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1"/>
@@ -2141,7 +2252,7 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="47"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2153,341 +2264,341 @@
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="48">
+      <c r="D4" s="46"/>
+      <c r="E4" s="44">
         <v>44459</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="36">
-        <v>6</v>
-      </c>
-      <c r="I5" s="44">
+        <v>10</v>
+      </c>
+      <c r="I5" s="41">
         <f>I6</f>
-        <v>44494</v>
-      </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="44">
+        <v>44522</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="41">
         <f>P6</f>
-        <v>44501</v>
-      </c>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="44">
+        <v>44529</v>
+      </c>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="41">
         <f>W6</f>
-        <v>44508</v>
-      </c>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="44">
+        <v>44536</v>
+      </c>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="41">
         <f>AD6</f>
-        <v>44515</v>
-      </c>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="44">
+        <v>44543</v>
+      </c>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="41">
         <f>AK6</f>
-        <v>44522</v>
-      </c>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="44">
+        <v>44550</v>
+      </c>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="41">
         <f>AR6</f>
-        <v>44529</v>
-      </c>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="44">
+        <v>44557</v>
+      </c>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="41">
         <f>AY6</f>
-        <v>44536</v>
-      </c>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="44">
+        <v>44564</v>
+      </c>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="41">
         <f>BF6</f>
-        <v>44543</v>
-      </c>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="46"/>
+        <v>44571</v>
+      </c>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="43"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="I6" s="31">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
-        <v>44494</v>
+        <v>44522</v>
       </c>
       <c r="J6" s="32">
         <f>I6+1</f>
-        <v>44495</v>
+        <v>44523</v>
       </c>
       <c r="K6" s="32">
         <f t="shared" ref="K6:AX6" si="0">J6+1</f>
-        <v>44496</v>
+        <v>44524</v>
       </c>
       <c r="L6" s="32">
         <f t="shared" si="0"/>
-        <v>44497</v>
+        <v>44525</v>
       </c>
       <c r="M6" s="32">
         <f t="shared" si="0"/>
-        <v>44498</v>
+        <v>44526</v>
       </c>
       <c r="N6" s="32">
         <f t="shared" si="0"/>
-        <v>44499</v>
+        <v>44527</v>
       </c>
       <c r="O6" s="33">
         <f t="shared" si="0"/>
-        <v>44500</v>
+        <v>44528</v>
       </c>
       <c r="P6" s="31">
         <f>O6+1</f>
-        <v>44501</v>
+        <v>44529</v>
       </c>
       <c r="Q6" s="32">
         <f>P6+1</f>
-        <v>44502</v>
+        <v>44530</v>
       </c>
       <c r="R6" s="32">
         <f t="shared" si="0"/>
-        <v>44503</v>
+        <v>44531</v>
       </c>
       <c r="S6" s="32">
         <f t="shared" si="0"/>
-        <v>44504</v>
+        <v>44532</v>
       </c>
       <c r="T6" s="32">
         <f t="shared" si="0"/>
-        <v>44505</v>
+        <v>44533</v>
       </c>
       <c r="U6" s="32">
         <f t="shared" si="0"/>
-        <v>44506</v>
+        <v>44534</v>
       </c>
       <c r="V6" s="33">
         <f t="shared" si="0"/>
-        <v>44507</v>
+        <v>44535</v>
       </c>
       <c r="W6" s="31">
         <f>V6+1</f>
-        <v>44508</v>
+        <v>44536</v>
       </c>
       <c r="X6" s="32">
         <f>W6+1</f>
-        <v>44509</v>
+        <v>44537</v>
       </c>
       <c r="Y6" s="32">
         <f t="shared" si="0"/>
-        <v>44510</v>
+        <v>44538</v>
       </c>
       <c r="Z6" s="32">
         <f t="shared" si="0"/>
-        <v>44511</v>
+        <v>44539</v>
       </c>
       <c r="AA6" s="32">
         <f t="shared" si="0"/>
-        <v>44512</v>
+        <v>44540</v>
       </c>
       <c r="AB6" s="32">
         <f t="shared" si="0"/>
-        <v>44513</v>
+        <v>44541</v>
       </c>
       <c r="AC6" s="33">
         <f t="shared" si="0"/>
-        <v>44514</v>
+        <v>44542</v>
       </c>
       <c r="AD6" s="31">
         <f>AC6+1</f>
-        <v>44515</v>
+        <v>44543</v>
       </c>
       <c r="AE6" s="32">
         <f>AD6+1</f>
-        <v>44516</v>
+        <v>44544</v>
       </c>
       <c r="AF6" s="32">
         <f t="shared" si="0"/>
-        <v>44517</v>
+        <v>44545</v>
       </c>
       <c r="AG6" s="32">
         <f t="shared" si="0"/>
-        <v>44518</v>
+        <v>44546</v>
       </c>
       <c r="AH6" s="32">
         <f t="shared" si="0"/>
-        <v>44519</v>
+        <v>44547</v>
       </c>
       <c r="AI6" s="32">
         <f t="shared" si="0"/>
-        <v>44520</v>
+        <v>44548</v>
       </c>
       <c r="AJ6" s="33">
         <f t="shared" si="0"/>
-        <v>44521</v>
+        <v>44549</v>
       </c>
       <c r="AK6" s="31">
         <f>AJ6+1</f>
-        <v>44522</v>
+        <v>44550</v>
       </c>
       <c r="AL6" s="32">
         <f>AK6+1</f>
-        <v>44523</v>
+        <v>44551</v>
       </c>
       <c r="AM6" s="32">
         <f t="shared" si="0"/>
-        <v>44524</v>
+        <v>44552</v>
       </c>
       <c r="AN6" s="32">
         <f t="shared" si="0"/>
-        <v>44525</v>
+        <v>44553</v>
       </c>
       <c r="AO6" s="32">
         <f t="shared" si="0"/>
-        <v>44526</v>
+        <v>44554</v>
       </c>
       <c r="AP6" s="32">
         <f t="shared" si="0"/>
-        <v>44527</v>
+        <v>44555</v>
       </c>
       <c r="AQ6" s="33">
         <f t="shared" si="0"/>
-        <v>44528</v>
+        <v>44556</v>
       </c>
       <c r="AR6" s="31">
         <f>AQ6+1</f>
-        <v>44529</v>
+        <v>44557</v>
       </c>
       <c r="AS6" s="32">
         <f>AR6+1</f>
-        <v>44530</v>
+        <v>44558</v>
       </c>
       <c r="AT6" s="32">
         <f t="shared" si="0"/>
-        <v>44531</v>
+        <v>44559</v>
       </c>
       <c r="AU6" s="32">
         <f t="shared" si="0"/>
-        <v>44532</v>
+        <v>44560</v>
       </c>
       <c r="AV6" s="32">
         <f t="shared" si="0"/>
-        <v>44533</v>
+        <v>44561</v>
       </c>
       <c r="AW6" s="32">
         <f t="shared" si="0"/>
-        <v>44534</v>
+        <v>44562</v>
       </c>
       <c r="AX6" s="33">
         <f t="shared" si="0"/>
-        <v>44535</v>
+        <v>44563</v>
       </c>
       <c r="AY6" s="31">
         <f>AX6+1</f>
-        <v>44536</v>
+        <v>44564</v>
       </c>
       <c r="AZ6" s="32">
         <f>AY6+1</f>
-        <v>44537</v>
+        <v>44565</v>
       </c>
       <c r="BA6" s="32">
         <f t="shared" ref="BA6:BE6" si="1">AZ6+1</f>
-        <v>44538</v>
+        <v>44566</v>
       </c>
       <c r="BB6" s="32">
         <f t="shared" si="1"/>
-        <v>44539</v>
+        <v>44567</v>
       </c>
       <c r="BC6" s="32">
         <f t="shared" si="1"/>
-        <v>44540</v>
+        <v>44568</v>
       </c>
       <c r="BD6" s="32">
         <f t="shared" si="1"/>
-        <v>44541</v>
+        <v>44569</v>
       </c>
       <c r="BE6" s="33">
         <f t="shared" si="1"/>
-        <v>44542</v>
+        <v>44570</v>
       </c>
       <c r="BF6" s="31">
         <f>BE6+1</f>
-        <v>44543</v>
+        <v>44571</v>
       </c>
       <c r="BG6" s="32">
         <f>BF6+1</f>
-        <v>44544</v>
+        <v>44572</v>
       </c>
       <c r="BH6" s="32">
         <f t="shared" ref="BH6:BL6" si="2">BG6+1</f>
-        <v>44545</v>
+        <v>44573</v>
       </c>
       <c r="BI6" s="32">
         <f t="shared" si="2"/>
-        <v>44546</v>
+        <v>44574</v>
       </c>
       <c r="BJ6" s="32">
         <f t="shared" si="2"/>
-        <v>44547</v>
+        <v>44575</v>
       </c>
       <c r="BK6" s="32">
         <f t="shared" si="2"/>
-        <v>44548</v>
+        <v>44576</v>
       </c>
       <c r="BL6" s="33">
         <f t="shared" si="2"/>
-        <v>44549</v>
+        <v>44577</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2751,7 +2862,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H66" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H72" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="17"/>
@@ -3057,7 +3168,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="15"/>
@@ -3368,7 +3479,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="15"/>
@@ -3915,7 +4026,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="15"/>
@@ -4383,7 +4494,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="15"/>
@@ -4456,7 +4567,9 @@
       <c r="B30" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="25" t="s">
+        <v>82</v>
+      </c>
       <c r="D30" s="16">
         <v>1</v>
       </c>
@@ -4610,13 +4723,13 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="16">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E32" s="34">
         <v>44508</v>
@@ -4689,13 +4802,13 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="16">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E33" s="34">
         <v>44515</v>
@@ -4768,13 +4881,13 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="34">
         <v>44515</v>
@@ -4847,25 +4960,24 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="27" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D35" s="16">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E35" s="34">
-        <v>44526</v>
+        <f>E34</f>
+        <v>44515</v>
       </c>
       <c r="F35" s="34">
-        <v>44526</v>
+        <f>E36-1</f>
+        <v>44525</v>
       </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="13">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="H35" s="13"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -4924,20 +5036,26 @@
       <c r="BL35" s="17"/>
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="16">
+        <v>1</v>
+      </c>
+      <c r="E36" s="34">
+        <v>44526</v>
+      </c>
+      <c r="F36" s="34">
+        <v>44526</v>
+      </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="13" t="str">
+      <c r="H36" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
@@ -4997,16 +5115,16 @@
       <c r="BL36" s="17"/>
     </row>
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="16">
-        <v>0</v>
-      </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
+      <c r="A37" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13" t="str">
         <f t="shared" si="5"/>
@@ -5072,20 +5190,26 @@
     <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="27" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D38" s="16">
-        <v>0</v>
-      </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="34">
+        <f>F36+1</f>
+        <v>44527</v>
+      </c>
+      <c r="F38" s="34">
+        <f>E38+2</f>
+        <v>44529</v>
+      </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="13" t="str">
+      <c r="H38" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
@@ -5146,15 +5270,27 @@
     </row>
     <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
+      <c r="B39" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0</v>
+      </c>
+      <c r="E39" s="34">
+        <f>E38+1</f>
+        <v>44528</v>
+      </c>
+      <c r="F39" s="34">
+        <f>E39+7</f>
+        <v>44535</v>
+      </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="13" t="str">
+      <c r="H39" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
@@ -5215,25 +5351,25 @@
     </row>
     <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
-      <c r="B40" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="39">
+      <c r="B40" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="16">
         <v>0</v>
       </c>
-      <c r="E40" s="40">
-        <v>44550</v>
-      </c>
-      <c r="F40" s="40">
-        <v>44555</v>
+      <c r="E40" s="34">
+        <f>E39</f>
+        <v>44528</v>
+      </c>
+      <c r="F40" s="34">
+        <f>E40+14</f>
+        <v>44542</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
@@ -5293,20 +5429,27 @@
       <c r="BL40" s="17"/>
     </row>
     <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="16">
+        <v>0</v>
+      </c>
+      <c r="E41" s="34">
+        <v>44547</v>
+      </c>
+      <c r="F41" s="34">
+        <f>E41</f>
+        <v>44547</v>
+      </c>
       <c r="G41" s="13"/>
-      <c r="H41" s="13" t="str">
+      <c r="H41" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
@@ -5366,16 +5509,16 @@
       <c r="BL41" s="17"/>
     </row>
     <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="16">
-        <v>0</v>
-      </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
+      <c r="A42" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="30"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13" t="str">
         <f t="shared" si="5"/>
@@ -5441,11 +5584,9 @@
     <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C43" s="25"/>
       <c r="D43" s="16">
         <v>0</v>
       </c>
@@ -5515,13 +5656,22 @@
     </row>
     <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="16"/>
+      <c r="B44" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="16">
+        <v>0</v>
+      </c>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="H44" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
@@ -5581,25 +5731,15 @@
     </row>
     <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
-      <c r="B45" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="16">
-        <v>0</v>
-      </c>
-      <c r="E45" s="34">
-        <v>44613</v>
-      </c>
-      <c r="F45" s="34">
-        <v>44625</v>
-      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="13">
+      <c r="H45" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
@@ -5659,20 +5799,27 @@
       <c r="BL45" s="17"/>
     </row>
     <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="30"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="39">
+        <v>0</v>
+      </c>
+      <c r="E46" s="40">
+        <v>44575</v>
+      </c>
+      <c r="F46" s="40">
+        <f>E46</f>
+        <v>44575</v>
+      </c>
       <c r="G46" s="13"/>
-      <c r="H46" s="13" t="str">
+      <c r="H46" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
@@ -5732,16 +5879,16 @@
       <c r="BL46" s="17"/>
     </row>
     <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="16">
-        <v>0</v>
-      </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
+      <c r="A47" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="30"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13" t="str">
         <f t="shared" si="5"/>
@@ -5807,11 +5954,9 @@
     <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C48" s="25"/>
       <c r="D48" s="16">
         <v>0</v>
       </c>
@@ -5881,9 +6026,15 @@
     </row>
     <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="16"/>
+      <c r="B49" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="16">
+        <v>0</v>
+      </c>
       <c r="E49" s="34"/>
       <c r="F49" s="34"/>
       <c r="G49" s="13"/>
@@ -5950,26 +6101,13 @@
     </row>
     <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
-      <c r="B50" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="16">
-        <v>0</v>
-      </c>
-      <c r="E50" s="34">
-        <v>44641</v>
-      </c>
-      <c r="F50" s="34">
-        <v>44653</v>
-      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="13">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
+      <c r="H50" s="13"/>
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
@@ -6028,20 +6166,26 @@
       <c r="BL50" s="17"/>
     </row>
     <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0</v>
+      </c>
+      <c r="E51" s="34">
+        <v>44613</v>
+      </c>
+      <c r="F51" s="34">
+        <v>44625</v>
+      </c>
       <c r="G51" s="13"/>
-      <c r="H51" s="13" t="str">
+      <c r="H51" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
@@ -6101,16 +6245,16 @@
       <c r="BL51" s="17"/>
     </row>
     <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="16">
-        <v>0</v>
-      </c>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
+      <c r="A52" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13" t="str">
         <f t="shared" si="5"/>
@@ -6176,11 +6320,9 @@
     <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C53" s="25"/>
       <c r="D53" s="16">
         <v>0</v>
       </c>
@@ -6250,9 +6392,15 @@
     </row>
     <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="16"/>
+      <c r="B54" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="16">
+        <v>0</v>
+      </c>
       <c r="E54" s="34"/>
       <c r="F54" s="34"/>
       <c r="G54" s="13"/>
@@ -6319,25 +6467,15 @@
     </row>
     <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
-      <c r="B55" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="39">
-        <v>0</v>
-      </c>
-      <c r="E55" s="40">
-        <v>44655</v>
-      </c>
-      <c r="F55" s="40">
-        <v>44667</v>
-      </c>
+      <c r="B55" s="27"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="13">
+      <c r="H55" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
@@ -6397,20 +6535,26 @@
       <c r="BL55" s="17"/>
     </row>
     <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="30"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="16">
+        <v>0</v>
+      </c>
+      <c r="E56" s="34">
+        <v>44641</v>
+      </c>
+      <c r="F56" s="34">
+        <v>44653</v>
+      </c>
       <c r="G56" s="13"/>
-      <c r="H56" s="13" t="str">
+      <c r="H56" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
@@ -6470,16 +6614,16 @@
       <c r="BL56" s="17"/>
     </row>
     <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="16">
-        <v>0</v>
-      </c>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
+      <c r="A57" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="30"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13" t="str">
         <f t="shared" si="5"/>
@@ -6545,11 +6689,9 @@
     <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C58" s="25"/>
       <c r="D58" s="16">
         <v>0</v>
       </c>
@@ -6619,9 +6761,15 @@
     </row>
     <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="16"/>
+      <c r="B59" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="16">
+        <v>0</v>
+      </c>
       <c r="E59" s="34"/>
       <c r="F59" s="34"/>
       <c r="G59" s="13"/>
@@ -6688,25 +6836,15 @@
     </row>
     <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
-      <c r="B60" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="16">
-        <v>0</v>
-      </c>
-      <c r="E60" s="34">
-        <v>44690</v>
-      </c>
-      <c r="F60" s="34">
-        <v>44702</v>
-      </c>
+      <c r="B60" s="27"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="13">
+      <c r="H60" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
@@ -6766,20 +6904,26 @@
       <c r="BL60" s="17"/>
     </row>
     <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="30"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="39">
+        <v>0</v>
+      </c>
+      <c r="E61" s="40">
+        <v>44655</v>
+      </c>
+      <c r="F61" s="40">
+        <v>44667</v>
+      </c>
       <c r="G61" s="13"/>
-      <c r="H61" s="13" t="str">
+      <c r="H61" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
@@ -6839,16 +6983,16 @@
       <c r="BL61" s="17"/>
     </row>
     <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="16">
-        <v>0</v>
-      </c>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
+      <c r="A62" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="30"/>
       <c r="G62" s="13"/>
       <c r="H62" s="13" t="str">
         <f t="shared" si="5"/>
@@ -6914,11 +7058,9 @@
     <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C63" s="25"/>
       <c r="D63" s="16">
         <v>0</v>
       </c>
@@ -6988,9 +7130,15 @@
     </row>
     <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="16"/>
+      <c r="B64" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="16">
+        <v>0</v>
+      </c>
       <c r="E64" s="34"/>
       <c r="F64" s="34"/>
       <c r="G64" s="13"/>
@@ -7057,23 +7205,15 @@
     </row>
     <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
-      <c r="B65" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="40">
-        <v>44330</v>
-      </c>
-      <c r="F65" s="40">
-        <v>44330</v>
-      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="13">
+      <c r="H65" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
@@ -7133,18 +7273,26 @@
       <c r="BL65" s="17"/>
     </row>
     <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="16">
+        <v>0</v>
+      </c>
+      <c r="E66" s="34">
+        <v>44690</v>
+      </c>
+      <c r="F66" s="34">
+        <v>44702</v>
+      </c>
       <c r="G66" s="13"/>
-      <c r="H66" s="13" t="str">
+      <c r="H66" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
@@ -7203,18 +7351,462 @@
       <c r="BK66" s="17"/>
       <c r="BL66" s="17"/>
     </row>
-    <row r="67" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G67" s="6"/>
+    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="17"/>
+      <c r="AB67" s="17"/>
+      <c r="AC67" s="17"/>
+      <c r="AD67" s="17"/>
+      <c r="AE67" s="17"/>
+      <c r="AF67" s="17"/>
+      <c r="AG67" s="17"/>
+      <c r="AH67" s="17"/>
+      <c r="AI67" s="17"/>
+      <c r="AJ67" s="17"/>
+      <c r="AK67" s="17"/>
+      <c r="AL67" s="17"/>
+      <c r="AM67" s="17"/>
+      <c r="AN67" s="17"/>
+      <c r="AO67" s="17"/>
+      <c r="AP67" s="17"/>
+      <c r="AQ67" s="17"/>
+      <c r="AR67" s="17"/>
+      <c r="AS67" s="17"/>
+      <c r="AT67" s="17"/>
+      <c r="AU67" s="17"/>
+      <c r="AV67" s="17"/>
+      <c r="AW67" s="17"/>
+      <c r="AX67" s="17"/>
+      <c r="AY67" s="17"/>
+      <c r="AZ67" s="17"/>
+      <c r="BA67" s="17"/>
+      <c r="BB67" s="17"/>
+      <c r="BC67" s="17"/>
+      <c r="BD67" s="17"/>
+      <c r="BE67" s="17"/>
+      <c r="BF67" s="17"/>
+      <c r="BG67" s="17"/>
+      <c r="BH67" s="17"/>
+      <c r="BI67" s="17"/>
+      <c r="BJ67" s="17"/>
+      <c r="BK67" s="17"/>
+      <c r="BL67" s="17"/>
     </row>
-    <row r="68" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="10"/>
-      <c r="F68" s="22"/>
+    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="20"/>
+      <c r="B68" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="25"/>
+      <c r="D68" s="16">
+        <v>0</v>
+      </c>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="17"/>
+      <c r="Y68" s="17"/>
+      <c r="Z68" s="17"/>
+      <c r="AA68" s="17"/>
+      <c r="AB68" s="17"/>
+      <c r="AC68" s="17"/>
+      <c r="AD68" s="17"/>
+      <c r="AE68" s="17"/>
+      <c r="AF68" s="17"/>
+      <c r="AG68" s="17"/>
+      <c r="AH68" s="17"/>
+      <c r="AI68" s="17"/>
+      <c r="AJ68" s="17"/>
+      <c r="AK68" s="17"/>
+      <c r="AL68" s="17"/>
+      <c r="AM68" s="17"/>
+      <c r="AN68" s="17"/>
+      <c r="AO68" s="17"/>
+      <c r="AP68" s="17"/>
+      <c r="AQ68" s="17"/>
+      <c r="AR68" s="17"/>
+      <c r="AS68" s="17"/>
+      <c r="AT68" s="17"/>
+      <c r="AU68" s="17"/>
+      <c r="AV68" s="17"/>
+      <c r="AW68" s="17"/>
+      <c r="AX68" s="17"/>
+      <c r="AY68" s="17"/>
+      <c r="AZ68" s="17"/>
+      <c r="BA68" s="17"/>
+      <c r="BB68" s="17"/>
+      <c r="BC68" s="17"/>
+      <c r="BD68" s="17"/>
+      <c r="BE68" s="17"/>
+      <c r="BF68" s="17"/>
+      <c r="BG68" s="17"/>
+      <c r="BH68" s="17"/>
+      <c r="BI68" s="17"/>
+      <c r="BJ68" s="17"/>
+      <c r="BK68" s="17"/>
+      <c r="BL68" s="17"/>
     </row>
-    <row r="69" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="11"/>
+    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="20"/>
+      <c r="B69" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="16">
+        <v>0</v>
+      </c>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+      <c r="X69" s="17"/>
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="17"/>
+      <c r="AA69" s="17"/>
+      <c r="AB69" s="17"/>
+      <c r="AC69" s="17"/>
+      <c r="AD69" s="17"/>
+      <c r="AE69" s="17"/>
+      <c r="AF69" s="17"/>
+      <c r="AG69" s="17"/>
+      <c r="AH69" s="17"/>
+      <c r="AI69" s="17"/>
+      <c r="AJ69" s="17"/>
+      <c r="AK69" s="17"/>
+      <c r="AL69" s="17"/>
+      <c r="AM69" s="17"/>
+      <c r="AN69" s="17"/>
+      <c r="AO69" s="17"/>
+      <c r="AP69" s="17"/>
+      <c r="AQ69" s="17"/>
+      <c r="AR69" s="17"/>
+      <c r="AS69" s="17"/>
+      <c r="AT69" s="17"/>
+      <c r="AU69" s="17"/>
+      <c r="AV69" s="17"/>
+      <c r="AW69" s="17"/>
+      <c r="AX69" s="17"/>
+      <c r="AY69" s="17"/>
+      <c r="AZ69" s="17"/>
+      <c r="BA69" s="17"/>
+      <c r="BB69" s="17"/>
+      <c r="BC69" s="17"/>
+      <c r="BD69" s="17"/>
+      <c r="BE69" s="17"/>
+      <c r="BF69" s="17"/>
+      <c r="BG69" s="17"/>
+      <c r="BH69" s="17"/>
+      <c r="BI69" s="17"/>
+      <c r="BJ69" s="17"/>
+      <c r="BK69" s="17"/>
+      <c r="BL69" s="17"/>
+    </row>
+    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="20"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+      <c r="X70" s="17"/>
+      <c r="Y70" s="17"/>
+      <c r="Z70" s="17"/>
+      <c r="AA70" s="17"/>
+      <c r="AB70" s="17"/>
+      <c r="AC70" s="17"/>
+      <c r="AD70" s="17"/>
+      <c r="AE70" s="17"/>
+      <c r="AF70" s="17"/>
+      <c r="AG70" s="17"/>
+      <c r="AH70" s="17"/>
+      <c r="AI70" s="17"/>
+      <c r="AJ70" s="17"/>
+      <c r="AK70" s="17"/>
+      <c r="AL70" s="17"/>
+      <c r="AM70" s="17"/>
+      <c r="AN70" s="17"/>
+      <c r="AO70" s="17"/>
+      <c r="AP70" s="17"/>
+      <c r="AQ70" s="17"/>
+      <c r="AR70" s="17"/>
+      <c r="AS70" s="17"/>
+      <c r="AT70" s="17"/>
+      <c r="AU70" s="17"/>
+      <c r="AV70" s="17"/>
+      <c r="AW70" s="17"/>
+      <c r="AX70" s="17"/>
+      <c r="AY70" s="17"/>
+      <c r="AZ70" s="17"/>
+      <c r="BA70" s="17"/>
+      <c r="BB70" s="17"/>
+      <c r="BC70" s="17"/>
+      <c r="BD70" s="17"/>
+      <c r="BE70" s="17"/>
+      <c r="BF70" s="17"/>
+      <c r="BG70" s="17"/>
+      <c r="BH70" s="17"/>
+      <c r="BI70" s="17"/>
+      <c r="BJ70" s="17"/>
+      <c r="BK70" s="17"/>
+      <c r="BL70" s="17"/>
+    </row>
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="20"/>
+      <c r="B71" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="39"/>
+      <c r="E71" s="40">
+        <v>44330</v>
+      </c>
+      <c r="F71" s="40">
+        <v>44330</v>
+      </c>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="17"/>
+      <c r="X71" s="17"/>
+      <c r="Y71" s="17"/>
+      <c r="Z71" s="17"/>
+      <c r="AA71" s="17"/>
+      <c r="AB71" s="17"/>
+      <c r="AC71" s="17"/>
+      <c r="AD71" s="17"/>
+      <c r="AE71" s="17"/>
+      <c r="AF71" s="17"/>
+      <c r="AG71" s="17"/>
+      <c r="AH71" s="17"/>
+      <c r="AI71" s="17"/>
+      <c r="AJ71" s="17"/>
+      <c r="AK71" s="17"/>
+      <c r="AL71" s="17"/>
+      <c r="AM71" s="17"/>
+      <c r="AN71" s="17"/>
+      <c r="AO71" s="17"/>
+      <c r="AP71" s="17"/>
+      <c r="AQ71" s="17"/>
+      <c r="AR71" s="17"/>
+      <c r="AS71" s="17"/>
+      <c r="AT71" s="17"/>
+      <c r="AU71" s="17"/>
+      <c r="AV71" s="17"/>
+      <c r="AW71" s="17"/>
+      <c r="AX71" s="17"/>
+      <c r="AY71" s="17"/>
+      <c r="AZ71" s="17"/>
+      <c r="BA71" s="17"/>
+      <c r="BB71" s="17"/>
+      <c r="BC71" s="17"/>
+      <c r="BD71" s="17"/>
+      <c r="BE71" s="17"/>
+      <c r="BF71" s="17"/>
+      <c r="BG71" s="17"/>
+      <c r="BH71" s="17"/>
+      <c r="BI71" s="17"/>
+      <c r="BJ71" s="17"/>
+      <c r="BK71" s="17"/>
+      <c r="BL71" s="17"/>
+    </row>
+    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="28"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="17"/>
+      <c r="X72" s="17"/>
+      <c r="Y72" s="17"/>
+      <c r="Z72" s="17"/>
+      <c r="AA72" s="17"/>
+      <c r="AB72" s="17"/>
+      <c r="AC72" s="17"/>
+      <c r="AD72" s="17"/>
+      <c r="AE72" s="17"/>
+      <c r="AF72" s="17"/>
+      <c r="AG72" s="17"/>
+      <c r="AH72" s="17"/>
+      <c r="AI72" s="17"/>
+      <c r="AJ72" s="17"/>
+      <c r="AK72" s="17"/>
+      <c r="AL72" s="17"/>
+      <c r="AM72" s="17"/>
+      <c r="AN72" s="17"/>
+      <c r="AO72" s="17"/>
+      <c r="AP72" s="17"/>
+      <c r="AQ72" s="17"/>
+      <c r="AR72" s="17"/>
+      <c r="AS72" s="17"/>
+      <c r="AT72" s="17"/>
+      <c r="AU72" s="17"/>
+      <c r="AV72" s="17"/>
+      <c r="AW72" s="17"/>
+      <c r="AX72" s="17"/>
+      <c r="AY72" s="17"/>
+      <c r="AZ72" s="17"/>
+      <c r="BA72" s="17"/>
+      <c r="BB72" s="17"/>
+      <c r="BC72" s="17"/>
+      <c r="BD72" s="17"/>
+      <c r="BE72" s="17"/>
+      <c r="BF72" s="17"/>
+      <c r="BG72" s="17"/>
+      <c r="BH72" s="17"/>
+      <c r="BI72" s="17"/>
+      <c r="BJ72" s="17"/>
+      <c r="BK72" s="17"/>
+      <c r="BL72" s="17"/>
+    </row>
+    <row r="73" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="10"/>
+      <c r="F74" s="22"/>
+    </row>
+    <row r="75" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="E4:F4"/>
@@ -7222,15 +7814,9 @@
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D23:D28 D54 D66">
-    <cfRule type="dataBar" priority="95">
+  <conditionalFormatting sqref="D23:D28 D60 D72">
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7243,21 +7829,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:BL31 I51:BL54 I66:BL66 I34:BL35">
-    <cfRule type="expression" dxfId="41" priority="114">
+  <conditionalFormatting sqref="I6:BL31 I57:BL60 I72:BL72 I34:BL36">
+    <cfRule type="expression" dxfId="50" priority="126">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL31 I51:BL54 I66:BL66 I34:BL35">
-    <cfRule type="expression" dxfId="40" priority="108">
+  <conditionalFormatting sqref="I8:BL31 I57:BL60 I72:BL72 I34:BL36">
+    <cfRule type="expression" dxfId="49" priority="120">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="121" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D31 D34">
-    <cfRule type="dataBar" priority="78">
+  <conditionalFormatting sqref="D29:D31 D34:D35">
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7270,8 +7856,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36 D39">
-    <cfRule type="dataBar" priority="74">
+  <conditionalFormatting sqref="D42 D45">
+    <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7284,21 +7870,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL39">
-    <cfRule type="expression" dxfId="38" priority="77">
+  <conditionalFormatting sqref="I42:BL45">
+    <cfRule type="expression" dxfId="47" priority="89">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL39">
-    <cfRule type="expression" dxfId="37" priority="75">
+  <conditionalFormatting sqref="I42:BL45">
+    <cfRule type="expression" dxfId="46" priority="87">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="88" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D38">
-    <cfRule type="dataBar" priority="73">
+  <conditionalFormatting sqref="D43:D44">
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7311,8 +7897,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="dataBar" priority="72">
+  <conditionalFormatting sqref="D36">
+    <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7325,21 +7911,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="35" priority="71">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="44" priority="83">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="34" priority="69">
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="43" priority="81">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="82" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="dataBar" priority="65">
+  <conditionalFormatting sqref="D47">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7352,21 +7938,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL44">
-    <cfRule type="expression" dxfId="32" priority="68">
+  <conditionalFormatting sqref="I47:BL50">
+    <cfRule type="expression" dxfId="41" priority="80">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL44">
-    <cfRule type="expression" dxfId="31" priority="66">
+  <conditionalFormatting sqref="I47:BL50">
+    <cfRule type="expression" dxfId="40" priority="78">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="79" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D44">
-    <cfRule type="dataBar" priority="64">
+  <conditionalFormatting sqref="D48:D50">
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7379,8 +7965,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="dataBar" priority="63">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7393,21 +7979,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="29" priority="62">
+  <conditionalFormatting sqref="I51:BL51">
+    <cfRule type="expression" dxfId="38" priority="74">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
-    <cfRule type="expression" dxfId="28" priority="60">
+  <conditionalFormatting sqref="I51:BL51">
+    <cfRule type="expression" dxfId="37" priority="72">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="73" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46 D49">
-    <cfRule type="dataBar" priority="56">
+  <conditionalFormatting sqref="D52 D55">
+    <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7420,21 +8006,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL49">
-    <cfRule type="expression" dxfId="26" priority="59">
+  <conditionalFormatting sqref="I52:BL55">
+    <cfRule type="expression" dxfId="35" priority="71">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL49">
-    <cfRule type="expression" dxfId="25" priority="57">
+  <conditionalFormatting sqref="I52:BL55">
+    <cfRule type="expression" dxfId="34" priority="69">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="70" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="dataBar" priority="55">
+  <conditionalFormatting sqref="D53:D54">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7447,8 +8033,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="dataBar" priority="54">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7461,21 +8047,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="23" priority="53">
+  <conditionalFormatting sqref="I56:BL56">
+    <cfRule type="expression" dxfId="32" priority="65">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="22" priority="51">
+  <conditionalFormatting sqref="I56:BL56">
+    <cfRule type="expression" dxfId="31" priority="63">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="64" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="dataBar" priority="47">
+  <conditionalFormatting sqref="D57">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7488,8 +8074,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53">
-    <cfRule type="dataBar" priority="46">
+  <conditionalFormatting sqref="D58:D59">
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7502,8 +8088,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="dataBar" priority="45">
+  <conditionalFormatting sqref="D56">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7517,7 +8103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D21">
-    <cfRule type="dataBar" priority="44">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7531,7 +8117,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="dataBar" priority="43">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7545,7 +8131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D15">
-    <cfRule type="dataBar" priority="42">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7559,7 +8145,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D11">
-    <cfRule type="dataBar" priority="41">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7573,7 +8159,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7587,7 +8173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="dataBar" priority="39">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7600,8 +8186,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="dataBar" priority="35">
+  <conditionalFormatting sqref="D65">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7614,34 +8200,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL59">
-    <cfRule type="expression" dxfId="20" priority="38">
+  <conditionalFormatting sqref="I62:BL65">
+    <cfRule type="expression" dxfId="29" priority="50">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL59">
-    <cfRule type="expression" dxfId="19" priority="36">
+  <conditionalFormatting sqref="I62:BL65">
+    <cfRule type="expression" dxfId="28" priority="48">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="49" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="17" priority="34">
+  <conditionalFormatting sqref="I61:BL61">
+    <cfRule type="expression" dxfId="26" priority="46">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="16" priority="32">
+  <conditionalFormatting sqref="I61:BL61">
+    <cfRule type="expression" dxfId="25" priority="44">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="45" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="dataBar" priority="31">
+  <conditionalFormatting sqref="D62">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7654,8 +8240,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57:D58">
-    <cfRule type="dataBar" priority="30">
+  <conditionalFormatting sqref="D63:D64">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7668,8 +8254,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="D61">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7682,8 +8268,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="D70">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7696,34 +8282,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL64">
-    <cfRule type="expression" dxfId="14" priority="28">
+  <conditionalFormatting sqref="I67:BL70">
+    <cfRule type="expression" dxfId="23" priority="40">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL64">
-    <cfRule type="expression" dxfId="13" priority="26">
+  <conditionalFormatting sqref="I67:BL70">
+    <cfRule type="expression" dxfId="22" priority="38">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="39" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="11" priority="24">
+  <conditionalFormatting sqref="I66:BL66">
+    <cfRule type="expression" dxfId="20" priority="36">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="10" priority="22">
+  <conditionalFormatting sqref="I66:BL66">
+    <cfRule type="expression" dxfId="19" priority="34">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="35" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="D67">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7736,8 +8322,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D63">
-    <cfRule type="dataBar" priority="20">
+  <conditionalFormatting sqref="D68:D69">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7750,8 +8336,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="dataBar" priority="19">
+  <conditionalFormatting sqref="D66">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7764,21 +8350,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65:BL65">
-    <cfRule type="expression" dxfId="8" priority="14">
+  <conditionalFormatting sqref="I71:BL71">
+    <cfRule type="expression" dxfId="17" priority="26">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65:BL65">
-    <cfRule type="expression" dxfId="7" priority="12">
+  <conditionalFormatting sqref="I71:BL71">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="D71">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7792,20 +8378,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="13" priority="18">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7819,11 +8405,92 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="11" priority="16">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7CD6064B-B17C-3642-93C7-3FE042B15E7C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BL38 I41:BL41">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BL38 I41:BL41">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:D38 D41">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DF36E2A4-6B58-4D4B-94E1-BD803F5948A0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3406BF2F-C848-2D4B-B68F-E50AA2668CE1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:BL40">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
+  <conditionalFormatting sqref="I40:BL40">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -7831,7 +8498,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D40">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7840,7 +8507,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7CD6064B-B17C-3642-93C7-3FE042B15E7C}</x14:id>
+          <x14:id>{C1B3F003-3F68-CC49-AB63-B0D1147E3D55}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7872,7 +8539,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D23:D28 D54 D66</xm:sqref>
+          <xm:sqref>D23:D28 D60 D72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C6CDA553-F00B-9040-AE03-37F25434701D}">
@@ -7887,7 +8554,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29:D31 D34</xm:sqref>
+          <xm:sqref>D29:D31 D34:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EA2270A7-BB26-9A40-B9F1-5C26EEBB949D}">
@@ -7902,7 +8569,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36 D39</xm:sqref>
+          <xm:sqref>D42 D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E4EE069E-C472-0944-A911-E48D9F42339F}">
@@ -7917,7 +8584,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37:D38</xm:sqref>
+          <xm:sqref>D43:D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C8FF7762-F345-FF40-A144-7AE3B89EFCF2}">
@@ -7932,7 +8599,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35</xm:sqref>
+          <xm:sqref>D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{701C6075-BBFA-2041-BF31-AB7671F8D645}">
@@ -7947,7 +8614,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
+          <xm:sqref>D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{10E76EB4-A5D9-8B42-B2BB-1EBDB5A5BA3B}">
@@ -7962,7 +8629,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42:D44</xm:sqref>
+          <xm:sqref>D48:D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4846BB50-9C38-B546-942F-3725EC660D66}">
@@ -7977,7 +8644,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D40</xm:sqref>
+          <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AB17F493-D7F0-324C-9ACF-0E3094A618A9}">
@@ -7992,7 +8659,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D46 D49</xm:sqref>
+          <xm:sqref>D52 D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BAFA23E1-0287-9548-9649-D32F5548852F}">
@@ -8007,7 +8674,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D47:D48</xm:sqref>
+          <xm:sqref>D53:D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{896E2E65-6068-2F47-9A75-C55D7249861B}">
@@ -8022,7 +8689,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D45</xm:sqref>
+          <xm:sqref>D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C6A06403-670F-534E-8F21-DC42DB09F967}">
@@ -8037,7 +8704,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D51</xm:sqref>
+          <xm:sqref>D57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49BCE480-64E7-FB45-BE4B-CA0DD84C9037}">
@@ -8052,7 +8719,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D52:D53</xm:sqref>
+          <xm:sqref>D58:D59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9B8BE527-1549-6A4B-AC6C-9418AA24E56A}">
@@ -8067,7 +8734,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D50</xm:sqref>
+          <xm:sqref>D56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BA965817-9865-AA4D-8FEB-DBA7CEB1546C}">
@@ -8172,7 +8839,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D59</xm:sqref>
+          <xm:sqref>D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{75140910-7661-7F4D-A3E6-D6286731FED3}">
@@ -8187,7 +8854,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D56</xm:sqref>
+          <xm:sqref>D62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49707186-E25F-794E-9B85-F885402851F1}">
@@ -8202,7 +8869,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D57:D58</xm:sqref>
+          <xm:sqref>D63:D64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{165531A5-C2ED-9546-B5E7-C4386BF336F6}">
@@ -8217,7 +8884,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D55</xm:sqref>
+          <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{01BC5A8C-D1ED-3D4E-A06C-49C16745AE5B}">
@@ -8232,7 +8899,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D64</xm:sqref>
+          <xm:sqref>D70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A7115771-2ACC-D648-98B3-635DA27D5FB4}">
@@ -8247,7 +8914,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D61</xm:sqref>
+          <xm:sqref>D67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09550F3A-3C2A-D040-9039-DDFAE031CDCD}">
@@ -8262,7 +8929,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D62:D63</xm:sqref>
+          <xm:sqref>D68:D69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC05D890-89A5-074B-8AD8-FC3A9C9788E8}">
@@ -8277,7 +8944,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D60</xm:sqref>
+          <xm:sqref>D66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{627E5414-EFBD-2C42-A412-3BA81AF60A4A}">
@@ -8292,7 +8959,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D65</xm:sqref>
+          <xm:sqref>D71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2F5C4985-1683-EE42-9D0D-BAF43CD41741}">
@@ -8324,6 +8991,51 @@
           </x14:cfRule>
           <xm:sqref>D33</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DF36E2A4-6B58-4D4B-94E1-BD803F5948A0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D37:D38 D41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3406BF2F-C848-2D4B-B68F-E50AA2668CE1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C1B3F003-3F68-CC49-AB63-B0D1147E3D55}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D40</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D07EA-9669-CF43-8792-A5A0FC73AF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5690BB9-6C52-C24C-9FA8-4221F19714CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,28 +287,10 @@
     <t>Phase : A3 (Réunion 5) - Sprint 3</t>
   </si>
   <si>
-    <t>Phase : Point de contrôle (A3.1) (Réunion 1) - Sprint 3</t>
-  </si>
-  <si>
-    <t>Phase : Point de contrôle (A3.2) (Réunion 2) - Sprint 3</t>
-  </si>
-  <si>
-    <t>Phase : A4 (Réunion 3) - Sprint 4</t>
-  </si>
-  <si>
-    <t>Phase : A5 (Réunion 4) - Sprint 5</t>
-  </si>
-  <si>
-    <t>Phase : Finale - Sprint 5</t>
-  </si>
-  <si>
     <t>Document : Plan d'Assurance Qualité</t>
   </si>
   <si>
     <t>Modélisation BDD</t>
-  </si>
-  <si>
-    <t>Phase : Point de contrôle (A2.2) (Réunion 5) - Sprint 2</t>
   </si>
   <si>
     <t>PV réunion A2.1</t>
@@ -329,10 +311,28 @@
     <t>Création et insertion de la base de donnée</t>
   </si>
   <si>
-    <t>Mquettes sur Visual Studio</t>
+    <t>Recherche sécurité</t>
   </si>
   <si>
-    <t>Recherche sécurité</t>
+    <t>Maquettes sur Visual Studio</t>
+  </si>
+  <si>
+    <t>Phase : Point de contrôle (A2.2) (Réunion 5) - Sprint 3</t>
+  </si>
+  <si>
+    <t>Phase : Point de contrôle (A3.1) (Réunion 1) - Sprint 4</t>
+  </si>
+  <si>
+    <t>Phase : A4 (Réunion 3) - Sprint 5</t>
+  </si>
+  <si>
+    <t>Phase : Point de contrôle (A3.2) (Réunion 2) - Sprint 5</t>
+  </si>
+  <si>
+    <t>Phase : A5 (Réunion 4) - Sprint 6</t>
+  </si>
+  <si>
+    <t>Phase : Finale - Sprint 6</t>
   </si>
 </sst>
 </file>
@@ -1150,6 +1150,13 @@
     <xf numFmtId="168" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1159,18 +1166,11 @@
     <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2206,8 +2206,8 @@
   <dimension ref="A1:BL75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="106" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="7" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1"/>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="48"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2264,118 +2264,118 @@
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="44">
+      <c r="D4" s="42"/>
+      <c r="E4" s="48">
         <v>44459</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="36">
         <v>10</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="44">
         <f>I6</f>
         <v>44522</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="41">
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="44">
         <f>P6</f>
         <v>44529</v>
       </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="41">
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="44">
         <f>W6</f>
         <v>44536</v>
       </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="41">
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="44">
         <f>AD6</f>
         <v>44543</v>
       </c>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="41">
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="44">
         <f>AK6</f>
         <v>44550</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="41">
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="44">
         <f>AR6</f>
         <v>44557</v>
       </c>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="41">
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="44">
         <f>AY6</f>
         <v>44564</v>
       </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="41">
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="44">
         <f>BF6</f>
         <v>44571</v>
       </c>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="43"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="46"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
       <c r="I6" s="31">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44522</v>
@@ -2939,6 +2939,7 @@
         <v>44384</v>
       </c>
       <c r="F9" s="34">
+        <f>E9</f>
         <v>44384</v>
       </c>
       <c r="G9" s="13"/>
@@ -3017,9 +3018,11 @@
         <v>1</v>
       </c>
       <c r="E10" s="34">
+        <f>Début_Projet</f>
         <v>44459</v>
       </c>
       <c r="F10" s="34">
+        <f>E10+8</f>
         <v>44467</v>
       </c>
       <c r="G10" s="13"/>
@@ -3096,9 +3099,11 @@
         <v>1</v>
       </c>
       <c r="E11" s="34">
+        <f>F10</f>
         <v>44467</v>
       </c>
       <c r="F11" s="34">
+        <f>E11</f>
         <v>44467</v>
       </c>
       <c r="G11" s="13"/>
@@ -3248,9 +3253,11 @@
         <v>1</v>
       </c>
       <c r="E13" s="34">
+        <f>E10</f>
         <v>44459</v>
       </c>
       <c r="F13" s="34">
+        <f>E13+6</f>
         <v>44465</v>
       </c>
       <c r="G13" s="13"/>
@@ -3327,6 +3334,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="34">
+        <f>F13+1</f>
         <v>44466</v>
       </c>
       <c r="F14" s="34">
@@ -3407,9 +3415,11 @@
         <v>1</v>
       </c>
       <c r="E15" s="34">
+        <f>F14+1</f>
         <v>44470</v>
       </c>
       <c r="F15" s="34">
+        <f>E15</f>
         <v>44470</v>
       </c>
       <c r="G15" s="13"/>
@@ -3559,9 +3569,11 @@
         <v>1</v>
       </c>
       <c r="E17" s="34">
+        <f>F15</f>
         <v>44470</v>
       </c>
       <c r="F17" s="34">
+        <f>E17+3</f>
         <v>44473</v>
       </c>
       <c r="G17" s="13"/>
@@ -3638,9 +3650,11 @@
         <v>1</v>
       </c>
       <c r="E18" s="34">
+        <f>E17+1</f>
         <v>44471</v>
       </c>
       <c r="F18" s="34">
+        <f>E18+7</f>
         <v>44478</v>
       </c>
       <c r="G18" s="13"/>
@@ -3717,9 +3731,11 @@
         <v>1</v>
       </c>
       <c r="E19" s="34">
+        <f>F18</f>
         <v>44478</v>
       </c>
       <c r="F19" s="34">
+        <f>E19+9</f>
         <v>44487</v>
       </c>
       <c r="G19" s="13"/>
@@ -3796,15 +3812,17 @@
         <v>1</v>
       </c>
       <c r="E20" s="34">
-        <v>44477</v>
+        <f>F18</f>
+        <v>44478</v>
       </c>
       <c r="F20" s="34">
+        <f>E20+7</f>
         <v>44485</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -3875,15 +3893,17 @@
         <v>1</v>
       </c>
       <c r="E21" s="34">
-        <v>44477</v>
+        <f>F18</f>
+        <v>44478</v>
       </c>
       <c r="F21" s="34">
+        <f>E21+4</f>
         <v>44482</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -3954,9 +3974,11 @@
         <v>1</v>
       </c>
       <c r="E22" s="34">
+        <f>E15+18</f>
         <v>44488</v>
       </c>
       <c r="F22" s="34">
+        <f>E22</f>
         <v>44488</v>
       </c>
       <c r="G22" s="13"/>
@@ -4106,9 +4128,11 @@
         <v>1</v>
       </c>
       <c r="E24" s="34">
+        <f>F22</f>
         <v>44488</v>
       </c>
       <c r="F24" s="34">
+        <f>E24+6</f>
         <v>44494</v>
       </c>
       <c r="G24" s="13"/>
@@ -4185,9 +4209,11 @@
         <v>1</v>
       </c>
       <c r="E25" s="34">
+        <f>E24+1</f>
         <v>44489</v>
       </c>
       <c r="F25" s="34">
+        <f>E25+11</f>
         <v>44500</v>
       </c>
       <c r="G25" s="13"/>
@@ -4264,9 +4290,11 @@
         <v>1</v>
       </c>
       <c r="E26" s="34">
+        <f>E24+1</f>
         <v>44489</v>
       </c>
       <c r="F26" s="34">
+        <f>E26+11</f>
         <v>44500</v>
       </c>
       <c r="G26" s="13"/>
@@ -4343,9 +4371,11 @@
         <v>1</v>
       </c>
       <c r="E27" s="34">
+        <f>E24+1</f>
         <v>44489</v>
       </c>
       <c r="F27" s="34">
+        <f>E27+11</f>
         <v>44500</v>
       </c>
       <c r="G27" s="13"/>
@@ -4422,9 +4452,11 @@
         <v>1</v>
       </c>
       <c r="E28" s="40">
+        <f>E22+17</f>
         <v>44505</v>
       </c>
       <c r="F28" s="40">
+        <f>E28</f>
         <v>44505</v>
       </c>
       <c r="G28" s="13"/>
@@ -4568,15 +4600,17 @@
         <v>45</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D30" s="16">
         <v>1</v>
       </c>
       <c r="E30" s="34">
+        <f>F28</f>
         <v>44505</v>
       </c>
       <c r="F30" s="34">
+        <f>E30+3</f>
         <v>44508</v>
       </c>
       <c r="G30" s="13"/>
@@ -4653,15 +4687,17 @@
         <v>1</v>
       </c>
       <c r="E31" s="34">
-        <v>44505</v>
+        <f>E30+1</f>
+        <v>44506</v>
       </c>
       <c r="F31" s="34">
+        <f>E31+2</f>
         <v>44508</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
@@ -4732,9 +4768,11 @@
         <v>1</v>
       </c>
       <c r="E32" s="34">
+        <f>F31</f>
         <v>44508</v>
       </c>
       <c r="F32" s="34">
+        <f>E32+6</f>
         <v>44514</v>
       </c>
       <c r="G32" s="13"/>
@@ -4802,7 +4840,7 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>35</v>
@@ -4811,9 +4849,11 @@
         <v>1</v>
       </c>
       <c r="E33" s="34">
+        <f>F32+1</f>
         <v>44515</v>
       </c>
       <c r="F33" s="34">
+        <f>E33+9</f>
         <v>44524</v>
       </c>
       <c r="G33" s="13"/>
@@ -4881,7 +4921,7 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>37</v>
@@ -4890,9 +4930,11 @@
         <v>1</v>
       </c>
       <c r="E34" s="34">
+        <f>F32+1</f>
         <v>44515</v>
       </c>
       <c r="F34" s="34">
+        <f>E34+6</f>
         <v>44521</v>
       </c>
       <c r="G34" s="13"/>
@@ -4960,7 +5002,7 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>39</v>
@@ -4969,11 +5011,11 @@
         <v>0.7</v>
       </c>
       <c r="E35" s="34">
-        <f>E34</f>
+        <f>F32+1</f>
         <v>44515</v>
       </c>
       <c r="F35" s="34">
-        <f>E36-1</f>
+        <f>E35+10</f>
         <v>44525</v>
       </c>
       <c r="G35" s="13"/>
@@ -5047,9 +5089,11 @@
         <v>1</v>
       </c>
       <c r="E36" s="34">
+        <f>E28+21</f>
         <v>44526</v>
       </c>
       <c r="F36" s="34">
+        <f>E36</f>
         <v>44526</v>
       </c>
       <c r="G36" s="13"/>
@@ -5119,7 +5163,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="15"/>
@@ -5190,10 +5234,10 @@
     <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D38" s="16">
         <v>1</v>
@@ -5271,7 +5315,7 @@
     <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="27" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>37</v>
@@ -5352,7 +5396,7 @@
     <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="27" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="16">
@@ -5431,7 +5475,7 @@
     <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="27" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>33</v>
@@ -5440,6 +5484,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="34">
+        <f>E36+21</f>
         <v>44547</v>
       </c>
       <c r="F41" s="34">
@@ -5584,7 +5629,7 @@
     <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="27" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="16">
@@ -5657,7 +5702,7 @@
     <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>33</v>
@@ -5810,6 +5855,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="40">
+        <f>E41+28</f>
         <v>44575</v>
       </c>
       <c r="F46" s="40">
@@ -5883,7 +5929,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C47" s="24"/>
       <c r="D47" s="15"/>
@@ -6177,9 +6223,11 @@
         <v>0</v>
       </c>
       <c r="E51" s="34">
+        <f>E46+38</f>
         <v>44613</v>
       </c>
       <c r="F51" s="34">
+        <f>E51+12</f>
         <v>44625</v>
       </c>
       <c r="G51" s="13"/>
@@ -6249,7 +6297,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="15"/>
@@ -6546,9 +6594,11 @@
         <v>0</v>
       </c>
       <c r="E56" s="34">
+        <f>E51+28</f>
         <v>44641</v>
       </c>
       <c r="F56" s="34">
+        <f>E56+12</f>
         <v>44653</v>
       </c>
       <c r="G56" s="13"/>
@@ -6618,7 +6668,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="15"/>
@@ -6915,9 +6965,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="40">
+        <f>E56+14</f>
         <v>44655</v>
       </c>
       <c r="F61" s="40">
+        <f>E61+12</f>
         <v>44667</v>
       </c>
       <c r="G61" s="13"/>
@@ -6987,7 +7039,7 @@
         <v>9</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="15"/>
@@ -7284,9 +7336,11 @@
         <v>0</v>
       </c>
       <c r="E66" s="34">
+        <f>E61+35</f>
         <v>44690</v>
       </c>
       <c r="F66" s="34">
+        <f>E66+12</f>
         <v>44702</v>
       </c>
       <c r="G66" s="13"/>
@@ -7356,7 +7410,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="15"/>
@@ -7651,10 +7705,12 @@
       </c>
       <c r="D71" s="39"/>
       <c r="E71" s="40">
-        <v>44330</v>
+        <f>E66+5</f>
+        <v>44695</v>
       </c>
       <c r="F71" s="40">
-        <v>44330</v>
+        <f>E71</f>
+        <v>44695</v>
       </c>
       <c r="G71" s="13"/>
       <c r="H71" s="13">
@@ -7801,12 +7857,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="B2:B4"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="E4:F4"/>
@@ -7814,6 +7864,12 @@
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:D28 D60 D72">
     <cfRule type="dataBar" priority="107">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5690BB9-6C52-C24C-9FA8-4221F19714CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02456D-1245-8D4C-8E04-24DBD5EED5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -311,9 +311,6 @@
     <t>Création et insertion de la base de donnée</t>
   </si>
   <si>
-    <t>Recherche sécurité</t>
-  </si>
-  <si>
     <t>Maquettes sur Visual Studio</t>
   </si>
   <si>
@@ -333,6 +330,18 @@
   </si>
   <si>
     <t>Phase : Finale - Sprint 6</t>
+  </si>
+  <si>
+    <t>Réalisation des maquettes V2 sur VisualStudio</t>
+  </si>
+  <si>
+    <t>CC, (CH), AM, (AS)</t>
+  </si>
+  <si>
+    <t>Finalisation des maquettes sur VisualStudio</t>
+  </si>
+  <si>
+    <t>Recherche sécurité, loi, etc</t>
   </si>
 </sst>
 </file>
@@ -1150,13 +1159,6 @@
     <xf numFmtId="168" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1166,11 +1168,18 @@
     <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2203,11 +2212,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL75"/>
+  <dimension ref="A1:BL76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="106" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+      <pane ySplit="7" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2240,7 +2249,7 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1"/>
@@ -2252,7 +2261,7 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="47"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2264,118 +2273,118 @@
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="48">
+      <c r="D4" s="46"/>
+      <c r="E4" s="44">
         <v>44459</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="36">
         <v>10</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="41">
         <f>I6</f>
         <v>44522</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="44">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="41">
         <f>P6</f>
         <v>44529</v>
       </c>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="44">
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="41">
         <f>W6</f>
         <v>44536</v>
       </c>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="44">
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="41">
         <f>AD6</f>
         <v>44543</v>
       </c>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="44">
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="41">
         <f>AK6</f>
         <v>44550</v>
       </c>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="44">
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="41">
         <f>AR6</f>
         <v>44557</v>
       </c>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="44">
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="41">
         <f>AY6</f>
         <v>44564</v>
       </c>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="44">
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="41">
         <f>BF6</f>
         <v>44571</v>
       </c>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="46"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="43"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="I6" s="31">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44522</v>
@@ -2862,7 +2871,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H72" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H73" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="17"/>
@@ -5002,7 +5011,7 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>39</v>
@@ -5163,7 +5172,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="15"/>
@@ -5328,13 +5337,13 @@
         <v>44528</v>
       </c>
       <c r="F39" s="34">
-        <f>E39+7</f>
-        <v>44535</v>
+        <f>E42-1</f>
+        <v>44546</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="13">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
@@ -5396,9 +5405,11 @@
     <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="25"/>
+        <v>88</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="D40" s="16">
         <v>0</v>
       </c>
@@ -5407,13 +5418,13 @@
         <v>44528</v>
       </c>
       <c r="F40" s="34">
-        <f>E40+14</f>
-        <v>44542</v>
+        <f>F39</f>
+        <v>44546</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
@@ -5475,27 +5486,24 @@
     <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="27" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D41" s="16">
         <v>0</v>
       </c>
       <c r="E41" s="34">
-        <f>E36+21</f>
-        <v>44547</v>
+        <f>E40</f>
+        <v>44528</v>
       </c>
       <c r="F41" s="34">
-        <f>E41</f>
-        <v>44547</v>
+        <f>F40</f>
+        <v>44546</v>
       </c>
       <c r="G41" s="13"/>
-      <c r="H41" s="13">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="H41" s="13"/>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
@@ -5554,20 +5562,28 @@
       <c r="BL41" s="17"/>
     </row>
     <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E42" s="34">
+        <f>E36+21</f>
+        <v>44547</v>
+      </c>
+      <c r="F42" s="34">
+        <f>E42</f>
+        <v>44547</v>
+      </c>
       <c r="G42" s="13"/>
-      <c r="H42" s="13" t="str">
+      <c r="H42" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
@@ -5627,16 +5643,16 @@
       <c r="BL42" s="17"/>
     </row>
     <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="16">
-        <v>0</v>
-      </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
+      <c r="A43" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="30"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13" t="str">
         <f t="shared" si="5"/>
@@ -5702,11 +5718,9 @@
     <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C44" s="25"/>
       <c r="D44" s="16">
         <v>0</v>
       </c>
@@ -5776,9 +5790,15 @@
     </row>
     <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="16"/>
+      <c r="B45" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="16">
+        <v>0</v>
+      </c>
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
       <c r="G45" s="13"/>
@@ -5845,27 +5865,19 @@
     </row>
     <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
-      <c r="B46" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="39">
+      <c r="B46" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="16">
         <v>0</v>
       </c>
-      <c r="E46" s="40">
-        <f>E41+28</f>
-        <v>44575</v>
-      </c>
-      <c r="F46" s="40">
-        <f>E46</f>
-        <v>44575</v>
-      </c>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="13">
+      <c r="H46" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
@@ -5925,20 +5937,28 @@
       <c r="BL46" s="17"/>
     </row>
     <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="30"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="39">
+        <v>0</v>
+      </c>
+      <c r="E47" s="40">
+        <f>E42+28</f>
+        <v>44575</v>
+      </c>
+      <c r="F47" s="40">
+        <f>E47</f>
+        <v>44575</v>
+      </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="13" t="str">
+      <c r="H47" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
@@ -5998,16 +6018,16 @@
       <c r="BL47" s="17"/>
     </row>
     <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="16">
-        <v>0</v>
-      </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
+      <c r="A48" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="30"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13" t="str">
         <f t="shared" si="5"/>
@@ -6073,11 +6093,9 @@
     <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C49" s="25"/>
       <c r="D49" s="16">
         <v>0</v>
       </c>
@@ -6147,13 +6165,22 @@
     </row>
     <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="16"/>
+      <c r="B50" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0</v>
+      </c>
       <c r="E50" s="34"/>
       <c r="F50" s="34"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="H50" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
@@ -6213,28 +6240,13 @@
     </row>
     <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
-      <c r="B51" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="16">
-        <v>0</v>
-      </c>
-      <c r="E51" s="34">
-        <f>E46+38</f>
-        <v>44613</v>
-      </c>
-      <c r="F51" s="34">
-        <f>E51+12</f>
-        <v>44625</v>
-      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="13">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
+      <c r="H51" s="13"/>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
@@ -6293,20 +6305,28 @@
       <c r="BL51" s="17"/>
     </row>
     <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0</v>
+      </c>
+      <c r="E52" s="34">
+        <f>E47+38</f>
+        <v>44613</v>
+      </c>
+      <c r="F52" s="34">
+        <f>E52+12</f>
+        <v>44625</v>
+      </c>
       <c r="G52" s="13"/>
-      <c r="H52" s="13" t="str">
+      <c r="H52" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
@@ -6366,16 +6386,16 @@
       <c r="BL52" s="17"/>
     </row>
     <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="16">
-        <v>0</v>
-      </c>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
+      <c r="A53" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="30"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13" t="str">
         <f t="shared" si="5"/>
@@ -6441,11 +6461,9 @@
     <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C54" s="25"/>
       <c r="D54" s="16">
         <v>0</v>
       </c>
@@ -6515,9 +6533,15 @@
     </row>
     <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="16"/>
+      <c r="B55" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="16">
+        <v>0</v>
+      </c>
       <c r="E55" s="34"/>
       <c r="F55" s="34"/>
       <c r="G55" s="13"/>
@@ -6584,27 +6608,15 @@
     </row>
     <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
-      <c r="B56" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="16">
-        <v>0</v>
-      </c>
-      <c r="E56" s="34">
-        <f>E51+28</f>
-        <v>44641</v>
-      </c>
-      <c r="F56" s="34">
-        <f>E56+12</f>
-        <v>44653</v>
-      </c>
+      <c r="B56" s="27"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="13">
+      <c r="H56" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
@@ -6664,20 +6676,28 @@
       <c r="BL56" s="17"/>
     </row>
     <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="16">
+        <v>0</v>
+      </c>
+      <c r="E57" s="34">
+        <f>E52+28</f>
+        <v>44641</v>
+      </c>
+      <c r="F57" s="34">
+        <f>E57+12</f>
+        <v>44653</v>
+      </c>
       <c r="G57" s="13"/>
-      <c r="H57" s="13" t="str">
+      <c r="H57" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -6737,16 +6757,16 @@
       <c r="BL57" s="17"/>
     </row>
     <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="16">
-        <v>0</v>
-      </c>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
+      <c r="A58" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="30"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13" t="str">
         <f t="shared" si="5"/>
@@ -6812,11 +6832,9 @@
     <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C59" s="25"/>
       <c r="D59" s="16">
         <v>0</v>
       </c>
@@ -6886,9 +6904,15 @@
     </row>
     <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="16"/>
+      <c r="B60" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="16">
+        <v>0</v>
+      </c>
       <c r="E60" s="34"/>
       <c r="F60" s="34"/>
       <c r="G60" s="13"/>
@@ -6955,27 +6979,15 @@
     </row>
     <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
-      <c r="B61" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="39">
-        <v>0</v>
-      </c>
-      <c r="E61" s="40">
-        <f>E56+14</f>
-        <v>44655</v>
-      </c>
-      <c r="F61" s="40">
-        <f>E61+12</f>
-        <v>44667</v>
-      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="13">
+      <c r="H61" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
@@ -7035,20 +7047,28 @@
       <c r="BL61" s="17"/>
     </row>
     <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="30"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="39">
+        <v>0</v>
+      </c>
+      <c r="E62" s="40">
+        <f>E57+14</f>
+        <v>44655</v>
+      </c>
+      <c r="F62" s="40">
+        <f>E62+12</f>
+        <v>44667</v>
+      </c>
       <c r="G62" s="13"/>
-      <c r="H62" s="13" t="str">
+      <c r="H62" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
@@ -7108,16 +7128,16 @@
       <c r="BL62" s="17"/>
     </row>
     <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="16">
-        <v>0</v>
-      </c>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
+      <c r="A63" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="30"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13" t="str">
         <f t="shared" si="5"/>
@@ -7183,11 +7203,9 @@
     <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
       <c r="B64" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C64" s="25"/>
       <c r="D64" s="16">
         <v>0</v>
       </c>
@@ -7257,9 +7275,15 @@
     </row>
     <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="16"/>
+      <c r="B65" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="16">
+        <v>0</v>
+      </c>
       <c r="E65" s="34"/>
       <c r="F65" s="34"/>
       <c r="G65" s="13"/>
@@ -7326,27 +7350,15 @@
     </row>
     <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
-      <c r="B66" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="16">
-        <v>0</v>
-      </c>
-      <c r="E66" s="34">
-        <f>E61+35</f>
-        <v>44690</v>
-      </c>
-      <c r="F66" s="34">
-        <f>E66+12</f>
-        <v>44702</v>
-      </c>
+      <c r="B66" s="27"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="13">
+      <c r="H66" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
@@ -7406,20 +7418,28 @@
       <c r="BL66" s="17"/>
     </row>
     <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="30"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="16">
+        <v>0</v>
+      </c>
+      <c r="E67" s="34">
+        <f>E62+35</f>
+        <v>44690</v>
+      </c>
+      <c r="F67" s="34">
+        <f>E67+12</f>
+        <v>44702</v>
+      </c>
       <c r="G67" s="13"/>
-      <c r="H67" s="13" t="str">
+      <c r="H67" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
@@ -7479,16 +7499,16 @@
       <c r="BL67" s="17"/>
     </row>
     <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="16">
-        <v>0</v>
-      </c>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
+      <c r="A68" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="30"/>
       <c r="G68" s="13"/>
       <c r="H68" s="13" t="str">
         <f t="shared" si="5"/>
@@ -7554,11 +7574,9 @@
     <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20"/>
       <c r="B69" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C69" s="25"/>
       <c r="D69" s="16">
         <v>0</v>
       </c>
@@ -7628,9 +7646,15 @@
     </row>
     <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="16"/>
+      <c r="B70" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="16">
+        <v>0</v>
+      </c>
       <c r="E70" s="34"/>
       <c r="F70" s="34"/>
       <c r="G70" s="13"/>
@@ -7697,25 +7721,15 @@
     </row>
     <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
-      <c r="B71" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="39"/>
-      <c r="E71" s="40">
-        <f>E66+5</f>
-        <v>44695</v>
-      </c>
-      <c r="F71" s="40">
-        <f>E71</f>
-        <v>44695</v>
-      </c>
+      <c r="B71" s="27"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
       <c r="G71" s="13"/>
-      <c r="H71" s="13">
+      <c r="H71" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
@@ -7775,18 +7789,26 @@
       <c r="BL71" s="17"/>
     </row>
     <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40">
+        <f>E67+5</f>
+        <v>44695</v>
+      </c>
+      <c r="F72" s="40">
+        <f>E72</f>
+        <v>44695</v>
+      </c>
       <c r="G72" s="13"/>
-      <c r="H72" s="13" t="str">
+      <c r="H72" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
@@ -7845,18 +7867,95 @@
       <c r="BK72" s="17"/>
       <c r="BL72" s="17"/>
     </row>
-    <row r="73" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G73" s="6"/>
+    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="28"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="17"/>
+      <c r="X73" s="17"/>
+      <c r="Y73" s="17"/>
+      <c r="Z73" s="17"/>
+      <c r="AA73" s="17"/>
+      <c r="AB73" s="17"/>
+      <c r="AC73" s="17"/>
+      <c r="AD73" s="17"/>
+      <c r="AE73" s="17"/>
+      <c r="AF73" s="17"/>
+      <c r="AG73" s="17"/>
+      <c r="AH73" s="17"/>
+      <c r="AI73" s="17"/>
+      <c r="AJ73" s="17"/>
+      <c r="AK73" s="17"/>
+      <c r="AL73" s="17"/>
+      <c r="AM73" s="17"/>
+      <c r="AN73" s="17"/>
+      <c r="AO73" s="17"/>
+      <c r="AP73" s="17"/>
+      <c r="AQ73" s="17"/>
+      <c r="AR73" s="17"/>
+      <c r="AS73" s="17"/>
+      <c r="AT73" s="17"/>
+      <c r="AU73" s="17"/>
+      <c r="AV73" s="17"/>
+      <c r="AW73" s="17"/>
+      <c r="AX73" s="17"/>
+      <c r="AY73" s="17"/>
+      <c r="AZ73" s="17"/>
+      <c r="BA73" s="17"/>
+      <c r="BB73" s="17"/>
+      <c r="BC73" s="17"/>
+      <c r="BD73" s="17"/>
+      <c r="BE73" s="17"/>
+      <c r="BF73" s="17"/>
+      <c r="BG73" s="17"/>
+      <c r="BH73" s="17"/>
+      <c r="BI73" s="17"/>
+      <c r="BJ73" s="17"/>
+      <c r="BK73" s="17"/>
+      <c r="BL73" s="17"/>
     </row>
     <row r="74" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="10"/>
-      <c r="F74" s="22"/>
+      <c r="G74" s="6"/>
     </row>
     <row r="75" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="11"/>
+      <c r="C75" s="10"/>
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="E4:F4"/>
@@ -7864,14 +7963,8 @@
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D23:D28 D60 D72">
+  <conditionalFormatting sqref="D23:D28 D61 D73">
     <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7885,12 +7978,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:BL31 I57:BL60 I72:BL72 I34:BL36">
+  <conditionalFormatting sqref="I6:BL31 I58:BL61 I73:BL73 I34:BL36">
     <cfRule type="expression" dxfId="50" priority="126">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL31 I57:BL60 I72:BL72 I34:BL36">
+  <conditionalFormatting sqref="I8:BL31 I58:BL61 I73:BL73 I34:BL36">
     <cfRule type="expression" dxfId="49" priority="120">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -7912,7 +8005,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42 D45">
+  <conditionalFormatting sqref="D43 D46">
     <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7926,12 +8019,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL45">
+  <conditionalFormatting sqref="I43:BL46">
     <cfRule type="expression" dxfId="47" priority="89">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL45">
+  <conditionalFormatting sqref="I43:BL46">
     <cfRule type="expression" dxfId="46" priority="87">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -7939,7 +8032,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D44">
+  <conditionalFormatting sqref="D44:D45">
     <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7967,12 +8060,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
+  <conditionalFormatting sqref="I47:BL47">
     <cfRule type="expression" dxfId="44" priority="83">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
+  <conditionalFormatting sqref="I47:BL47">
     <cfRule type="expression" dxfId="43" priority="81">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -7980,7 +8073,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7994,12 +8087,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL50">
+  <conditionalFormatting sqref="I48:BL51">
     <cfRule type="expression" dxfId="41" priority="80">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL50">
+  <conditionalFormatting sqref="I48:BL51">
     <cfRule type="expression" dxfId="40" priority="78">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8007,7 +8100,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D50">
+  <conditionalFormatting sqref="D49:D51">
     <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8021,7 +8114,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8035,12 +8128,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
+  <conditionalFormatting sqref="I52:BL52">
     <cfRule type="expression" dxfId="38" priority="74">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BL51">
+  <conditionalFormatting sqref="I52:BL52">
     <cfRule type="expression" dxfId="37" priority="72">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8048,7 +8141,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52 D55">
+  <conditionalFormatting sqref="D53 D56">
     <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8062,12 +8155,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL55">
+  <conditionalFormatting sqref="I53:BL56">
     <cfRule type="expression" dxfId="35" priority="71">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL55">
+  <conditionalFormatting sqref="I53:BL56">
     <cfRule type="expression" dxfId="34" priority="69">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8075,7 +8168,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D54">
+  <conditionalFormatting sqref="D54:D55">
     <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8089,7 +8182,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8103,12 +8196,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
+  <conditionalFormatting sqref="I57:BL57">
     <cfRule type="expression" dxfId="32" priority="65">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
+  <conditionalFormatting sqref="I57:BL57">
     <cfRule type="expression" dxfId="31" priority="63">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8116,7 +8209,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8130,7 +8223,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58:D59">
+  <conditionalFormatting sqref="D59:D60">
     <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8144,7 +8237,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8242,7 +8335,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8256,12 +8349,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL65">
+  <conditionalFormatting sqref="I63:BL66">
     <cfRule type="expression" dxfId="29" priority="50">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL65">
+  <conditionalFormatting sqref="I63:BL66">
     <cfRule type="expression" dxfId="28" priority="48">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8269,12 +8362,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL61">
+  <conditionalFormatting sqref="I62:BL62">
     <cfRule type="expression" dxfId="26" priority="46">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL61">
+  <conditionalFormatting sqref="I62:BL62">
     <cfRule type="expression" dxfId="25" priority="44">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8282,7 +8375,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8296,7 +8389,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:D64">
+  <conditionalFormatting sqref="D64:D65">
     <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8310,7 +8403,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
+  <conditionalFormatting sqref="D62">
     <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8324,7 +8417,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D71">
     <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8338,12 +8431,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:BL70">
+  <conditionalFormatting sqref="I68:BL71">
     <cfRule type="expression" dxfId="23" priority="40">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:BL70">
+  <conditionalFormatting sqref="I68:BL71">
     <cfRule type="expression" dxfId="22" priority="38">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8351,12 +8444,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BL66">
+  <conditionalFormatting sqref="I67:BL67">
     <cfRule type="expression" dxfId="20" priority="36">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BL66">
+  <conditionalFormatting sqref="I67:BL67">
     <cfRule type="expression" dxfId="19" priority="34">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8364,7 +8457,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8378,7 +8471,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68:D69">
+  <conditionalFormatting sqref="D69:D70">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8392,7 +8485,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8406,12 +8499,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BL71">
+  <conditionalFormatting sqref="I72:BL72">
     <cfRule type="expression" dxfId="17" priority="26">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BL71">
+  <conditionalFormatting sqref="I72:BL72">
     <cfRule type="expression" dxfId="16" priority="24">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8419,7 +8512,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="D72">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8487,12 +8580,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL38 I41:BL41">
+  <conditionalFormatting sqref="I37:BL38 I42:BL42">
     <cfRule type="expression" dxfId="8" priority="12">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL38 I41:BL41">
+  <conditionalFormatting sqref="I37:BL38 I42:BL42">
     <cfRule type="expression" dxfId="7" priority="10">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8500,7 +8593,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D38 D41">
+  <conditionalFormatting sqref="D37:D38 D42">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8541,12 +8634,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
+  <conditionalFormatting sqref="I40:BL41">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
+  <conditionalFormatting sqref="I40:BL41">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8554,7 +8647,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D40:D41">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8595,7 +8688,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D23:D28 D60 D72</xm:sqref>
+          <xm:sqref>D23:D28 D61 D73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C6CDA553-F00B-9040-AE03-37F25434701D}">
@@ -8625,7 +8718,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42 D45</xm:sqref>
+          <xm:sqref>D43 D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E4EE069E-C472-0944-A911-E48D9F42339F}">
@@ -8640,7 +8733,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D43:D44</xm:sqref>
+          <xm:sqref>D44:D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C8FF7762-F345-FF40-A144-7AE3B89EFCF2}">
@@ -8670,7 +8763,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D47</xm:sqref>
+          <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{10E76EB4-A5D9-8B42-B2BB-1EBDB5A5BA3B}">
@@ -8685,7 +8778,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D48:D50</xm:sqref>
+          <xm:sqref>D49:D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4846BB50-9C38-B546-942F-3725EC660D66}">
@@ -8700,7 +8793,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D46</xm:sqref>
+          <xm:sqref>D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AB17F493-D7F0-324C-9ACF-0E3094A618A9}">
@@ -8715,7 +8808,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D52 D55</xm:sqref>
+          <xm:sqref>D53 D56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BAFA23E1-0287-9548-9649-D32F5548852F}">
@@ -8730,7 +8823,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D53:D54</xm:sqref>
+          <xm:sqref>D54:D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{896E2E65-6068-2F47-9A75-C55D7249861B}">
@@ -8745,7 +8838,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D51</xm:sqref>
+          <xm:sqref>D52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C6A06403-670F-534E-8F21-DC42DB09F967}">
@@ -8760,7 +8853,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D57</xm:sqref>
+          <xm:sqref>D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49BCE480-64E7-FB45-BE4B-CA0DD84C9037}">
@@ -8775,7 +8868,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D58:D59</xm:sqref>
+          <xm:sqref>D59:D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9B8BE527-1549-6A4B-AC6C-9418AA24E56A}">
@@ -8790,7 +8883,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D56</xm:sqref>
+          <xm:sqref>D57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BA965817-9865-AA4D-8FEB-DBA7CEB1546C}">
@@ -8895,7 +8988,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D65</xm:sqref>
+          <xm:sqref>D66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{75140910-7661-7F4D-A3E6-D6286731FED3}">
@@ -8910,7 +9003,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D62</xm:sqref>
+          <xm:sqref>D63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49707186-E25F-794E-9B85-F885402851F1}">
@@ -8925,7 +9018,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D63:D64</xm:sqref>
+          <xm:sqref>D64:D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{165531A5-C2ED-9546-B5E7-C4386BF336F6}">
@@ -8940,7 +9033,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D61</xm:sqref>
+          <xm:sqref>D62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{01BC5A8C-D1ED-3D4E-A06C-49C16745AE5B}">
@@ -8955,7 +9048,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D70</xm:sqref>
+          <xm:sqref>D71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A7115771-2ACC-D648-98B3-635DA27D5FB4}">
@@ -8970,7 +9063,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D67</xm:sqref>
+          <xm:sqref>D68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09550F3A-3C2A-D040-9039-DDFAE031CDCD}">
@@ -8985,7 +9078,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D68:D69</xm:sqref>
+          <xm:sqref>D69:D70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC05D890-89A5-074B-8AD8-FC3A9C9788E8}">
@@ -9000,7 +9093,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D66</xm:sqref>
+          <xm:sqref>D67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{627E5414-EFBD-2C42-A412-3BA81AF60A4A}">
@@ -9015,7 +9108,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D71</xm:sqref>
+          <xm:sqref>D72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2F5C4985-1683-EE42-9D0D-BAF43CD41741}">
@@ -9060,7 +9153,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37:D38 D41</xm:sqref>
+          <xm:sqref>D37:D38 D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3406BF2F-C848-2D4B-B68F-E50AA2668CE1}">
@@ -9090,7 +9183,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D40</xm:sqref>
+          <xm:sqref>D40:D41</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02456D-1245-8D4C-8E04-24DBD5EED5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962CCF93-E0B0-8D47-AE26-26AB3DD47BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1159,6 +1159,13 @@
     <xf numFmtId="168" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1168,18 +1175,11 @@
     <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2215,8 +2215,8 @@
   <dimension ref="A1:BL76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="106" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="7" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1"/>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="48"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2273,118 +2273,118 @@
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="44">
+      <c r="D4" s="42"/>
+      <c r="E4" s="48">
         <v>44459</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="36">
         <v>10</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="44">
         <f>I6</f>
         <v>44522</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="41">
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="44">
         <f>P6</f>
         <v>44529</v>
       </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="41">
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="44">
         <f>W6</f>
         <v>44536</v>
       </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="41">
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="44">
         <f>AD6</f>
         <v>44543</v>
       </c>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="41">
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="44">
         <f>AK6</f>
         <v>44550</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="41">
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="44">
         <f>AR6</f>
         <v>44557</v>
       </c>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="41">
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="44">
         <f>AY6</f>
         <v>44564</v>
       </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="41">
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="44">
         <f>BF6</f>
         <v>44571</v>
       </c>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="43"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="46"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
       <c r="I6" s="31">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44522</v>
@@ -5017,7 +5017,7 @@
         <v>39</v>
       </c>
       <c r="D35" s="16">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E35" s="34">
         <f>F32+1</f>
@@ -5330,7 +5330,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="16">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E39" s="34">
         <f>E38+1</f>
@@ -5492,7 +5492,7 @@
         <v>86</v>
       </c>
       <c r="D41" s="16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E41" s="34">
         <f>E40</f>
@@ -7950,12 +7950,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="B2:B4"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="E4:F4"/>
@@ -7963,6 +7957,12 @@
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:D28 D61 D73">
     <cfRule type="dataBar" priority="107">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962CCF93-E0B0-8D47-AE26-26AB3DD47BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A74748E-BFB0-4D4B-ADCE-066792B83215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="11" r:id="rId1"/>
@@ -1159,13 +1159,6 @@
     <xf numFmtId="168" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1175,11 +1168,18 @@
     <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2215,8 +2215,8 @@
   <dimension ref="A1:BL76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="106" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane ySplit="7" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1"/>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="47"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2273,118 +2273,118 @@
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="48">
+      <c r="D4" s="46"/>
+      <c r="E4" s="44">
         <v>44459</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="36">
         <v>10</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="41">
         <f>I6</f>
         <v>44522</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="44">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="41">
         <f>P6</f>
         <v>44529</v>
       </c>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="44">
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="41">
         <f>W6</f>
         <v>44536</v>
       </c>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="44">
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="41">
         <f>AD6</f>
         <v>44543</v>
       </c>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="44">
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="41">
         <f>AK6</f>
         <v>44550</v>
       </c>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="44">
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="41">
         <f>AR6</f>
         <v>44557</v>
       </c>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="44">
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="41">
         <f>AY6</f>
         <v>44564</v>
       </c>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="44">
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="41">
         <f>BF6</f>
         <v>44571</v>
       </c>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="46"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="43"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="I6" s="31">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44522</v>
@@ -5330,7 +5330,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="16">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E39" s="34">
         <f>E38+1</f>
@@ -7950,6 +7950,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="E4:F4"/>
@@ -7957,12 +7963,6 @@
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:D28 D61 D73">
     <cfRule type="dataBar" priority="107">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A74748E-BFB0-4D4B-ADCE-066792B83215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962CCF93-E0B0-8D47-AE26-26AB3DD47BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="11" r:id="rId1"/>
@@ -1159,6 +1159,13 @@
     <xf numFmtId="168" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1168,18 +1175,11 @@
     <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2215,8 +2215,8 @@
   <dimension ref="A1:BL76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="106" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="7" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1"/>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="48"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2273,118 +2273,118 @@
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="44">
+      <c r="D4" s="42"/>
+      <c r="E4" s="48">
         <v>44459</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="36">
         <v>10</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="44">
         <f>I6</f>
         <v>44522</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="41">
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="44">
         <f>P6</f>
         <v>44529</v>
       </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="41">
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="44">
         <f>W6</f>
         <v>44536</v>
       </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="41">
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="44">
         <f>AD6</f>
         <v>44543</v>
       </c>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="41">
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="44">
         <f>AK6</f>
         <v>44550</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="41">
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="44">
         <f>AR6</f>
         <v>44557</v>
       </c>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="41">
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="44">
         <f>AY6</f>
         <v>44564</v>
       </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="41">
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="44">
         <f>BF6</f>
         <v>44571</v>
       </c>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="43"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="46"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
       <c r="I6" s="31">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44522</v>
@@ -5330,7 +5330,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="16">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E39" s="34">
         <f>E38+1</f>
@@ -7950,12 +7950,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="B2:B4"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="E4:F4"/>
@@ -7963,6 +7957,12 @@
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:D28 D61 D73">
     <cfRule type="dataBar" priority="107">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A74748E-BFB0-4D4B-ADCE-066792B83215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2552EF1-DAC5-B149-AFC0-193D914F664A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>Recherche sécurité, loi, etc</t>
+  </si>
+  <si>
+    <t>Création base de données pour le matériel</t>
   </si>
 </sst>
 </file>
@@ -1159,6 +1162,13 @@
     <xf numFmtId="168" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1168,18 +1178,11 @@
     <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1238,7 +1241,37 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1845,15 +1878,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="59"/>
-      <tableStyleElement type="headerRow" dxfId="58"/>
-      <tableStyleElement type="totalRow" dxfId="57"/>
-      <tableStyleElement type="firstColumn" dxfId="56"/>
-      <tableStyleElement type="lastColumn" dxfId="55"/>
-      <tableStyleElement type="firstRowStripe" dxfId="54"/>
-      <tableStyleElement type="secondRowStripe" dxfId="53"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="52"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="51"/>
+      <tableStyleElement type="wholeTable" dxfId="62"/>
+      <tableStyleElement type="headerRow" dxfId="61"/>
+      <tableStyleElement type="totalRow" dxfId="60"/>
+      <tableStyleElement type="firstColumn" dxfId="59"/>
+      <tableStyleElement type="lastColumn" dxfId="58"/>
+      <tableStyleElement type="firstRowStripe" dxfId="57"/>
+      <tableStyleElement type="secondRowStripe" dxfId="56"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="55"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="54"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2212,11 +2245,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL76"/>
+  <dimension ref="A1:BL77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="106" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="7" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2249,7 +2282,7 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1"/>
@@ -2261,7 +2294,7 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="48"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2273,118 +2306,118 @@
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="44">
+      <c r="D4" s="42"/>
+      <c r="E4" s="48">
         <v>44459</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="36">
         <v>10</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="44">
         <f>I6</f>
         <v>44522</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="41">
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="44">
         <f>P6</f>
         <v>44529</v>
       </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="41">
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="44">
         <f>W6</f>
         <v>44536</v>
       </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="41">
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="44">
         <f>AD6</f>
         <v>44543</v>
       </c>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="41">
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="44">
         <f>AK6</f>
         <v>44550</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="41">
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="44">
         <f>AR6</f>
         <v>44557</v>
       </c>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="41">
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="44">
         <f>AY6</f>
         <v>44564</v>
       </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="41">
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="44">
         <f>BF6</f>
         <v>44571</v>
       </c>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="43"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="46"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
       <c r="I6" s="31">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44522</v>
@@ -2871,7 +2904,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H73" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H74" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="17"/>
@@ -5411,7 +5444,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="16">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E40" s="34">
         <f>E39</f>
@@ -5492,7 +5525,7 @@
         <v>86</v>
       </c>
       <c r="D41" s="16">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="E41" s="34">
         <f>E40</f>
@@ -5570,7 +5603,7 @@
         <v>33</v>
       </c>
       <c r="D42" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="34">
         <f>E36+21</f>
@@ -5720,16 +5753,24 @@
       <c r="B44" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="D44" s="16">
-        <v>0</v>
-      </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="34">
+        <f>E42</f>
+        <v>44547</v>
+      </c>
+      <c r="F44" s="34">
+        <f>E44+1</f>
+        <v>44548</v>
+      </c>
       <c r="G44" s="13"/>
-      <c r="H44" s="13" t="str">
+      <c r="H44" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
@@ -5797,14 +5838,20 @@
         <v>33</v>
       </c>
       <c r="D45" s="16">
-        <v>0</v>
-      </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="34">
+        <f>F44+1</f>
+        <v>44549</v>
+      </c>
+      <c r="F45" s="34">
+        <f>E45+7</f>
+        <v>44556</v>
+      </c>
       <c r="G45" s="13"/>
-      <c r="H45" s="13" t="str">
+      <c r="H45" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
@@ -5866,18 +5913,26 @@
     <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="25"/>
+        <v>89</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>37</v>
+      </c>
       <c r="D46" s="16">
-        <v>0</v>
-      </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
+        <v>0.7</v>
+      </c>
+      <c r="E46" s="34">
+        <f>F45</f>
+        <v>44556</v>
+      </c>
+      <c r="F46" s="34">
+        <f>E48-1</f>
+        <v>44574</v>
+      </c>
       <c r="G46" s="13"/>
-      <c r="H46" s="13" t="str">
+      <c r="H46" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>19</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
@@ -5938,27 +5993,25 @@
     </row>
     <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
-      <c r="B47" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="39">
-        <v>0</v>
-      </c>
-      <c r="E47" s="40">
-        <f>E42+28</f>
-        <v>44575</v>
-      </c>
-      <c r="F47" s="40">
-        <f>E47</f>
-        <v>44575</v>
+      <c r="B47" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="E47" s="34">
+        <f>F44+1</f>
+        <v>44549</v>
+      </c>
+      <c r="F47" s="34">
+        <f>E48-1</f>
+        <v>44574</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
@@ -6018,20 +6071,28 @@
       <c r="BL47" s="17"/>
     </row>
     <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="39">
+        <v>0</v>
+      </c>
+      <c r="E48" s="40">
+        <f>E42+28</f>
+        <v>44575</v>
+      </c>
+      <c r="F48" s="40">
+        <f>E48</f>
+        <v>44575</v>
+      </c>
       <c r="G48" s="13"/>
-      <c r="H48" s="13" t="str">
+      <c r="H48" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
@@ -6091,16 +6152,16 @@
       <c r="BL48" s="17"/>
     </row>
     <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="16">
-        <v>0</v>
-      </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
+      <c r="A49" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="30"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13" t="str">
         <f t="shared" si="5"/>
@@ -6166,11 +6227,9 @@
     <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C50" s="25"/>
       <c r="D50" s="16">
         <v>0</v>
       </c>
@@ -6240,13 +6299,22 @@
     </row>
     <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="16"/>
+      <c r="B51" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0</v>
+      </c>
       <c r="E51" s="34"/>
       <c r="F51" s="34"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="H51" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
@@ -6306,28 +6374,13 @@
     </row>
     <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
-      <c r="B52" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="16">
-        <v>0</v>
-      </c>
-      <c r="E52" s="34">
-        <f>E47+38</f>
-        <v>44613</v>
-      </c>
-      <c r="F52" s="34">
-        <f>E52+12</f>
-        <v>44625</v>
-      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="13">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
+      <c r="H52" s="13"/>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
@@ -6386,20 +6439,28 @@
       <c r="BL52" s="17"/>
     </row>
     <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="30"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="16">
+        <v>0</v>
+      </c>
+      <c r="E53" s="34">
+        <f>E48+38</f>
+        <v>44613</v>
+      </c>
+      <c r="F53" s="34">
+        <f>E53+12</f>
+        <v>44625</v>
+      </c>
       <c r="G53" s="13"/>
-      <c r="H53" s="13" t="str">
+      <c r="H53" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
@@ -6459,16 +6520,16 @@
       <c r="BL53" s="17"/>
     </row>
     <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="16">
-        <v>0</v>
-      </c>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
+      <c r="A54" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="30"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13" t="str">
         <f t="shared" si="5"/>
@@ -6534,11 +6595,9 @@
     <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C55" s="25"/>
       <c r="D55" s="16">
         <v>0</v>
       </c>
@@ -6608,9 +6667,15 @@
     </row>
     <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="16"/>
+      <c r="B56" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="16">
+        <v>0</v>
+      </c>
       <c r="E56" s="34"/>
       <c r="F56" s="34"/>
       <c r="G56" s="13"/>
@@ -6677,27 +6742,15 @@
     </row>
     <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
-      <c r="B57" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="16">
-        <v>0</v>
-      </c>
-      <c r="E57" s="34">
-        <f>E52+28</f>
-        <v>44641</v>
-      </c>
-      <c r="F57" s="34">
-        <f>E57+12</f>
-        <v>44653</v>
-      </c>
+      <c r="B57" s="27"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="13">
+      <c r="H57" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -6757,20 +6810,28 @@
       <c r="BL57" s="17"/>
     </row>
     <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="16">
+        <v>0</v>
+      </c>
+      <c r="E58" s="34">
+        <f>E53+28</f>
+        <v>44641</v>
+      </c>
+      <c r="F58" s="34">
+        <f>E58+12</f>
+        <v>44653</v>
+      </c>
       <c r="G58" s="13"/>
-      <c r="H58" s="13" t="str">
+      <c r="H58" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
@@ -6830,16 +6891,16 @@
       <c r="BL58" s="17"/>
     </row>
     <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="16">
-        <v>0</v>
-      </c>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
+      <c r="A59" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="30"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13" t="str">
         <f t="shared" si="5"/>
@@ -6905,11 +6966,9 @@
     <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C60" s="25"/>
       <c r="D60" s="16">
         <v>0</v>
       </c>
@@ -6979,9 +7038,15 @@
     </row>
     <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="16"/>
+      <c r="B61" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="16">
+        <v>0</v>
+      </c>
       <c r="E61" s="34"/>
       <c r="F61" s="34"/>
       <c r="G61" s="13"/>
@@ -7048,27 +7113,15 @@
     </row>
     <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
-      <c r="B62" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="39">
-        <v>0</v>
-      </c>
-      <c r="E62" s="40">
-        <f>E57+14</f>
-        <v>44655</v>
-      </c>
-      <c r="F62" s="40">
-        <f>E62+12</f>
-        <v>44667</v>
-      </c>
+      <c r="B62" s="27"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="13">
+      <c r="H62" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
@@ -7128,20 +7181,28 @@
       <c r="BL62" s="17"/>
     </row>
     <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="30"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="39">
+        <v>0</v>
+      </c>
+      <c r="E63" s="40">
+        <f>E58+14</f>
+        <v>44655</v>
+      </c>
+      <c r="F63" s="40">
+        <f>E63+12</f>
+        <v>44667</v>
+      </c>
       <c r="G63" s="13"/>
-      <c r="H63" s="13" t="str">
+      <c r="H63" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
@@ -7201,16 +7262,16 @@
       <c r="BL63" s="17"/>
     </row>
     <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="16">
-        <v>0</v>
-      </c>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
+      <c r="A64" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="30"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13" t="str">
         <f t="shared" si="5"/>
@@ -7276,11 +7337,9 @@
     <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
       <c r="B65" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C65" s="25"/>
       <c r="D65" s="16">
         <v>0</v>
       </c>
@@ -7350,9 +7409,15 @@
     </row>
     <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="16"/>
+      <c r="B66" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="16">
+        <v>0</v>
+      </c>
       <c r="E66" s="34"/>
       <c r="F66" s="34"/>
       <c r="G66" s="13"/>
@@ -7419,27 +7484,15 @@
     </row>
     <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
-      <c r="B67" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="16">
-        <v>0</v>
-      </c>
-      <c r="E67" s="34">
-        <f>E62+35</f>
-        <v>44690</v>
-      </c>
-      <c r="F67" s="34">
-        <f>E67+12</f>
-        <v>44702</v>
-      </c>
+      <c r="B67" s="27"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="13">
+      <c r="H67" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
@@ -7499,20 +7552,28 @@
       <c r="BL67" s="17"/>
     </row>
     <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="30"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="16">
+        <v>0</v>
+      </c>
+      <c r="E68" s="34">
+        <f>E63+35</f>
+        <v>44690</v>
+      </c>
+      <c r="F68" s="34">
+        <f>E68+12</f>
+        <v>44702</v>
+      </c>
       <c r="G68" s="13"/>
-      <c r="H68" s="13" t="str">
+      <c r="H68" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
@@ -7572,16 +7633,16 @@
       <c r="BL68" s="17"/>
     </row>
     <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="16">
-        <v>0</v>
-      </c>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
+      <c r="A69" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="30"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13" t="str">
         <f t="shared" si="5"/>
@@ -7647,11 +7708,9 @@
     <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
       <c r="B70" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C70" s="25"/>
       <c r="D70" s="16">
         <v>0</v>
       </c>
@@ -7721,9 +7780,15 @@
     </row>
     <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="16"/>
+      <c r="B71" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="16">
+        <v>0</v>
+      </c>
       <c r="E71" s="34"/>
       <c r="F71" s="34"/>
       <c r="G71" s="13"/>
@@ -7790,25 +7855,15 @@
     </row>
     <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
-      <c r="B72" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="39"/>
-      <c r="E72" s="40">
-        <f>E67+5</f>
-        <v>44695</v>
-      </c>
-      <c r="F72" s="40">
-        <f>E72</f>
-        <v>44695</v>
-      </c>
+      <c r="B72" s="27"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="13">
+      <c r="H72" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
@@ -7868,18 +7923,26 @@
       <c r="BL72" s="17"/>
     </row>
     <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="39"/>
+      <c r="E73" s="40">
+        <f>E68+5</f>
+        <v>44695</v>
+      </c>
+      <c r="F73" s="40">
+        <f>E73</f>
+        <v>44695</v>
+      </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="13" t="str">
+      <c r="H73" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
@@ -7938,24 +8001,89 @@
       <c r="BK73" s="17"/>
       <c r="BL73" s="17"/>
     </row>
-    <row r="74" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G74" s="6"/>
+    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="28"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
+      <c r="AB74" s="17"/>
+      <c r="AC74" s="17"/>
+      <c r="AD74" s="17"/>
+      <c r="AE74" s="17"/>
+      <c r="AF74" s="17"/>
+      <c r="AG74" s="17"/>
+      <c r="AH74" s="17"/>
+      <c r="AI74" s="17"/>
+      <c r="AJ74" s="17"/>
+      <c r="AK74" s="17"/>
+      <c r="AL74" s="17"/>
+      <c r="AM74" s="17"/>
+      <c r="AN74" s="17"/>
+      <c r="AO74" s="17"/>
+      <c r="AP74" s="17"/>
+      <c r="AQ74" s="17"/>
+      <c r="AR74" s="17"/>
+      <c r="AS74" s="17"/>
+      <c r="AT74" s="17"/>
+      <c r="AU74" s="17"/>
+      <c r="AV74" s="17"/>
+      <c r="AW74" s="17"/>
+      <c r="AX74" s="17"/>
+      <c r="AY74" s="17"/>
+      <c r="AZ74" s="17"/>
+      <c r="BA74" s="17"/>
+      <c r="BB74" s="17"/>
+      <c r="BC74" s="17"/>
+      <c r="BD74" s="17"/>
+      <c r="BE74" s="17"/>
+      <c r="BF74" s="17"/>
+      <c r="BG74" s="17"/>
+      <c r="BH74" s="17"/>
+      <c r="BI74" s="17"/>
+      <c r="BJ74" s="17"/>
+      <c r="BK74" s="17"/>
+      <c r="BL74" s="17"/>
     </row>
     <row r="75" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="10"/>
-      <c r="F75" s="22"/>
+      <c r="G75" s="6"/>
     </row>
     <row r="76" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="11"/>
+      <c r="C76" s="10"/>
+      <c r="F76" s="22"/>
+    </row>
+    <row r="77" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="B2:B4"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="E4:F4"/>
@@ -7963,9 +8091,15 @@
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D23:D28 D61 D73">
-    <cfRule type="dataBar" priority="107">
+  <conditionalFormatting sqref="D23:D28 D62 D74">
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7978,21 +8112,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:BL31 I58:BL61 I73:BL73 I34:BL36">
-    <cfRule type="expression" dxfId="50" priority="126">
+  <conditionalFormatting sqref="I6:BL31 I59:BL62 I74:BL74 I34:BL36">
+    <cfRule type="expression" dxfId="53" priority="130">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL31 I58:BL61 I73:BL73 I34:BL36">
-    <cfRule type="expression" dxfId="49" priority="120">
+  <conditionalFormatting sqref="I8:BL31 I59:BL62 I74:BL74 I34:BL36">
+    <cfRule type="expression" dxfId="52" priority="124">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="125" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D31 D34:D35">
-    <cfRule type="dataBar" priority="90">
+    <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8005,8 +8139,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43 D46">
-    <cfRule type="dataBar" priority="86">
+  <conditionalFormatting sqref="D43 D47">
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8019,21 +8153,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL46">
-    <cfRule type="expression" dxfId="47" priority="89">
+  <conditionalFormatting sqref="I43:BL45 I47:BL47">
+    <cfRule type="expression" dxfId="50" priority="93">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BL46">
-    <cfRule type="expression" dxfId="46" priority="87">
+  <conditionalFormatting sqref="I43:BL45 I47:BL47">
+    <cfRule type="expression" dxfId="49" priority="91">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="92" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="dataBar" priority="85">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8047,7 +8181,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="dataBar" priority="84">
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8060,21 +8194,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="44" priority="83">
+  <conditionalFormatting sqref="I48:BL48">
+    <cfRule type="expression" dxfId="47" priority="87">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="43" priority="81">
+  <conditionalFormatting sqref="I48:BL48">
+    <cfRule type="expression" dxfId="46" priority="85">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="86" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="dataBar" priority="77">
+  <conditionalFormatting sqref="D49">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8087,21 +8221,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL51">
-    <cfRule type="expression" dxfId="41" priority="80">
+  <conditionalFormatting sqref="I49:BL52">
+    <cfRule type="expression" dxfId="44" priority="84">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL51">
-    <cfRule type="expression" dxfId="40" priority="78">
+  <conditionalFormatting sqref="I49:BL52">
+    <cfRule type="expression" dxfId="43" priority="82">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="83" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D51">
-    <cfRule type="dataBar" priority="76">
+  <conditionalFormatting sqref="D50:D52">
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8114,8 +8248,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="dataBar" priority="75">
+  <conditionalFormatting sqref="D48">
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8128,21 +8262,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="38" priority="74">
+  <conditionalFormatting sqref="I53:BL53">
+    <cfRule type="expression" dxfId="41" priority="78">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="37" priority="72">
+  <conditionalFormatting sqref="I53:BL53">
+    <cfRule type="expression" dxfId="40" priority="76">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="77" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53 D56">
-    <cfRule type="dataBar" priority="68">
+  <conditionalFormatting sqref="D54 D57">
+    <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8155,21 +8289,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL56">
-    <cfRule type="expression" dxfId="35" priority="71">
+  <conditionalFormatting sqref="I54:BL57">
+    <cfRule type="expression" dxfId="38" priority="75">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL56">
-    <cfRule type="expression" dxfId="34" priority="69">
+  <conditionalFormatting sqref="I54:BL57">
+    <cfRule type="expression" dxfId="37" priority="73">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="74" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
-    <cfRule type="dataBar" priority="67">
+  <conditionalFormatting sqref="D55:D56">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8182,8 +8316,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="dataBar" priority="66">
+  <conditionalFormatting sqref="D53">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8196,21 +8330,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="32" priority="65">
+  <conditionalFormatting sqref="I58:BL58">
+    <cfRule type="expression" dxfId="35" priority="69">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="31" priority="63">
+  <conditionalFormatting sqref="I58:BL58">
+    <cfRule type="expression" dxfId="34" priority="67">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="68" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="dataBar" priority="59">
+  <conditionalFormatting sqref="D59">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8223,8 +8357,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:D60">
-    <cfRule type="dataBar" priority="58">
+  <conditionalFormatting sqref="D60:D61">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8237,8 +8371,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="dataBar" priority="57">
+  <conditionalFormatting sqref="D58">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8252,7 +8386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D21">
-    <cfRule type="dataBar" priority="56">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8266,7 +8400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="dataBar" priority="55">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8280,7 +8414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D15">
-    <cfRule type="dataBar" priority="54">
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8294,7 +8428,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D11">
-    <cfRule type="dataBar" priority="53">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8308,7 +8442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="dataBar" priority="52">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8322,7 +8456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="dataBar" priority="51">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8335,8 +8469,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="dataBar" priority="47">
+  <conditionalFormatting sqref="D67">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8349,12 +8483,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL66">
+  <conditionalFormatting sqref="I64:BL67">
+    <cfRule type="expression" dxfId="32" priority="54">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64:BL67">
+    <cfRule type="expression" dxfId="31" priority="52">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="53" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63:BL63">
     <cfRule type="expression" dxfId="29" priority="50">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL66">
+  <conditionalFormatting sqref="I63:BL63">
     <cfRule type="expression" dxfId="28" priority="48">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8362,21 +8509,8 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL62">
-    <cfRule type="expression" dxfId="26" priority="46">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL62">
-    <cfRule type="expression" dxfId="25" priority="44">
-      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="45" stopIfTrue="1">
-      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="dataBar" priority="43">
+  <conditionalFormatting sqref="D64">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8389,8 +8523,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64:D65">
-    <cfRule type="dataBar" priority="42">
+  <conditionalFormatting sqref="D65:D66">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8403,8 +8537,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="dataBar" priority="41">
+  <conditionalFormatting sqref="D63">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8417,8 +8551,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="dataBar" priority="37">
+  <conditionalFormatting sqref="D72">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8431,12 +8565,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL71">
+  <conditionalFormatting sqref="I69:BL72">
+    <cfRule type="expression" dxfId="26" priority="44">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69:BL72">
+    <cfRule type="expression" dxfId="25" priority="42">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="43" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68:BL68">
     <cfRule type="expression" dxfId="23" priority="40">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL71">
+  <conditionalFormatting sqref="I68:BL68">
     <cfRule type="expression" dxfId="22" priority="38">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8444,21 +8591,8 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:BL67">
-    <cfRule type="expression" dxfId="20" priority="36">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67:BL67">
-    <cfRule type="expression" dxfId="19" priority="34">
-      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="35" stopIfTrue="1">
-      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="dataBar" priority="33">
+  <conditionalFormatting sqref="D69">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8471,8 +8605,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D70">
-    <cfRule type="dataBar" priority="32">
+  <conditionalFormatting sqref="D70:D71">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8485,8 +8619,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="dataBar" priority="31">
+  <conditionalFormatting sqref="D68">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8499,21 +8633,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72:BL72">
-    <cfRule type="expression" dxfId="17" priority="26">
+  <conditionalFormatting sqref="I73:BL73">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72:BL72">
-    <cfRule type="expression" dxfId="16" priority="24">
+  <conditionalFormatting sqref="I73:BL73">
+    <cfRule type="expression" dxfId="19" priority="28">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="29" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="D73">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8527,20 +8661,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="17" priority="24">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8554,20 +8688,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="13" priority="18">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8581,20 +8715,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL38 I42:BL42">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL38 I42:BL42">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D38 D42">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8608,20 +8742,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8635,20 +8769,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL41">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL41">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D41">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8659,6 +8793,33 @@
           <x14:id>{C1B3F003-3F68-CC49-AB63-B0D1147E3D55}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9316D337-7817-DE46-AFFE-C805C3B27D72}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -8688,7 +8849,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D23:D28 D61 D73</xm:sqref>
+          <xm:sqref>D23:D28 D62 D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C6CDA553-F00B-9040-AE03-37F25434701D}">
@@ -8718,7 +8879,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D43 D46</xm:sqref>
+          <xm:sqref>D43 D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E4EE069E-C472-0944-A911-E48D9F42339F}">
@@ -8763,7 +8924,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D48</xm:sqref>
+          <xm:sqref>D49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{10E76EB4-A5D9-8B42-B2BB-1EBDB5A5BA3B}">
@@ -8778,7 +8939,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D49:D51</xm:sqref>
+          <xm:sqref>D50:D52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4846BB50-9C38-B546-942F-3725EC660D66}">
@@ -8793,7 +8954,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D47</xm:sqref>
+          <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AB17F493-D7F0-324C-9ACF-0E3094A618A9}">
@@ -8808,7 +8969,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D53 D56</xm:sqref>
+          <xm:sqref>D54 D57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BAFA23E1-0287-9548-9649-D32F5548852F}">
@@ -8823,7 +8984,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D54:D55</xm:sqref>
+          <xm:sqref>D55:D56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{896E2E65-6068-2F47-9A75-C55D7249861B}">
@@ -8838,7 +8999,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D52</xm:sqref>
+          <xm:sqref>D53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C6A06403-670F-534E-8F21-DC42DB09F967}">
@@ -8853,7 +9014,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D58</xm:sqref>
+          <xm:sqref>D59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49BCE480-64E7-FB45-BE4B-CA0DD84C9037}">
@@ -8868,7 +9029,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D59:D60</xm:sqref>
+          <xm:sqref>D60:D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9B8BE527-1549-6A4B-AC6C-9418AA24E56A}">
@@ -8883,7 +9044,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D57</xm:sqref>
+          <xm:sqref>D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BA965817-9865-AA4D-8FEB-DBA7CEB1546C}">
@@ -8988,7 +9149,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D66</xm:sqref>
+          <xm:sqref>D67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{75140910-7661-7F4D-A3E6-D6286731FED3}">
@@ -9003,7 +9164,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D63</xm:sqref>
+          <xm:sqref>D64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49707186-E25F-794E-9B85-F885402851F1}">
@@ -9018,7 +9179,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D64:D65</xm:sqref>
+          <xm:sqref>D65:D66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{165531A5-C2ED-9546-B5E7-C4386BF336F6}">
@@ -9033,7 +9194,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D62</xm:sqref>
+          <xm:sqref>D63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{01BC5A8C-D1ED-3D4E-A06C-49C16745AE5B}">
@@ -9048,7 +9209,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D71</xm:sqref>
+          <xm:sqref>D72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A7115771-2ACC-D648-98B3-635DA27D5FB4}">
@@ -9063,7 +9224,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D68</xm:sqref>
+          <xm:sqref>D69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09550F3A-3C2A-D040-9039-DDFAE031CDCD}">
@@ -9078,7 +9239,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D69:D70</xm:sqref>
+          <xm:sqref>D70:D71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC05D890-89A5-074B-8AD8-FC3A9C9788E8}">
@@ -9093,7 +9254,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D67</xm:sqref>
+          <xm:sqref>D68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{627E5414-EFBD-2C42-A412-3BA81AF60A4A}">
@@ -9108,7 +9269,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D72</xm:sqref>
+          <xm:sqref>D73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2F5C4985-1683-EE42-9D0D-BAF43CD41741}">
@@ -9185,6 +9346,21 @@
           </x14:cfRule>
           <xm:sqref>D40:D41</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9316D337-7817-DE46-AFFE-C805C3B27D72}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D46</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2552EF1-DAC5-B149-AFC0-193D914F664A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726C89E2-E2E3-2D4B-BF07-EEDCA4139C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -345,6 +345,18 @@
   </si>
   <si>
     <t>Création base de données pour le matériel</t>
+  </si>
+  <si>
+    <t>CH, CC, AM</t>
+  </si>
+  <si>
+    <t>Codage CRUD API</t>
+  </si>
+  <si>
+    <t>Codage CRUD Visual</t>
+  </si>
+  <si>
+    <t>Mise en place de l'API</t>
   </si>
 </sst>
 </file>
@@ -1162,13 +1174,6 @@
     <xf numFmtId="168" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1178,11 +1183,18 @@
     <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2245,11 +2257,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL77"/>
+  <dimension ref="A1:BL79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="106" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <pane ySplit="7" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2282,7 +2294,7 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1"/>
@@ -2294,7 +2306,7 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="47"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2306,341 +2318,341 @@
       <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="48">
+      <c r="D4" s="46"/>
+      <c r="E4" s="44">
         <v>44459</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="36">
-        <v>10</v>
-      </c>
-      <c r="I5" s="44">
+        <v>18</v>
+      </c>
+      <c r="I5" s="41">
         <f>I6</f>
-        <v>44522</v>
-      </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="44">
+        <v>44578</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="41">
         <f>P6</f>
-        <v>44529</v>
-      </c>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="44">
+        <v>44585</v>
+      </c>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="41">
         <f>W6</f>
-        <v>44536</v>
-      </c>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="44">
+        <v>44592</v>
+      </c>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="41">
         <f>AD6</f>
-        <v>44543</v>
-      </c>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="44">
+        <v>44599</v>
+      </c>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="41">
         <f>AK6</f>
-        <v>44550</v>
-      </c>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="44">
+        <v>44606</v>
+      </c>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="41">
         <f>AR6</f>
-        <v>44557</v>
-      </c>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="44">
+        <v>44613</v>
+      </c>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="41">
         <f>AY6</f>
-        <v>44564</v>
-      </c>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="44">
+        <v>44620</v>
+      </c>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="41">
         <f>BF6</f>
-        <v>44571</v>
-      </c>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="46"/>
+        <v>44627</v>
+      </c>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="43"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="I6" s="31">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
-        <v>44522</v>
+        <v>44578</v>
       </c>
       <c r="J6" s="32">
         <f>I6+1</f>
-        <v>44523</v>
+        <v>44579</v>
       </c>
       <c r="K6" s="32">
         <f t="shared" ref="K6:AX6" si="0">J6+1</f>
-        <v>44524</v>
+        <v>44580</v>
       </c>
       <c r="L6" s="32">
         <f t="shared" si="0"/>
-        <v>44525</v>
+        <v>44581</v>
       </c>
       <c r="M6" s="32">
         <f t="shared" si="0"/>
-        <v>44526</v>
+        <v>44582</v>
       </c>
       <c r="N6" s="32">
         <f t="shared" si="0"/>
-        <v>44527</v>
+        <v>44583</v>
       </c>
       <c r="O6" s="33">
         <f t="shared" si="0"/>
-        <v>44528</v>
+        <v>44584</v>
       </c>
       <c r="P6" s="31">
         <f>O6+1</f>
-        <v>44529</v>
+        <v>44585</v>
       </c>
       <c r="Q6" s="32">
         <f>P6+1</f>
-        <v>44530</v>
+        <v>44586</v>
       </c>
       <c r="R6" s="32">
         <f t="shared" si="0"/>
-        <v>44531</v>
+        <v>44587</v>
       </c>
       <c r="S6" s="32">
         <f t="shared" si="0"/>
-        <v>44532</v>
+        <v>44588</v>
       </c>
       <c r="T6" s="32">
         <f t="shared" si="0"/>
-        <v>44533</v>
+        <v>44589</v>
       </c>
       <c r="U6" s="32">
         <f t="shared" si="0"/>
-        <v>44534</v>
+        <v>44590</v>
       </c>
       <c r="V6" s="33">
         <f t="shared" si="0"/>
-        <v>44535</v>
+        <v>44591</v>
       </c>
       <c r="W6" s="31">
         <f>V6+1</f>
-        <v>44536</v>
+        <v>44592</v>
       </c>
       <c r="X6" s="32">
         <f>W6+1</f>
-        <v>44537</v>
+        <v>44593</v>
       </c>
       <c r="Y6" s="32">
         <f t="shared" si="0"/>
-        <v>44538</v>
+        <v>44594</v>
       </c>
       <c r="Z6" s="32">
         <f t="shared" si="0"/>
-        <v>44539</v>
+        <v>44595</v>
       </c>
       <c r="AA6" s="32">
         <f t="shared" si="0"/>
-        <v>44540</v>
+        <v>44596</v>
       </c>
       <c r="AB6" s="32">
         <f t="shared" si="0"/>
-        <v>44541</v>
+        <v>44597</v>
       </c>
       <c r="AC6" s="33">
         <f t="shared" si="0"/>
-        <v>44542</v>
+        <v>44598</v>
       </c>
       <c r="AD6" s="31">
         <f>AC6+1</f>
-        <v>44543</v>
+        <v>44599</v>
       </c>
       <c r="AE6" s="32">
         <f>AD6+1</f>
-        <v>44544</v>
+        <v>44600</v>
       </c>
       <c r="AF6" s="32">
         <f t="shared" si="0"/>
-        <v>44545</v>
+        <v>44601</v>
       </c>
       <c r="AG6" s="32">
         <f t="shared" si="0"/>
-        <v>44546</v>
+        <v>44602</v>
       </c>
       <c r="AH6" s="32">
         <f t="shared" si="0"/>
-        <v>44547</v>
+        <v>44603</v>
       </c>
       <c r="AI6" s="32">
         <f t="shared" si="0"/>
-        <v>44548</v>
+        <v>44604</v>
       </c>
       <c r="AJ6" s="33">
         <f t="shared" si="0"/>
-        <v>44549</v>
+        <v>44605</v>
       </c>
       <c r="AK6" s="31">
         <f>AJ6+1</f>
-        <v>44550</v>
+        <v>44606</v>
       </c>
       <c r="AL6" s="32">
         <f>AK6+1</f>
-        <v>44551</v>
+        <v>44607</v>
       </c>
       <c r="AM6" s="32">
         <f t="shared" si="0"/>
-        <v>44552</v>
+        <v>44608</v>
       </c>
       <c r="AN6" s="32">
         <f t="shared" si="0"/>
-        <v>44553</v>
+        <v>44609</v>
       </c>
       <c r="AO6" s="32">
         <f t="shared" si="0"/>
-        <v>44554</v>
+        <v>44610</v>
       </c>
       <c r="AP6" s="32">
         <f t="shared" si="0"/>
-        <v>44555</v>
+        <v>44611</v>
       </c>
       <c r="AQ6" s="33">
         <f t="shared" si="0"/>
-        <v>44556</v>
+        <v>44612</v>
       </c>
       <c r="AR6" s="31">
         <f>AQ6+1</f>
-        <v>44557</v>
+        <v>44613</v>
       </c>
       <c r="AS6" s="32">
         <f>AR6+1</f>
-        <v>44558</v>
+        <v>44614</v>
       </c>
       <c r="AT6" s="32">
         <f t="shared" si="0"/>
-        <v>44559</v>
+        <v>44615</v>
       </c>
       <c r="AU6" s="32">
         <f t="shared" si="0"/>
-        <v>44560</v>
+        <v>44616</v>
       </c>
       <c r="AV6" s="32">
         <f t="shared" si="0"/>
-        <v>44561</v>
+        <v>44617</v>
       </c>
       <c r="AW6" s="32">
         <f t="shared" si="0"/>
-        <v>44562</v>
+        <v>44618</v>
       </c>
       <c r="AX6" s="33">
         <f t="shared" si="0"/>
-        <v>44563</v>
+        <v>44619</v>
       </c>
       <c r="AY6" s="31">
         <f>AX6+1</f>
-        <v>44564</v>
+        <v>44620</v>
       </c>
       <c r="AZ6" s="32">
         <f>AY6+1</f>
-        <v>44565</v>
+        <v>44621</v>
       </c>
       <c r="BA6" s="32">
         <f t="shared" ref="BA6:BE6" si="1">AZ6+1</f>
-        <v>44566</v>
+        <v>44622</v>
       </c>
       <c r="BB6" s="32">
         <f t="shared" si="1"/>
-        <v>44567</v>
+        <v>44623</v>
       </c>
       <c r="BC6" s="32">
         <f t="shared" si="1"/>
-        <v>44568</v>
+        <v>44624</v>
       </c>
       <c r="BD6" s="32">
         <f t="shared" si="1"/>
-        <v>44569</v>
+        <v>44625</v>
       </c>
       <c r="BE6" s="33">
         <f t="shared" si="1"/>
-        <v>44570</v>
+        <v>44626</v>
       </c>
       <c r="BF6" s="31">
         <f>BE6+1</f>
-        <v>44571</v>
+        <v>44627</v>
       </c>
       <c r="BG6" s="32">
         <f>BF6+1</f>
-        <v>44572</v>
+        <v>44628</v>
       </c>
       <c r="BH6" s="32">
         <f t="shared" ref="BH6:BL6" si="2">BG6+1</f>
-        <v>44573</v>
+        <v>44629</v>
       </c>
       <c r="BI6" s="32">
         <f t="shared" si="2"/>
-        <v>44574</v>
+        <v>44630</v>
       </c>
       <c r="BJ6" s="32">
         <f t="shared" si="2"/>
-        <v>44575</v>
+        <v>44631</v>
       </c>
       <c r="BK6" s="32">
         <f t="shared" si="2"/>
-        <v>44576</v>
+        <v>44632</v>
       </c>
       <c r="BL6" s="33">
         <f t="shared" si="2"/>
-        <v>44577</v>
+        <v>44633</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2904,7 +2916,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H74" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H76" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="17"/>
@@ -5525,7 +5537,7 @@
         <v>86</v>
       </c>
       <c r="D41" s="16">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E41" s="34">
         <f>E40</f>
@@ -5919,7 +5931,7 @@
         <v>37</v>
       </c>
       <c r="D46" s="16">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E46" s="34">
         <f>F45</f>
@@ -5927,12 +5939,12 @@
       </c>
       <c r="F46" s="34">
         <f>E48-1</f>
-        <v>44574</v>
+        <v>44585</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
@@ -5996,9 +6008,11 @@
       <c r="B47" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="25"/>
+      <c r="C47" s="25" t="s">
+        <v>90</v>
+      </c>
       <c r="D47" s="16">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="E47" s="34">
         <f>F44+1</f>
@@ -6006,12 +6020,12 @@
       </c>
       <c r="F47" s="34">
         <f>E48-1</f>
-        <v>44574</v>
+        <v>44585</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
@@ -6082,12 +6096,12 @@
         <v>0</v>
       </c>
       <c r="E48" s="40">
-        <f>E42+28</f>
-        <v>44575</v>
+        <f>E42+39</f>
+        <v>44586</v>
       </c>
       <c r="F48" s="40">
         <f>E48</f>
-        <v>44575</v>
+        <v>44586</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13">
@@ -6233,12 +6247,18 @@
       <c r="D50" s="16">
         <v>0</v>
       </c>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
+      <c r="E50" s="34">
+        <f>F48</f>
+        <v>44586</v>
+      </c>
+      <c r="F50" s="34">
+        <f>E50</f>
+        <v>44586</v>
+      </c>
       <c r="G50" s="13"/>
-      <c r="H50" s="13" t="str">
+      <c r="H50" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
@@ -6308,12 +6328,18 @@
       <c r="D51" s="16">
         <v>0</v>
       </c>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
+      <c r="E51" s="34">
+        <f>F50+1</f>
+        <v>44587</v>
+      </c>
+      <c r="F51" s="34">
+        <f>E51+7</f>
+        <v>44594</v>
+      </c>
       <c r="G51" s="13"/>
-      <c r="H51" s="13" t="str">
+      <c r="H51" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
@@ -6374,9 +6400,13 @@
     </row>
     <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
-      <c r="B52" s="27"/>
+      <c r="B52" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="C52" s="25"/>
-      <c r="D52" s="16"/>
+      <c r="D52" s="16">
+        <v>0</v>
+      </c>
       <c r="E52" s="34"/>
       <c r="F52" s="34"/>
       <c r="G52" s="13"/>
@@ -6441,27 +6471,16 @@
     <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C53" s="25"/>
       <c r="D53" s="16">
         <v>0</v>
       </c>
-      <c r="E53" s="34">
-        <f>E48+38</f>
-        <v>44613</v>
-      </c>
-      <c r="F53" s="34">
-        <f>E53+12</f>
-        <v>44625</v>
-      </c>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
       <c r="G53" s="13"/>
-      <c r="H53" s="13">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
+      <c r="H53" s="13"/>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
@@ -6520,21 +6539,18 @@
       <c r="BL53" s="17"/>
     </row>
     <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="30"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="16">
+        <v>0</v>
+      </c>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H54" s="13"/>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
@@ -6595,18 +6611,26 @@
     <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="25"/>
+        <v>50</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>33</v>
+      </c>
       <c r="D55" s="16">
         <v>0</v>
       </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
+      <c r="E55" s="34">
+        <f>E48+27</f>
+        <v>44613</v>
+      </c>
+      <c r="F55" s="34">
+        <f>E55+12</f>
+        <v>44625</v>
+      </c>
       <c r="G55" s="13"/>
-      <c r="H55" s="13" t="str">
+      <c r="H55" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
@@ -6666,18 +6690,16 @@
       <c r="BL55" s="17"/>
     </row>
     <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="16">
-        <v>0</v>
-      </c>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
+      <c r="A56" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13" t="str">
         <f t="shared" si="5"/>
@@ -6742,9 +6764,13 @@
     </row>
     <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
-      <c r="B57" s="27"/>
+      <c r="B57" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="C57" s="25"/>
-      <c r="D57" s="16"/>
+      <c r="D57" s="16">
+        <v>0</v>
+      </c>
       <c r="E57" s="34"/>
       <c r="F57" s="34"/>
       <c r="G57" s="13"/>
@@ -6812,7 +6838,7 @@
     <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C58" s="25" t="s">
         <v>33</v>
@@ -6820,18 +6846,12 @@
       <c r="D58" s="16">
         <v>0</v>
       </c>
-      <c r="E58" s="34">
-        <f>E53+28</f>
-        <v>44641</v>
-      </c>
-      <c r="F58" s="34">
-        <f>E58+12</f>
-        <v>44653</v>
-      </c>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="13">
+      <c r="H58" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
@@ -6891,16 +6911,12 @@
       <c r="BL58" s="17"/>
     </row>
     <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="30"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13" t="str">
         <f t="shared" si="5"/>
@@ -6966,18 +6982,26 @@
     <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" s="25"/>
+        <v>54</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>33</v>
+      </c>
       <c r="D60" s="16">
         <v>0</v>
       </c>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
+      <c r="E60" s="34">
+        <f>E55+28</f>
+        <v>44641</v>
+      </c>
+      <c r="F60" s="34">
+        <f>E60+12</f>
+        <v>44653</v>
+      </c>
       <c r="G60" s="13"/>
-      <c r="H60" s="13" t="str">
+      <c r="H60" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
@@ -7037,18 +7061,16 @@
       <c r="BL60" s="17"/>
     </row>
     <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="16">
-        <v>0</v>
-      </c>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
+      <c r="A61" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="30"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13" t="str">
         <f t="shared" si="5"/>
@@ -7113,9 +7135,13 @@
     </row>
     <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
-      <c r="B62" s="27"/>
+      <c r="B62" s="27" t="s">
+        <v>55</v>
+      </c>
       <c r="C62" s="25"/>
-      <c r="D62" s="16"/>
+      <c r="D62" s="16">
+        <v>0</v>
+      </c>
       <c r="E62" s="34"/>
       <c r="F62" s="34"/>
       <c r="G62" s="13"/>
@@ -7182,27 +7208,21 @@
     </row>
     <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
-      <c r="B63" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="38" t="s">
+      <c r="B63" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="39">
+      <c r="D63" s="16">
         <v>0</v>
       </c>
-      <c r="E63" s="40">
-        <f>E58+14</f>
-        <v>44655</v>
-      </c>
-      <c r="F63" s="40">
-        <f>E63+12</f>
-        <v>44667</v>
-      </c>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="13">
+      <c r="H63" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
@@ -7262,16 +7282,12 @@
       <c r="BL63" s="17"/>
     </row>
     <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="30"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13" t="str">
         <f t="shared" si="5"/>
@@ -7336,19 +7352,27 @@
     </row>
     <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
-      <c r="B65" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="16">
+      <c r="B65" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="39">
         <v>0</v>
       </c>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
+      <c r="E65" s="40">
+        <f>E60+14</f>
+        <v>44655</v>
+      </c>
+      <c r="F65" s="40">
+        <f>E65+12</f>
+        <v>44667</v>
+      </c>
       <c r="G65" s="13"/>
-      <c r="H65" s="13" t="str">
+      <c r="H65" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
@@ -7408,18 +7432,16 @@
       <c r="BL65" s="17"/>
     </row>
     <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="16">
-        <v>0</v>
-      </c>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
+      <c r="A66" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="30"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13" t="str">
         <f t="shared" si="5"/>
@@ -7484,9 +7506,13 @@
     </row>
     <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
-      <c r="B67" s="27"/>
+      <c r="B67" s="27" t="s">
+        <v>58</v>
+      </c>
       <c r="C67" s="25"/>
-      <c r="D67" s="16"/>
+      <c r="D67" s="16">
+        <v>0</v>
+      </c>
       <c r="E67" s="34"/>
       <c r="F67" s="34"/>
       <c r="G67" s="13"/>
@@ -7554,7 +7580,7 @@
     <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
       <c r="B68" s="27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>33</v>
@@ -7562,18 +7588,12 @@
       <c r="D68" s="16">
         <v>0</v>
       </c>
-      <c r="E68" s="34">
-        <f>E63+35</f>
-        <v>44690</v>
-      </c>
-      <c r="F68" s="34">
-        <f>E68+12</f>
-        <v>44702</v>
-      </c>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="13">
+      <c r="H68" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
@@ -7633,16 +7653,12 @@
       <c r="BL68" s="17"/>
     </row>
     <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="30"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13" t="str">
         <f t="shared" si="5"/>
@@ -7708,18 +7724,26 @@
     <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
       <c r="B70" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="25"/>
+        <v>62</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>33</v>
+      </c>
       <c r="D70" s="16">
         <v>0</v>
       </c>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
+      <c r="E70" s="34">
+        <f>E65+35</f>
+        <v>44690</v>
+      </c>
+      <c r="F70" s="34">
+        <f>E70+12</f>
+        <v>44702</v>
+      </c>
       <c r="G70" s="13"/>
-      <c r="H70" s="13" t="str">
+      <c r="H70" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
@@ -7779,18 +7803,16 @@
       <c r="BL70" s="17"/>
     </row>
     <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="16">
-        <v>0</v>
-      </c>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
+      <c r="A71" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="30"/>
       <c r="G71" s="13"/>
       <c r="H71" s="13" t="str">
         <f t="shared" si="5"/>
@@ -7855,9 +7877,13 @@
     </row>
     <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
-      <c r="B72" s="27"/>
+      <c r="B72" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="C72" s="25"/>
-      <c r="D72" s="16"/>
+      <c r="D72" s="16">
+        <v>0</v>
+      </c>
       <c r="E72" s="34"/>
       <c r="F72" s="34"/>
       <c r="G72" s="13"/>
@@ -7924,25 +7950,21 @@
     </row>
     <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
-      <c r="B73" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="38" t="s">
+      <c r="B73" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="39"/>
-      <c r="E73" s="40">
-        <f>E68+5</f>
-        <v>44695</v>
-      </c>
-      <c r="F73" s="40">
-        <f>E73</f>
-        <v>44695</v>
-      </c>
+      <c r="D73" s="16">
+        <v>0</v>
+      </c>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
       <c r="G73" s="13"/>
-      <c r="H73" s="13">
+      <c r="H73" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
@@ -8002,14 +8024,12 @@
       <c r="BL73" s="17"/>
     </row>
     <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="28"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13" t="str">
         <f t="shared" si="5"/>
@@ -8072,18 +8092,174 @@
       <c r="BK74" s="17"/>
       <c r="BL74" s="17"/>
     </row>
-    <row r="75" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G75" s="6"/>
+    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="20"/>
+      <c r="B75" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40">
+        <f>E70+5</f>
+        <v>44695</v>
+      </c>
+      <c r="F75" s="40">
+        <f>E75</f>
+        <v>44695</v>
+      </c>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="17"/>
+      <c r="X75" s="17"/>
+      <c r="Y75" s="17"/>
+      <c r="Z75" s="17"/>
+      <c r="AA75" s="17"/>
+      <c r="AB75" s="17"/>
+      <c r="AC75" s="17"/>
+      <c r="AD75" s="17"/>
+      <c r="AE75" s="17"/>
+      <c r="AF75" s="17"/>
+      <c r="AG75" s="17"/>
+      <c r="AH75" s="17"/>
+      <c r="AI75" s="17"/>
+      <c r="AJ75" s="17"/>
+      <c r="AK75" s="17"/>
+      <c r="AL75" s="17"/>
+      <c r="AM75" s="17"/>
+      <c r="AN75" s="17"/>
+      <c r="AO75" s="17"/>
+      <c r="AP75" s="17"/>
+      <c r="AQ75" s="17"/>
+      <c r="AR75" s="17"/>
+      <c r="AS75" s="17"/>
+      <c r="AT75" s="17"/>
+      <c r="AU75" s="17"/>
+      <c r="AV75" s="17"/>
+      <c r="AW75" s="17"/>
+      <c r="AX75" s="17"/>
+      <c r="AY75" s="17"/>
+      <c r="AZ75" s="17"/>
+      <c r="BA75" s="17"/>
+      <c r="BB75" s="17"/>
+      <c r="BC75" s="17"/>
+      <c r="BD75" s="17"/>
+      <c r="BE75" s="17"/>
+      <c r="BF75" s="17"/>
+      <c r="BG75" s="17"/>
+      <c r="BH75" s="17"/>
+      <c r="BI75" s="17"/>
+      <c r="BJ75" s="17"/>
+      <c r="BK75" s="17"/>
+      <c r="BL75" s="17"/>
     </row>
-    <row r="76" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="10"/>
-      <c r="F76" s="22"/>
+    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="28"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="17"/>
+      <c r="W76" s="17"/>
+      <c r="X76" s="17"/>
+      <c r="Y76" s="17"/>
+      <c r="Z76" s="17"/>
+      <c r="AA76" s="17"/>
+      <c r="AB76" s="17"/>
+      <c r="AC76" s="17"/>
+      <c r="AD76" s="17"/>
+      <c r="AE76" s="17"/>
+      <c r="AF76" s="17"/>
+      <c r="AG76" s="17"/>
+      <c r="AH76" s="17"/>
+      <c r="AI76" s="17"/>
+      <c r="AJ76" s="17"/>
+      <c r="AK76" s="17"/>
+      <c r="AL76" s="17"/>
+      <c r="AM76" s="17"/>
+      <c r="AN76" s="17"/>
+      <c r="AO76" s="17"/>
+      <c r="AP76" s="17"/>
+      <c r="AQ76" s="17"/>
+      <c r="AR76" s="17"/>
+      <c r="AS76" s="17"/>
+      <c r="AT76" s="17"/>
+      <c r="AU76" s="17"/>
+      <c r="AV76" s="17"/>
+      <c r="AW76" s="17"/>
+      <c r="AX76" s="17"/>
+      <c r="AY76" s="17"/>
+      <c r="AZ76" s="17"/>
+      <c r="BA76" s="17"/>
+      <c r="BB76" s="17"/>
+      <c r="BC76" s="17"/>
+      <c r="BD76" s="17"/>
+      <c r="BE76" s="17"/>
+      <c r="BF76" s="17"/>
+      <c r="BG76" s="17"/>
+      <c r="BH76" s="17"/>
+      <c r="BI76" s="17"/>
+      <c r="BJ76" s="17"/>
+      <c r="BK76" s="17"/>
+      <c r="BL76" s="17"/>
     </row>
     <row r="77" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="11"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="10"/>
+      <c r="F78" s="22"/>
+    </row>
+    <row r="79" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="E4:F4"/>
@@ -8091,14 +8267,8 @@
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D23:D28 D62 D74">
+  <conditionalFormatting sqref="D23:D28 D64 D76">
     <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8112,12 +8282,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:BL31 I59:BL62 I74:BL74 I34:BL36">
+  <conditionalFormatting sqref="I6:BL31 I61:BL64 I76:BL76 I34:BL36">
     <cfRule type="expression" dxfId="53" priority="130">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL31 I59:BL62 I74:BL74 I34:BL36">
+  <conditionalFormatting sqref="I8:BL31 I61:BL64 I76:BL76 I34:BL36">
     <cfRule type="expression" dxfId="52" priority="124">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8221,12 +8391,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL52">
+  <conditionalFormatting sqref="I49:BL54">
     <cfRule type="expression" dxfId="44" priority="84">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BL52">
+  <conditionalFormatting sqref="I49:BL54">
     <cfRule type="expression" dxfId="43" priority="82">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8234,7 +8404,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50:D52">
+  <conditionalFormatting sqref="D50:D54">
     <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8262,12 +8432,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
+  <conditionalFormatting sqref="I55:BL55">
     <cfRule type="expression" dxfId="41" priority="78">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
+  <conditionalFormatting sqref="I55:BL55">
     <cfRule type="expression" dxfId="40" priority="76">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8275,7 +8445,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54 D57">
+  <conditionalFormatting sqref="D56 D59">
     <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8289,12 +8459,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL57">
+  <conditionalFormatting sqref="I56:BL59">
     <cfRule type="expression" dxfId="38" priority="75">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL57">
+  <conditionalFormatting sqref="I56:BL59">
     <cfRule type="expression" dxfId="37" priority="73">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8302,7 +8472,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D56">
+  <conditionalFormatting sqref="D57:D58">
     <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8316,7 +8486,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D55">
     <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8330,12 +8500,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="35" priority="69">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="34" priority="67">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8343,7 +8513,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D61">
     <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8357,7 +8527,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60:D61">
+  <conditionalFormatting sqref="D62:D63">
     <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8371,7 +8541,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D60">
     <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8469,7 +8639,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D69">
     <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8483,12 +8653,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:BL67">
+  <conditionalFormatting sqref="I66:BL69">
     <cfRule type="expression" dxfId="32" priority="54">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:BL67">
+  <conditionalFormatting sqref="I66:BL69">
     <cfRule type="expression" dxfId="31" priority="52">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8496,12 +8666,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL63">
+  <conditionalFormatting sqref="I65:BL65">
     <cfRule type="expression" dxfId="29" priority="50">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL63">
+  <conditionalFormatting sqref="I65:BL65">
     <cfRule type="expression" dxfId="28" priority="48">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8509,7 +8679,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D66">
     <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8523,7 +8693,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65:D66">
+  <conditionalFormatting sqref="D67:D68">
     <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8537,7 +8707,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D65">
     <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8551,7 +8721,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
+  <conditionalFormatting sqref="D74">
     <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8565,12 +8735,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BL72">
+  <conditionalFormatting sqref="I71:BL74">
     <cfRule type="expression" dxfId="26" priority="44">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BL72">
+  <conditionalFormatting sqref="I71:BL74">
     <cfRule type="expression" dxfId="25" priority="42">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8578,12 +8748,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL68">
+  <conditionalFormatting sqref="I70:BL70">
     <cfRule type="expression" dxfId="23" priority="40">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL68">
+  <conditionalFormatting sqref="I70:BL70">
     <cfRule type="expression" dxfId="22" priority="38">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8591,7 +8761,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
+  <conditionalFormatting sqref="D71">
     <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8605,7 +8775,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:D71">
+  <conditionalFormatting sqref="D72:D73">
     <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8619,7 +8789,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D70">
     <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8633,12 +8803,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73:BL73">
+  <conditionalFormatting sqref="I75:BL75">
     <cfRule type="expression" dxfId="20" priority="30">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73:BL73">
+  <conditionalFormatting sqref="I75:BL75">
     <cfRule type="expression" dxfId="19" priority="28">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8646,7 +8816,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
+  <conditionalFormatting sqref="D75">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8849,7 +9019,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D23:D28 D62 D74</xm:sqref>
+          <xm:sqref>D23:D28 D64 D76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C6CDA553-F00B-9040-AE03-37F25434701D}">
@@ -8939,7 +9109,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D50:D52</xm:sqref>
+          <xm:sqref>D50:D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4846BB50-9C38-B546-942F-3725EC660D66}">
@@ -8969,7 +9139,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D54 D57</xm:sqref>
+          <xm:sqref>D56 D59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BAFA23E1-0287-9548-9649-D32F5548852F}">
@@ -8984,7 +9154,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D55:D56</xm:sqref>
+          <xm:sqref>D57:D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{896E2E65-6068-2F47-9A75-C55D7249861B}">
@@ -8999,7 +9169,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D53</xm:sqref>
+          <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C6A06403-670F-534E-8F21-DC42DB09F967}">
@@ -9014,7 +9184,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D59</xm:sqref>
+          <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49BCE480-64E7-FB45-BE4B-CA0DD84C9037}">
@@ -9029,7 +9199,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D60:D61</xm:sqref>
+          <xm:sqref>D62:D63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9B8BE527-1549-6A4B-AC6C-9418AA24E56A}">
@@ -9044,7 +9214,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D58</xm:sqref>
+          <xm:sqref>D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BA965817-9865-AA4D-8FEB-DBA7CEB1546C}">
@@ -9149,7 +9319,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D67</xm:sqref>
+          <xm:sqref>D69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{75140910-7661-7F4D-A3E6-D6286731FED3}">
@@ -9164,7 +9334,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D64</xm:sqref>
+          <xm:sqref>D66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49707186-E25F-794E-9B85-F885402851F1}">
@@ -9179,7 +9349,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D65:D66</xm:sqref>
+          <xm:sqref>D67:D68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{165531A5-C2ED-9546-B5E7-C4386BF336F6}">
@@ -9194,7 +9364,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D63</xm:sqref>
+          <xm:sqref>D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{01BC5A8C-D1ED-3D4E-A06C-49C16745AE5B}">
@@ -9209,7 +9379,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D72</xm:sqref>
+          <xm:sqref>D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A7115771-2ACC-D648-98B3-635DA27D5FB4}">
@@ -9224,7 +9394,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D69</xm:sqref>
+          <xm:sqref>D71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09550F3A-3C2A-D040-9039-DDFAE031CDCD}">
@@ -9239,7 +9409,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D70:D71</xm:sqref>
+          <xm:sqref>D72:D73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC05D890-89A5-074B-8AD8-FC3A9C9788E8}">
@@ -9254,7 +9424,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D68</xm:sqref>
+          <xm:sqref>D70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{627E5414-EFBD-2C42-A412-3BA81AF60A4A}">
@@ -9269,7 +9439,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D73</xm:sqref>
+          <xm:sqref>D75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2F5C4985-1683-EE42-9D0D-BAF43CD41741}">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDBCFDC-A2F0-4938-86F1-30A08B55C796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F046DC-096E-4F28-AEC7-7C5F4AF1DD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -1180,28 +1180,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -1227,6 +1205,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="24" fillId="37" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2293,8 +2293,8 @@
   <dimension ref="A1:BL77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="106" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="1"/>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19"/>
-      <c r="B3" s="38"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2350,118 +2350,118 @@
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="39">
+      <c r="D4" s="47"/>
+      <c r="E4" s="48">
         <v>44459</v>
       </c>
-      <c r="F4" s="39"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="31">
         <v>13</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="42">
         <f>I6</f>
         <v>44543</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="35">
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="42">
         <f>P6</f>
         <v>44550</v>
       </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="35">
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="42">
         <f>W6</f>
         <v>44557</v>
       </c>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="35">
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="42">
         <f>AD6</f>
         <v>44564</v>
       </c>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="35">
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="42">
         <f>AK6</f>
         <v>44571</v>
       </c>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="35">
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="42">
         <f>AR6</f>
         <v>44578</v>
       </c>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="35">
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="42">
         <f>AY6</f>
         <v>44585</v>
       </c>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="36"/>
-      <c r="BD5" s="36"/>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="35">
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="42">
         <f>BF6</f>
         <v>44592</v>
       </c>
-      <c r="BG5" s="36"/>
-      <c r="BH5" s="36"/>
-      <c r="BI5" s="36"/>
-      <c r="BJ5" s="36"/>
-      <c r="BK5" s="36"/>
-      <c r="BL5" s="37"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="43"/>
+      <c r="BK5" s="43"/>
+      <c r="BL5" s="44"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44543</v>
@@ -2939,13 +2939,13 @@
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
         <f t="shared" ref="H8:H74" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
@@ -3012,19 +3012,19 @@
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="35">
         <v>1</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="36">
         <v>44384</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="36">
         <f>E9</f>
         <v>44384</v>
       </c>
@@ -3418,20 +3418,20 @@
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="35">
         <v>1</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="36">
         <f>F13+1</f>
         <v>44470</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="36">
         <f>E14</f>
         <v>44470</v>
       </c>
@@ -3663,13 +3663,13 @@
       <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3977,20 +3977,20 @@
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="35">
         <v>1</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="36">
         <f>E14+18</f>
         <v>44488</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="36">
         <f>E21</f>
         <v>44488</v>
       </c>
@@ -4384,13 +4384,13 @@
       <c r="A26" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13" t="str">
         <f t="shared" si="4"/>
@@ -4455,20 +4455,20 @@
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="35">
         <v>1</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="36">
         <f>E21+17</f>
         <v>44505</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="36">
         <f>E27</f>
         <v>44505</v>
       </c>
@@ -5016,20 +5016,20 @@
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="35">
         <v>1</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="36">
         <f>E27+21</f>
         <v>44526</v>
       </c>
-      <c r="F34" s="44">
+      <c r="F34" s="36">
         <f>E34</f>
         <v>44526</v>
       </c>
@@ -5099,13 +5099,13 @@
       <c r="A35" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13" t="str">
         <f t="shared" si="4"/>
@@ -5491,20 +5491,20 @@
     </row>
     <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="35">
         <v>1</v>
       </c>
-      <c r="E40" s="44">
+      <c r="E40" s="36">
         <f>E34+21</f>
         <v>44547</v>
       </c>
-      <c r="F40" s="44">
+      <c r="F40" s="36">
         <f>E40</f>
         <v>44547</v>
       </c>
@@ -5574,13 +5574,13 @@
       <c r="A41" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13" t="str">
         <f t="shared" si="4"/>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="32" t="s">
         <v>67</v>
       </c>
       <c r="C43" s="22" t="s">
@@ -5969,20 +5969,20 @@
     </row>
     <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="42" t="s">
+      <c r="C46" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="35">
         <v>0</v>
       </c>
-      <c r="E46" s="44">
+      <c r="E46" s="36">
         <f>E40+39</f>
         <v>44586</v>
       </c>
-      <c r="F46" s="44">
+      <c r="F46" s="36">
         <f>E46</f>
         <v>44586</v>
       </c>
@@ -6052,13 +6052,13 @@
       <c r="A47" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13" t="str">
         <f t="shared" si="4"/>
@@ -6493,20 +6493,20 @@
     </row>
     <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18"/>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="43">
+      <c r="D53" s="35">
         <v>0</v>
       </c>
-      <c r="E53" s="44">
+      <c r="E53" s="36">
         <f>E46+27</f>
         <v>44613</v>
       </c>
-      <c r="F53" s="44">
+      <c r="F53" s="36">
         <f>E53+12</f>
         <v>44625</v>
       </c>
@@ -6576,13 +6576,13 @@
       <c r="A54" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="46"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13" t="str">
         <f t="shared" si="4"/>
@@ -6864,20 +6864,20 @@
     </row>
     <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18"/>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="43">
+      <c r="D58" s="35">
         <v>0</v>
       </c>
-      <c r="E58" s="44">
+      <c r="E58" s="36">
         <f>E53+28</f>
         <v>44641</v>
       </c>
-      <c r="F58" s="44">
+      <c r="F58" s="36">
         <f>E58+12</f>
         <v>44653</v>
       </c>
@@ -6947,13 +6947,13 @@
       <c r="A59" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="46"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13" t="str">
         <f t="shared" si="4"/>
@@ -7235,20 +7235,20 @@
     </row>
     <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="18"/>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="42" t="s">
+      <c r="C63" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="43">
+      <c r="D63" s="35">
         <v>0</v>
       </c>
-      <c r="E63" s="44">
+      <c r="E63" s="36">
         <f>E58+14</f>
         <v>44655</v>
       </c>
-      <c r="F63" s="44">
+      <c r="F63" s="36">
         <f>E63+12</f>
         <v>44667</v>
       </c>
@@ -7318,13 +7318,13 @@
       <c r="A64" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="46"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13" t="str">
         <f t="shared" si="4"/>
@@ -7606,20 +7606,20 @@
     </row>
     <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="42" t="s">
+      <c r="C68" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D68" s="43">
+      <c r="D68" s="35">
         <v>0</v>
       </c>
-      <c r="E68" s="44">
+      <c r="E68" s="36">
         <f>E63+35</f>
         <v>44690</v>
       </c>
-      <c r="F68" s="44">
+      <c r="F68" s="36">
         <f>E68+12</f>
         <v>44702</v>
       </c>
@@ -7689,13 +7689,13 @@
       <c r="A69" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C69" s="46"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13" t="str">
         <f t="shared" si="4"/>
@@ -7977,18 +7977,18 @@
     </row>
     <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="43"/>
-      <c r="E73" s="44">
+      <c r="D73" s="35"/>
+      <c r="E73" s="36">
         <f>E68+5</f>
         <v>44695</v>
       </c>
-      <c r="F73" s="44">
+      <c r="F73" s="36">
         <f>E73</f>
         <v>44695</v>
       </c>
@@ -8137,11 +8137,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -8150,6 +8145,11 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
   <conditionalFormatting sqref="D62 D74 D15:D16 D22:D25 D18:D20">
     <cfRule type="dataBar" priority="117">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F046DC-096E-4F28-AEC7-7C5F4AF1DD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79188808-F4EA-4633-9A3D-447988D87625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18870" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -383,14 +383,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="169" formatCode="ddd\,\ dd/mm/yyyy"/>
-    <numFmt numFmtId="170" formatCode="d"/>
-    <numFmt numFmtId="171" formatCode="d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="167" formatCode="ddd\,\ dd/mm/yyyy"/>
+    <numFmt numFmtId="168" formatCode="d"/>
+    <numFmt numFmtId="169" formatCode="d\ mmm\ yyyy;@"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1030,7 +1030,7 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -1039,10 +1039,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyFill="0">
@@ -1052,9 +1052,9 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1162,19 +1162,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="10">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1192,7 +1192,7 @@
     <xf numFmtId="9" fontId="4" fillId="38" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="38" borderId="2" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="166" fontId="4" fillId="38" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="2" xfId="12" applyFont="1" applyFill="1">
@@ -1204,17 +1204,17 @@
     <xf numFmtId="9" fontId="24" fillId="37" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="37" borderId="2" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="166" fontId="24" fillId="37" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
@@ -1226,7 +1226,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1286,7 +1286,37 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="66">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1923,15 +1953,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="62"/>
-      <tableStyleElement type="headerRow" dxfId="61"/>
-      <tableStyleElement type="totalRow" dxfId="60"/>
-      <tableStyleElement type="firstColumn" dxfId="59"/>
-      <tableStyleElement type="lastColumn" dxfId="58"/>
-      <tableStyleElement type="firstRowStripe" dxfId="57"/>
-      <tableStyleElement type="secondRowStripe" dxfId="56"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="55"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="54"/>
+      <tableStyleElement type="wholeTable" dxfId="65"/>
+      <tableStyleElement type="headerRow" dxfId="64"/>
+      <tableStyleElement type="totalRow" dxfId="63"/>
+      <tableStyleElement type="firstColumn" dxfId="62"/>
+      <tableStyleElement type="lastColumn" dxfId="61"/>
+      <tableStyleElement type="firstRowStripe" dxfId="60"/>
+      <tableStyleElement type="secondRowStripe" dxfId="59"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="58"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="57"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2292,9 +2322,9 @@
   </sheetPr>
   <dimension ref="A1:BL77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="106" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2302,7 +2332,7 @@
     <col min="1" max="1" width="2.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="2.42578125" customWidth="1"/>
@@ -3108,13 +3138,13 @@
         <v>44459</v>
       </c>
       <c r="F10" s="29">
-        <f>E10+8</f>
-        <v>44467</v>
+        <f>E10+6</f>
+        <v>44465</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -3186,11 +3216,11 @@
       </c>
       <c r="E11" s="29">
         <f>F10</f>
-        <v>44467</v>
+        <v>44465</v>
       </c>
       <c r="F11" s="29">
         <f>E11</f>
-        <v>44467</v>
+        <v>44465</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13">
@@ -3347,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="29">
-        <f>F12+1</f>
+        <f>F10+1</f>
         <v>44466</v>
       </c>
       <c r="F13" s="29">
@@ -3594,13 +3624,13 @@
         <v>44471</v>
       </c>
       <c r="F16" s="29">
-        <f>E16+7</f>
-        <v>44478</v>
+        <f>E16+6</f>
+        <v>44477</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
@@ -3744,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="29">
-        <f>F16</f>
+        <f>F16+1</f>
         <v>44478</v>
       </c>
       <c r="F18" s="29">
@@ -3825,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="29">
-        <f>F16</f>
+        <f>F16+1</f>
         <v>44478</v>
       </c>
       <c r="F19" s="29">
@@ -3906,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="29">
-        <f>F16</f>
+        <f>F16+1</f>
         <v>44478</v>
       </c>
       <c r="F20" s="29">
@@ -4234,13 +4264,13 @@
         <v>44489</v>
       </c>
       <c r="F24" s="29">
-        <f>E24+11</f>
-        <v>44500</v>
+        <f>E24+15</f>
+        <v>44504</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
@@ -4315,13 +4345,13 @@
         <v>44489</v>
       </c>
       <c r="F25" s="29">
-        <f>E25+11</f>
-        <v>44500</v>
+        <f>E25+15</f>
+        <v>44504</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
@@ -4381,21 +4411,26 @@
       <c r="BL25" s="15"/>
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="35">
+        <v>1</v>
+      </c>
+      <c r="E26" s="36">
+        <f>F25+1</f>
+        <v>44505</v>
+      </c>
+      <c r="F26" s="36">
+        <f>E26</f>
+        <v>44505</v>
+      </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H26" s="13"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -4454,26 +4489,21 @@
       <c r="BL26" s="15"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="35">
-        <v>1</v>
-      </c>
-      <c r="E27" s="36">
-        <f>E21+17</f>
-        <v>44505</v>
-      </c>
-      <c r="F27" s="36">
-        <f>E27</f>
-        <v>44505</v>
-      </c>
+      <c r="A27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="H27" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
@@ -4543,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="29">
-        <f>F27</f>
+        <f>F26</f>
         <v>44505</v>
       </c>
       <c r="F28" s="29">
@@ -5026,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="36">
-        <f>E27+21</f>
+        <f>E26+21</f>
         <v>44526</v>
       </c>
       <c r="F34" s="36">
@@ -6131,12 +6161,12 @@
         <v>0</v>
       </c>
       <c r="E48" s="29">
-        <f>F46</f>
-        <v>44586</v>
+        <f>F46+1</f>
+        <v>44587</v>
       </c>
       <c r="F48" s="29">
         <f>E48</f>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13">
@@ -6213,11 +6243,11 @@
       </c>
       <c r="E49" s="29">
         <f>F48+1</f>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="F49" s="29">
         <f>E49+7</f>
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="13">
@@ -8152,7 +8182,7 @@
     <mergeCell ref="AR5:AX5"/>
   </mergeCells>
   <conditionalFormatting sqref="D62 D74 D15:D16 D22:D25 D18:D20">
-    <cfRule type="dataBar" priority="117">
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8165,21 +8195,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL62 I74:BL74 I32:BL34 I6:BL29">
-    <cfRule type="expression" dxfId="53" priority="120">
+  <conditionalFormatting sqref="I59:BL62 I74:BL74 I32:BL34 I6:BL25 I27:BL29">
+    <cfRule type="expression" dxfId="56" priority="124">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL62 I74:BL74 I32:BL34 I8:BL29">
-    <cfRule type="expression" dxfId="52" priority="118">
+  <conditionalFormatting sqref="I59:BL62 I74:BL74 I32:BL34 I8:BL25 I27:BL29">
+    <cfRule type="expression" dxfId="55" priority="122">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="123" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D33 D28:D29">
-    <cfRule type="dataBar" priority="116">
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8193,7 +8223,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="dataBar" priority="112">
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8207,20 +8237,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL43 I45:BL45">
-    <cfRule type="expression" dxfId="50" priority="115">
+    <cfRule type="expression" dxfId="53" priority="119">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL43 I45:BL45">
-    <cfRule type="expression" dxfId="49" priority="113">
+    <cfRule type="expression" dxfId="52" priority="117">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="118" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D43">
-    <cfRule type="dataBar" priority="111">
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8234,33 +8264,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="47" priority="109">
+    <cfRule type="expression" dxfId="50" priority="113">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="46" priority="107">
+    <cfRule type="expression" dxfId="49" priority="111">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="112" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:BL52">
-    <cfRule type="expression" dxfId="44" priority="106">
+    <cfRule type="expression" dxfId="47" priority="110">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:BL52">
-    <cfRule type="expression" dxfId="43" priority="104">
+    <cfRule type="expression" dxfId="46" priority="108">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="109" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D52">
-    <cfRule type="dataBar" priority="102">
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8274,20 +8304,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="41" priority="100">
+    <cfRule type="expression" dxfId="44" priority="104">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="40" priority="98">
+    <cfRule type="expression" dxfId="43" priority="102">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="103" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="dataBar" priority="94">
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8301,20 +8331,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:BL57">
-    <cfRule type="expression" dxfId="38" priority="97">
+    <cfRule type="expression" dxfId="41" priority="101">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:BL57">
-    <cfRule type="expression" dxfId="37" priority="95">
+    <cfRule type="expression" dxfId="40" priority="99">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="100" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D56">
-    <cfRule type="dataBar" priority="93">
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8328,20 +8358,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="35" priority="91">
+    <cfRule type="expression" dxfId="38" priority="95">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL58">
-    <cfRule type="expression" dxfId="34" priority="89">
+    <cfRule type="expression" dxfId="37" priority="93">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="94" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60:D61">
-    <cfRule type="dataBar" priority="87">
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8355,7 +8385,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D13">
-    <cfRule type="dataBar" priority="83">
+    <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8369,7 +8399,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="dataBar" priority="82">
+    <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8383,7 +8413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="dataBar" priority="76">
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8397,11 +8427,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64:BL67">
+    <cfRule type="expression" dxfId="35" priority="83">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64:BL67">
+    <cfRule type="expression" dxfId="34" priority="81">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="82" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63:BL63">
     <cfRule type="expression" dxfId="32" priority="79">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:BL67">
+  <conditionalFormatting sqref="I63:BL63">
     <cfRule type="expression" dxfId="31" priority="77">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8409,21 +8452,8 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL63">
-    <cfRule type="expression" dxfId="29" priority="75">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL63">
-    <cfRule type="expression" dxfId="28" priority="73">
-      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="74" stopIfTrue="1">
-      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D65:D66">
-    <cfRule type="dataBar" priority="71">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8437,7 +8467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="dataBar" priority="66">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8451,11 +8481,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69:BL72">
+    <cfRule type="expression" dxfId="29" priority="73">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69:BL72">
+    <cfRule type="expression" dxfId="28" priority="71">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="72" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68:BL68">
     <cfRule type="expression" dxfId="26" priority="69">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BL72">
+  <conditionalFormatting sqref="I68:BL68">
     <cfRule type="expression" dxfId="25" priority="67">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8463,21 +8506,8 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL68">
-    <cfRule type="expression" dxfId="23" priority="65">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL68">
-    <cfRule type="expression" dxfId="22" priority="63">
-      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="64" stopIfTrue="1">
-      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D70:D71">
-    <cfRule type="dataBar" priority="61">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8491,11 +8521,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73:BL73">
+    <cfRule type="expression" dxfId="23" priority="63">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73:BL73">
+    <cfRule type="expression" dxfId="22" priority="61">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="62" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:BL30">
     <cfRule type="expression" dxfId="20" priority="59">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73:BL73">
+  <conditionalFormatting sqref="I30:BL30">
     <cfRule type="expression" dxfId="19" priority="57">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8503,21 +8546,8 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="17" priority="55">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="16" priority="53">
-      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="54" stopIfTrue="1">
-      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="dataBar" priority="52">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8531,20 +8561,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="14" priority="51">
+    <cfRule type="expression" dxfId="17" priority="55">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="13" priority="49">
+    <cfRule type="expression" dxfId="16" priority="53">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="54" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="dataBar" priority="48">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8558,20 +8588,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL36 I40:BL40">
-    <cfRule type="expression" dxfId="11" priority="47">
+    <cfRule type="expression" dxfId="14" priority="51">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BL36 I40:BL40">
-    <cfRule type="expression" dxfId="10" priority="45">
+    <cfRule type="expression" dxfId="13" priority="49">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="50" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="dataBar" priority="44">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8585,20 +8615,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="8" priority="43">
+    <cfRule type="expression" dxfId="11" priority="47">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="7" priority="41">
+    <cfRule type="expression" dxfId="10" priority="45">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="46" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8612,20 +8642,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL39">
-    <cfRule type="expression" dxfId="5" priority="39">
+    <cfRule type="expression" dxfId="8" priority="43">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL39">
-    <cfRule type="expression" dxfId="4" priority="37">
+    <cfRule type="expression" dxfId="7" priority="41">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="42" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D39">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8639,7 +8669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8653,20 +8683,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="5" priority="39">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="1" priority="33">
+    <cfRule type="expression" dxfId="4" priority="37">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="38" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8680,7 +8710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8694,7 +8724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8708,7 +8738,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8722,7 +8752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8735,22 +8765,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F178A5D3-79A7-422B-AF82-AD24019B579E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8764,7 +8780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8778,7 +8794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8792,7 +8808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8806,7 +8822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8820,7 +8836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8834,7 +8850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8848,7 +8864,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8861,8 +8877,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="D27">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8876,7 +8892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8890,7 +8906,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8904,7 +8920,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8918,7 +8934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8932,7 +8948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8946,7 +8962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8960,6 +8976,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{61C46EA8-F9E7-45B9-92F2-CA890223D6D5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:BL26">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:BL26">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8968,7 +9011,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{61C46EA8-F9E7-45B9-92F2-CA890223D6D5}</x14:id>
+          <x14:id>{8A618AE5-6A10-402E-8877-7F8471EF9C36}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9363,21 +9406,6 @@
           <xm:sqref>D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F178A5D3-79A7-422B-AF82-AD24019B579E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DE1AD479-0A37-44F4-AC20-51FF297665D3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -9510,7 +9538,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D26</xm:sqref>
+          <xm:sqref>D27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7E87486C-C83F-46B9-BB58-D6A8CEED9048}">
@@ -9617,6 +9645,21 @@
           </x14:cfRule>
           <xm:sqref>D69</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8A618AE5-6A10-402E-8877-7F8471EF9C36}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D26</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79188808-F4EA-4633-9A3D-447988D87625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D2C3C3-059C-4D63-A6ED-F84583A091F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18870" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -1207,7 +1207,6 @@
     <xf numFmtId="166" fontId="24" fillId="37" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1229,6 +1228,7 @@
     <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2323,8 +2323,8 @@
   <dimension ref="A1:BL77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="1"/>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19"/>
-      <c r="B3" s="45"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2380,341 +2380,341 @@
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48">
+      <c r="D4" s="46"/>
+      <c r="E4" s="47">
         <v>44459</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="31">
-        <v>13</v>
-      </c>
-      <c r="I5" s="42">
+        <v>19</v>
+      </c>
+      <c r="I5" s="41">
         <f>I6</f>
-        <v>44543</v>
-      </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="42">
+        <v>44585</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="41">
         <f>P6</f>
-        <v>44550</v>
-      </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="42">
+        <v>44592</v>
+      </c>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="41">
         <f>W6</f>
-        <v>44557</v>
-      </c>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="42">
+        <v>44599</v>
+      </c>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="41">
         <f>AD6</f>
-        <v>44564</v>
-      </c>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="42">
+        <v>44606</v>
+      </c>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="41">
         <f>AK6</f>
-        <v>44571</v>
-      </c>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="42">
+        <v>44613</v>
+      </c>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="41">
         <f>AR6</f>
-        <v>44578</v>
-      </c>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="43"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="42">
+        <v>44620</v>
+      </c>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="41">
         <f>AY6</f>
-        <v>44585</v>
-      </c>
-      <c r="AZ5" s="43"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="42">
+        <v>44627</v>
+      </c>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="41">
         <f>BF6</f>
-        <v>44592</v>
-      </c>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="43"/>
-      <c r="BK5" s="43"/>
-      <c r="BL5" s="44"/>
+        <v>44634</v>
+      </c>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="43"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
-        <v>44543</v>
+        <v>44585</v>
       </c>
       <c r="J6" s="27">
         <f>I6+1</f>
-        <v>44544</v>
+        <v>44586</v>
       </c>
       <c r="K6" s="27">
         <f t="shared" ref="K6:AX6" si="0">J6+1</f>
-        <v>44545</v>
+        <v>44587</v>
       </c>
       <c r="L6" s="27">
         <f t="shared" si="0"/>
-        <v>44546</v>
+        <v>44588</v>
       </c>
       <c r="M6" s="27">
         <f t="shared" si="0"/>
-        <v>44547</v>
+        <v>44589</v>
       </c>
       <c r="N6" s="27">
         <f t="shared" si="0"/>
-        <v>44548</v>
+        <v>44590</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" si="0"/>
-        <v>44549</v>
+        <v>44591</v>
       </c>
       <c r="P6" s="26">
         <f>O6+1</f>
-        <v>44550</v>
+        <v>44592</v>
       </c>
       <c r="Q6" s="27">
         <f>P6+1</f>
-        <v>44551</v>
+        <v>44593</v>
       </c>
       <c r="R6" s="27">
         <f t="shared" si="0"/>
-        <v>44552</v>
+        <v>44594</v>
       </c>
       <c r="S6" s="27">
         <f t="shared" si="0"/>
-        <v>44553</v>
+        <v>44595</v>
       </c>
       <c r="T6" s="27">
         <f t="shared" si="0"/>
-        <v>44554</v>
+        <v>44596</v>
       </c>
       <c r="U6" s="27">
         <f t="shared" si="0"/>
-        <v>44555</v>
+        <v>44597</v>
       </c>
       <c r="V6" s="28">
         <f t="shared" si="0"/>
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="W6" s="26">
         <f>V6+1</f>
-        <v>44557</v>
+        <v>44599</v>
       </c>
       <c r="X6" s="27">
         <f>W6+1</f>
-        <v>44558</v>
+        <v>44600</v>
       </c>
       <c r="Y6" s="27">
         <f t="shared" si="0"/>
-        <v>44559</v>
+        <v>44601</v>
       </c>
       <c r="Z6" s="27">
         <f t="shared" si="0"/>
-        <v>44560</v>
+        <v>44602</v>
       </c>
       <c r="AA6" s="27">
         <f t="shared" si="0"/>
-        <v>44561</v>
+        <v>44603</v>
       </c>
       <c r="AB6" s="27">
         <f t="shared" si="0"/>
-        <v>44562</v>
+        <v>44604</v>
       </c>
       <c r="AC6" s="28">
         <f t="shared" si="0"/>
-        <v>44563</v>
+        <v>44605</v>
       </c>
       <c r="AD6" s="26">
         <f>AC6+1</f>
-        <v>44564</v>
+        <v>44606</v>
       </c>
       <c r="AE6" s="27">
         <f>AD6+1</f>
-        <v>44565</v>
+        <v>44607</v>
       </c>
       <c r="AF6" s="27">
         <f t="shared" si="0"/>
-        <v>44566</v>
+        <v>44608</v>
       </c>
       <c r="AG6" s="27">
         <f t="shared" si="0"/>
-        <v>44567</v>
+        <v>44609</v>
       </c>
       <c r="AH6" s="27">
         <f t="shared" si="0"/>
-        <v>44568</v>
+        <v>44610</v>
       </c>
       <c r="AI6" s="27">
         <f t="shared" si="0"/>
-        <v>44569</v>
+        <v>44611</v>
       </c>
       <c r="AJ6" s="28">
         <f t="shared" si="0"/>
-        <v>44570</v>
+        <v>44612</v>
       </c>
       <c r="AK6" s="26">
         <f>AJ6+1</f>
-        <v>44571</v>
+        <v>44613</v>
       </c>
       <c r="AL6" s="27">
         <f>AK6+1</f>
-        <v>44572</v>
+        <v>44614</v>
       </c>
       <c r="AM6" s="27">
         <f t="shared" si="0"/>
-        <v>44573</v>
+        <v>44615</v>
       </c>
       <c r="AN6" s="27">
         <f t="shared" si="0"/>
-        <v>44574</v>
+        <v>44616</v>
       </c>
       <c r="AO6" s="27">
         <f t="shared" si="0"/>
-        <v>44575</v>
+        <v>44617</v>
       </c>
       <c r="AP6" s="27">
         <f t="shared" si="0"/>
-        <v>44576</v>
+        <v>44618</v>
       </c>
       <c r="AQ6" s="28">
         <f t="shared" si="0"/>
-        <v>44577</v>
+        <v>44619</v>
       </c>
       <c r="AR6" s="26">
         <f>AQ6+1</f>
-        <v>44578</v>
+        <v>44620</v>
       </c>
       <c r="AS6" s="27">
         <f>AR6+1</f>
-        <v>44579</v>
+        <v>44621</v>
       </c>
       <c r="AT6" s="27">
         <f t="shared" si="0"/>
-        <v>44580</v>
+        <v>44622</v>
       </c>
       <c r="AU6" s="27">
         <f t="shared" si="0"/>
-        <v>44581</v>
+        <v>44623</v>
       </c>
       <c r="AV6" s="27">
         <f t="shared" si="0"/>
-        <v>44582</v>
+        <v>44624</v>
       </c>
       <c r="AW6" s="27">
         <f t="shared" si="0"/>
-        <v>44583</v>
+        <v>44625</v>
       </c>
       <c r="AX6" s="28">
         <f t="shared" si="0"/>
-        <v>44584</v>
+        <v>44626</v>
       </c>
       <c r="AY6" s="26">
         <f>AX6+1</f>
-        <v>44585</v>
+        <v>44627</v>
       </c>
       <c r="AZ6" s="27">
         <f>AY6+1</f>
-        <v>44586</v>
+        <v>44628</v>
       </c>
       <c r="BA6" s="27">
         <f t="shared" ref="BA6:BE6" si="1">AZ6+1</f>
-        <v>44587</v>
+        <v>44629</v>
       </c>
       <c r="BB6" s="27">
         <f t="shared" si="1"/>
-        <v>44588</v>
+        <v>44630</v>
       </c>
       <c r="BC6" s="27">
         <f t="shared" si="1"/>
-        <v>44589</v>
+        <v>44631</v>
       </c>
       <c r="BD6" s="27">
         <f t="shared" si="1"/>
-        <v>44590</v>
+        <v>44632</v>
       </c>
       <c r="BE6" s="28">
         <f t="shared" si="1"/>
-        <v>44591</v>
+        <v>44633</v>
       </c>
       <c r="BF6" s="26">
         <f>BE6+1</f>
-        <v>44592</v>
+        <v>44634</v>
       </c>
       <c r="BG6" s="27">
         <f>BF6+1</f>
-        <v>44593</v>
+        <v>44635</v>
       </c>
       <c r="BH6" s="27">
         <f t="shared" ref="BH6:BL6" si="2">BG6+1</f>
-        <v>44594</v>
+        <v>44636</v>
       </c>
       <c r="BI6" s="27">
         <f t="shared" si="2"/>
-        <v>44595</v>
+        <v>44637</v>
       </c>
       <c r="BJ6" s="27">
         <f t="shared" si="2"/>
-        <v>44596</v>
+        <v>44638</v>
       </c>
       <c r="BK6" s="27">
         <f t="shared" si="2"/>
-        <v>44597</v>
+        <v>44639</v>
       </c>
       <c r="BL6" s="28">
         <f t="shared" si="2"/>
-        <v>44598</v>
+        <v>44640</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6006,7 +6006,7 @@
         <v>30</v>
       </c>
       <c r="D46" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="36">
         <f>E40+39</f>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="29">
         <f>F46+1</f>
@@ -8167,6 +8167,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -8175,11 +8180,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
   <conditionalFormatting sqref="D62 D74 D15:D16 D22:D25 D18:D20">
     <cfRule type="dataBar" priority="121">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D2C3C3-059C-4D63-A6ED-F84583A091F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276C56EC-EADB-8E40-A8F7-C87458E54831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -383,14 +383,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="8">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="167" formatCode="ddd\,\ dd/mm/yyyy"/>
-    <numFmt numFmtId="168" formatCode="d"/>
-    <numFmt numFmtId="169" formatCode="d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="169" formatCode="ddd\,\ dd/mm/yyyy"/>
+    <numFmt numFmtId="170" formatCode="d"/>
+    <numFmt numFmtId="171" formatCode="d\ mmm\ yyyy;@"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1030,7 +1030,7 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -1039,10 +1039,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyFill="0">
@@ -1052,9 +1052,9 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1162,19 +1162,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="10">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1192,7 +1192,7 @@
     <xf numFmtId="9" fontId="4" fillId="38" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="38" borderId="2" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="168" fontId="4" fillId="38" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="2" xfId="12" applyFont="1" applyFill="1">
@@ -1204,16 +1204,17 @@
     <xf numFmtId="9" fontId="24" fillId="37" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="37" borderId="2" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="168" fontId="24" fillId="37" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
@@ -1225,10 +1226,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="9">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2323,24 +2323,24 @@
   <dimension ref="A1:BL77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:G6"/>
+      <pane ySplit="7" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="9.5" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2354,9 +2354,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="1"/>
@@ -2366,9 +2366,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
-      <c r="B3" s="44"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2376,122 +2376,122 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47">
+      <c r="D4" s="47"/>
+      <c r="E4" s="48">
         <v>44459</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="48"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="31">
         <v>19</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="42">
         <f>I6</f>
         <v>44585</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="41">
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="42">
         <f>P6</f>
         <v>44592</v>
       </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="41">
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="42">
         <f>W6</f>
         <v>44599</v>
       </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="41">
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="42">
         <f>AD6</f>
         <v>44606</v>
       </c>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="41">
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="42">
         <f>AK6</f>
         <v>44613</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="41">
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="42">
         <f>AR6</f>
         <v>44620</v>
       </c>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="41">
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="42">
         <f>AY6</f>
         <v>44627</v>
       </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="41">
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="42">
         <f>BF6</f>
         <v>44634</v>
       </c>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="43"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="43"/>
+      <c r="BK5" s="43"/>
+      <c r="BL5" s="44"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44585</v>
@@ -2717,7 +2717,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -3038,7 +3038,7 @@
       <c r="BK8" s="15"/>
       <c r="BL8" s="15"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="BK9" s="15"/>
       <c r="BL9" s="15"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
@@ -3203,7 +3203,7 @@
       <c r="BK10" s="15"/>
       <c r="BL10" s="15"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="24" t="s">
         <v>22</v>
@@ -3284,7 +3284,7 @@
       <c r="BK11" s="15"/>
       <c r="BL11" s="15"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="24" t="s">
         <v>19</v>
@@ -3365,7 +3365,7 @@
       <c r="BK12" s="15"/>
       <c r="BL12" s="15"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="24" t="s">
         <v>23</v>
@@ -3446,7 +3446,7 @@
       <c r="BK13" s="15"/>
       <c r="BL13" s="15"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="33" t="s">
         <v>82</v>
@@ -3527,7 +3527,7 @@
       <c r="BK14" s="15"/>
       <c r="BL14" s="15"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="24" t="s">
         <v>24</v>
@@ -3608,7 +3608,7 @@
       <c r="BK15" s="15"/>
       <c r="BL15" s="15"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="24" t="s">
         <v>25</v>
@@ -3689,7 +3689,7 @@
       <c r="BK16" s="15"/>
       <c r="BL16" s="15"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
@@ -3762,7 +3762,7 @@
       <c r="BK17" s="15"/>
       <c r="BL17" s="15"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="24" t="s">
         <v>26</v>
@@ -3843,7 +3843,7 @@
       <c r="BK18" s="15"/>
       <c r="BL18" s="15"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="24" t="s">
         <v>29</v>
@@ -3924,7 +3924,7 @@
       <c r="BK19" s="15"/>
       <c r="BL19" s="15"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="24" t="s">
         <v>35</v>
@@ -4005,7 +4005,7 @@
       <c r="BK20" s="15"/>
       <c r="BL20" s="15"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="33" t="s">
         <v>27</v>
@@ -4086,7 +4086,7 @@
       <c r="BK21" s="15"/>
       <c r="BL21" s="15"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="24" t="s">
         <v>28</v>
@@ -4167,7 +4167,7 @@
       <c r="BK22" s="15"/>
       <c r="BL22" s="15"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="24" t="s">
         <v>38</v>
@@ -4248,7 +4248,7 @@
       <c r="BK23" s="15"/>
       <c r="BL23" s="15"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="24" t="s">
         <v>39</v>
@@ -4329,7 +4329,7 @@
       <c r="BK24" s="15"/>
       <c r="BL24" s="15"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="24" t="s">
         <v>40</v>
@@ -4410,7 +4410,7 @@
       <c r="BK25" s="15"/>
       <c r="BL25" s="15"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="33" t="s">
         <v>41</v>
@@ -4488,7 +4488,7 @@
       <c r="BK26" s="15"/>
       <c r="BL26" s="15"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>8</v>
       </c>
@@ -4561,7 +4561,7 @@
       <c r="BK27" s="15"/>
       <c r="BL27" s="15"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="24" t="s">
         <v>42</v>
@@ -4642,7 +4642,7 @@
       <c r="BK28" s="15"/>
       <c r="BL28" s="15"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="24" t="s">
         <v>43</v>
@@ -4723,7 +4723,7 @@
       <c r="BK29" s="15"/>
       <c r="BL29" s="15"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>61</v>
@@ -4804,7 +4804,7 @@
       <c r="BK30" s="15"/>
       <c r="BL30" s="15"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="24" t="s">
         <v>62</v>
@@ -4885,7 +4885,7 @@
       <c r="BK31" s="15"/>
       <c r="BL31" s="15"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="24" t="s">
         <v>63</v>
@@ -4966,7 +4966,7 @@
       <c r="BK32" s="15"/>
       <c r="BL32" s="15"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="24" t="s">
         <v>70</v>
@@ -5044,7 +5044,7 @@
       <c r="BK33" s="15"/>
       <c r="BL33" s="15"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="33" t="s">
         <v>50</v>
@@ -5125,7 +5125,7 @@
       <c r="BK34" s="15"/>
       <c r="BL34" s="15"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>8</v>
       </c>
@@ -5198,7 +5198,7 @@
       <c r="BK35" s="15"/>
       <c r="BL35" s="15"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="24" t="s">
         <v>64</v>
@@ -5279,7 +5279,7 @@
       <c r="BK36" s="15"/>
       <c r="BL36" s="15"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="24" t="s">
         <v>69</v>
@@ -5360,7 +5360,7 @@
       <c r="BK37" s="15"/>
       <c r="BL37" s="15"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>74</v>
@@ -5441,7 +5441,7 @@
       <c r="BK38" s="15"/>
       <c r="BL38" s="15"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="24" t="s">
         <v>71</v>
@@ -5519,7 +5519,7 @@
       <c r="BK39" s="15"/>
       <c r="BL39" s="15"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="33" t="s">
         <v>65</v>
@@ -5600,7 +5600,7 @@
       <c r="BK40" s="15"/>
       <c r="BL40" s="15"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>8</v>
       </c>
@@ -5673,7 +5673,7 @@
       <c r="BK41" s="15"/>
       <c r="BL41" s="15"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="24" t="s">
         <v>66</v>
@@ -5754,7 +5754,7 @@
       <c r="BK42" s="15"/>
       <c r="BL42" s="15"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="32" t="s">
         <v>67</v>
@@ -5835,7 +5835,7 @@
       <c r="BK43" s="15"/>
       <c r="BL43" s="15"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="24" t="s">
         <v>75</v>
@@ -5916,7 +5916,7 @@
       <c r="BK44" s="15"/>
       <c r="BL44" s="15"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="24" t="s">
         <v>73</v>
@@ -5997,7 +5997,7 @@
       <c r="BK45" s="15"/>
       <c r="BL45" s="15"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="33" t="s">
         <v>44</v>
@@ -6078,7 +6078,7 @@
       <c r="BK46" s="15"/>
       <c r="BL46" s="15"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>8</v>
       </c>
@@ -6151,7 +6151,7 @@
       <c r="BK47" s="15"/>
       <c r="BL47" s="15"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="24" t="s">
         <v>45</v>
@@ -6230,7 +6230,7 @@
       <c r="BK48" s="15"/>
       <c r="BL48" s="15"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="24" t="s">
         <v>46</v>
@@ -6239,7 +6239,7 @@
         <v>30</v>
       </c>
       <c r="D49" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="29">
         <f>F48+1</f>
@@ -6311,17 +6311,25 @@
       <c r="BK49" s="15"/>
       <c r="BL49" s="15"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="22"/>
+      <c r="C50" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="D50" s="14">
-        <v>0</v>
-      </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
+        <v>0.4</v>
+      </c>
+      <c r="E50" s="29">
+        <f>F49+1</f>
+        <v>44596</v>
+      </c>
+      <c r="F50" s="29">
+        <f>E50+21</f>
+        <v>44617</v>
+      </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="15"/>
@@ -6381,7 +6389,7 @@
       <c r="BK50" s="15"/>
       <c r="BL50" s="15"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="24" t="s">
         <v>78</v>
@@ -6390,8 +6398,14 @@
       <c r="D51" s="14">
         <v>0</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
+      <c r="E51" s="29">
+        <f>E50</f>
+        <v>44596</v>
+      </c>
+      <c r="F51" s="29">
+        <f>F50</f>
+        <v>44617</v>
+      </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="15"/>
@@ -6451,7 +6465,7 @@
       <c r="BK51" s="15"/>
       <c r="BL51" s="15"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="24" t="s">
         <v>79</v>
@@ -6460,8 +6474,14 @@
       <c r="D52" s="14">
         <v>0</v>
       </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
+      <c r="E52" s="29">
+        <f>E51</f>
+        <v>44596</v>
+      </c>
+      <c r="F52" s="29">
+        <f>F51</f>
+        <v>44617</v>
+      </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="15"/>
@@ -6521,7 +6541,7 @@
       <c r="BK52" s="15"/>
       <c r="BL52" s="15"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="33" t="s">
         <v>47</v>
@@ -6602,7 +6622,7 @@
       <c r="BK53" s="15"/>
       <c r="BL53" s="15"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>8</v>
       </c>
@@ -6675,7 +6695,7 @@
       <c r="BK54" s="15"/>
       <c r="BL54" s="15"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="24" t="s">
         <v>48</v>
@@ -6748,7 +6768,7 @@
       <c r="BK55" s="15"/>
       <c r="BL55" s="15"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="24" t="s">
         <v>49</v>
@@ -6823,7 +6843,7 @@
       <c r="BK56" s="15"/>
       <c r="BL56" s="15"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="24"/>
       <c r="C57" s="22"/>
@@ -6892,7 +6912,7 @@
       <c r="BK57" s="15"/>
       <c r="BL57" s="15"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
       <c r="B58" s="33" t="s">
         <v>51</v>
@@ -6973,7 +6993,7 @@
       <c r="BK58" s="15"/>
       <c r="BL58" s="15"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>8</v>
       </c>
@@ -7046,7 +7066,7 @@
       <c r="BK59" s="15"/>
       <c r="BL59" s="15"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="24" t="s">
         <v>52</v>
@@ -7119,7 +7139,7 @@
       <c r="BK60" s="15"/>
       <c r="BL60" s="15"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="24" t="s">
         <v>53</v>
@@ -7194,7 +7214,7 @@
       <c r="BK61" s="15"/>
       <c r="BL61" s="15"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="24"/>
       <c r="C62" s="22"/>
@@ -7263,7 +7283,7 @@
       <c r="BK62" s="15"/>
       <c r="BL62" s="15"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="33" t="s">
         <v>54</v>
@@ -7344,7 +7364,7 @@
       <c r="BK63" s="15"/>
       <c r="BL63" s="15"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>8</v>
       </c>
@@ -7417,7 +7437,7 @@
       <c r="BK64" s="15"/>
       <c r="BL64" s="15"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="24" t="s">
         <v>55</v>
@@ -7490,7 +7510,7 @@
       <c r="BK65" s="15"/>
       <c r="BL65" s="15"/>
     </row>
-    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
       <c r="B66" s="24" t="s">
         <v>56</v>
@@ -7565,7 +7585,7 @@
       <c r="BK66" s="15"/>
       <c r="BL66" s="15"/>
     </row>
-    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="24"/>
       <c r="C67" s="22"/>
@@ -7634,7 +7654,7 @@
       <c r="BK67" s="15"/>
       <c r="BL67" s="15"/>
     </row>
-    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="33" t="s">
         <v>59</v>
@@ -7715,7 +7735,7 @@
       <c r="BK68" s="15"/>
       <c r="BL68" s="15"/>
     </row>
-    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>8</v>
       </c>
@@ -7788,7 +7808,7 @@
       <c r="BK69" s="15"/>
       <c r="BL69" s="15"/>
     </row>
-    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="24" t="s">
         <v>58</v>
@@ -7861,7 +7881,7 @@
       <c r="BK70" s="15"/>
       <c r="BL70" s="15"/>
     </row>
-    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="24" t="s">
         <v>57</v>
@@ -7936,7 +7956,7 @@
       <c r="BK71" s="15"/>
       <c r="BL71" s="15"/>
     </row>
-    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
       <c r="B72" s="24"/>
       <c r="C72" s="22"/>
@@ -8005,7 +8025,7 @@
       <c r="BK72" s="15"/>
       <c r="BL72" s="15"/>
     </row>
-    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="33" t="s">
         <v>60</v>
@@ -8084,7 +8104,7 @@
       <c r="BK73" s="15"/>
       <c r="BL73" s="15"/>
     </row>
-    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>9</v>
       </c>
@@ -8155,23 +8175,18 @@
       <c r="BK74" s="15"/>
       <c r="BL74" s="15"/>
     </row>
-    <row r="75" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="10"/>
       <c r="F76" s="20"/>
     </row>
-    <row r="77" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -8180,6 +8195,11 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
   <conditionalFormatting sqref="D62 D74 D15:D16 D22:D25 D18:D20">
     <cfRule type="dataBar" priority="121">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276C56EC-EADB-8E40-A8F7-C87458E54831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C979C740-8673-48E2-99D9-8409A546F741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -327,9 +327,6 @@
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>Sprint 5</t>
-  </si>
-  <si>
     <t>Sprint 6</t>
   </si>
   <si>
@@ -376,6 +373,9 @@
       </rPr>
       <t>2,5 semaines de vacances de Noël)</t>
     </r>
+  </si>
+  <si>
+    <t>Sprint 5 (avec ± 2 semaines de vacances de février)</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1207,6 @@
     <xf numFmtId="168" fontId="24" fillId="37" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1229,6 +1228,7 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2322,25 +2322,25 @@
   </sheetPr>
   <dimension ref="A1:BL77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="53.81640625" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="2.5" customWidth="1"/>
-    <col min="8" max="8" width="9.5" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="2.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2354,9 +2354,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="19"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="1"/>
@@ -2366,9 +2366,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="19"/>
-      <c r="B3" s="45"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2376,122 +2376,122 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48">
+      <c r="D4" s="46"/>
+      <c r="E4" s="47">
         <v>44459</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="31">
         <v>19</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="41">
         <f>I6</f>
         <v>44585</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="42">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="41">
         <f>P6</f>
         <v>44592</v>
       </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="42">
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="41">
         <f>W6</f>
         <v>44599</v>
       </c>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="42">
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="41">
         <f>AD6</f>
         <v>44606</v>
       </c>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="42">
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="41">
         <f>AK6</f>
         <v>44613</v>
       </c>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="42">
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="41">
         <f>AR6</f>
         <v>44620</v>
       </c>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="43"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="42">
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="41">
         <f>AY6</f>
         <v>44627</v>
       </c>
-      <c r="AZ5" s="43"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="42">
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="41">
         <f>BF6</f>
         <v>44634</v>
       </c>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="43"/>
-      <c r="BK5" s="43"/>
-      <c r="BL5" s="44"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="43"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44585</v>
@@ -2717,7 +2717,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -3038,7 +3038,7 @@
       <c r="BK8" s="15"/>
       <c r="BL8" s="15"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="BK9" s="15"/>
       <c r="BL9" s="15"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
@@ -3203,7 +3203,7 @@
       <c r="BK10" s="15"/>
       <c r="BL10" s="15"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18"/>
       <c r="B11" s="24" t="s">
         <v>22</v>
@@ -3284,7 +3284,7 @@
       <c r="BK11" s="15"/>
       <c r="BL11" s="15"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
       <c r="B12" s="24" t="s">
         <v>19</v>
@@ -3365,7 +3365,7 @@
       <c r="BK12" s="15"/>
       <c r="BL12" s="15"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18"/>
       <c r="B13" s="24" t="s">
         <v>23</v>
@@ -3446,7 +3446,7 @@
       <c r="BK13" s="15"/>
       <c r="BL13" s="15"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="18"/>
       <c r="B14" s="33" t="s">
         <v>82</v>
@@ -3527,7 +3527,7 @@
       <c r="BK14" s="15"/>
       <c r="BL14" s="15"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18"/>
       <c r="B15" s="24" t="s">
         <v>24</v>
@@ -3608,7 +3608,7 @@
       <c r="BK15" s="15"/>
       <c r="BL15" s="15"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18"/>
       <c r="B16" s="24" t="s">
         <v>25</v>
@@ -3689,7 +3689,7 @@
       <c r="BK16" s="15"/>
       <c r="BL16" s="15"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
@@ -3762,7 +3762,7 @@
       <c r="BK17" s="15"/>
       <c r="BL17" s="15"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18"/>
       <c r="B18" s="24" t="s">
         <v>26</v>
@@ -3843,7 +3843,7 @@
       <c r="BK18" s="15"/>
       <c r="BL18" s="15"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18"/>
       <c r="B19" s="24" t="s">
         <v>29</v>
@@ -3924,7 +3924,7 @@
       <c r="BK19" s="15"/>
       <c r="BL19" s="15"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18"/>
       <c r="B20" s="24" t="s">
         <v>35</v>
@@ -4005,7 +4005,7 @@
       <c r="BK20" s="15"/>
       <c r="BL20" s="15"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18"/>
       <c r="B21" s="33" t="s">
         <v>27</v>
@@ -4086,7 +4086,7 @@
       <c r="BK21" s="15"/>
       <c r="BL21" s="15"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18"/>
       <c r="B22" s="24" t="s">
         <v>28</v>
@@ -4167,7 +4167,7 @@
       <c r="BK22" s="15"/>
       <c r="BL22" s="15"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18"/>
       <c r="B23" s="24" t="s">
         <v>38</v>
@@ -4248,7 +4248,7 @@
       <c r="BK23" s="15"/>
       <c r="BL23" s="15"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="18"/>
       <c r="B24" s="24" t="s">
         <v>39</v>
@@ -4329,7 +4329,7 @@
       <c r="BK24" s="15"/>
       <c r="BL24" s="15"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18"/>
       <c r="B25" s="24" t="s">
         <v>40</v>
@@ -4410,7 +4410,7 @@
       <c r="BK25" s="15"/>
       <c r="BL25" s="15"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="18"/>
       <c r="B26" s="33" t="s">
         <v>41</v>
@@ -4488,7 +4488,7 @@
       <c r="BK26" s="15"/>
       <c r="BL26" s="15"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18" t="s">
         <v>8</v>
       </c>
@@ -4561,7 +4561,7 @@
       <c r="BK27" s="15"/>
       <c r="BL27" s="15"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="18"/>
       <c r="B28" s="24" t="s">
         <v>42</v>
@@ -4642,7 +4642,7 @@
       <c r="BK28" s="15"/>
       <c r="BL28" s="15"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18"/>
       <c r="B29" s="24" t="s">
         <v>43</v>
@@ -4723,7 +4723,7 @@
       <c r="BK29" s="15"/>
       <c r="BL29" s="15"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>61</v>
@@ -4804,7 +4804,7 @@
       <c r="BK30" s="15"/>
       <c r="BL30" s="15"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="18"/>
       <c r="B31" s="24" t="s">
         <v>62</v>
@@ -4885,7 +4885,7 @@
       <c r="BK31" s="15"/>
       <c r="BL31" s="15"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="18"/>
       <c r="B32" s="24" t="s">
         <v>63</v>
@@ -4966,7 +4966,7 @@
       <c r="BK32" s="15"/>
       <c r="BL32" s="15"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="18"/>
       <c r="B33" s="24" t="s">
         <v>70</v>
@@ -5044,7 +5044,7 @@
       <c r="BK33" s="15"/>
       <c r="BL33" s="15"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="18"/>
       <c r="B34" s="33" t="s">
         <v>50</v>
@@ -5125,7 +5125,7 @@
       <c r="BK34" s="15"/>
       <c r="BL34" s="15"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="18" t="s">
         <v>8</v>
       </c>
@@ -5198,7 +5198,7 @@
       <c r="BK35" s="15"/>
       <c r="BL35" s="15"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="18"/>
       <c r="B36" s="24" t="s">
         <v>64</v>
@@ -5279,7 +5279,7 @@
       <c r="BK36" s="15"/>
       <c r="BL36" s="15"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18"/>
       <c r="B37" s="24" t="s">
         <v>69</v>
@@ -5360,7 +5360,7 @@
       <c r="BK37" s="15"/>
       <c r="BL37" s="15"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>74</v>
@@ -5441,7 +5441,7 @@
       <c r="BK38" s="15"/>
       <c r="BL38" s="15"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18"/>
       <c r="B39" s="24" t="s">
         <v>71</v>
@@ -5519,7 +5519,7 @@
       <c r="BK39" s="15"/>
       <c r="BL39" s="15"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="18"/>
       <c r="B40" s="33" t="s">
         <v>65</v>
@@ -5600,12 +5600,12 @@
       <c r="BK40" s="15"/>
       <c r="BL40" s="15"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="39"/>
@@ -5673,7 +5673,7 @@
       <c r="BK41" s="15"/>
       <c r="BL41" s="15"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="18"/>
       <c r="B42" s="24" t="s">
         <v>66</v>
@@ -5754,7 +5754,7 @@
       <c r="BK42" s="15"/>
       <c r="BL42" s="15"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="18"/>
       <c r="B43" s="32" t="s">
         <v>67</v>
@@ -5835,7 +5835,7 @@
       <c r="BK43" s="15"/>
       <c r="BL43" s="15"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18"/>
       <c r="B44" s="24" t="s">
         <v>75</v>
@@ -5916,7 +5916,7 @@
       <c r="BK44" s="15"/>
       <c r="BL44" s="15"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="18"/>
       <c r="B45" s="24" t="s">
         <v>73</v>
@@ -5997,7 +5997,7 @@
       <c r="BK45" s="15"/>
       <c r="BL45" s="15"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="18"/>
       <c r="B46" s="33" t="s">
         <v>44</v>
@@ -6078,12 +6078,12 @@
       <c r="BK46" s="15"/>
       <c r="BL46" s="15"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
@@ -6151,7 +6151,7 @@
       <c r="BK47" s="15"/>
       <c r="BL47" s="15"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="18"/>
       <c r="B48" s="24" t="s">
         <v>45</v>
@@ -6230,7 +6230,7 @@
       <c r="BK48" s="15"/>
       <c r="BL48" s="15"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="18"/>
       <c r="B49" s="24" t="s">
         <v>46</v>
@@ -6311,7 +6311,7 @@
       <c r="BK49" s="15"/>
       <c r="BL49" s="15"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="18"/>
       <c r="B50" s="24" t="s">
         <v>77</v>
@@ -6389,7 +6389,7 @@
       <c r="BK50" s="15"/>
       <c r="BL50" s="15"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="18"/>
       <c r="B51" s="24" t="s">
         <v>78</v>
@@ -6465,7 +6465,7 @@
       <c r="BK51" s="15"/>
       <c r="BL51" s="15"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="18"/>
       <c r="B52" s="24" t="s">
         <v>79</v>
@@ -6541,7 +6541,7 @@
       <c r="BK52" s="15"/>
       <c r="BL52" s="15"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="18"/>
       <c r="B53" s="33" t="s">
         <v>47</v>
@@ -6622,12 +6622,12 @@
       <c r="BK53" s="15"/>
       <c r="BL53" s="15"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="39"/>
@@ -6695,7 +6695,7 @@
       <c r="BK54" s="15"/>
       <c r="BL54" s="15"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="18"/>
       <c r="B55" s="24" t="s">
         <v>48</v>
@@ -6768,7 +6768,7 @@
       <c r="BK55" s="15"/>
       <c r="BL55" s="15"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="18"/>
       <c r="B56" s="24" t="s">
         <v>49</v>
@@ -6843,7 +6843,7 @@
       <c r="BK56" s="15"/>
       <c r="BL56" s="15"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="18"/>
       <c r="B57" s="24"/>
       <c r="C57" s="22"/>
@@ -6912,7 +6912,7 @@
       <c r="BK57" s="15"/>
       <c r="BL57" s="15"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="18"/>
       <c r="B58" s="33" t="s">
         <v>51</v>
@@ -6993,12 +6993,12 @@
       <c r="BK58" s="15"/>
       <c r="BL58" s="15"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
@@ -7066,7 +7066,7 @@
       <c r="BK59" s="15"/>
       <c r="BL59" s="15"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="18"/>
       <c r="B60" s="24" t="s">
         <v>52</v>
@@ -7139,7 +7139,7 @@
       <c r="BK60" s="15"/>
       <c r="BL60" s="15"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18"/>
       <c r="B61" s="24" t="s">
         <v>53</v>
@@ -7214,7 +7214,7 @@
       <c r="BK61" s="15"/>
       <c r="BL61" s="15"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="18"/>
       <c r="B62" s="24"/>
       <c r="C62" s="22"/>
@@ -7283,7 +7283,7 @@
       <c r="BK62" s="15"/>
       <c r="BL62" s="15"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="18"/>
       <c r="B63" s="33" t="s">
         <v>54</v>
@@ -7364,12 +7364,12 @@
       <c r="BK63" s="15"/>
       <c r="BL63" s="15"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="38"/>
       <c r="D64" s="39"/>
@@ -7437,7 +7437,7 @@
       <c r="BK64" s="15"/>
       <c r="BL64" s="15"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="18"/>
       <c r="B65" s="24" t="s">
         <v>55</v>
@@ -7510,7 +7510,7 @@
       <c r="BK65" s="15"/>
       <c r="BL65" s="15"/>
     </row>
-    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="18"/>
       <c r="B66" s="24" t="s">
         <v>56</v>
@@ -7585,7 +7585,7 @@
       <c r="BK66" s="15"/>
       <c r="BL66" s="15"/>
     </row>
-    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="18"/>
       <c r="B67" s="24"/>
       <c r="C67" s="22"/>
@@ -7654,7 +7654,7 @@
       <c r="BK67" s="15"/>
       <c r="BL67" s="15"/>
     </row>
-    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="18"/>
       <c r="B68" s="33" t="s">
         <v>59</v>
@@ -7735,12 +7735,12 @@
       <c r="BK68" s="15"/>
       <c r="BL68" s="15"/>
     </row>
-    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C69" s="38"/>
       <c r="D69" s="39"/>
@@ -7808,7 +7808,7 @@
       <c r="BK69" s="15"/>
       <c r="BL69" s="15"/>
     </row>
-    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="18"/>
       <c r="B70" s="24" t="s">
         <v>58</v>
@@ -7881,7 +7881,7 @@
       <c r="BK70" s="15"/>
       <c r="BL70" s="15"/>
     </row>
-    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="18"/>
       <c r="B71" s="24" t="s">
         <v>57</v>
@@ -7956,7 +7956,7 @@
       <c r="BK71" s="15"/>
       <c r="BL71" s="15"/>
     </row>
-    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="18"/>
       <c r="B72" s="24"/>
       <c r="C72" s="22"/>
@@ -8025,7 +8025,7 @@
       <c r="BK72" s="15"/>
       <c r="BL72" s="15"/>
     </row>
-    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18"/>
       <c r="B73" s="33" t="s">
         <v>60</v>
@@ -8104,7 +8104,7 @@
       <c r="BK73" s="15"/>
       <c r="BL73" s="15"/>
     </row>
-    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="18" t="s">
         <v>9</v>
       </c>
@@ -8175,18 +8175,23 @@
       <c r="BK74" s="15"/>
       <c r="BL74" s="15"/>
     </row>
-    <row r="75" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C76" s="10"/>
       <c r="F76" s="20"/>
     </row>
-    <row r="77" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C77" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -8195,11 +8200,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
   <conditionalFormatting sqref="D62 D74 D15:D16 D22:D25 D18:D20">
     <cfRule type="dataBar" priority="121">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C979C740-8673-48E2-99D9-8409A546F741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39223375-66DB-6745-99B1-0705D1E2E336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -376,6 +376,15 @@
   </si>
   <si>
     <t>Sprint 5 (avec ± 2 semaines de vacances de février)</t>
+  </si>
+  <si>
+    <t>Création base de données WavMap</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Recherche API WavMap</t>
   </si>
 </sst>
 </file>
@@ -1207,6 +1216,7 @@
     <xf numFmtId="168" fontId="24" fillId="37" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1228,7 +1238,6 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2320,27 +2329,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL77"/>
+  <dimension ref="A1:BL79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="53.81640625" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="2.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="9.5" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2354,9 +2363,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="1"/>
@@ -2366,9 +2375,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
-      <c r="B3" s="44"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2376,122 +2385,122 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47">
+      <c r="D4" s="47"/>
+      <c r="E4" s="48">
         <v>44459</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="48"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="31">
         <v>19</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="42">
         <f>I6</f>
         <v>44585</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="41">
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="42">
         <f>P6</f>
         <v>44592</v>
       </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="41">
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="42">
         <f>W6</f>
         <v>44599</v>
       </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="41">
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="42">
         <f>AD6</f>
         <v>44606</v>
       </c>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="41">
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="42">
         <f>AK6</f>
         <v>44613</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="41">
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="42">
         <f>AR6</f>
         <v>44620</v>
       </c>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="41">
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="42">
         <f>AY6</f>
         <v>44627</v>
       </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="41">
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="42">
         <f>BF6</f>
         <v>44634</v>
       </c>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="43"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="43"/>
+      <c r="BK5" s="43"/>
+      <c r="BL5" s="44"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44585</v>
@@ -2717,7 +2726,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
@@ -2965,7 +2974,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -2978,7 +2987,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H74" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H76" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="15"/>
@@ -3038,7 +3047,7 @@
       <c r="BK8" s="15"/>
       <c r="BL8" s="15"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -3120,7 +3129,7 @@
       <c r="BK9" s="15"/>
       <c r="BL9" s="15"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
@@ -3203,7 +3212,7 @@
       <c r="BK10" s="15"/>
       <c r="BL10" s="15"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="24" t="s">
         <v>22</v>
@@ -3284,7 +3293,7 @@
       <c r="BK11" s="15"/>
       <c r="BL11" s="15"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="24" t="s">
         <v>19</v>
@@ -3365,7 +3374,7 @@
       <c r="BK12" s="15"/>
       <c r="BL12" s="15"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="24" t="s">
         <v>23</v>
@@ -3446,7 +3455,7 @@
       <c r="BK13" s="15"/>
       <c r="BL13" s="15"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="33" t="s">
         <v>82</v>
@@ -3527,7 +3536,7 @@
       <c r="BK14" s="15"/>
       <c r="BL14" s="15"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="24" t="s">
         <v>24</v>
@@ -3608,7 +3617,7 @@
       <c r="BK15" s="15"/>
       <c r="BL15" s="15"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="24" t="s">
         <v>25</v>
@@ -3689,7 +3698,7 @@
       <c r="BK16" s="15"/>
       <c r="BL16" s="15"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
@@ -3762,7 +3771,7 @@
       <c r="BK17" s="15"/>
       <c r="BL17" s="15"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="24" t="s">
         <v>26</v>
@@ -3843,7 +3852,7 @@
       <c r="BK18" s="15"/>
       <c r="BL18" s="15"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="24" t="s">
         <v>29</v>
@@ -3924,7 +3933,7 @@
       <c r="BK19" s="15"/>
       <c r="BL19" s="15"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="24" t="s">
         <v>35</v>
@@ -4005,7 +4014,7 @@
       <c r="BK20" s="15"/>
       <c r="BL20" s="15"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="33" t="s">
         <v>27</v>
@@ -4086,7 +4095,7 @@
       <c r="BK21" s="15"/>
       <c r="BL21" s="15"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="24" t="s">
         <v>28</v>
@@ -4167,7 +4176,7 @@
       <c r="BK22" s="15"/>
       <c r="BL22" s="15"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="24" t="s">
         <v>38</v>
@@ -4248,7 +4257,7 @@
       <c r="BK23" s="15"/>
       <c r="BL23" s="15"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="24" t="s">
         <v>39</v>
@@ -4329,7 +4338,7 @@
       <c r="BK24" s="15"/>
       <c r="BL24" s="15"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="24" t="s">
         <v>40</v>
@@ -4410,7 +4419,7 @@
       <c r="BK25" s="15"/>
       <c r="BL25" s="15"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="33" t="s">
         <v>41</v>
@@ -4488,7 +4497,7 @@
       <c r="BK26" s="15"/>
       <c r="BL26" s="15"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>8</v>
       </c>
@@ -4561,7 +4570,7 @@
       <c r="BK27" s="15"/>
       <c r="BL27" s="15"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="24" t="s">
         <v>42</v>
@@ -4642,7 +4651,7 @@
       <c r="BK28" s="15"/>
       <c r="BL28" s="15"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="24" t="s">
         <v>43</v>
@@ -4723,7 +4732,7 @@
       <c r="BK29" s="15"/>
       <c r="BL29" s="15"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>61</v>
@@ -4804,7 +4813,7 @@
       <c r="BK30" s="15"/>
       <c r="BL30" s="15"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="24" t="s">
         <v>62</v>
@@ -4885,7 +4894,7 @@
       <c r="BK31" s="15"/>
       <c r="BL31" s="15"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="24" t="s">
         <v>63</v>
@@ -4966,7 +4975,7 @@
       <c r="BK32" s="15"/>
       <c r="BL32" s="15"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="24" t="s">
         <v>70</v>
@@ -5044,7 +5053,7 @@
       <c r="BK33" s="15"/>
       <c r="BL33" s="15"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="33" t="s">
         <v>50</v>
@@ -5125,7 +5134,7 @@
       <c r="BK34" s="15"/>
       <c r="BL34" s="15"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>8</v>
       </c>
@@ -5198,7 +5207,7 @@
       <c r="BK35" s="15"/>
       <c r="BL35" s="15"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="24" t="s">
         <v>64</v>
@@ -5279,7 +5288,7 @@
       <c r="BK36" s="15"/>
       <c r="BL36" s="15"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="24" t="s">
         <v>69</v>
@@ -5360,7 +5369,7 @@
       <c r="BK37" s="15"/>
       <c r="BL37" s="15"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>74</v>
@@ -5441,7 +5450,7 @@
       <c r="BK38" s="15"/>
       <c r="BL38" s="15"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="24" t="s">
         <v>71</v>
@@ -5519,7 +5528,7 @@
       <c r="BK39" s="15"/>
       <c r="BL39" s="15"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="33" t="s">
         <v>65</v>
@@ -5600,7 +5609,7 @@
       <c r="BK40" s="15"/>
       <c r="BL40" s="15"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>8</v>
       </c>
@@ -5673,7 +5682,7 @@
       <c r="BK41" s="15"/>
       <c r="BL41" s="15"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="24" t="s">
         <v>66</v>
@@ -5754,7 +5763,7 @@
       <c r="BK42" s="15"/>
       <c r="BL42" s="15"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="32" t="s">
         <v>67</v>
@@ -5835,7 +5844,7 @@
       <c r="BK43" s="15"/>
       <c r="BL43" s="15"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="24" t="s">
         <v>75</v>
@@ -5916,7 +5925,7 @@
       <c r="BK44" s="15"/>
       <c r="BL44" s="15"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="24" t="s">
         <v>73</v>
@@ -5997,7 +6006,7 @@
       <c r="BK45" s="15"/>
       <c r="BL45" s="15"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="33" t="s">
         <v>44</v>
@@ -6078,7 +6087,7 @@
       <c r="BK46" s="15"/>
       <c r="BL46" s="15"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>8</v>
       </c>
@@ -6151,7 +6160,7 @@
       <c r="BK47" s="15"/>
       <c r="BL47" s="15"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="24" t="s">
         <v>45</v>
@@ -6230,7 +6239,7 @@
       <c r="BK48" s="15"/>
       <c r="BL48" s="15"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="24" t="s">
         <v>46</v>
@@ -6311,7 +6320,7 @@
       <c r="BK49" s="15"/>
       <c r="BL49" s="15"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="24" t="s">
         <v>77</v>
@@ -6320,7 +6329,7 @@
         <v>31</v>
       </c>
       <c r="D50" s="14">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E50" s="29">
         <f>F49+1</f>
@@ -6389,14 +6398,16 @@
       <c r="BK50" s="15"/>
       <c r="BL50" s="15"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="22"/>
+      <c r="C51" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="D51" s="14">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E51" s="29">
         <f>E50</f>
@@ -6465,14 +6476,16 @@
       <c r="BK51" s="15"/>
       <c r="BL51" s="15"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="22"/>
+      <c r="C52" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="D52" s="14">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E52" s="29">
         <f>E51</f>
@@ -6541,30 +6554,27 @@
       <c r="BK52" s="15"/>
       <c r="BL52" s="15"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
-      <c r="B53" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="35">
-        <v>0</v>
-      </c>
-      <c r="E53" s="36">
-        <f>E46+27</f>
-        <v>44613</v>
-      </c>
-      <c r="F53" s="36">
-        <f>E53+12</f>
-        <v>44625</v>
+      <c r="B53" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="14">
+        <v>1</v>
+      </c>
+      <c r="E53" s="29">
+        <f>F49+1</f>
+        <v>44596</v>
+      </c>
+      <c r="F53" s="29">
+        <f>E53+21</f>
+        <v>44617</v>
       </c>
       <c r="G53" s="13"/>
-      <c r="H53" s="13">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
+      <c r="H53" s="13"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
@@ -6622,22 +6632,27 @@
       <c r="BK53" s="15"/>
       <c r="BL53" s="15"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="38"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="14">
+        <v>1</v>
+      </c>
+      <c r="E54" s="29">
+        <f>F53+1</f>
+        <v>44618</v>
+      </c>
+      <c r="F54" s="29">
+        <f>E54+4</f>
+        <v>44622</v>
+      </c>
       <c r="G54" s="13"/>
-      <c r="H54" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H54" s="13"/>
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
@@ -6695,21 +6710,29 @@
       <c r="BK54" s="15"/>
       <c r="BL54" s="15"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
-      <c r="B55" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="14">
+      <c r="B55" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="35">
         <v>0</v>
       </c>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
+      <c r="E55" s="36">
+        <f>F46+37</f>
+        <v>44623</v>
+      </c>
+      <c r="F55" s="36">
+        <f>E55</f>
+        <v>44623</v>
+      </c>
       <c r="G55" s="13"/>
-      <c r="H55" s="13" t="str">
+      <c r="H55" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
@@ -6768,19 +6791,17 @@
       <c r="BK55" s="15"/>
       <c r="BL55" s="15"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="18"/>
-      <c r="B56" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="14">
-        <v>0</v>
-      </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13" t="str">
         <f t="shared" si="4"/>
@@ -6843,11 +6864,15 @@
       <c r="BK56" s="15"/>
       <c r="BL56" s="15"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
-      <c r="B57" s="24"/>
+      <c r="B57" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="C57" s="22"/>
-      <c r="D57" s="14"/>
+      <c r="D57" s="14">
+        <v>0</v>
+      </c>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
       <c r="G57" s="13"/>
@@ -6912,29 +6937,23 @@
       <c r="BK57" s="15"/>
       <c r="BL57" s="15"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
-      <c r="B58" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="34" t="s">
+      <c r="B58" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="35">
+      <c r="D58" s="14">
         <v>0</v>
       </c>
-      <c r="E58" s="36">
-        <f>E53+28</f>
-        <v>44641</v>
-      </c>
-      <c r="F58" s="36">
-        <f>E58+12</f>
-        <v>44653</v>
-      </c>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="13">
+      <c r="H58" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="15"/>
@@ -6993,17 +7012,13 @@
       <c r="BK58" s="15"/>
       <c r="BL58" s="15"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="38"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13" t="str">
         <f t="shared" si="4"/>
@@ -7066,21 +7081,29 @@
       <c r="BK59" s="15"/>
       <c r="BL59" s="15"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
-      <c r="B60" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="14">
+      <c r="B60" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="35">
         <v>0</v>
       </c>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
+      <c r="E60" s="36">
+        <f>E55+28</f>
+        <v>44651</v>
+      </c>
+      <c r="F60" s="36">
+        <f>E60+12</f>
+        <v>44663</v>
+      </c>
       <c r="G60" s="13"/>
-      <c r="H60" s="13" t="str">
+      <c r="H60" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
@@ -7139,19 +7162,17 @@
       <c r="BK60" s="15"/>
       <c r="BL60" s="15"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="18"/>
-      <c r="B61" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="14">
-        <v>0</v>
-      </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13" t="str">
         <f t="shared" si="4"/>
@@ -7214,11 +7235,15 @@
       <c r="BK61" s="15"/>
       <c r="BL61" s="15"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
-      <c r="B62" s="24"/>
+      <c r="B62" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="C62" s="22"/>
-      <c r="D62" s="14"/>
+      <c r="D62" s="14">
+        <v>0</v>
+      </c>
       <c r="E62" s="29"/>
       <c r="F62" s="29"/>
       <c r="G62" s="13"/>
@@ -7283,29 +7308,23 @@
       <c r="BK62" s="15"/>
       <c r="BL62" s="15"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
-      <c r="B63" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="34" t="s">
+      <c r="B63" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="35">
+      <c r="D63" s="14">
         <v>0</v>
       </c>
-      <c r="E63" s="36">
-        <f>E58+14</f>
-        <v>44655</v>
-      </c>
-      <c r="F63" s="36">
-        <f>E63+12</f>
-        <v>44667</v>
-      </c>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="13">
+      <c r="H63" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
@@ -7364,17 +7383,13 @@
       <c r="BK63" s="15"/>
       <c r="BL63" s="15"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13" t="str">
         <f t="shared" si="4"/>
@@ -7437,21 +7452,29 @@
       <c r="BK64" s="15"/>
       <c r="BL64" s="15"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
-      <c r="B65" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="14">
+      <c r="B65" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="35">
         <v>0</v>
       </c>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
+      <c r="E65" s="36">
+        <f>E60+14</f>
+        <v>44665</v>
+      </c>
+      <c r="F65" s="36">
+        <f>E65+12</f>
+        <v>44677</v>
+      </c>
       <c r="G65" s="13"/>
-      <c r="H65" s="13" t="str">
+      <c r="H65" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
@@ -7510,19 +7533,17 @@
       <c r="BK65" s="15"/>
       <c r="BL65" s="15"/>
     </row>
-    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="18"/>
-      <c r="B66" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="14">
-        <v>0</v>
-      </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
+    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="38"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13" t="str">
         <f t="shared" si="4"/>
@@ -7585,11 +7606,15 @@
       <c r="BK66" s="15"/>
       <c r="BL66" s="15"/>
     </row>
-    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
-      <c r="B67" s="24"/>
+      <c r="B67" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="C67" s="22"/>
-      <c r="D67" s="14"/>
+      <c r="D67" s="14">
+        <v>0</v>
+      </c>
       <c r="E67" s="29"/>
       <c r="F67" s="29"/>
       <c r="G67" s="13"/>
@@ -7654,29 +7679,23 @@
       <c r="BK67" s="15"/>
       <c r="BL67" s="15"/>
     </row>
-    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
-      <c r="B68" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="34" t="s">
+      <c r="B68" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D68" s="35">
+      <c r="D68" s="14">
         <v>0</v>
       </c>
-      <c r="E68" s="36">
-        <f>E63+35</f>
-        <v>44690</v>
-      </c>
-      <c r="F68" s="36">
-        <f>E68+12</f>
-        <v>44702</v>
-      </c>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="13">
+      <c r="H68" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
@@ -7735,17 +7754,13 @@
       <c r="BK68" s="15"/>
       <c r="BL68" s="15"/>
     </row>
-    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
+    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13" t="str">
         <f t="shared" si="4"/>
@@ -7808,21 +7823,29 @@
       <c r="BK69" s="15"/>
       <c r="BL69" s="15"/>
     </row>
-    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
-      <c r="B70" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="14">
+      <c r="B70" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="35">
         <v>0</v>
       </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
+      <c r="E70" s="36">
+        <f>E65+35</f>
+        <v>44700</v>
+      </c>
+      <c r="F70" s="36">
+        <f>E70+12</f>
+        <v>44712</v>
+      </c>
       <c r="G70" s="13"/>
-      <c r="H70" s="13" t="str">
+      <c r="H70" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
@@ -7881,19 +7904,17 @@
       <c r="BK70" s="15"/>
       <c r="BL70" s="15"/>
     </row>
-    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="18"/>
-      <c r="B71" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="14">
-        <v>0</v>
-      </c>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="38"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
       <c r="G71" s="13"/>
       <c r="H71" s="13" t="str">
         <f t="shared" si="4"/>
@@ -7956,11 +7977,15 @@
       <c r="BK71" s="15"/>
       <c r="BL71" s="15"/>
     </row>
-    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
-      <c r="B72" s="24"/>
+      <c r="B72" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="C72" s="22"/>
-      <c r="D72" s="14"/>
+      <c r="D72" s="14">
+        <v>0</v>
+      </c>
       <c r="E72" s="29"/>
       <c r="F72" s="29"/>
       <c r="G72" s="13"/>
@@ -8025,27 +8050,23 @@
       <c r="BK72" s="15"/>
       <c r="BL72" s="15"/>
     </row>
-    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
-      <c r="B73" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" s="34" t="s">
+      <c r="B73" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="36">
-        <f>E68+5</f>
-        <v>44695</v>
-      </c>
-      <c r="F73" s="36">
-        <f>E73</f>
-        <v>44695</v>
-      </c>
+      <c r="D73" s="14">
+        <v>0</v>
+      </c>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
       <c r="G73" s="13"/>
-      <c r="H73" s="13">
+      <c r="H73" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
@@ -8104,15 +8125,13 @@
       <c r="BK73" s="15"/>
       <c r="BL73" s="15"/>
     </row>
-    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
+    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="18"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13" t="str">
         <f t="shared" si="4"/>
@@ -8175,23 +8194,168 @@
       <c r="BK74" s="15"/>
       <c r="BL74" s="15"/>
     </row>
-    <row r="75" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G75" s="6"/>
+    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="18"/>
+      <c r="B75" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="35"/>
+      <c r="E75" s="36">
+        <f>E70+5</f>
+        <v>44705</v>
+      </c>
+      <c r="F75" s="36">
+        <f>E75</f>
+        <v>44705</v>
+      </c>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="15"/>
+      <c r="U75" s="15"/>
+      <c r="V75" s="15"/>
+      <c r="W75" s="15"/>
+      <c r="X75" s="15"/>
+      <c r="Y75" s="15"/>
+      <c r="Z75" s="15"/>
+      <c r="AA75" s="15"/>
+      <c r="AB75" s="15"/>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="15"/>
+      <c r="AE75" s="15"/>
+      <c r="AF75" s="15"/>
+      <c r="AG75" s="15"/>
+      <c r="AH75" s="15"/>
+      <c r="AI75" s="15"/>
+      <c r="AJ75" s="15"/>
+      <c r="AK75" s="15"/>
+      <c r="AL75" s="15"/>
+      <c r="AM75" s="15"/>
+      <c r="AN75" s="15"/>
+      <c r="AO75" s="15"/>
+      <c r="AP75" s="15"/>
+      <c r="AQ75" s="15"/>
+      <c r="AR75" s="15"/>
+      <c r="AS75" s="15"/>
+      <c r="AT75" s="15"/>
+      <c r="AU75" s="15"/>
+      <c r="AV75" s="15"/>
+      <c r="AW75" s="15"/>
+      <c r="AX75" s="15"/>
+      <c r="AY75" s="15"/>
+      <c r="AZ75" s="15"/>
+      <c r="BA75" s="15"/>
+      <c r="BB75" s="15"/>
+      <c r="BC75" s="15"/>
+      <c r="BD75" s="15"/>
+      <c r="BE75" s="15"/>
+      <c r="BF75" s="15"/>
+      <c r="BG75" s="15"/>
+      <c r="BH75" s="15"/>
+      <c r="BI75" s="15"/>
+      <c r="BJ75" s="15"/>
+      <c r="BK75" s="15"/>
+      <c r="BL75" s="15"/>
     </row>
-    <row r="76" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C76" s="10"/>
-      <c r="F76" s="20"/>
+    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="25"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="15"/>
+      <c r="U76" s="15"/>
+      <c r="V76" s="15"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="15"/>
+      <c r="Z76" s="15"/>
+      <c r="AA76" s="15"/>
+      <c r="AB76" s="15"/>
+      <c r="AC76" s="15"/>
+      <c r="AD76" s="15"/>
+      <c r="AE76" s="15"/>
+      <c r="AF76" s="15"/>
+      <c r="AG76" s="15"/>
+      <c r="AH76" s="15"/>
+      <c r="AI76" s="15"/>
+      <c r="AJ76" s="15"/>
+      <c r="AK76" s="15"/>
+      <c r="AL76" s="15"/>
+      <c r="AM76" s="15"/>
+      <c r="AN76" s="15"/>
+      <c r="AO76" s="15"/>
+      <c r="AP76" s="15"/>
+      <c r="AQ76" s="15"/>
+      <c r="AR76" s="15"/>
+      <c r="AS76" s="15"/>
+      <c r="AT76" s="15"/>
+      <c r="AU76" s="15"/>
+      <c r="AV76" s="15"/>
+      <c r="AW76" s="15"/>
+      <c r="AX76" s="15"/>
+      <c r="AY76" s="15"/>
+      <c r="AZ76" s="15"/>
+      <c r="BA76" s="15"/>
+      <c r="BB76" s="15"/>
+      <c r="BC76" s="15"/>
+      <c r="BD76" s="15"/>
+      <c r="BE76" s="15"/>
+      <c r="BF76" s="15"/>
+      <c r="BG76" s="15"/>
+      <c r="BH76" s="15"/>
+      <c r="BI76" s="15"/>
+      <c r="BJ76" s="15"/>
+      <c r="BK76" s="15"/>
+      <c r="BL76" s="15"/>
     </row>
-    <row r="77" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C77" s="11"/>
+    <row r="77" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="10"/>
+      <c r="F78" s="20"/>
+    </row>
+    <row r="79" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -8200,8 +8364,13 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D62 D74 D15:D16 D22:D25 D18:D20">
+  <conditionalFormatting sqref="D64 D76 D15:D16 D22:D25 D18:D20">
     <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8215,12 +8384,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL62 I74:BL74 I32:BL34 I6:BL25 I27:BL29">
+  <conditionalFormatting sqref="I61:BL64 I76:BL76 I32:BL34 I6:BL25 I27:BL29">
     <cfRule type="expression" dxfId="56" priority="124">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BL62 I74:BL74 I32:BL34 I8:BL25 I27:BL29">
+  <conditionalFormatting sqref="I61:BL64 I76:BL76 I32:BL34 I8:BL25 I27:BL29">
     <cfRule type="expression" dxfId="55" priority="122">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8296,12 +8465,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL52">
+  <conditionalFormatting sqref="I47:BL54">
     <cfRule type="expression" dxfId="47" priority="110">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL52">
+  <conditionalFormatting sqref="I47:BL54">
     <cfRule type="expression" dxfId="46" priority="108">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8309,7 +8478,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D52">
+  <conditionalFormatting sqref="D48:D54">
     <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8323,12 +8492,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
+  <conditionalFormatting sqref="I55:BL55">
     <cfRule type="expression" dxfId="44" priority="104">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
+  <conditionalFormatting sqref="I55:BL55">
     <cfRule type="expression" dxfId="43" priority="102">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8336,7 +8505,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D59">
     <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8350,12 +8519,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL57">
+  <conditionalFormatting sqref="I56:BL59">
     <cfRule type="expression" dxfId="41" priority="101">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL57">
+  <conditionalFormatting sqref="I56:BL59">
     <cfRule type="expression" dxfId="40" priority="99">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8363,7 +8532,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D56">
+  <conditionalFormatting sqref="D57:D58">
     <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8377,12 +8546,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="38" priority="95">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BL58">
+  <conditionalFormatting sqref="I60:BL60">
     <cfRule type="expression" dxfId="37" priority="93">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8390,7 +8559,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60:D61">
+  <conditionalFormatting sqref="D62:D63">
     <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8432,7 +8601,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D69">
     <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8446,12 +8615,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:BL67">
+  <conditionalFormatting sqref="I66:BL69">
     <cfRule type="expression" dxfId="35" priority="83">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:BL67">
+  <conditionalFormatting sqref="I66:BL69">
     <cfRule type="expression" dxfId="34" priority="81">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8459,12 +8628,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL63">
+  <conditionalFormatting sqref="I65:BL65">
     <cfRule type="expression" dxfId="32" priority="79">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BL63">
+  <conditionalFormatting sqref="I65:BL65">
     <cfRule type="expression" dxfId="31" priority="77">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8472,7 +8641,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65:D66">
+  <conditionalFormatting sqref="D67:D68">
     <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8486,7 +8655,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
+  <conditionalFormatting sqref="D74">
     <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8500,12 +8669,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BL72">
+  <conditionalFormatting sqref="I71:BL74">
     <cfRule type="expression" dxfId="29" priority="73">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BL72">
+  <conditionalFormatting sqref="I71:BL74">
     <cfRule type="expression" dxfId="28" priority="71">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8513,12 +8682,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL68">
+  <conditionalFormatting sqref="I70:BL70">
     <cfRule type="expression" dxfId="26" priority="69">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL68">
+  <conditionalFormatting sqref="I70:BL70">
     <cfRule type="expression" dxfId="25" priority="67">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8526,7 +8695,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:D71">
+  <conditionalFormatting sqref="D72:D73">
     <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8540,12 +8709,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73:BL73">
+  <conditionalFormatting sqref="I75:BL75">
     <cfRule type="expression" dxfId="23" priority="63">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73:BL73">
+  <conditionalFormatting sqref="I75:BL75">
     <cfRule type="expression" dxfId="22" priority="61">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8827,7 +8996,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D55">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8841,7 +9010,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D60">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8855,7 +9024,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D65">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8869,7 +9038,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D70">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8883,7 +9052,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
+  <conditionalFormatting sqref="D75">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8953,7 +9122,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D56">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8967,7 +9136,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D61">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8981,7 +9150,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D66">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8995,7 +9164,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
+  <conditionalFormatting sqref="D71">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9063,7 +9232,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D62 D74 D15:D16 D22:D25 D18:D20</xm:sqref>
+          <xm:sqref>D64 D76 D15:D16 D22:D25 D18:D20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61BAFCB1-C9D1-4453-9835-894AAFFB2D48}">
@@ -9123,7 +9292,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D48:D52</xm:sqref>
+          <xm:sqref>D48:D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F7F63C90-679F-41E1-9DD7-C7641723B832}">
@@ -9138,7 +9307,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D57</xm:sqref>
+          <xm:sqref>D59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C1F1D87-2F5D-4508-9015-0F4807608336}">
@@ -9153,7 +9322,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D55:D56</xm:sqref>
+          <xm:sqref>D57:D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{45BD4CAD-EC79-4BD6-BBED-CEFB157C8046}">
@@ -9168,7 +9337,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D60:D61</xm:sqref>
+          <xm:sqref>D62:D63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85676472-4DEA-4B47-8076-2B079F7EB722}">
@@ -9213,7 +9382,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D67</xm:sqref>
+          <xm:sqref>D69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D92EFAD8-9A39-41D6-8E74-09FCB7C99446}">
@@ -9228,7 +9397,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D65:D66</xm:sqref>
+          <xm:sqref>D67:D68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49690BEA-F1DA-49A9-87E0-BC10D33392B4}">
@@ -9243,7 +9412,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D72</xm:sqref>
+          <xm:sqref>D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F3BCBE8B-1131-4EC4-93C6-93A3D2241A3A}">
@@ -9258,7 +9427,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D70:D71</xm:sqref>
+          <xm:sqref>D72:D73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{70FE4911-65CD-4B63-902B-DAD573D9D1E7}">
@@ -9483,7 +9652,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D53</xm:sqref>
+          <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4A295D46-0803-4547-A888-BB15E851A0BE}">
@@ -9498,7 +9667,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D58</xm:sqref>
+          <xm:sqref>D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F9FF2D8E-4C48-4314-AE00-D91E4BEBF00D}">
@@ -9513,7 +9682,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D63</xm:sqref>
+          <xm:sqref>D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{47FD5541-751B-48F2-895B-231260031964}">
@@ -9528,7 +9697,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D68</xm:sqref>
+          <xm:sqref>D70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CB458C94-EC1D-48A0-8F37-BA38EE604418}">
@@ -9543,7 +9712,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D73</xm:sqref>
+          <xm:sqref>D75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC19E591-9826-41D2-8753-21A5AEC1982F}">
@@ -9618,7 +9787,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D54</xm:sqref>
+          <xm:sqref>D56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B566DAE9-59F0-494F-B4A5-6CA202ED05AF}">
@@ -9633,7 +9802,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D59</xm:sqref>
+          <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E8B7A00D-0A45-4E39-935E-0EF6E104B91A}">
@@ -9648,7 +9817,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D64</xm:sqref>
+          <xm:sqref>D66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61C46EA8-F9E7-45B9-92F2-CA890223D6D5}">
@@ -9663,7 +9832,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D69</xm:sqref>
+          <xm:sqref>D71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8A618AE5-6A10-402E-8877-7F8471EF9C36}">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39223375-66DB-6745-99B1-0705D1E2E336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190B9849-9F28-334C-BA68-7A398F0B5A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -1216,7 +1216,6 @@
     <xf numFmtId="168" fontId="24" fillId="37" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1238,6 +1237,7 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2332,8 +2332,8 @@
   <dimension ref="A1:BL79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <pane ySplit="7" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="1"/>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
-      <c r="B3" s="45"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2389,118 +2389,118 @@
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48">
+      <c r="D4" s="46"/>
+      <c r="E4" s="47">
         <v>44459</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="31">
         <v>19</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="41">
         <f>I6</f>
         <v>44585</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="42">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="41">
         <f>P6</f>
         <v>44592</v>
       </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="42">
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="41">
         <f>W6</f>
         <v>44599</v>
       </c>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="42">
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="41">
         <f>AD6</f>
         <v>44606</v>
       </c>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="42">
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="41">
         <f>AK6</f>
         <v>44613</v>
       </c>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="42">
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="41">
         <f>AR6</f>
         <v>44620</v>
       </c>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="43"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="42">
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="41">
         <f>AY6</f>
         <v>44627</v>
       </c>
-      <c r="AZ5" s="43"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="42">
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="41">
         <f>BF6</f>
         <v>44634</v>
       </c>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="43"/>
-      <c r="BK5" s="43"/>
-      <c r="BL5" s="44"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="43"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44585</v>
@@ -6719,7 +6719,7 @@
         <v>30</v>
       </c>
       <c r="D55" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="36">
         <f>F46+37</f>
@@ -8356,6 +8356,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -8364,11 +8369,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
   <conditionalFormatting sqref="D64 D76 D15:D16 D22:D25 D18:D20">
     <cfRule type="dataBar" priority="121">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190B9849-9F28-334C-BA68-7A398F0B5A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D0A269-8B3E-4EF2-A0C3-F9F343B5672C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -156,9 +156,6 @@
     <t>PV réunion A1</t>
   </si>
   <si>
-    <t>Création des maquettes</t>
-  </si>
-  <si>
     <t>AM, AS, CC, CH</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>AS</t>
   </si>
   <si>
-    <t>Création de la modélisation</t>
-  </si>
-  <si>
     <t>CH</t>
   </si>
   <si>
@@ -187,12 +181,6 @@
   </si>
   <si>
     <t>Révision des points abordés en A1</t>
-  </si>
-  <si>
-    <t>Finalisation de la modélisation simple</t>
-  </si>
-  <si>
-    <t>Finalisation de la maquette simple</t>
   </si>
   <si>
     <t>Réunion A2</t>
@@ -225,12 +213,6 @@
     <t>Réunion Point de contrôle (A2.1)</t>
   </si>
   <si>
-    <t>Réunion Point de contrôle (A3.2)</t>
-  </si>
-  <si>
-    <t>PV réunion Point de contrôle (A3.2)</t>
-  </si>
-  <si>
     <t>Révision des points abordés en Point de contrôle (A3.2)</t>
   </si>
   <si>
@@ -261,9 +243,6 @@
     <t>Document : Plan d'Assurance Qualité</t>
   </si>
   <si>
-    <t>Modélisation BDD</t>
-  </si>
-  <si>
     <t>PV réunion A2.1</t>
   </si>
   <si>
@@ -280,9 +259,6 @@
   </si>
   <si>
     <t>Création et insertion de la base de donnée</t>
-  </si>
-  <si>
-    <t>Maquettes sur Visual Studio</t>
   </si>
   <si>
     <t>Réalisation des maquettes V2 sur VisualStudio</t>
@@ -385,6 +361,42 @@
   </si>
   <si>
     <t>Recherche API WavMap</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Recherches utilisations API choisie</t>
+  </si>
+  <si>
+    <t>AM, CH</t>
+  </si>
+  <si>
+    <t>Commencement du code de WavMap</t>
+  </si>
+  <si>
+    <t>Continuation code Visual Studio</t>
+  </si>
+  <si>
+    <t>Documentation manuel utilisation</t>
+  </si>
+  <si>
+    <t>Création des maquettes de WavCom</t>
+  </si>
+  <si>
+    <t>Création de la modélisation de WavCom</t>
+  </si>
+  <si>
+    <t>Finalisation de la modélisation simple de WavCom</t>
+  </si>
+  <si>
+    <t>Finalisation de la maquette simple de WavCom</t>
+  </si>
+  <si>
+    <t>Modélisation BDD de WavCom</t>
+  </si>
+  <si>
+    <t>Maquettes sur Visual Studio de WavCom</t>
   </si>
 </sst>
 </file>
@@ -1216,6 +1228,7 @@
     <xf numFmtId="168" fontId="24" fillId="37" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1237,7 +1250,6 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1295,37 +1307,7 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <fill>
         <patternFill>
@@ -1962,15 +1944,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="65"/>
-      <tableStyleElement type="headerRow" dxfId="64"/>
-      <tableStyleElement type="totalRow" dxfId="63"/>
-      <tableStyleElement type="firstColumn" dxfId="62"/>
-      <tableStyleElement type="lastColumn" dxfId="61"/>
-      <tableStyleElement type="firstRowStripe" dxfId="60"/>
-      <tableStyleElement type="secondRowStripe" dxfId="59"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="58"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="57"/>
+      <tableStyleElement type="wholeTable" dxfId="62"/>
+      <tableStyleElement type="headerRow" dxfId="61"/>
+      <tableStyleElement type="totalRow" dxfId="60"/>
+      <tableStyleElement type="firstColumn" dxfId="59"/>
+      <tableStyleElement type="lastColumn" dxfId="58"/>
+      <tableStyleElement type="firstRowStripe" dxfId="57"/>
+      <tableStyleElement type="secondRowStripe" dxfId="56"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="55"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="54"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2329,27 +2311,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL79"/>
+  <dimension ref="A1:BL80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="53.81640625" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="2.5" customWidth="1"/>
-    <col min="8" max="8" width="9.5" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="2.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2363,10 +2345,10 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="19"/>
-      <c r="B2" s="44" t="s">
-        <v>33</v>
+      <c r="B2" s="45" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -2375,9 +2357,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="19"/>
-      <c r="B3" s="44"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2385,348 +2367,348 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47">
+      <c r="D4" s="47"/>
+      <c r="E4" s="48">
         <v>44459</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="48"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="31">
-        <v>19</v>
-      </c>
-      <c r="I5" s="41">
+        <v>24</v>
+      </c>
+      <c r="I5" s="42">
         <f>I6</f>
-        <v>44585</v>
-      </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="41">
+        <v>44620</v>
+      </c>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="42">
         <f>P6</f>
-        <v>44592</v>
-      </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="41">
+        <v>44627</v>
+      </c>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="42">
         <f>W6</f>
-        <v>44599</v>
-      </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="41">
+        <v>44634</v>
+      </c>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="42">
         <f>AD6</f>
-        <v>44606</v>
-      </c>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="41">
+        <v>44641</v>
+      </c>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="42">
         <f>AK6</f>
-        <v>44613</v>
-      </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="41">
+        <v>44648</v>
+      </c>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="42">
         <f>AR6</f>
-        <v>44620</v>
-      </c>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="41">
+        <v>44655</v>
+      </c>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="42">
         <f>AY6</f>
-        <v>44627</v>
-      </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="41">
+        <v>44662</v>
+      </c>
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="42">
         <f>BF6</f>
-        <v>44634</v>
-      </c>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="43"/>
+        <v>44669</v>
+      </c>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="43"/>
+      <c r="BK5" s="43"/>
+      <c r="BL5" s="44"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
-        <v>44585</v>
+        <v>44620</v>
       </c>
       <c r="J6" s="27">
         <f>I6+1</f>
-        <v>44586</v>
+        <v>44621</v>
       </c>
       <c r="K6" s="27">
         <f t="shared" ref="K6:AX6" si="0">J6+1</f>
-        <v>44587</v>
+        <v>44622</v>
       </c>
       <c r="L6" s="27">
         <f t="shared" si="0"/>
-        <v>44588</v>
+        <v>44623</v>
       </c>
       <c r="M6" s="27">
         <f t="shared" si="0"/>
-        <v>44589</v>
+        <v>44624</v>
       </c>
       <c r="N6" s="27">
         <f t="shared" si="0"/>
-        <v>44590</v>
+        <v>44625</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" si="0"/>
-        <v>44591</v>
+        <v>44626</v>
       </c>
       <c r="P6" s="26">
         <f>O6+1</f>
-        <v>44592</v>
+        <v>44627</v>
       </c>
       <c r="Q6" s="27">
         <f>P6+1</f>
-        <v>44593</v>
+        <v>44628</v>
       </c>
       <c r="R6" s="27">
         <f t="shared" si="0"/>
-        <v>44594</v>
+        <v>44629</v>
       </c>
       <c r="S6" s="27">
         <f t="shared" si="0"/>
-        <v>44595</v>
+        <v>44630</v>
       </c>
       <c r="T6" s="27">
         <f t="shared" si="0"/>
-        <v>44596</v>
+        <v>44631</v>
       </c>
       <c r="U6" s="27">
         <f t="shared" si="0"/>
-        <v>44597</v>
+        <v>44632</v>
       </c>
       <c r="V6" s="28">
         <f t="shared" si="0"/>
-        <v>44598</v>
+        <v>44633</v>
       </c>
       <c r="W6" s="26">
         <f>V6+1</f>
-        <v>44599</v>
+        <v>44634</v>
       </c>
       <c r="X6" s="27">
         <f>W6+1</f>
-        <v>44600</v>
+        <v>44635</v>
       </c>
       <c r="Y6" s="27">
         <f t="shared" si="0"/>
-        <v>44601</v>
+        <v>44636</v>
       </c>
       <c r="Z6" s="27">
         <f t="shared" si="0"/>
-        <v>44602</v>
+        <v>44637</v>
       </c>
       <c r="AA6" s="27">
         <f t="shared" si="0"/>
-        <v>44603</v>
+        <v>44638</v>
       </c>
       <c r="AB6" s="27">
         <f t="shared" si="0"/>
-        <v>44604</v>
+        <v>44639</v>
       </c>
       <c r="AC6" s="28">
         <f t="shared" si="0"/>
-        <v>44605</v>
+        <v>44640</v>
       </c>
       <c r="AD6" s="26">
         <f>AC6+1</f>
-        <v>44606</v>
+        <v>44641</v>
       </c>
       <c r="AE6" s="27">
         <f>AD6+1</f>
-        <v>44607</v>
+        <v>44642</v>
       </c>
       <c r="AF6" s="27">
         <f t="shared" si="0"/>
-        <v>44608</v>
+        <v>44643</v>
       </c>
       <c r="AG6" s="27">
         <f t="shared" si="0"/>
-        <v>44609</v>
+        <v>44644</v>
       </c>
       <c r="AH6" s="27">
         <f t="shared" si="0"/>
-        <v>44610</v>
+        <v>44645</v>
       </c>
       <c r="AI6" s="27">
         <f t="shared" si="0"/>
-        <v>44611</v>
+        <v>44646</v>
       </c>
       <c r="AJ6" s="28">
         <f t="shared" si="0"/>
-        <v>44612</v>
+        <v>44647</v>
       </c>
       <c r="AK6" s="26">
         <f>AJ6+1</f>
-        <v>44613</v>
+        <v>44648</v>
       </c>
       <c r="AL6" s="27">
         <f>AK6+1</f>
-        <v>44614</v>
+        <v>44649</v>
       </c>
       <c r="AM6" s="27">
         <f t="shared" si="0"/>
-        <v>44615</v>
+        <v>44650</v>
       </c>
       <c r="AN6" s="27">
         <f t="shared" si="0"/>
-        <v>44616</v>
+        <v>44651</v>
       </c>
       <c r="AO6" s="27">
         <f t="shared" si="0"/>
-        <v>44617</v>
+        <v>44652</v>
       </c>
       <c r="AP6" s="27">
         <f t="shared" si="0"/>
-        <v>44618</v>
+        <v>44653</v>
       </c>
       <c r="AQ6" s="28">
         <f t="shared" si="0"/>
-        <v>44619</v>
+        <v>44654</v>
       </c>
       <c r="AR6" s="26">
         <f>AQ6+1</f>
-        <v>44620</v>
+        <v>44655</v>
       </c>
       <c r="AS6" s="27">
         <f>AR6+1</f>
-        <v>44621</v>
+        <v>44656</v>
       </c>
       <c r="AT6" s="27">
         <f t="shared" si="0"/>
-        <v>44622</v>
+        <v>44657</v>
       </c>
       <c r="AU6" s="27">
         <f t="shared" si="0"/>
-        <v>44623</v>
+        <v>44658</v>
       </c>
       <c r="AV6" s="27">
         <f t="shared" si="0"/>
-        <v>44624</v>
+        <v>44659</v>
       </c>
       <c r="AW6" s="27">
         <f t="shared" si="0"/>
-        <v>44625</v>
+        <v>44660</v>
       </c>
       <c r="AX6" s="28">
         <f t="shared" si="0"/>
-        <v>44626</v>
+        <v>44661</v>
       </c>
       <c r="AY6" s="26">
         <f>AX6+1</f>
-        <v>44627</v>
+        <v>44662</v>
       </c>
       <c r="AZ6" s="27">
         <f>AY6+1</f>
-        <v>44628</v>
+        <v>44663</v>
       </c>
       <c r="BA6" s="27">
         <f t="shared" ref="BA6:BE6" si="1">AZ6+1</f>
-        <v>44629</v>
+        <v>44664</v>
       </c>
       <c r="BB6" s="27">
         <f t="shared" si="1"/>
-        <v>44630</v>
+        <v>44665</v>
       </c>
       <c r="BC6" s="27">
         <f t="shared" si="1"/>
-        <v>44631</v>
+        <v>44666</v>
       </c>
       <c r="BD6" s="27">
         <f t="shared" si="1"/>
-        <v>44632</v>
+        <v>44667</v>
       </c>
       <c r="BE6" s="28">
         <f t="shared" si="1"/>
-        <v>44633</v>
+        <v>44668</v>
       </c>
       <c r="BF6" s="26">
         <f>BE6+1</f>
-        <v>44634</v>
+        <v>44669</v>
       </c>
       <c r="BG6" s="27">
         <f>BF6+1</f>
-        <v>44635</v>
+        <v>44670</v>
       </c>
       <c r="BH6" s="27">
         <f t="shared" ref="BH6:BL6" si="2">BG6+1</f>
-        <v>44636</v>
+        <v>44671</v>
       </c>
       <c r="BI6" s="27">
         <f t="shared" si="2"/>
-        <v>44637</v>
+        <v>44672</v>
       </c>
       <c r="BJ6" s="27">
         <f t="shared" si="2"/>
-        <v>44638</v>
+        <v>44673</v>
       </c>
       <c r="BK6" s="27">
         <f t="shared" si="2"/>
-        <v>44639</v>
+        <v>44674</v>
       </c>
       <c r="BL6" s="28">
         <f t="shared" si="2"/>
-        <v>44640</v>
+        <v>44675</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
@@ -2974,12 +2956,12 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="39"/>
@@ -2987,7 +2969,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H76" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H77" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="15"/>
@@ -3047,7 +3029,7 @@
       <c r="BK8" s="15"/>
       <c r="BL8" s="15"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -3055,7 +3037,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="35">
         <v>1</v>
@@ -3129,7 +3111,7 @@
       <c r="BK9" s="15"/>
       <c r="BL9" s="15"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
@@ -3137,7 +3119,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
@@ -3212,13 +3194,13 @@
       <c r="BK10" s="15"/>
       <c r="BL10" s="15"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18"/>
       <c r="B11" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="14">
         <v>1</v>
@@ -3293,13 +3275,13 @@
       <c r="BK11" s="15"/>
       <c r="BL11" s="15"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
       <c r="B12" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="14">
         <v>1</v>
@@ -3374,13 +3356,13 @@
       <c r="BK12" s="15"/>
       <c r="BL12" s="15"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18"/>
       <c r="B13" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
@@ -3455,13 +3437,13 @@
       <c r="BK13" s="15"/>
       <c r="BL13" s="15"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="18"/>
       <c r="B14" s="33" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="35">
         <v>1</v>
@@ -3536,13 +3518,13 @@
       <c r="BK14" s="15"/>
       <c r="BL14" s="15"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18"/>
       <c r="B15" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="14">
         <v>1</v>
@@ -3617,13 +3599,13 @@
       <c r="BK15" s="15"/>
       <c r="BL15" s="15"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18"/>
       <c r="B16" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="14">
         <v>1</v>
@@ -3698,12 +3680,12 @@
       <c r="BK16" s="15"/>
       <c r="BL16" s="15"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="39"/>
@@ -3771,13 +3753,13 @@
       <c r="BK17" s="15"/>
       <c r="BL17" s="15"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18"/>
       <c r="B18" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
@@ -3852,13 +3834,13 @@
       <c r="BK18" s="15"/>
       <c r="BL18" s="15"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18"/>
       <c r="B19" s="24" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="14">
         <v>1</v>
@@ -3933,13 +3915,13 @@
       <c r="BK19" s="15"/>
       <c r="BL19" s="15"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18"/>
       <c r="B20" s="24" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="14">
         <v>1</v>
@@ -4014,13 +3996,13 @@
       <c r="BK20" s="15"/>
       <c r="BL20" s="15"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18"/>
       <c r="B21" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="35">
         <v>1</v>
@@ -4095,13 +4077,13 @@
       <c r="BK21" s="15"/>
       <c r="BL21" s="15"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18"/>
       <c r="B22" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="14">
         <v>1</v>
@@ -4176,13 +4158,13 @@
       <c r="BK22" s="15"/>
       <c r="BL22" s="15"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18"/>
       <c r="B23" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
@@ -4257,13 +4239,13 @@
       <c r="BK23" s="15"/>
       <c r="BL23" s="15"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="18"/>
       <c r="B24" s="24" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="14">
         <v>1</v>
@@ -4338,13 +4320,13 @@
       <c r="BK24" s="15"/>
       <c r="BL24" s="15"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18"/>
       <c r="B25" s="24" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="14">
         <v>1</v>
@@ -4419,13 +4401,13 @@
       <c r="BK25" s="15"/>
       <c r="BL25" s="15"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="18"/>
       <c r="B26" s="33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="35">
         <v>1</v>
@@ -4497,12 +4479,12 @@
       <c r="BK26" s="15"/>
       <c r="BL26" s="15"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="39"/>
@@ -4570,13 +4552,13 @@
       <c r="BK27" s="15"/>
       <c r="BL27" s="15"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="18"/>
       <c r="B28" s="24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D28" s="14">
         <v>1</v>
@@ -4651,13 +4633,13 @@
       <c r="BK28" s="15"/>
       <c r="BL28" s="15"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18"/>
       <c r="B29" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
@@ -4732,13 +4714,13 @@
       <c r="BK29" s="15"/>
       <c r="BL29" s="15"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="14">
         <v>1</v>
@@ -4813,13 +4795,13 @@
       <c r="BK30" s="15"/>
       <c r="BL30" s="15"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="18"/>
       <c r="B31" s="24" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
@@ -4894,13 +4876,13 @@
       <c r="BK31" s="15"/>
       <c r="BL31" s="15"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="18"/>
       <c r="B32" s="24" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="14">
         <v>1</v>
@@ -4975,13 +4957,13 @@
       <c r="BK32" s="15"/>
       <c r="BL32" s="15"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="18"/>
       <c r="B33" s="24" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="14">
         <v>1</v>
@@ -5053,13 +5035,13 @@
       <c r="BK33" s="15"/>
       <c r="BL33" s="15"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="18"/>
       <c r="B34" s="33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="35">
         <v>1</v>
@@ -5134,12 +5116,12 @@
       <c r="BK34" s="15"/>
       <c r="BL34" s="15"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="39"/>
@@ -5207,13 +5189,13 @@
       <c r="BK35" s="15"/>
       <c r="BL35" s="15"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="18"/>
       <c r="B36" s="24" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D36" s="14">
         <v>1</v>
@@ -5288,13 +5270,13 @@
       <c r="BK36" s="15"/>
       <c r="BL36" s="15"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18"/>
       <c r="B37" s="24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="14">
         <v>1</v>
@@ -5369,13 +5351,13 @@
       <c r="BK37" s="15"/>
       <c r="BL37" s="15"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38" s="14">
         <v>0.8</v>
@@ -5450,13 +5432,13 @@
       <c r="BK38" s="15"/>
       <c r="BL38" s="15"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18"/>
       <c r="B39" s="24" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D39" s="14">
         <v>1</v>
@@ -5528,13 +5510,13 @@
       <c r="BK39" s="15"/>
       <c r="BL39" s="15"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="18"/>
       <c r="B40" s="33" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" s="35">
         <v>1</v>
@@ -5609,12 +5591,12 @@
       <c r="BK40" s="15"/>
       <c r="BL40" s="15"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="39"/>
@@ -5682,13 +5664,13 @@
       <c r="BK41" s="15"/>
       <c r="BL41" s="15"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="18"/>
       <c r="B42" s="24" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" s="14">
         <v>1</v>
@@ -5763,13 +5745,13 @@
       <c r="BK42" s="15"/>
       <c r="BL42" s="15"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="18"/>
       <c r="B43" s="32" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" s="14">
         <v>1</v>
@@ -5844,13 +5826,13 @@
       <c r="BK43" s="15"/>
       <c r="BL43" s="15"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18"/>
       <c r="B44" s="24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="14">
         <v>1</v>
@@ -5925,13 +5907,13 @@
       <c r="BK44" s="15"/>
       <c r="BL44" s="15"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="18"/>
       <c r="B45" s="24" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D45" s="14">
         <v>0.8</v>
@@ -6006,13 +5988,13 @@
       <c r="BK45" s="15"/>
       <c r="BL45" s="15"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="18"/>
       <c r="B46" s="33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="35">
         <v>1</v>
@@ -6087,12 +6069,12 @@
       <c r="BK46" s="15"/>
       <c r="BL46" s="15"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
@@ -6160,10 +6142,10 @@
       <c r="BK47" s="15"/>
       <c r="BL47" s="15"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="18"/>
       <c r="B48" s="24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="14">
@@ -6239,13 +6221,13 @@
       <c r="BK48" s="15"/>
       <c r="BL48" s="15"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="18"/>
       <c r="B49" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" s="14">
         <v>1</v>
@@ -6320,13 +6302,13 @@
       <c r="BK49" s="15"/>
       <c r="BL49" s="15"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="18"/>
       <c r="B50" s="24" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="14">
         <v>1</v>
@@ -6398,13 +6380,13 @@
       <c r="BK50" s="15"/>
       <c r="BL50" s="15"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="18"/>
       <c r="B51" s="24" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D51" s="14">
         <v>0.9</v>
@@ -6476,13 +6458,13 @@
       <c r="BK51" s="15"/>
       <c r="BL51" s="15"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="18"/>
       <c r="B52" s="24" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D52" s="14">
         <v>0.8</v>
@@ -6554,13 +6536,13 @@
       <c r="BK52" s="15"/>
       <c r="BL52" s="15"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="18"/>
       <c r="B53" s="24" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D53" s="14">
         <v>1</v>
@@ -6632,13 +6614,13 @@
       <c r="BK53" s="15"/>
       <c r="BL53" s="15"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="18"/>
       <c r="B54" s="24" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D54" s="14">
         <v>1</v>
@@ -6710,13 +6692,13 @@
       <c r="BK54" s="15"/>
       <c r="BL54" s="15"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="18"/>
       <c r="B55" s="33" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" s="35">
         <v>1</v>
@@ -6791,12 +6773,12 @@
       <c r="BK55" s="15"/>
       <c r="BL55" s="15"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="39"/>
@@ -6864,21 +6846,27 @@
       <c r="BK56" s="15"/>
       <c r="BL56" s="15"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="18"/>
       <c r="B57" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>86</v>
+      </c>
       <c r="D57" s="14">
-        <v>0</v>
-      </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="29">
+        <v>44624</v>
+      </c>
+      <c r="F57" s="29">
+        <v>44624</v>
+      </c>
       <c r="G57" s="13"/>
-      <c r="H57" s="13" t="str">
+      <c r="H57" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
@@ -6937,23 +6925,27 @@
       <c r="BK57" s="15"/>
       <c r="BL57" s="15"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="18"/>
       <c r="B58" s="24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" s="14">
-        <v>0</v>
-      </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="29">
+        <v>44625</v>
+      </c>
+      <c r="F58" s="29">
+        <v>44631</v>
+      </c>
       <c r="G58" s="13"/>
-      <c r="H58" s="13" t="str">
+      <c r="H58" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="15"/>
@@ -7012,18 +7004,25 @@
       <c r="BK58" s="15"/>
       <c r="BL58" s="15"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
+      <c r="B59" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="14">
+        <v>1</v>
+      </c>
+      <c r="E59" s="29">
+        <v>44632</v>
+      </c>
+      <c r="F59" s="29">
+        <v>44645</v>
+      </c>
       <c r="G59" s="13"/>
-      <c r="H59" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H59" s="13"/>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
@@ -7081,30 +7080,25 @@
       <c r="BK59" s="15"/>
       <c r="BL59" s="15"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="18"/>
-      <c r="B60" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="35">
-        <v>0</v>
-      </c>
-      <c r="E60" s="36">
-        <f>E55+28</f>
-        <v>44651</v>
-      </c>
-      <c r="F60" s="36">
-        <f>E60+12</f>
-        <v>44663</v>
+      <c r="B60" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="14">
+        <v>1</v>
+      </c>
+      <c r="E60" s="29">
+        <v>44632</v>
+      </c>
+      <c r="F60" s="29">
+        <v>44645</v>
       </c>
       <c r="G60" s="13"/>
-      <c r="H60" s="13">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
+      <c r="H60" s="13"/>
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
@@ -7162,22 +7156,25 @@
       <c r="BK60" s="15"/>
       <c r="BL60" s="15"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="18"/>
+      <c r="B61" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="14">
+        <v>1</v>
+      </c>
+      <c r="E61" s="29">
+        <v>44632</v>
+      </c>
+      <c r="F61" s="29">
+        <v>44645</v>
+      </c>
       <c r="G61" s="13"/>
-      <c r="H61" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H61" s="13"/>
       <c r="I61" s="15"/>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
@@ -7235,21 +7232,27 @@
       <c r="BK61" s="15"/>
       <c r="BL61" s="15"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="18"/>
       <c r="B62" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C62" s="22"/>
+        <v>91</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>86</v>
+      </c>
       <c r="D62" s="14">
-        <v>0</v>
-      </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="E62" s="29">
+        <v>44632</v>
+      </c>
+      <c r="F62" s="29">
+        <v>44645</v>
+      </c>
       <c r="G62" s="13"/>
-      <c r="H62" s="13" t="str">
+      <c r="H62" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
@@ -7308,19 +7311,17 @@
       <c r="BK62" s="15"/>
       <c r="BL62" s="15"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-      <c r="B63" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="14">
-        <v>0</v>
-      </c>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="38"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13" t="str">
         <f t="shared" si="4"/>
@@ -7383,11 +7384,17 @@
       <c r="BK63" s="15"/>
       <c r="BL63" s="15"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="18"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="14"/>
+      <c r="B64" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="14">
+        <v>0</v>
+      </c>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
       <c r="G64" s="13"/>
@@ -7452,29 +7459,17 @@
       <c r="BK64" s="15"/>
       <c r="BL64" s="15"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="18"/>
-      <c r="B65" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="35">
-        <v>0</v>
-      </c>
-      <c r="E65" s="36">
-        <f>E60+14</f>
-        <v>44665</v>
-      </c>
-      <c r="F65" s="36">
-        <f>E65+12</f>
-        <v>44677</v>
-      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="13">
+      <c r="H65" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
@@ -7533,21 +7528,29 @@
       <c r="BK65" s="15"/>
       <c r="BL65" s="15"/>
     </row>
-    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="38"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
+    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="18"/>
+      <c r="B66" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="35">
+        <v>0</v>
+      </c>
+      <c r="E66" s="36" t="e">
+        <f>#REF!+14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F66" s="36" t="e">
+        <f>E66+12</f>
+        <v>#REF!</v>
+      </c>
       <c r="G66" s="13"/>
-      <c r="H66" s="13" t="str">
+      <c r="H66" s="13" t="e">
         <f t="shared" si="4"/>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="15"/>
@@ -7606,17 +7609,17 @@
       <c r="BK66" s="15"/>
       <c r="BL66" s="15"/>
     </row>
-    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
-      <c r="B67" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="14">
-        <v>0</v>
-      </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
+    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="38"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13" t="str">
         <f t="shared" si="4"/>
@@ -7679,14 +7682,12 @@
       <c r="BK67" s="15"/>
       <c r="BL67" s="15"/>
     </row>
-    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="18"/>
       <c r="B68" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>30</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C68" s="22"/>
       <c r="D68" s="14">
         <v>0</v>
       </c>
@@ -7754,11 +7755,17 @@
       <c r="BK68" s="15"/>
       <c r="BL68" s="15"/>
     </row>
-    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="18"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="14"/>
+      <c r="B69" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="14">
+        <v>0</v>
+      </c>
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
       <c r="G69" s="13"/>
@@ -7823,29 +7830,17 @@
       <c r="BK69" s="15"/>
       <c r="BL69" s="15"/>
     </row>
-    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="18"/>
-      <c r="B70" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="35">
-        <v>0</v>
-      </c>
-      <c r="E70" s="36">
-        <f>E65+35</f>
-        <v>44700</v>
-      </c>
-      <c r="F70" s="36">
-        <f>E70+12</f>
-        <v>44712</v>
-      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
       <c r="G70" s="13"/>
-      <c r="H70" s="13">
+      <c r="H70" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
@@ -7904,21 +7899,29 @@
       <c r="BK70" s="15"/>
       <c r="BL70" s="15"/>
     </row>
-    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="38"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="18"/>
+      <c r="B71" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="35">
+        <v>0</v>
+      </c>
+      <c r="E71" s="36" t="e">
+        <f>E66+35</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F71" s="36" t="e">
+        <f>E71+12</f>
+        <v>#REF!</v>
+      </c>
       <c r="G71" s="13"/>
-      <c r="H71" s="13" t="str">
+      <c r="H71" s="13" t="e">
         <f t="shared" si="4"/>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
@@ -7977,17 +7980,17 @@
       <c r="BK71" s="15"/>
       <c r="BL71" s="15"/>
     </row>
-    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
-      <c r="B72" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="14">
-        <v>0</v>
-      </c>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
+    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="38"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13" t="str">
         <f t="shared" si="4"/>
@@ -8050,14 +8053,12 @@
       <c r="BK72" s="15"/>
       <c r="BL72" s="15"/>
     </row>
-    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18"/>
       <c r="B73" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>30</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C73" s="22"/>
       <c r="D73" s="14">
         <v>0</v>
       </c>
@@ -8125,11 +8126,17 @@
       <c r="BK73" s="15"/>
       <c r="BL73" s="15"/>
     </row>
-    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="18"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="14"/>
+      <c r="B74" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="14">
+        <v>0</v>
+      </c>
       <c r="E74" s="29"/>
       <c r="F74" s="29"/>
       <c r="G74" s="13"/>
@@ -8194,27 +8201,17 @@
       <c r="BK74" s="15"/>
       <c r="BL74" s="15"/>
     </row>
-    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="18"/>
-      <c r="B75" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="35"/>
-      <c r="E75" s="36">
-        <f>E70+5</f>
-        <v>44705</v>
-      </c>
-      <c r="F75" s="36">
-        <f>E75</f>
-        <v>44705</v>
-      </c>
+      <c r="B75" s="24"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="13">
+      <c r="H75" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
@@ -8273,19 +8270,27 @@
       <c r="BK75" s="15"/>
       <c r="BL75" s="15"/>
     </row>
-    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="25"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
+    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="18"/>
+      <c r="B76" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="35"/>
+      <c r="E76" s="36" t="e">
+        <f>E71+5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F76" s="36" t="e">
+        <f>E76</f>
+        <v>#REF!</v>
+      </c>
       <c r="G76" s="13"/>
-      <c r="H76" s="13" t="str">
+      <c r="H76" s="13" t="e">
         <f t="shared" si="4"/>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
@@ -8344,23 +8349,89 @@
       <c r="BK76" s="15"/>
       <c r="BL76" s="15"/>
     </row>
-    <row r="77" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G77" s="6"/>
+    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="25"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+      <c r="Z77" s="15"/>
+      <c r="AA77" s="15"/>
+      <c r="AB77" s="15"/>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="15"/>
+      <c r="AE77" s="15"/>
+      <c r="AF77" s="15"/>
+      <c r="AG77" s="15"/>
+      <c r="AH77" s="15"/>
+      <c r="AI77" s="15"/>
+      <c r="AJ77" s="15"/>
+      <c r="AK77" s="15"/>
+      <c r="AL77" s="15"/>
+      <c r="AM77" s="15"/>
+      <c r="AN77" s="15"/>
+      <c r="AO77" s="15"/>
+      <c r="AP77" s="15"/>
+      <c r="AQ77" s="15"/>
+      <c r="AR77" s="15"/>
+      <c r="AS77" s="15"/>
+      <c r="AT77" s="15"/>
+      <c r="AU77" s="15"/>
+      <c r="AV77" s="15"/>
+      <c r="AW77" s="15"/>
+      <c r="AX77" s="15"/>
+      <c r="AY77" s="15"/>
+      <c r="AZ77" s="15"/>
+      <c r="BA77" s="15"/>
+      <c r="BB77" s="15"/>
+      <c r="BC77" s="15"/>
+      <c r="BD77" s="15"/>
+      <c r="BE77" s="15"/>
+      <c r="BF77" s="15"/>
+      <c r="BG77" s="15"/>
+      <c r="BH77" s="15"/>
+      <c r="BI77" s="15"/>
+      <c r="BJ77" s="15"/>
+      <c r="BK77" s="15"/>
+      <c r="BL77" s="15"/>
     </row>
-    <row r="78" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="10"/>
-      <c r="F78" s="20"/>
+    <row r="78" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G78" s="6"/>
     </row>
-    <row r="79" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="11"/>
+    <row r="79" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C79" s="10"/>
+      <c r="F79" s="20"/>
+    </row>
+    <row r="80" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C80" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -8369,8 +8440,13 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D64 D76 D15:D16 D22:D25 D18:D20">
+  <conditionalFormatting sqref="D15:D16 D77 D22:D25 D18:D20 D64:D65">
     <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8384,16 +8460,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL64 I76:BL76 I32:BL34 I6:BL25 I27:BL29">
-    <cfRule type="expression" dxfId="56" priority="124">
+  <conditionalFormatting sqref="I77:BL77 I32:BL34 I6:BL25 I27:BL29 I63:BL65">
+    <cfRule type="expression" dxfId="53" priority="124">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL64 I76:BL76 I32:BL34 I8:BL25 I27:BL29">
-    <cfRule type="expression" dxfId="55" priority="122">
+  <conditionalFormatting sqref="I77:BL77 I32:BL34 I8:BL25 I27:BL29 I63:BL65">
+    <cfRule type="expression" dxfId="52" priority="122">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="123" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8426,15 +8502,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL43 I45:BL45">
-    <cfRule type="expression" dxfId="53" priority="119">
+    <cfRule type="expression" dxfId="50" priority="119">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL43 I45:BL45">
-    <cfRule type="expression" dxfId="52" priority="117">
+    <cfRule type="expression" dxfId="49" priority="117">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="118" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8453,28 +8529,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="50" priority="113">
+    <cfRule type="expression" dxfId="47" priority="113">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="49" priority="111">
+    <cfRule type="expression" dxfId="46" priority="111">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="112" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:BL54">
-    <cfRule type="expression" dxfId="47" priority="110">
+    <cfRule type="expression" dxfId="44" priority="110">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:BL54">
-    <cfRule type="expression" dxfId="46" priority="108">
+    <cfRule type="expression" dxfId="43" priority="108">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="109" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8493,19 +8569,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="44" priority="104">
+    <cfRule type="expression" dxfId="41" priority="104">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="43" priority="102">
+    <cfRule type="expression" dxfId="40" priority="102">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="103" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D62">
     <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8519,20 +8595,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL59">
-    <cfRule type="expression" dxfId="41" priority="101">
+  <conditionalFormatting sqref="I56:BL62">
+    <cfRule type="expression" dxfId="38" priority="101">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL59">
-    <cfRule type="expression" dxfId="40" priority="99">
+  <conditionalFormatting sqref="I56:BL62">
+    <cfRule type="expression" dxfId="37" priority="99">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="100" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57:D58">
+  <conditionalFormatting sqref="D57:D61">
     <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8542,33 +8618,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8C1F1D87-2F5D-4508-9015-0F4807608336}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="38" priority="95">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="37" priority="93">
-      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="94" stopIfTrue="1">
-      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D63">
-    <cfRule type="dataBar" priority="91">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{45BD4CAD-EC79-4BD6-BBED-CEFB157C8046}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8601,7 +8650,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
+  <conditionalFormatting sqref="D70">
     <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8615,12 +8664,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BL69">
+  <conditionalFormatting sqref="I67:BL70">
     <cfRule type="expression" dxfId="35" priority="83">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BL69">
+  <conditionalFormatting sqref="I67:BL70">
     <cfRule type="expression" dxfId="34" priority="81">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8628,12 +8677,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65:BL65">
+  <conditionalFormatting sqref="I66:BL66">
     <cfRule type="expression" dxfId="32" priority="79">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65:BL65">
+  <conditionalFormatting sqref="I66:BL66">
     <cfRule type="expression" dxfId="31" priority="77">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8641,7 +8690,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67:D68">
+  <conditionalFormatting sqref="D68:D69">
     <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8655,7 +8704,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
+  <conditionalFormatting sqref="D75">
     <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8669,12 +8718,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BL74">
+  <conditionalFormatting sqref="I72:BL75">
     <cfRule type="expression" dxfId="29" priority="73">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BL74">
+  <conditionalFormatting sqref="I72:BL75">
     <cfRule type="expression" dxfId="28" priority="71">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8682,12 +8731,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70:BL70">
+  <conditionalFormatting sqref="I71:BL71">
     <cfRule type="expression" dxfId="26" priority="69">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70:BL70">
+  <conditionalFormatting sqref="I71:BL71">
     <cfRule type="expression" dxfId="25" priority="67">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8695,7 +8744,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72:D73">
+  <conditionalFormatting sqref="D73:D74">
     <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8709,12 +8758,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I75:BL75">
+  <conditionalFormatting sqref="I76:BL76">
     <cfRule type="expression" dxfId="23" priority="63">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I75:BL75">
+  <conditionalFormatting sqref="I76:BL76">
     <cfRule type="expression" dxfId="22" priority="61">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -9010,21 +9059,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4A295D46-0803-4547-A888-BB15E851A0BE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9038,7 +9073,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D71">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9052,7 +9087,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
+  <conditionalFormatting sqref="D76">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9136,7 +9171,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
+  <conditionalFormatting sqref="D63">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9150,7 +9185,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9164,7 +9199,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="D72">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9232,7 +9267,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D64 D76 D15:D16 D22:D25 D18:D20</xm:sqref>
+          <xm:sqref>D15:D16 D77 D22:D25 D18:D20 D64:D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61BAFCB1-C9D1-4453-9835-894AAFFB2D48}">
@@ -9307,7 +9342,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D59</xm:sqref>
+          <xm:sqref>D62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C1F1D87-2F5D-4508-9015-0F4807608336}">
@@ -9322,22 +9357,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D57:D58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{45BD4CAD-EC79-4BD6-BBED-CEFB157C8046}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D62:D63</xm:sqref>
+          <xm:sqref>D57:D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85676472-4DEA-4B47-8076-2B079F7EB722}">
@@ -9382,7 +9402,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D69</xm:sqref>
+          <xm:sqref>D70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D92EFAD8-9A39-41D6-8E74-09FCB7C99446}">
@@ -9397,7 +9417,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D67:D68</xm:sqref>
+          <xm:sqref>D68:D69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49690BEA-F1DA-49A9-87E0-BC10D33392B4}">
@@ -9412,7 +9432,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D74</xm:sqref>
+          <xm:sqref>D75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F3BCBE8B-1131-4EC4-93C6-93A3D2241A3A}">
@@ -9427,7 +9447,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D72:D73</xm:sqref>
+          <xm:sqref>D73:D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{70FE4911-65CD-4B63-902B-DAD573D9D1E7}">
@@ -9655,21 +9675,6 @@
           <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4A295D46-0803-4547-A888-BB15E851A0BE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F9FF2D8E-4C48-4314-AE00-D91E4BEBF00D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -9682,7 +9687,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D65</xm:sqref>
+          <xm:sqref>D66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{47FD5541-751B-48F2-895B-231260031964}">
@@ -9697,7 +9702,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D70</xm:sqref>
+          <xm:sqref>D71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CB458C94-EC1D-48A0-8F37-BA38EE604418}">
@@ -9712,7 +9717,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D75</xm:sqref>
+          <xm:sqref>D76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC19E591-9826-41D2-8753-21A5AEC1982F}">
@@ -9802,7 +9807,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D61</xm:sqref>
+          <xm:sqref>D63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E8B7A00D-0A45-4E39-935E-0EF6E104B91A}">
@@ -9817,7 +9822,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D66</xm:sqref>
+          <xm:sqref>D67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61C46EA8-F9E7-45B9-92F2-CA890223D6D5}">
@@ -9832,7 +9837,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D71</xm:sqref>
+          <xm:sqref>D72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8A618AE5-6A10-402E-8877-7F8471EF9C36}">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D0A269-8B3E-4EF2-A0C3-F9F343B5672C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBC6C0E-CB19-4C74-98E9-B6DF465E462F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1228,7 +1228,6 @@
     <xf numFmtId="168" fontId="24" fillId="37" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1250,6 +1249,7 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2313,9 +2313,9 @@
   </sheetPr>
   <dimension ref="A1:BL80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="19"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="1"/>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="19"/>
-      <c r="B3" s="45"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2371,341 +2371,341 @@
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48">
+      <c r="D4" s="46"/>
+      <c r="E4" s="47">
         <v>44459</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="31">
-        <v>24</v>
-      </c>
-      <c r="I5" s="42">
+        <v>23</v>
+      </c>
+      <c r="I5" s="41">
         <f>I6</f>
+        <v>44613</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="41">
+        <f>P6</f>
         <v>44620</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="42">
-        <f>P6</f>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="41">
+        <f>W6</f>
         <v>44627</v>
       </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="42">
-        <f>W6</f>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="41">
+        <f>AD6</f>
         <v>44634</v>
       </c>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="42">
-        <f>AD6</f>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="41">
+        <f>AK6</f>
         <v>44641</v>
       </c>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="42">
-        <f>AK6</f>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="41">
+        <f>AR6</f>
         <v>44648</v>
       </c>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="42">
-        <f>AR6</f>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="41">
+        <f>AY6</f>
         <v>44655</v>
       </c>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="43"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="42">
-        <f>AY6</f>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="41">
+        <f>BF6</f>
         <v>44662</v>
       </c>
-      <c r="AZ5" s="43"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="42">
-        <f>BF6</f>
-        <v>44669</v>
-      </c>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="43"/>
-      <c r="BK5" s="43"/>
-      <c r="BL5" s="44"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="43"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
-        <v>44620</v>
+        <v>44613</v>
       </c>
       <c r="J6" s="27">
         <f>I6+1</f>
-        <v>44621</v>
+        <v>44614</v>
       </c>
       <c r="K6" s="27">
         <f t="shared" ref="K6:AX6" si="0">J6+1</f>
-        <v>44622</v>
+        <v>44615</v>
       </c>
       <c r="L6" s="27">
         <f t="shared" si="0"/>
-        <v>44623</v>
+        <v>44616</v>
       </c>
       <c r="M6" s="27">
         <f t="shared" si="0"/>
-        <v>44624</v>
+        <v>44617</v>
       </c>
       <c r="N6" s="27">
         <f t="shared" si="0"/>
-        <v>44625</v>
+        <v>44618</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" si="0"/>
-        <v>44626</v>
+        <v>44619</v>
       </c>
       <c r="P6" s="26">
         <f>O6+1</f>
-        <v>44627</v>
+        <v>44620</v>
       </c>
       <c r="Q6" s="27">
         <f>P6+1</f>
-        <v>44628</v>
+        <v>44621</v>
       </c>
       <c r="R6" s="27">
         <f t="shared" si="0"/>
-        <v>44629</v>
+        <v>44622</v>
       </c>
       <c r="S6" s="27">
         <f t="shared" si="0"/>
-        <v>44630</v>
+        <v>44623</v>
       </c>
       <c r="T6" s="27">
         <f t="shared" si="0"/>
-        <v>44631</v>
+        <v>44624</v>
       </c>
       <c r="U6" s="27">
         <f t="shared" si="0"/>
-        <v>44632</v>
+        <v>44625</v>
       </c>
       <c r="V6" s="28">
         <f t="shared" si="0"/>
-        <v>44633</v>
+        <v>44626</v>
       </c>
       <c r="W6" s="26">
         <f>V6+1</f>
-        <v>44634</v>
+        <v>44627</v>
       </c>
       <c r="X6" s="27">
         <f>W6+1</f>
-        <v>44635</v>
+        <v>44628</v>
       </c>
       <c r="Y6" s="27">
         <f t="shared" si="0"/>
-        <v>44636</v>
+        <v>44629</v>
       </c>
       <c r="Z6" s="27">
         <f t="shared" si="0"/>
-        <v>44637</v>
+        <v>44630</v>
       </c>
       <c r="AA6" s="27">
         <f t="shared" si="0"/>
-        <v>44638</v>
+        <v>44631</v>
       </c>
       <c r="AB6" s="27">
         <f t="shared" si="0"/>
-        <v>44639</v>
+        <v>44632</v>
       </c>
       <c r="AC6" s="28">
         <f t="shared" si="0"/>
-        <v>44640</v>
+        <v>44633</v>
       </c>
       <c r="AD6" s="26">
         <f>AC6+1</f>
-        <v>44641</v>
+        <v>44634</v>
       </c>
       <c r="AE6" s="27">
         <f>AD6+1</f>
-        <v>44642</v>
+        <v>44635</v>
       </c>
       <c r="AF6" s="27">
         <f t="shared" si="0"/>
-        <v>44643</v>
+        <v>44636</v>
       </c>
       <c r="AG6" s="27">
         <f t="shared" si="0"/>
-        <v>44644</v>
+        <v>44637</v>
       </c>
       <c r="AH6" s="27">
         <f t="shared" si="0"/>
-        <v>44645</v>
+        <v>44638</v>
       </c>
       <c r="AI6" s="27">
         <f t="shared" si="0"/>
-        <v>44646</v>
+        <v>44639</v>
       </c>
       <c r="AJ6" s="28">
         <f t="shared" si="0"/>
-        <v>44647</v>
+        <v>44640</v>
       </c>
       <c r="AK6" s="26">
         <f>AJ6+1</f>
-        <v>44648</v>
+        <v>44641</v>
       </c>
       <c r="AL6" s="27">
         <f>AK6+1</f>
-        <v>44649</v>
+        <v>44642</v>
       </c>
       <c r="AM6" s="27">
         <f t="shared" si="0"/>
-        <v>44650</v>
+        <v>44643</v>
       </c>
       <c r="AN6" s="27">
         <f t="shared" si="0"/>
-        <v>44651</v>
+        <v>44644</v>
       </c>
       <c r="AO6" s="27">
         <f t="shared" si="0"/>
-        <v>44652</v>
+        <v>44645</v>
       </c>
       <c r="AP6" s="27">
         <f t="shared" si="0"/>
-        <v>44653</v>
+        <v>44646</v>
       </c>
       <c r="AQ6" s="28">
         <f t="shared" si="0"/>
-        <v>44654</v>
+        <v>44647</v>
       </c>
       <c r="AR6" s="26">
         <f>AQ6+1</f>
-        <v>44655</v>
+        <v>44648</v>
       </c>
       <c r="AS6" s="27">
         <f>AR6+1</f>
-        <v>44656</v>
+        <v>44649</v>
       </c>
       <c r="AT6" s="27">
         <f t="shared" si="0"/>
-        <v>44657</v>
+        <v>44650</v>
       </c>
       <c r="AU6" s="27">
         <f t="shared" si="0"/>
-        <v>44658</v>
+        <v>44651</v>
       </c>
       <c r="AV6" s="27">
         <f t="shared" si="0"/>
-        <v>44659</v>
+        <v>44652</v>
       </c>
       <c r="AW6" s="27">
         <f t="shared" si="0"/>
-        <v>44660</v>
+        <v>44653</v>
       </c>
       <c r="AX6" s="28">
         <f t="shared" si="0"/>
-        <v>44661</v>
+        <v>44654</v>
       </c>
       <c r="AY6" s="26">
         <f>AX6+1</f>
-        <v>44662</v>
+        <v>44655</v>
       </c>
       <c r="AZ6" s="27">
         <f>AY6+1</f>
-        <v>44663</v>
+        <v>44656</v>
       </c>
       <c r="BA6" s="27">
         <f t="shared" ref="BA6:BE6" si="1">AZ6+1</f>
-        <v>44664</v>
+        <v>44657</v>
       </c>
       <c r="BB6" s="27">
         <f t="shared" si="1"/>
-        <v>44665</v>
+        <v>44658</v>
       </c>
       <c r="BC6" s="27">
         <f t="shared" si="1"/>
-        <v>44666</v>
+        <v>44659</v>
       </c>
       <c r="BD6" s="27">
         <f t="shared" si="1"/>
-        <v>44667</v>
+        <v>44660</v>
       </c>
       <c r="BE6" s="28">
         <f t="shared" si="1"/>
-        <v>44668</v>
+        <v>44661</v>
       </c>
       <c r="BF6" s="26">
         <f>BE6+1</f>
-        <v>44669</v>
+        <v>44662</v>
       </c>
       <c r="BG6" s="27">
         <f>BF6+1</f>
-        <v>44670</v>
+        <v>44663</v>
       </c>
       <c r="BH6" s="27">
         <f t="shared" ref="BH6:BL6" si="2">BG6+1</f>
-        <v>44671</v>
+        <v>44664</v>
       </c>
       <c r="BI6" s="27">
         <f t="shared" si="2"/>
-        <v>44672</v>
+        <v>44665</v>
       </c>
       <c r="BJ6" s="27">
         <f t="shared" si="2"/>
-        <v>44673</v>
+        <v>44666</v>
       </c>
       <c r="BK6" s="27">
         <f t="shared" si="2"/>
-        <v>44674</v>
+        <v>44667</v>
       </c>
       <c r="BL6" s="28">
         <f t="shared" si="2"/>
-        <v>44675</v>
+        <v>44668</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7395,12 +7395,16 @@
       <c r="D64" s="14">
         <v>0</v>
       </c>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
+      <c r="E64" s="29">
+        <v>44646</v>
+      </c>
+      <c r="F64" s="29">
+        <v>44653</v>
+      </c>
       <c r="G64" s="13"/>
-      <c r="H64" s="13" t="str">
+      <c r="H64" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
@@ -7539,18 +7543,17 @@
       <c r="D66" s="35">
         <v>0</v>
       </c>
-      <c r="E66" s="36" t="e">
-        <f>#REF!+14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F66" s="36" t="e">
+      <c r="E66" s="36">
+        <v>44655</v>
+      </c>
+      <c r="F66" s="36">
         <f>E66+12</f>
-        <v>#REF!</v>
+        <v>44667</v>
       </c>
       <c r="G66" s="13"/>
-      <c r="H66" s="13" t="e">
+      <c r="H66" s="13">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>13</v>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="15"/>
@@ -7910,18 +7913,18 @@
       <c r="D71" s="35">
         <v>0</v>
       </c>
-      <c r="E71" s="36" t="e">
+      <c r="E71" s="36">
         <f>E66+35</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F71" s="36" t="e">
+        <v>44690</v>
+      </c>
+      <c r="F71" s="36">
         <f>E71+12</f>
-        <v>#REF!</v>
+        <v>44702</v>
       </c>
       <c r="G71" s="13"/>
-      <c r="H71" s="13" t="e">
+      <c r="H71" s="13">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>13</v>
       </c>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
@@ -8279,18 +8282,18 @@
         <v>29</v>
       </c>
       <c r="D76" s="35"/>
-      <c r="E76" s="36" t="e">
+      <c r="E76" s="36">
         <f>E71+5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F76" s="36" t="e">
+        <v>44695</v>
+      </c>
+      <c r="F76" s="36">
         <f>E76</f>
-        <v>#REF!</v>
+        <v>44695</v>
       </c>
       <c r="G76" s="13"/>
-      <c r="H76" s="13" t="e">
+      <c r="H76" s="13">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
@@ -8432,6 +8435,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -8440,11 +8448,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
   <conditionalFormatting sqref="D15:D16 D77 D22:D25 D18:D20 D64:D65">
     <cfRule type="dataBar" priority="121">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBC6C0E-CB19-4C74-98E9-B6DF465E462F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D28C6C7-427A-4BEE-86B1-591F50367233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -126,9 +126,6 @@
     <t>Projet "WavContact"</t>
   </si>
   <si>
-    <t>Etude d'opportunité</t>
-  </si>
-  <si>
     <t>Réunion avec le mandant</t>
   </si>
   <si>
@@ -142,12 +139,6 @@
   </si>
   <si>
     <t>PV réunion A0</t>
-  </si>
-  <si>
-    <t>Révision de l'étude d'opportunité</t>
-  </si>
-  <si>
-    <t>Etude des besoins du mandant</t>
   </si>
   <si>
     <t>Réunion A1</t>
@@ -237,12 +228,6 @@
     <t>Reddition à 12h00</t>
   </si>
   <si>
-    <t xml:space="preserve">Mise en place du login </t>
-  </si>
-  <si>
-    <t>Document : Plan d'Assurance Qualité</t>
-  </si>
-  <si>
     <t>PV réunion A2.1</t>
   </si>
   <si>
@@ -258,22 +243,7 @@
     <t>CC, AM</t>
   </si>
   <si>
-    <t>Création et insertion de la base de donnée</t>
-  </si>
-  <si>
-    <t>Réalisation des maquettes V2 sur VisualStudio</t>
-  </si>
-  <si>
     <t>CC, (CH), AM, (AS)</t>
-  </si>
-  <si>
-    <t>Finalisation des maquettes sur VisualStudio</t>
-  </si>
-  <si>
-    <t>Recherche sécurité, loi, etc</t>
-  </si>
-  <si>
-    <t>Création base de données pour le matériel</t>
   </si>
   <si>
     <t>CH, CC, AM</t>
@@ -354,13 +324,7 @@
     <t>Sprint 5 (avec ± 2 semaines de vacances de février)</t>
   </si>
   <si>
-    <t>Création base de données WavMap</t>
-  </si>
-  <si>
     <t>CC</t>
-  </si>
-  <si>
-    <t>Recherche API WavMap</t>
   </si>
   <si>
     <t>AM</t>
@@ -378,25 +342,61 @@
     <t>Continuation code Visual Studio</t>
   </si>
   <si>
-    <t>Documentation manuel utilisation</t>
-  </si>
-  <si>
-    <t>Création des maquettes de WavCom</t>
-  </si>
-  <si>
-    <t>Création de la modélisation de WavCom</t>
-  </si>
-  <si>
-    <t>Finalisation de la modélisation simple de WavCom</t>
-  </si>
-  <si>
-    <t>Finalisation de la maquette simple de WavCom</t>
-  </si>
-  <si>
     <t>Modélisation BDD de WavCom</t>
   </si>
   <si>
     <t>Maquettes sur Visual Studio de WavCom</t>
+  </si>
+  <si>
+    <t>Document étude des besoins du mandant</t>
+  </si>
+  <si>
+    <t>Modélisation de l'application de WavCom</t>
+  </si>
+  <si>
+    <t>Document étude d'opportunité et liste des risques</t>
+  </si>
+  <si>
+    <t>Révision de l'étude d'opportunité et de la liste des risques</t>
+  </si>
+  <si>
+    <t>Maquettes sur papier de WavCom</t>
+  </si>
+  <si>
+    <t>Document Plan d'Assurance Qualité</t>
+  </si>
+  <si>
+    <t>Révision des maquettes sur VisualStudio</t>
+  </si>
+  <si>
+    <t>Recherche sécurité, loi, etc.</t>
+  </si>
+  <si>
+    <t>Base de donnée de WavCom</t>
+  </si>
+  <si>
+    <t>Document de vision</t>
+  </si>
+  <si>
+    <t>Mise en place du login sur WavCom</t>
+  </si>
+  <si>
+    <t>Base de donnée de gestion de matériel pour WavCom</t>
+  </si>
+  <si>
+    <t>Recherche API pour la carte de WavMap</t>
+  </si>
+  <si>
+    <t>Base de données WavMap</t>
+  </si>
+  <si>
+    <t>Documentation manuel utilisateur</t>
+  </si>
+  <si>
+    <t>Finalisation des maquettes sur VisualStudio pour WavCom</t>
+  </si>
+  <si>
+    <t>Documentation des jeux de tests</t>
   </si>
 </sst>
 </file>
@@ -1228,6 +1228,7 @@
     <xf numFmtId="168" fontId="24" fillId="37" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1249,7 +1250,6 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1307,37 +1307,7 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="60">
     <dxf>
       <fill>
         <patternFill>
@@ -1944,15 +1914,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="62"/>
-      <tableStyleElement type="headerRow" dxfId="61"/>
-      <tableStyleElement type="totalRow" dxfId="60"/>
-      <tableStyleElement type="firstColumn" dxfId="59"/>
-      <tableStyleElement type="lastColumn" dxfId="58"/>
-      <tableStyleElement type="firstRowStripe" dxfId="57"/>
-      <tableStyleElement type="secondRowStripe" dxfId="56"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="55"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="54"/>
+      <tableStyleElement type="wholeTable" dxfId="59"/>
+      <tableStyleElement type="headerRow" dxfId="58"/>
+      <tableStyleElement type="totalRow" dxfId="57"/>
+      <tableStyleElement type="firstColumn" dxfId="56"/>
+      <tableStyleElement type="lastColumn" dxfId="55"/>
+      <tableStyleElement type="firstRowStripe" dxfId="54"/>
+      <tableStyleElement type="secondRowStripe" dxfId="53"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="52"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="51"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2311,11 +2281,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL80"/>
+  <dimension ref="A1:BL82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+      <pane ySplit="7" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2347,8 +2317,8 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="19"/>
-      <c r="B2" s="44" t="s">
-        <v>32</v>
+      <c r="B2" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -2359,7 +2329,7 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="19"/>
-      <c r="B3" s="44"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2371,118 +2341,118 @@
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47">
+      <c r="D4" s="47"/>
+      <c r="E4" s="48">
         <v>44459</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="31">
         <v>23</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="42">
         <f>I6</f>
         <v>44613</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="41">
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="42">
         <f>P6</f>
         <v>44620</v>
       </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="41">
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="42">
         <f>W6</f>
         <v>44627</v>
       </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="41">
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="42">
         <f>AD6</f>
         <v>44634</v>
       </c>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="41">
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="42">
         <f>AK6</f>
         <v>44641</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="41">
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="42">
         <f>AR6</f>
         <v>44648</v>
       </c>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="41">
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="42">
         <f>AY6</f>
         <v>44655</v>
       </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="41">
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="42">
         <f>BF6</f>
         <v>44662</v>
       </c>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="43"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="43"/>
+      <c r="BK5" s="43"/>
+      <c r="BL5" s="44"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44613</v>
@@ -2961,7 +2931,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="39"/>
@@ -2969,7 +2939,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H77" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H79" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="15"/>
@@ -3034,10 +3004,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="35">
         <v>1</v>
@@ -3116,10 +3086,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
@@ -3197,10 +3167,10 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18"/>
       <c r="B11" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="14">
         <v>1</v>
@@ -3278,10 +3248,10 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
       <c r="B12" s="24" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="14">
         <v>1</v>
@@ -3359,10 +3329,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18"/>
       <c r="B13" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
@@ -3440,10 +3410,10 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="18"/>
       <c r="B14" s="33" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="35">
         <v>1</v>
@@ -3521,10 +3491,10 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18"/>
       <c r="B15" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="14">
         <v>1</v>
@@ -3602,10 +3572,10 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18"/>
       <c r="B16" s="24" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" s="14">
         <v>1</v>
@@ -3685,7 +3655,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="39"/>
@@ -3756,10 +3726,10 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18"/>
       <c r="B18" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>26</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
@@ -3837,10 +3807,10 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18"/>
       <c r="B19" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D19" s="14">
         <v>1</v>
@@ -3850,14 +3820,11 @@
         <v>44478</v>
       </c>
       <c r="F19" s="29">
-        <f>E19+7</f>
-        <v>44485</v>
+        <f>E19+9</f>
+        <v>44487</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="13">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
+      <c r="H19" s="13"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
@@ -3918,10 +3885,10 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18"/>
       <c r="B20" s="24" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="14">
         <v>1</v>
@@ -3931,13 +3898,13 @@
         <v>44478</v>
       </c>
       <c r="F20" s="29">
-        <f>E20+4</f>
-        <v>44482</v>
+        <f>E20+7</f>
+        <v>44485</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -3998,27 +3965,27 @@
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18"/>
-      <c r="B21" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="35">
+      <c r="B21" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="14">
         <v>1</v>
       </c>
-      <c r="E21" s="36">
-        <f>E14+18</f>
-        <v>44488</v>
-      </c>
-      <c r="F21" s="36">
-        <f>E21</f>
-        <v>44488</v>
+      <c r="E21" s="29">
+        <f>F16+1</f>
+        <v>44478</v>
+      </c>
+      <c r="F21" s="29">
+        <f>E21+4</f>
+        <v>44482</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
@@ -4079,27 +4046,27 @@
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18"/>
-      <c r="B22" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="14">
+      <c r="B22" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="35">
         <v>1</v>
       </c>
-      <c r="E22" s="29">
-        <f>F21</f>
+      <c r="E22" s="36">
+        <f>E14+18</f>
         <v>44488</v>
       </c>
-      <c r="F22" s="29">
-        <f>E22+6</f>
-        <v>44494</v>
+      <c r="F22" s="36">
+        <f>E22</f>
+        <v>44488</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
@@ -4161,26 +4128,26 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18"/>
       <c r="B23" s="24" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
       </c>
       <c r="E23" s="29">
-        <f>E22+1</f>
-        <v>44489</v>
+        <f>F22</f>
+        <v>44488</v>
       </c>
       <c r="F23" s="29">
-        <f>E23+11</f>
-        <v>44500</v>
+        <f>E23+6</f>
+        <v>44494</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
@@ -4242,26 +4209,26 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="18"/>
       <c r="B24" s="24" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D24" s="14">
         <v>1</v>
       </c>
       <c r="E24" s="29">
-        <f>E22+1</f>
+        <f>E23+1</f>
         <v>44489</v>
       </c>
       <c r="F24" s="29">
-        <f>E24+15</f>
-        <v>44504</v>
+        <f>E24+11</f>
+        <v>44500</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
@@ -4323,16 +4290,16 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18"/>
       <c r="B25" s="24" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D25" s="14">
         <v>1</v>
       </c>
       <c r="E25" s="29">
-        <f>E22+1</f>
+        <f>E23+1</f>
         <v>44489</v>
       </c>
       <c r="F25" s="29">
@@ -4403,25 +4370,28 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="18"/>
-      <c r="B26" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="35">
+      <c r="B26" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="14">
         <v>1</v>
       </c>
-      <c r="E26" s="36">
-        <f>F25+1</f>
-        <v>44505</v>
-      </c>
-      <c r="F26" s="36">
-        <f>E26</f>
-        <v>44505</v>
+      <c r="E26" s="29">
+        <f>E23+1</f>
+        <v>44489</v>
+      </c>
+      <c r="F26" s="29">
+        <f>E26+15</f>
+        <v>44504</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="H26" s="13">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -4480,21 +4450,26 @@
       <c r="BL26" s="15"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="35">
+        <v>1</v>
+      </c>
+      <c r="E27" s="36">
+        <f>F26+1</f>
+        <v>44505</v>
+      </c>
+      <c r="F27" s="36">
+        <f>E27</f>
+        <v>44505</v>
+      </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H27" s="13"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
@@ -4553,28 +4528,20 @@
       <c r="BL27" s="15"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="14">
-        <v>1</v>
-      </c>
-      <c r="E28" s="29">
-        <f>F26</f>
-        <v>44505</v>
-      </c>
-      <c r="F28" s="29">
-        <f>E28+3</f>
-        <v>44508</v>
-      </c>
+      <c r="A28" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="13">
+      <c r="H28" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
@@ -4636,26 +4603,26 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18"/>
       <c r="B29" s="24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
       </c>
       <c r="E29" s="29">
-        <f>E28+1</f>
-        <v>44506</v>
+        <f>F27</f>
+        <v>44505</v>
       </c>
       <c r="F29" s="29">
-        <f>E29+2</f>
+        <f>E29+3</f>
         <v>44508</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -4717,26 +4684,26 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D30" s="14">
         <v>1</v>
       </c>
       <c r="E30" s="29">
-        <f>F29</f>
+        <f>E29+1</f>
+        <v>44506</v>
+      </c>
+      <c r="F30" s="29">
+        <f>E30+2</f>
         <v>44508</v>
-      </c>
-      <c r="F30" s="29">
-        <f>E30+6</f>
-        <v>44514</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
@@ -4798,7 +4765,7 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="18"/>
       <c r="B31" s="24" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>31</v>
@@ -4807,17 +4774,17 @@
         <v>1</v>
       </c>
       <c r="E31" s="29">
-        <f>F30+1</f>
-        <v>44515</v>
+        <f>F30</f>
+        <v>44508</v>
       </c>
       <c r="F31" s="29">
-        <f>E31+9</f>
-        <v>44524</v>
+        <f>E31+6</f>
+        <v>44514</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
@@ -4879,26 +4846,26 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="18"/>
       <c r="B32" s="24" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D32" s="14">
         <v>1</v>
       </c>
       <c r="E32" s="29">
-        <f>F30+1</f>
+        <f>F31+1</f>
         <v>44515</v>
       </c>
       <c r="F32" s="29">
-        <f>E32+6</f>
-        <v>44521</v>
+        <f>E32+9</f>
+        <v>44524</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -4960,24 +4927,27 @@
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="18"/>
       <c r="B33" s="24" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D33" s="14">
         <v>1</v>
       </c>
       <c r="E33" s="29">
-        <f>F30+1</f>
+        <f>F31+1</f>
         <v>44515</v>
       </c>
       <c r="F33" s="29">
-        <f>E33+10</f>
-        <v>44525</v>
+        <f>E33+6</f>
+        <v>44521</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="H33" s="13">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
@@ -5037,28 +5007,25 @@
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="18"/>
-      <c r="B34" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="35">
+      <c r="B34" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="14">
         <v>1</v>
       </c>
-      <c r="E34" s="36">
-        <f>E26+21</f>
-        <v>44526</v>
-      </c>
-      <c r="F34" s="36">
-        <f>E34</f>
-        <v>44526</v>
+      <c r="E34" s="29">
+        <f>F31+1</f>
+        <v>44515</v>
+      </c>
+      <c r="F34" s="29">
+        <f>E34+10</f>
+        <v>44525</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="H34" s="13"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
@@ -5117,20 +5084,28 @@
       <c r="BL34" s="15"/>
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="36">
+        <f>E27+21</f>
+        <v>44526</v>
+      </c>
+      <c r="F35" s="36">
+        <f>E35</f>
+        <v>44526</v>
+      </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="13" t="str">
+      <c r="H35" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
@@ -5190,28 +5165,20 @@
       <c r="BL35" s="15"/>
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="18"/>
-      <c r="B36" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="14">
-        <v>1</v>
-      </c>
-      <c r="E36" s="29">
-        <f>F34+1</f>
-        <v>44527</v>
-      </c>
-      <c r="F36" s="29">
-        <f>E36+2</f>
-        <v>44529</v>
-      </c>
+      <c r="A36" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="13">
+      <c r="H36" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
@@ -5273,26 +5240,26 @@
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18"/>
       <c r="B37" s="24" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D37" s="14">
         <v>1</v>
       </c>
       <c r="E37" s="29">
-        <f>E36+1</f>
-        <v>44528</v>
+        <f>F35+1</f>
+        <v>44527</v>
       </c>
       <c r="F37" s="29">
-        <f>E40-1</f>
-        <v>44546</v>
+        <f>E37+2</f>
+        <v>44529</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
@@ -5354,20 +5321,20 @@
     <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D38" s="14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E38" s="29">
-        <f>E37</f>
+        <f>E37+1</f>
         <v>44528</v>
       </c>
       <c r="F38" s="29">
-        <f>F37</f>
+        <f>E41-1</f>
         <v>44546</v>
       </c>
       <c r="G38" s="13"/>
@@ -5435,13 +5402,13 @@
     <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18"/>
       <c r="B39" s="24" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D39" s="14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E39" s="29">
         <f>E38</f>
@@ -5452,7 +5419,10 @@
         <v>44546</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="H39" s="13">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
@@ -5512,28 +5482,25 @@
     </row>
     <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="18"/>
-      <c r="B40" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="35">
+      <c r="B40" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="14">
         <v>1</v>
       </c>
-      <c r="E40" s="36">
-        <f>E34+21</f>
-        <v>44547</v>
-      </c>
-      <c r="F40" s="36">
-        <f>E40</f>
-        <v>44547</v>
+      <c r="E40" s="29">
+        <f>E39</f>
+        <v>44528</v>
+      </c>
+      <c r="F40" s="29">
+        <f>F39</f>
+        <v>44546</v>
       </c>
       <c r="G40" s="13"/>
-      <c r="H40" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="H40" s="13"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
@@ -5592,20 +5559,28 @@
       <c r="BL40" s="15"/>
     </row>
     <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="35">
+        <v>1</v>
+      </c>
+      <c r="E41" s="36">
+        <f>E35+21</f>
+        <v>44547</v>
+      </c>
+      <c r="F41" s="36">
+        <f>E41</f>
+        <v>44547</v>
+      </c>
       <c r="G41" s="13"/>
-      <c r="H41" s="13" t="str">
+      <c r="H41" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -5665,28 +5640,20 @@
       <c r="BL41" s="15"/>
     </row>
     <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="18"/>
-      <c r="B42" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="14">
-        <v>1</v>
-      </c>
-      <c r="E42" s="29">
-        <f>E40</f>
-        <v>44547</v>
-      </c>
-      <c r="F42" s="29">
-        <f>E42+1</f>
-        <v>44548</v>
-      </c>
+      <c r="A42" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="38"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="13">
+      <c r="H42" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -5747,27 +5714,27 @@
     </row>
     <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="18"/>
-      <c r="B43" s="32" t="s">
-        <v>60</v>
+      <c r="B43" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="14">
         <v>1</v>
       </c>
       <c r="E43" s="29">
-        <f>F42+1</f>
-        <v>44549</v>
+        <f>E41</f>
+        <v>44547</v>
       </c>
       <c r="F43" s="29">
-        <f>E43+7</f>
-        <v>44556</v>
+        <f>E43+1</f>
+        <v>44548</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -5828,27 +5795,27 @@
     </row>
     <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18"/>
-      <c r="B44" s="24" t="s">
-        <v>67</v>
+      <c r="B44" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D44" s="14">
         <v>1</v>
       </c>
       <c r="E44" s="29">
-        <f>F43</f>
+        <f>F43+1</f>
+        <v>44549</v>
+      </c>
+      <c r="F44" s="29">
+        <f>E44+7</f>
         <v>44556</v>
-      </c>
-      <c r="F44" s="29">
-        <f>E46-1</f>
-        <v>44585</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
@@ -5910,26 +5877,26 @@
     <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="18"/>
       <c r="B45" s="24" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D45" s="14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E45" s="29">
-        <f>F42+1</f>
-        <v>44549</v>
+        <f>F44</f>
+        <v>44556</v>
       </c>
       <c r="F45" s="29">
-        <f>E46-1</f>
+        <f>E47-1</f>
         <v>44585</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13">
         <f t="shared" si="4"/>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
@@ -5990,27 +5957,27 @@
     </row>
     <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="18"/>
-      <c r="B46" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="35">
-        <v>1</v>
-      </c>
-      <c r="E46" s="36">
-        <f>E40+39</f>
-        <v>44586</v>
-      </c>
-      <c r="F46" s="36">
-        <f>E46</f>
-        <v>44586</v>
+      <c r="B46" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E46" s="29">
+        <f>F43+1</f>
+        <v>44549</v>
+      </c>
+      <c r="F46" s="29">
+        <f>E47-1</f>
+        <v>44585</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
@@ -6070,20 +6037,28 @@
       <c r="BL46" s="15"/>
     </row>
     <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="35">
+        <v>1</v>
+      </c>
+      <c r="E47" s="36">
+        <f>E41+39</f>
+        <v>44586</v>
+      </c>
+      <c r="F47" s="36">
+        <f>E47</f>
+        <v>44586</v>
+      </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="13" t="str">
+      <c r="H47" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
@@ -6143,26 +6118,20 @@
       <c r="BL47" s="15"/>
     </row>
     <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="18"/>
-      <c r="B48" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="14">
-        <v>1</v>
-      </c>
-      <c r="E48" s="29">
-        <f>F46+1</f>
-        <v>44587</v>
-      </c>
-      <c r="F48" s="29">
-        <f>E48</f>
-        <v>44587</v>
-      </c>
+      <c r="A48" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="38"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="13">
+      <c r="H48" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
@@ -6224,26 +6193,24 @@
     <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="18"/>
       <c r="B49" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>29</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C49" s="22"/>
       <c r="D49" s="14">
         <v>1</v>
       </c>
       <c r="E49" s="29">
-        <f>F48+1</f>
-        <v>44588</v>
+        <f>F47+1</f>
+        <v>44587</v>
       </c>
       <c r="F49" s="29">
-        <f>E49+7</f>
-        <v>44595</v>
+        <f>E49</f>
+        <v>44587</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="13">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
@@ -6305,24 +6272,27 @@
     <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="18"/>
       <c r="B50" s="24" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D50" s="14">
         <v>1</v>
       </c>
       <c r="E50" s="29">
         <f>F49+1</f>
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="F50" s="29">
-        <f>E50+21</f>
-        <v>44617</v>
+        <f>E50+7</f>
+        <v>44595</v>
       </c>
       <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="H50" s="13">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
@@ -6383,20 +6353,20 @@
     <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="18"/>
       <c r="B51" s="24" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D51" s="14">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E51" s="29">
-        <f>E50</f>
+        <f>F50+1</f>
         <v>44596</v>
       </c>
       <c r="F51" s="29">
-        <f>F50</f>
+        <f>E51+21</f>
         <v>44617</v>
       </c>
       <c r="G51" s="13"/>
@@ -6461,13 +6431,13 @@
     <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="18"/>
       <c r="B52" s="24" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D52" s="14">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E52" s="29">
         <f>E51</f>
@@ -6539,20 +6509,20 @@
     <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="18"/>
       <c r="B53" s="24" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="D53" s="14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E53" s="29">
-        <f>F49+1</f>
+        <f>E52</f>
         <v>44596</v>
       </c>
       <c r="F53" s="29">
-        <f>E53+21</f>
+        <f>F52</f>
         <v>44617</v>
       </c>
       <c r="G53" s="13"/>
@@ -6617,21 +6587,21 @@
     <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="18"/>
       <c r="B54" s="24" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D54" s="14">
         <v>1</v>
       </c>
       <c r="E54" s="29">
-        <f>F53+1</f>
-        <v>44618</v>
+        <f>F50+1</f>
+        <v>44596</v>
       </c>
       <c r="F54" s="29">
-        <f>E54+4</f>
-        <v>44622</v>
+        <f>E54+21</f>
+        <v>44617</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
@@ -6694,28 +6664,25 @@
     </row>
     <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="18"/>
-      <c r="B55" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="35">
+      <c r="B55" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="14">
         <v>1</v>
       </c>
-      <c r="E55" s="36">
-        <f>F46+37</f>
-        <v>44623</v>
-      </c>
-      <c r="F55" s="36">
-        <f>E55</f>
-        <v>44623</v>
+      <c r="E55" s="29">
+        <f>F54+1</f>
+        <v>44618</v>
+      </c>
+      <c r="F55" s="29">
+        <f>E55+4</f>
+        <v>44622</v>
       </c>
       <c r="G55" s="13"/>
-      <c r="H55" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="H55" s="13"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
@@ -6774,20 +6741,28 @@
       <c r="BL55" s="15"/>
     </row>
     <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="38"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="35">
+        <v>1</v>
+      </c>
+      <c r="E56" s="36">
+        <f>F47+37</f>
+        <v>44623</v>
+      </c>
+      <c r="F56" s="36">
+        <f>E56</f>
+        <v>44623</v>
+      </c>
       <c r="G56" s="13"/>
-      <c r="H56" s="13" t="str">
+      <c r="H56" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
@@ -6847,26 +6822,20 @@
       <c r="BL56" s="15"/>
     </row>
     <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="18"/>
-      <c r="B57" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" s="14">
-        <v>1</v>
-      </c>
-      <c r="E57" s="29">
-        <v>44624</v>
-      </c>
-      <c r="F57" s="29">
-        <v>44624</v>
-      </c>
+      <c r="A57" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="13">
+      <c r="H57" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
@@ -6928,24 +6897,24 @@
     <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="18"/>
       <c r="B58" s="24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="D58" s="14">
         <v>1</v>
       </c>
       <c r="E58" s="29">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="F58" s="29">
-        <v>44631</v>
+        <v>44624</v>
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="13">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="15"/>
@@ -7007,22 +6976,25 @@
     <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18"/>
       <c r="B59" s="24" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D59" s="14">
         <v>1</v>
       </c>
       <c r="E59" s="29">
-        <v>44632</v>
+        <v>44625</v>
       </c>
       <c r="F59" s="29">
-        <v>44645</v>
+        <v>44631</v>
       </c>
       <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
+      <c r="H59" s="13">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
@@ -7083,10 +7055,10 @@
     <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="18"/>
       <c r="B60" s="24" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D60" s="14">
         <v>1</v>
@@ -7159,10 +7131,10 @@
     <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18"/>
       <c r="B61" s="24" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D61" s="14">
         <v>1</v>
@@ -7235,10 +7207,10 @@
     <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="18"/>
       <c r="B62" s="24" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="D62" s="14">
         <v>1</v>
@@ -7250,10 +7222,7 @@
         <v>44645</v>
       </c>
       <c r="G62" s="13"/>
-      <c r="H62" s="13">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
+      <c r="H62" s="13"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
@@ -7312,20 +7281,26 @@
       <c r="BL62" s="15"/>
     </row>
     <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E63" s="29">
+        <v>44632</v>
+      </c>
+      <c r="F63" s="29">
+        <v>44645</v>
+      </c>
       <c r="G63" s="13"/>
-      <c r="H63" s="13" t="str">
+      <c r="H63" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
@@ -7387,25 +7362,22 @@
     <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="18"/>
       <c r="B64" s="24" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="D64" s="14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E64" s="29">
-        <v>44646</v>
+        <v>44632</v>
       </c>
       <c r="F64" s="29">
-        <v>44653</v>
+        <v>44645</v>
       </c>
       <c r="G64" s="13"/>
-      <c r="H64" s="13">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
+      <c r="H64" s="13"/>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
@@ -7464,12 +7436,16 @@
       <c r="BL64" s="15"/>
     </row>
     <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="18"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
+      <c r="A65" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="38"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13" t="str">
         <f t="shared" si="4"/>
@@ -7534,26 +7510,25 @@
     </row>
     <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="18"/>
-      <c r="B66" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="35">
+      <c r="B66" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="14">
         <v>0</v>
       </c>
-      <c r="E66" s="36">
-        <v>44655</v>
-      </c>
-      <c r="F66" s="36">
-        <f>E66+12</f>
-        <v>44667</v>
+      <c r="E66" s="29">
+        <v>44646</v>
+      </c>
+      <c r="F66" s="29">
+        <v>44653</v>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="13">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="15"/>
@@ -7613,16 +7588,12 @@
       <c r="BL66" s="15"/>
     </row>
     <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" s="38"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13" t="str">
         <f t="shared" si="4"/>
@@ -7687,19 +7658,26 @@
     </row>
     <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="18"/>
-      <c r="B68" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="14">
+      <c r="B68" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="35">
         <v>0</v>
       </c>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
+      <c r="E68" s="36">
+        <v>44655</v>
+      </c>
+      <c r="F68" s="36">
+        <f>E68+12</f>
+        <v>44667</v>
+      </c>
       <c r="G68" s="13"/>
-      <c r="H68" s="13" t="str">
+      <c r="H68" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
@@ -7759,18 +7737,16 @@
       <c r="BL68" s="15"/>
     </row>
     <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="18"/>
-      <c r="B69" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="14">
-        <v>0</v>
-      </c>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
+      <c r="A69" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="38"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13" t="str">
         <f t="shared" si="4"/>
@@ -7835,9 +7811,13 @@
     </row>
     <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="18"/>
-      <c r="B70" s="24"/>
+      <c r="B70" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="C70" s="22"/>
-      <c r="D70" s="14"/>
+      <c r="D70" s="14">
+        <v>0</v>
+      </c>
       <c r="E70" s="29"/>
       <c r="F70" s="29"/>
       <c r="G70" s="13"/>
@@ -7904,27 +7884,21 @@
     </row>
     <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="18"/>
-      <c r="B71" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="35">
+      <c r="B71" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="14">
         <v>0</v>
       </c>
-      <c r="E71" s="36">
-        <f>E66+35</f>
-        <v>44690</v>
-      </c>
-      <c r="F71" s="36">
-        <f>E71+12</f>
-        <v>44702</v>
-      </c>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
       <c r="G71" s="13"/>
-      <c r="H71" s="13">
+      <c r="H71" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
@@ -7984,16 +7958,12 @@
       <c r="BL71" s="15"/>
     </row>
     <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" s="38"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13" t="str">
         <f t="shared" si="4"/>
@@ -8058,19 +8028,27 @@
     </row>
     <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18"/>
-      <c r="B73" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="14">
+      <c r="B73" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="35">
         <v>0</v>
       </c>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
+      <c r="E73" s="36">
+        <f>E68+35</f>
+        <v>44690</v>
+      </c>
+      <c r="F73" s="36">
+        <f>E73+12</f>
+        <v>44702</v>
+      </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="13" t="str">
+      <c r="H73" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
@@ -8130,18 +8108,16 @@
       <c r="BL73" s="15"/>
     </row>
     <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="18"/>
-      <c r="B74" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="14">
-        <v>0</v>
-      </c>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
+      <c r="A74" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13" t="str">
         <f t="shared" si="4"/>
@@ -8206,9 +8182,13 @@
     </row>
     <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="18"/>
-      <c r="B75" s="24"/>
+      <c r="B75" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="C75" s="22"/>
-      <c r="D75" s="14"/>
+      <c r="D75" s="14">
+        <v>0</v>
+      </c>
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
       <c r="G75" s="13"/>
@@ -8275,25 +8255,21 @@
     </row>
     <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="18"/>
-      <c r="B76" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="35"/>
-      <c r="E76" s="36">
-        <f>E71+5</f>
-        <v>44695</v>
-      </c>
-      <c r="F76" s="36">
-        <f>E76</f>
-        <v>44695</v>
-      </c>
+      <c r="B76" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="14">
+        <v>0</v>
+      </c>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
       <c r="G76" s="13"/>
-      <c r="H76" s="13">
+      <c r="H76" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
@@ -8353,14 +8329,12 @@
       <c r="BL76" s="15"/>
     </row>
     <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
       <c r="G77" s="13"/>
       <c r="H77" s="13" t="str">
         <f t="shared" si="4"/>
@@ -8423,23 +8397,168 @@
       <c r="BK77" s="15"/>
       <c r="BL77" s="15"/>
     </row>
-    <row r="78" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G78" s="6"/>
+    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="18"/>
+      <c r="B78" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="35"/>
+      <c r="E78" s="36">
+        <f>E73+5</f>
+        <v>44695</v>
+      </c>
+      <c r="F78" s="36">
+        <f>E78</f>
+        <v>44695</v>
+      </c>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="15"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="15"/>
+      <c r="W78" s="15"/>
+      <c r="X78" s="15"/>
+      <c r="Y78" s="15"/>
+      <c r="Z78" s="15"/>
+      <c r="AA78" s="15"/>
+      <c r="AB78" s="15"/>
+      <c r="AC78" s="15"/>
+      <c r="AD78" s="15"/>
+      <c r="AE78" s="15"/>
+      <c r="AF78" s="15"/>
+      <c r="AG78" s="15"/>
+      <c r="AH78" s="15"/>
+      <c r="AI78" s="15"/>
+      <c r="AJ78" s="15"/>
+      <c r="AK78" s="15"/>
+      <c r="AL78" s="15"/>
+      <c r="AM78" s="15"/>
+      <c r="AN78" s="15"/>
+      <c r="AO78" s="15"/>
+      <c r="AP78" s="15"/>
+      <c r="AQ78" s="15"/>
+      <c r="AR78" s="15"/>
+      <c r="AS78" s="15"/>
+      <c r="AT78" s="15"/>
+      <c r="AU78" s="15"/>
+      <c r="AV78" s="15"/>
+      <c r="AW78" s="15"/>
+      <c r="AX78" s="15"/>
+      <c r="AY78" s="15"/>
+      <c r="AZ78" s="15"/>
+      <c r="BA78" s="15"/>
+      <c r="BB78" s="15"/>
+      <c r="BC78" s="15"/>
+      <c r="BD78" s="15"/>
+      <c r="BE78" s="15"/>
+      <c r="BF78" s="15"/>
+      <c r="BG78" s="15"/>
+      <c r="BH78" s="15"/>
+      <c r="BI78" s="15"/>
+      <c r="BJ78" s="15"/>
+      <c r="BK78" s="15"/>
+      <c r="BL78" s="15"/>
     </row>
-    <row r="79" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C79" s="10"/>
-      <c r="F79" s="20"/>
+    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="25"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="15"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="15"/>
+      <c r="AA79" s="15"/>
+      <c r="AB79" s="15"/>
+      <c r="AC79" s="15"/>
+      <c r="AD79" s="15"/>
+      <c r="AE79" s="15"/>
+      <c r="AF79" s="15"/>
+      <c r="AG79" s="15"/>
+      <c r="AH79" s="15"/>
+      <c r="AI79" s="15"/>
+      <c r="AJ79" s="15"/>
+      <c r="AK79" s="15"/>
+      <c r="AL79" s="15"/>
+      <c r="AM79" s="15"/>
+      <c r="AN79" s="15"/>
+      <c r="AO79" s="15"/>
+      <c r="AP79" s="15"/>
+      <c r="AQ79" s="15"/>
+      <c r="AR79" s="15"/>
+      <c r="AS79" s="15"/>
+      <c r="AT79" s="15"/>
+      <c r="AU79" s="15"/>
+      <c r="AV79" s="15"/>
+      <c r="AW79" s="15"/>
+      <c r="AX79" s="15"/>
+      <c r="AY79" s="15"/>
+      <c r="AZ79" s="15"/>
+      <c r="BA79" s="15"/>
+      <c r="BB79" s="15"/>
+      <c r="BC79" s="15"/>
+      <c r="BD79" s="15"/>
+      <c r="BE79" s="15"/>
+      <c r="BF79" s="15"/>
+      <c r="BG79" s="15"/>
+      <c r="BH79" s="15"/>
+      <c r="BI79" s="15"/>
+      <c r="BJ79" s="15"/>
+      <c r="BK79" s="15"/>
+      <c r="BL79" s="15"/>
     </row>
     <row r="80" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C80" s="11"/>
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C81" s="10"/>
+      <c r="F81" s="20"/>
+    </row>
+    <row r="82" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -8448,8 +8567,13 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D15:D16 D77 D22:D25 D18:D20 D64:D65">
+  <conditionalFormatting sqref="D15:D16 D79 D23:D26 D18:D21 D66:D67 D49:D55">
     <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8463,20 +8587,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I77:BL77 I32:BL34 I6:BL25 I27:BL29 I63:BL65">
-    <cfRule type="expression" dxfId="53" priority="124">
+  <conditionalFormatting sqref="I79:BL79 I33:BL35 I6:BL26 I28:BL30 I65:BL67 I48:BL55">
+    <cfRule type="expression" dxfId="50" priority="124">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I77:BL77 I32:BL34 I8:BL25 I27:BL29 I63:BL65">
-    <cfRule type="expression" dxfId="52" priority="122">
+  <conditionalFormatting sqref="I79:BL79 I33:BL35 I8:BL26 I28:BL30 I65:BL67 I48:BL55">
+    <cfRule type="expression" dxfId="49" priority="122">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="123" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D33 D28:D29">
+  <conditionalFormatting sqref="D33:D34 D29:D30">
     <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8490,7 +8614,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8504,20 +8628,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL43 I45:BL45">
-    <cfRule type="expression" dxfId="50" priority="119">
+  <conditionalFormatting sqref="I42:BL44 I46:BL46">
+    <cfRule type="expression" dxfId="47" priority="119">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BL43 I45:BL45">
-    <cfRule type="expression" dxfId="49" priority="117">
+  <conditionalFormatting sqref="I42:BL44 I46:BL46">
+    <cfRule type="expression" dxfId="46" priority="117">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="118" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D43">
+  <conditionalFormatting sqref="D43:D44">
     <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8531,52 +8655,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="47" priority="113">
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="44" priority="113">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="46" priority="111">
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="43" priority="111">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="112" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL54">
-    <cfRule type="expression" dxfId="44" priority="110">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL54">
-    <cfRule type="expression" dxfId="43" priority="108">
-      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="109" stopIfTrue="1">
-      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D54">
-    <cfRule type="dataBar" priority="106">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{29449E41-F591-4B88-A4DB-237D24C5C4C9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
+  <conditionalFormatting sqref="I56:BL56">
     <cfRule type="expression" dxfId="41" priority="104">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
+  <conditionalFormatting sqref="I56:BL56">
     <cfRule type="expression" dxfId="40" priority="102">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8584,7 +8681,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63:D64">
     <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8598,12 +8695,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL62">
+  <conditionalFormatting sqref="I57:BL64">
     <cfRule type="expression" dxfId="38" priority="101">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL62">
+  <conditionalFormatting sqref="I57:BL64">
     <cfRule type="expression" dxfId="37" priority="99">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8611,7 +8708,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57:D61">
+  <conditionalFormatting sqref="D58:D62">
     <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8653,7 +8750,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D72">
     <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8667,12 +8764,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:BL70">
+  <conditionalFormatting sqref="I69:BL72">
     <cfRule type="expression" dxfId="35" priority="83">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:BL70">
+  <conditionalFormatting sqref="I69:BL72">
     <cfRule type="expression" dxfId="34" priority="81">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8680,12 +8777,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BL66">
+  <conditionalFormatting sqref="I68:BL68">
     <cfRule type="expression" dxfId="32" priority="79">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BL66">
+  <conditionalFormatting sqref="I68:BL68">
     <cfRule type="expression" dxfId="31" priority="77">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8693,7 +8790,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68:D69">
+  <conditionalFormatting sqref="D70:D71">
     <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8707,7 +8804,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
+  <conditionalFormatting sqref="D77">
     <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8721,12 +8818,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72:BL75">
+  <conditionalFormatting sqref="I74:BL77">
     <cfRule type="expression" dxfId="29" priority="73">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72:BL75">
+  <conditionalFormatting sqref="I74:BL77">
     <cfRule type="expression" dxfId="28" priority="71">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8734,12 +8831,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BL71">
+  <conditionalFormatting sqref="I73:BL73">
     <cfRule type="expression" dxfId="26" priority="69">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BL71">
+  <conditionalFormatting sqref="I73:BL73">
     <cfRule type="expression" dxfId="25" priority="67">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8747,7 +8844,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:D74">
+  <conditionalFormatting sqref="D75:D76">
     <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8761,12 +8858,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I76:BL76">
+  <conditionalFormatting sqref="I78:BL78">
     <cfRule type="expression" dxfId="23" priority="63">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I76:BL76">
+  <conditionalFormatting sqref="I78:BL78">
     <cfRule type="expression" dxfId="22" priority="61">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8774,12 +8871,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
+  <conditionalFormatting sqref="I31:BL31">
     <cfRule type="expression" dxfId="20" priority="59">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL30">
+  <conditionalFormatting sqref="I31:BL31">
     <cfRule type="expression" dxfId="19" priority="57">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8787,7 +8884,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D31">
     <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8801,12 +8898,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
+  <conditionalFormatting sqref="I32:BL32">
     <cfRule type="expression" dxfId="17" priority="55">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
+  <conditionalFormatting sqref="I32:BL32">
     <cfRule type="expression" dxfId="16" priority="53">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8814,7 +8911,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8828,12 +8925,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL36 I40:BL40">
+  <conditionalFormatting sqref="I36:BL37 I41:BL41">
     <cfRule type="expression" dxfId="14" priority="51">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL36 I40:BL40">
+  <conditionalFormatting sqref="I36:BL37 I41:BL41">
     <cfRule type="expression" dxfId="13" priority="49">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8841,7 +8938,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8855,12 +8952,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
+  <conditionalFormatting sqref="I38:BL38">
     <cfRule type="expression" dxfId="11" priority="47">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
+  <conditionalFormatting sqref="I38:BL38">
     <cfRule type="expression" dxfId="10" priority="45">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8868,7 +8965,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D38">
     <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8882,12 +8979,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL39">
+  <conditionalFormatting sqref="I39:BL40">
     <cfRule type="expression" dxfId="8" priority="43">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL39">
+  <conditionalFormatting sqref="I39:BL40">
     <cfRule type="expression" dxfId="7" priority="41">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8895,7 +8992,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
+  <conditionalFormatting sqref="D39:D40">
     <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8909,7 +9006,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8923,12 +9020,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
+  <conditionalFormatting sqref="I45:BL45">
     <cfRule type="expression" dxfId="5" priority="39">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL44">
+  <conditionalFormatting sqref="I45:BL45">
     <cfRule type="expression" dxfId="4" priority="37">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8992,7 +9089,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D22">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9006,7 +9103,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9020,7 +9117,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9034,7 +9131,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9048,7 +9145,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9062,7 +9159,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D68">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9076,7 +9173,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="D73">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9090,7 +9187,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
+  <conditionalFormatting sqref="D78">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9104,7 +9201,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D28">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9118,7 +9215,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9132,7 +9229,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9146,7 +9243,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9160,7 +9257,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9174,7 +9271,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D65">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9188,7 +9285,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D69">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9202,7 +9299,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
+  <conditionalFormatting sqref="D74">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9216,12 +9313,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BL26">
+  <conditionalFormatting sqref="I27:BL27">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BL26">
+  <conditionalFormatting sqref="I27:BL27">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -9229,7 +9326,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D27">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9270,7 +9367,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D15:D16 D77 D22:D25 D18:D20 D64:D65</xm:sqref>
+          <xm:sqref>D15:D16 D79 D23:D26 D18:D21 D66:D67 D49:D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61BAFCB1-C9D1-4453-9835-894AAFFB2D48}">
@@ -9285,7 +9382,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D32:D33 D28:D29</xm:sqref>
+          <xm:sqref>D33:D34 D29:D30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AD57E977-98C8-4463-AF63-0B910B22A855}">
@@ -9300,7 +9397,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D45</xm:sqref>
+          <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85DD6914-E53C-41B0-AFBA-86F7B9451DA6}">
@@ -9315,22 +9412,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42:D43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{29449E41-F591-4B88-A4DB-237D24C5C4C9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D48:D54</xm:sqref>
+          <xm:sqref>D43:D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F7F63C90-679F-41E1-9DD7-C7641723B832}">
@@ -9345,7 +9427,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D62</xm:sqref>
+          <xm:sqref>D63:D64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C1F1D87-2F5D-4508-9015-0F4807608336}">
@@ -9360,7 +9442,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D57:D61</xm:sqref>
+          <xm:sqref>D58:D62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85676472-4DEA-4B47-8076-2B079F7EB722}">
@@ -9405,7 +9487,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D70</xm:sqref>
+          <xm:sqref>D72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D92EFAD8-9A39-41D6-8E74-09FCB7C99446}">
@@ -9420,7 +9502,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D68:D69</xm:sqref>
+          <xm:sqref>D70:D71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49690BEA-F1DA-49A9-87E0-BC10D33392B4}">
@@ -9435,7 +9517,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D75</xm:sqref>
+          <xm:sqref>D77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F3BCBE8B-1131-4EC4-93C6-93A3D2241A3A}">
@@ -9450,7 +9532,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D73:D74</xm:sqref>
+          <xm:sqref>D75:D76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{70FE4911-65CD-4B63-902B-DAD573D9D1E7}">
@@ -9465,7 +9547,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30</xm:sqref>
+          <xm:sqref>D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{107B3D2A-9D99-4B77-A0C1-E7D4234EC328}">
@@ -9480,7 +9562,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D31</xm:sqref>
+          <xm:sqref>D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4BDF0497-329E-4ACE-A091-C6666647B0A6}">
@@ -9495,7 +9577,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36</xm:sqref>
+          <xm:sqref>D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2616EACB-B142-4ABA-AB98-D0EFAE3192B1}">
@@ -9510,7 +9592,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
+          <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9179826B-45ED-4988-BB2A-78DA7424E602}">
@@ -9525,7 +9607,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38:D39</xm:sqref>
+          <xm:sqref>D39:D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9795FCF7-A67A-433E-B155-AD1C0E7C374A}">
@@ -9540,7 +9622,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D44</xm:sqref>
+          <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{36C8D48B-9FF9-4463-BC3F-14FABEE2DEF7}">
@@ -9615,7 +9697,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D21</xm:sqref>
+          <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DE1AD479-0A37-44F4-AC20-51FF297665D3}">
@@ -9630,7 +9712,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D34</xm:sqref>
+          <xm:sqref>D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49FBE34D-D83B-497D-AB99-28B0686734FB}">
@@ -9645,7 +9727,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D40</xm:sqref>
+          <xm:sqref>D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FFA7516B-0875-4D87-99ED-B7E4CACCC0E1}">
@@ -9660,7 +9742,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D46</xm:sqref>
+          <xm:sqref>D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{66BA6DFA-1489-4D78-8D16-D0BABA15730F}">
@@ -9675,7 +9757,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D55</xm:sqref>
+          <xm:sqref>D56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F9FF2D8E-4C48-4314-AE00-D91E4BEBF00D}">
@@ -9690,7 +9772,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D66</xm:sqref>
+          <xm:sqref>D68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{47FD5541-751B-48F2-895B-231260031964}">
@@ -9705,7 +9787,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D71</xm:sqref>
+          <xm:sqref>D73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CB458C94-EC1D-48A0-8F37-BA38EE604418}">
@@ -9720,7 +9802,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D76</xm:sqref>
+          <xm:sqref>D78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC19E591-9826-41D2-8753-21A5AEC1982F}">
@@ -9735,7 +9817,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D27</xm:sqref>
+          <xm:sqref>D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7E87486C-C83F-46B9-BB58-D6A8CEED9048}">
@@ -9750,7 +9832,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35</xm:sqref>
+          <xm:sqref>D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1FF748D9-3BCB-4034-9208-1F2D65C79F13}">
@@ -9765,7 +9847,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
+          <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F2C994C7-19E2-44FD-954A-AB7D6DE46441}">
@@ -9780,7 +9862,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D47</xm:sqref>
+          <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8CA27610-5A3B-4302-BEA5-774F42E0EC59}">
@@ -9795,7 +9877,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D56</xm:sqref>
+          <xm:sqref>D57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B566DAE9-59F0-494F-B4A5-6CA202ED05AF}">
@@ -9810,7 +9892,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D63</xm:sqref>
+          <xm:sqref>D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E8B7A00D-0A45-4E39-935E-0EF6E104B91A}">
@@ -9825,7 +9907,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D67</xm:sqref>
+          <xm:sqref>D69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61C46EA8-F9E7-45B9-92F2-CA890223D6D5}">
@@ -9840,7 +9922,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D72</xm:sqref>
+          <xm:sqref>D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8A618AE5-6A10-402E-8877-7F8471EF9C36}">
@@ -9855,7 +9937,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D26</xm:sqref>
+          <xm:sqref>D27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D28C6C7-427A-4BEE-86B1-591F50367233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E434DCB-B18E-4498-8F7E-2D461C7C4D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1044" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>Réunion Point de contrôle (A2.1)</t>
-  </si>
-  <si>
-    <t>Révision des points abordés en Point de contrôle (A3.2)</t>
   </si>
   <si>
     <t>Réunion A4</t>
@@ -354,9 +351,6 @@
     <t>Modélisation de l'application de WavCom</t>
   </si>
   <si>
-    <t>Document étude d'opportunité et liste des risques</t>
-  </si>
-  <si>
     <t>Révision de l'étude d'opportunité et de la liste des risques</t>
   </si>
   <si>
@@ -397,6 +391,45 @@
   </si>
   <si>
     <t>Documentation des jeux de tests</t>
+  </si>
+  <si>
+    <t>Document utilisation WavMap</t>
+  </si>
+  <si>
+    <t>Améliorer performance API</t>
+  </si>
+  <si>
+    <t>Créer le backEnd partie WavMap</t>
+  </si>
+  <si>
+    <t>Lier la base de données à WavMap</t>
+  </si>
+  <si>
+    <t>Jeux de tests sécurité et performance</t>
+  </si>
+  <si>
+    <t>Créer le frontEnd partie WavMap</t>
+  </si>
+  <si>
+    <t>Connecter la base de données WavCom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonctionnalité réserver le matériel </t>
+  </si>
+  <si>
+    <t>Fonctionnalité chat WavCom</t>
+  </si>
+  <si>
+    <t>Vérifier toutes les fonctionnalités WavCom</t>
+  </si>
+  <si>
+    <t>Liaison calendrier disponibiltés Waview avec leur calendrier personnel</t>
+  </si>
+  <si>
+    <t>Création liste des risques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document étude d'opportunité </t>
   </si>
 </sst>
 </file>
@@ -2281,27 +2314,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL82"/>
+  <dimension ref="A1:BL92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+      <pane ySplit="7" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="53.81640625" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="53.77734375" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="2.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2315,7 +2348,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="19"/>
       <c r="B2" s="45" t="s">
         <v>29</v>
@@ -2327,7 +2360,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="19"/>
       <c r="B3" s="45"/>
       <c r="C3" s="1"/>
@@ -2337,7 +2370,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
@@ -2351,7 +2384,7 @@
       </c>
       <c r="F4" s="48"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
@@ -2443,7 +2476,7 @@
       <c r="BK5" s="43"/>
       <c r="BL5" s="44"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
@@ -2678,7 +2711,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
@@ -2926,12 +2959,12 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="39"/>
@@ -2939,7 +2972,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H79" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H89" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="15"/>
@@ -2999,7 +3032,7 @@
       <c r="BK8" s="15"/>
       <c r="BL8" s="15"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -3081,7 +3114,7 @@
       <c r="BK9" s="15"/>
       <c r="BL9" s="15"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
@@ -3164,7 +3197,7 @@
       <c r="BK10" s="15"/>
       <c r="BL10" s="15"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18"/>
       <c r="B11" s="24" t="s">
         <v>21</v>
@@ -3245,10 +3278,10 @@
       <c r="BK11" s="15"/>
       <c r="BL11" s="15"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="24" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>26</v>
@@ -3326,30 +3359,25 @@
       <c r="BK12" s="15"/>
       <c r="BL12" s="15"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="19"/>
       <c r="B13" s="24" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
       </c>
       <c r="E13" s="29">
-        <f>F10+1</f>
-        <v>44466</v>
+        <v>44463</v>
       </c>
       <c r="F13" s="29">
-        <f>E13+3</f>
-        <v>44469</v>
+        <v>44465</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
+      <c r="H13" s="13"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
@@ -3362,8 +3390,8 @@
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
@@ -3407,29 +3435,29 @@
       <c r="BK13" s="15"/>
       <c r="BL13" s="15"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18"/>
-      <c r="B14" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="35">
+      <c r="B14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="14">
         <v>1</v>
       </c>
-      <c r="E14" s="36">
-        <f>F13+1</f>
-        <v>44470</v>
-      </c>
-      <c r="F14" s="36">
-        <f>E14</f>
-        <v>44470</v>
+      <c r="E14" s="29">
+        <f>F10+1</f>
+        <v>44466</v>
+      </c>
+      <c r="F14" s="29">
+        <f>E14+3</f>
+        <v>44469</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -3443,8 +3471,8 @@
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
@@ -3488,29 +3516,29 @@
       <c r="BK14" s="15"/>
       <c r="BL14" s="15"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18"/>
-      <c r="B15" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="B15" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="35">
         <v>1</v>
       </c>
-      <c r="E15" s="29">
-        <f>F14</f>
+      <c r="E15" s="36">
+        <f>F14+1</f>
         <v>44470</v>
       </c>
-      <c r="F15" s="29">
-        <f>E15+3</f>
-        <v>44473</v>
+      <c r="F15" s="36">
+        <f>E15</f>
+        <v>44470</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -3569,29 +3597,29 @@
       <c r="BK15" s="15"/>
       <c r="BL15" s="15"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18"/>
       <c r="B16" s="24" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D16" s="14">
         <v>1</v>
       </c>
       <c r="E16" s="29">
-        <f>E15+1</f>
-        <v>44471</v>
+        <f>F15</f>
+        <v>44470</v>
       </c>
       <c r="F16" s="29">
-        <f>E16+6</f>
-        <v>44477</v>
+        <f>E16+3</f>
+        <v>44473</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
@@ -3650,21 +3678,29 @@
       <c r="BK16" s="15"/>
       <c r="BL16" s="15"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
+      <c r="B17" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29">
+        <f>E16+1</f>
+        <v>44471</v>
+      </c>
+      <c r="F17" s="29">
+        <f>E17+6</f>
+        <v>44477</v>
+      </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="13" t="str">
+      <c r="H17" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
@@ -3723,29 +3759,21 @@
       <c r="BK17" s="15"/>
       <c r="BL17" s="15"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="14">
-        <v>1</v>
-      </c>
-      <c r="E18" s="29">
-        <f>F16+1</f>
-        <v>44478</v>
-      </c>
-      <c r="F18" s="29">
-        <f>E18+9</f>
-        <v>44487</v>
-      </c>
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="13">
+      <c r="H18" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v/>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
@@ -3804,10 +3832,10 @@
       <c r="BK18" s="15"/>
       <c r="BL18" s="15"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18"/>
       <c r="B19" s="24" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>26</v>
@@ -3816,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="29">
-        <f>F16+1</f>
+        <f>F17+1</f>
         <v>44478</v>
       </c>
       <c r="F19" s="29">
@@ -3824,7 +3852,10 @@
         <v>44487</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
@@ -3882,30 +3913,27 @@
       <c r="BK19" s="15"/>
       <c r="BL19" s="15"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18"/>
       <c r="B20" s="24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D20" s="14">
         <v>1</v>
       </c>
       <c r="E20" s="29">
-        <f>F16+1</f>
+        <f>F17+1</f>
         <v>44478</v>
       </c>
       <c r="F20" s="29">
-        <f>E20+7</f>
-        <v>44485</v>
+        <f>E20+9</f>
+        <v>44487</v>
       </c>
       <c r="G20" s="13"/>
-      <c r="H20" s="13">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
+      <c r="H20" s="13"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
@@ -3963,29 +3991,29 @@
       <c r="BK20" s="15"/>
       <c r="BL20" s="15"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" s="14">
         <v>1</v>
       </c>
       <c r="E21" s="29">
-        <f>F16+1</f>
+        <f>F17+1</f>
         <v>44478</v>
       </c>
       <c r="F21" s="29">
-        <f>E21+4</f>
-        <v>44482</v>
+        <f>E21+7</f>
+        <v>44485</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
@@ -4044,29 +4072,29 @@
       <c r="BK21" s="15"/>
       <c r="BL21" s="15"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
-      <c r="B22" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="35">
+      <c r="B22" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="14">
         <v>1</v>
       </c>
-      <c r="E22" s="36">
-        <f>E14+18</f>
-        <v>44488</v>
-      </c>
-      <c r="F22" s="36">
-        <f>E22</f>
-        <v>44488</v>
+      <c r="E22" s="29">
+        <f>F17+1</f>
+        <v>44478</v>
+      </c>
+      <c r="F22" s="29">
+        <f>E22+4</f>
+        <v>44482</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
@@ -4125,29 +4153,29 @@
       <c r="BK22" s="15"/>
       <c r="BL22" s="15"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18"/>
-      <c r="B23" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="14">
+      <c r="B23" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="35">
         <v>1</v>
       </c>
-      <c r="E23" s="29">
-        <f>F22</f>
+      <c r="E23" s="36">
+        <f>E15+18</f>
         <v>44488</v>
       </c>
-      <c r="F23" s="29">
-        <f>E23+6</f>
-        <v>44494</v>
+      <c r="F23" s="36">
+        <f>E23</f>
+        <v>44488</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
@@ -4206,29 +4234,29 @@
       <c r="BK23" s="15"/>
       <c r="BL23" s="15"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18"/>
       <c r="B24" s="24" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D24" s="14">
         <v>1</v>
       </c>
       <c r="E24" s="29">
-        <f>E23+1</f>
-        <v>44489</v>
+        <f>F23</f>
+        <v>44488</v>
       </c>
       <c r="F24" s="29">
-        <f>E24+11</f>
-        <v>44500</v>
+        <f>E24+6</f>
+        <v>44494</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
@@ -4287,29 +4315,29 @@
       <c r="BK24" s="15"/>
       <c r="BL24" s="15"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18"/>
       <c r="B25" s="24" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D25" s="14">
         <v>1</v>
       </c>
       <c r="E25" s="29">
-        <f>E23+1</f>
+        <f>E24+1</f>
         <v>44489</v>
       </c>
       <c r="F25" s="29">
-        <f>E25+15</f>
-        <v>44504</v>
+        <f>E25+11</f>
+        <v>44500</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
@@ -4368,19 +4396,19 @@
       <c r="BK25" s="15"/>
       <c r="BL25" s="15"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
       <c r="B26" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="14">
         <v>1</v>
       </c>
       <c r="E26" s="29">
-        <f>E23+1</f>
+        <f>E24+1</f>
         <v>44489</v>
       </c>
       <c r="F26" s="29">
@@ -4449,27 +4477,30 @@
       <c r="BK26" s="15"/>
       <c r="BL26" s="15"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18"/>
-      <c r="B27" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="35">
+      <c r="B27" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="36">
-        <f>F26+1</f>
-        <v>44505</v>
-      </c>
-      <c r="F27" s="36">
-        <f>E27</f>
-        <v>44505</v>
+      <c r="E27" s="29">
+        <f>E24+1</f>
+        <v>44489</v>
+      </c>
+      <c r="F27" s="29">
+        <f>E27+15</f>
+        <v>44504</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="H27" s="13">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
@@ -4527,22 +4558,27 @@
       <c r="BK27" s="15"/>
       <c r="BL27" s="15"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="18"/>
+      <c r="B28" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="35">
+        <v>1</v>
+      </c>
+      <c r="E28" s="36">
+        <f>F27+1</f>
+        <v>44505</v>
+      </c>
+      <c r="F28" s="36">
+        <f>E28</f>
+        <v>44505</v>
+      </c>
       <c r="G28" s="13"/>
-      <c r="H28" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H28" s="13"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
@@ -4600,29 +4636,21 @@
       <c r="BK28" s="15"/>
       <c r="BL28" s="15"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="18"/>
-      <c r="B29" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="14">
-        <v>1</v>
-      </c>
-      <c r="E29" s="29">
-        <f>F27</f>
-        <v>44505</v>
-      </c>
-      <c r="F29" s="29">
-        <f>E29+3</f>
-        <v>44508</v>
-      </c>
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="13">
+      <c r="H29" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -4681,29 +4709,29 @@
       <c r="BK29" s="15"/>
       <c r="BL29" s="15"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D30" s="14">
         <v>1</v>
       </c>
       <c r="E30" s="29">
-        <f>E29+1</f>
-        <v>44506</v>
+        <f>F28</f>
+        <v>44505</v>
       </c>
       <c r="F30" s="29">
-        <f>E30+2</f>
+        <f>E30+3</f>
         <v>44508</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
@@ -4762,29 +4790,29 @@
       <c r="BK30" s="15"/>
       <c r="BL30" s="15"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
       <c r="B31" s="24" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
       </c>
       <c r="E31" s="29">
-        <f>F30</f>
+        <f>E30+1</f>
+        <v>44506</v>
+      </c>
+      <c r="F31" s="29">
+        <f>E31+2</f>
         <v>44508</v>
-      </c>
-      <c r="F31" s="29">
-        <f>E31+6</f>
-        <v>44514</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
@@ -4843,29 +4871,29 @@
       <c r="BK31" s="15"/>
       <c r="BL31" s="15"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="18"/>
       <c r="B32" s="24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D32" s="14">
         <v>1</v>
       </c>
       <c r="E32" s="29">
-        <f>F31+1</f>
-        <v>44515</v>
+        <f>F31</f>
+        <v>44508</v>
       </c>
       <c r="F32" s="29">
-        <f>E32+9</f>
-        <v>44524</v>
+        <f>E32+6</f>
+        <v>44514</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -4924,29 +4952,29 @@
       <c r="BK32" s="15"/>
       <c r="BL32" s="15"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18"/>
       <c r="B33" s="24" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D33" s="14">
         <v>1</v>
       </c>
       <c r="E33" s="29">
-        <f>F31+1</f>
+        <f>F32+1</f>
         <v>44515</v>
       </c>
       <c r="F33" s="29">
-        <f>E33+6</f>
-        <v>44521</v>
+        <f>E33+9</f>
+        <v>44524</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
@@ -5005,27 +5033,30 @@
       <c r="BK33" s="15"/>
       <c r="BL33" s="15"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
       <c r="B34" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="14">
         <v>1</v>
       </c>
       <c r="E34" s="29">
-        <f>F31+1</f>
+        <f>F32+1</f>
         <v>44515</v>
       </c>
       <c r="F34" s="29">
-        <f>E34+10</f>
-        <v>44525</v>
+        <f>E34+6</f>
+        <v>44521</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="H34" s="13">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
@@ -5083,30 +5114,27 @@
       <c r="BK34" s="15"/>
       <c r="BL34" s="15"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="18"/>
-      <c r="B35" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="35">
+      <c r="B35" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="14">
         <v>1</v>
       </c>
-      <c r="E35" s="36">
-        <f>E27+21</f>
-        <v>44526</v>
-      </c>
-      <c r="F35" s="36">
-        <f>E35</f>
-        <v>44526</v>
+      <c r="E35" s="29">
+        <f>F32+1</f>
+        <v>44515</v>
+      </c>
+      <c r="F35" s="29">
+        <f>E35+10</f>
+        <v>44525</v>
       </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="H35" s="13"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
@@ -5164,21 +5192,29 @@
       <c r="BK35" s="15"/>
       <c r="BL35" s="15"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="18"/>
+      <c r="B36" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="35">
+        <v>1</v>
+      </c>
+      <c r="E36" s="36">
+        <f>E28+21</f>
+        <v>44526</v>
+      </c>
+      <c r="F36" s="36">
+        <f>E36</f>
+        <v>44526</v>
+      </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="13" t="str">
+      <c r="H36" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
@@ -5237,29 +5273,21 @@
       <c r="BK36" s="15"/>
       <c r="BL36" s="15"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="18"/>
-      <c r="B37" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="14">
-        <v>1</v>
-      </c>
-      <c r="E37" s="29">
-        <f>F35+1</f>
-        <v>44527</v>
-      </c>
-      <c r="F37" s="29">
-        <f>E37+2</f>
-        <v>44529</v>
-      </c>
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="13">
+      <c r="H37" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
@@ -5318,29 +5346,29 @@
       <c r="BK37" s="15"/>
       <c r="BL37" s="15"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D38" s="14">
         <v>1</v>
       </c>
       <c r="E38" s="29">
-        <f>E37+1</f>
-        <v>44528</v>
+        <f>F36+1</f>
+        <v>44527</v>
       </c>
       <c r="F38" s="29">
-        <f>E41-1</f>
-        <v>44546</v>
+        <f>E38+2</f>
+        <v>44529</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
@@ -5399,23 +5427,23 @@
       <c r="BK38" s="15"/>
       <c r="BL38" s="15"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18"/>
       <c r="B39" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E39" s="29">
-        <f>E38</f>
+        <f>E38+1</f>
         <v>44528</v>
       </c>
       <c r="F39" s="29">
-        <f>F38</f>
+        <f>E42-1</f>
         <v>44546</v>
       </c>
       <c r="G39" s="13"/>
@@ -5480,16 +5508,16 @@
       <c r="BK39" s="15"/>
       <c r="BL39" s="15"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18"/>
       <c r="B40" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D40" s="14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E40" s="29">
         <f>E39</f>
@@ -5500,7 +5528,10 @@
         <v>44546</v>
       </c>
       <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="H40" s="13">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
@@ -5558,30 +5589,27 @@
       <c r="BK40" s="15"/>
       <c r="BL40" s="15"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18"/>
-      <c r="B41" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="35">
+      <c r="B41" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="14">
         <v>1</v>
       </c>
-      <c r="E41" s="36">
-        <f>E35+21</f>
-        <v>44547</v>
-      </c>
-      <c r="F41" s="36">
-        <f>E41</f>
-        <v>44547</v>
+      <c r="E41" s="29">
+        <f>E40</f>
+        <v>44528</v>
+      </c>
+      <c r="F41" s="29">
+        <f>F40</f>
+        <v>44546</v>
       </c>
       <c r="G41" s="13"/>
-      <c r="H41" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="H41" s="13"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
@@ -5639,21 +5667,29 @@
       <c r="BK41" s="15"/>
       <c r="BL41" s="15"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="18"/>
+      <c r="B42" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="35">
+        <v>1</v>
+      </c>
+      <c r="E42" s="36">
+        <f>E36+21</f>
+        <v>44547</v>
+      </c>
+      <c r="F42" s="36">
+        <f>E42</f>
+        <v>44547</v>
+      </c>
       <c r="G42" s="13"/>
-      <c r="H42" s="13" t="str">
+      <c r="H42" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -5712,29 +5748,21 @@
       <c r="BK42" s="15"/>
       <c r="BL42" s="15"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="18"/>
-      <c r="B43" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="14">
-        <v>1</v>
-      </c>
-      <c r="E43" s="29">
-        <f>E41</f>
-        <v>44547</v>
-      </c>
-      <c r="F43" s="29">
-        <f>E43+1</f>
-        <v>44548</v>
-      </c>
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="13">
+      <c r="H43" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -5793,29 +5821,29 @@
       <c r="BK43" s="15"/>
       <c r="BL43" s="15"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18"/>
-      <c r="B44" s="32" t="s">
-        <v>55</v>
+      <c r="B44" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D44" s="14">
         <v>1</v>
       </c>
       <c r="E44" s="29">
-        <f>F43+1</f>
-        <v>44549</v>
+        <f>E42</f>
+        <v>44547</v>
       </c>
       <c r="F44" s="29">
-        <f>E44+7</f>
-        <v>44556</v>
+        <f>E44+1</f>
+        <v>44548</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
@@ -5874,29 +5902,29 @@
       <c r="BK44" s="15"/>
       <c r="BL44" s="15"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18"/>
-      <c r="B45" s="24" t="s">
-        <v>92</v>
+      <c r="B45" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D45" s="14">
         <v>1</v>
       </c>
       <c r="E45" s="29">
-        <f>F44</f>
+        <f>F44+1</f>
+        <v>44549</v>
+      </c>
+      <c r="F45" s="29">
+        <f>E45+7</f>
         <v>44556</v>
-      </c>
-      <c r="F45" s="29">
-        <f>E47-1</f>
-        <v>44585</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
@@ -5955,29 +5983,29 @@
       <c r="BK45" s="15"/>
       <c r="BL45" s="15"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18"/>
       <c r="B46" s="24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D46" s="14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E46" s="29">
-        <f>F43+1</f>
-        <v>44549</v>
+        <f>F45</f>
+        <v>44556</v>
       </c>
       <c r="F46" s="29">
-        <f>E47-1</f>
+        <f>E48-1</f>
         <v>44585</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13">
         <f t="shared" si="4"/>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
@@ -6036,29 +6064,29 @@
       <c r="BK46" s="15"/>
       <c r="BL46" s="15"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
-      <c r="B47" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="35">
-        <v>1</v>
-      </c>
-      <c r="E47" s="36">
-        <f>E41+39</f>
-        <v>44586</v>
-      </c>
-      <c r="F47" s="36">
-        <f>E47</f>
-        <v>44586</v>
+      <c r="B47" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E47" s="29">
+        <f>F44+1</f>
+        <v>44549</v>
+      </c>
+      <c r="F47" s="29">
+        <f>E48-1</f>
+        <v>44585</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
@@ -6117,21 +6145,29 @@
       <c r="BK47" s="15"/>
       <c r="BL47" s="15"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="18"/>
+      <c r="B48" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="35">
+        <v>1</v>
+      </c>
+      <c r="E48" s="36">
+        <f>E42+39</f>
+        <v>44586</v>
+      </c>
+      <c r="F48" s="36">
+        <f>E48</f>
+        <v>44586</v>
+      </c>
       <c r="G48" s="13"/>
-      <c r="H48" s="13" t="str">
+      <c r="H48" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
@@ -6190,27 +6226,21 @@
       <c r="BK48" s="15"/>
       <c r="BL48" s="15"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="18"/>
-      <c r="B49" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="14">
-        <v>1</v>
-      </c>
-      <c r="E49" s="29">
-        <f>F47+1</f>
-        <v>44587</v>
-      </c>
-      <c r="F49" s="29">
-        <f>E49</f>
-        <v>44587</v>
-      </c>
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="13">
+      <c r="H49" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
@@ -6269,29 +6299,27 @@
       <c r="BK49" s="15"/>
       <c r="BL49" s="15"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18"/>
       <c r="B50" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>26</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C50" s="22"/>
       <c r="D50" s="14">
         <v>1</v>
       </c>
       <c r="E50" s="29">
-        <f>F49+1</f>
-        <v>44588</v>
+        <f>F48+1</f>
+        <v>44587</v>
       </c>
       <c r="F50" s="29">
-        <f>E50+7</f>
-        <v>44595</v>
+        <f>E50</f>
+        <v>44587</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
@@ -6350,27 +6378,30 @@
       <c r="BK50" s="15"/>
       <c r="BL50" s="15"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18"/>
       <c r="B51" s="24" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" s="14">
         <v>1</v>
       </c>
       <c r="E51" s="29">
         <f>F50+1</f>
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="F51" s="29">
-        <f>E51+21</f>
-        <v>44617</v>
+        <f>E51+7</f>
+        <v>44595</v>
       </c>
       <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="H51" s="13">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
@@ -6428,23 +6459,23 @@
       <c r="BK51" s="15"/>
       <c r="BL51" s="15"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18"/>
       <c r="B52" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D52" s="14">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E52" s="29">
-        <f>E51</f>
+        <f>F51+1</f>
         <v>44596</v>
       </c>
       <c r="F52" s="29">
-        <f>F51</f>
+        <f>E52+21</f>
         <v>44617</v>
       </c>
       <c r="G52" s="13"/>
@@ -6506,16 +6537,16 @@
       <c r="BK52" s="15"/>
       <c r="BL52" s="15"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="18"/>
       <c r="B53" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D53" s="14">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E53" s="29">
         <f>E52</f>
@@ -6584,23 +6615,23 @@
       <c r="BK53" s="15"/>
       <c r="BL53" s="15"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18"/>
       <c r="B54" s="24" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D54" s="14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E54" s="29">
-        <f>F50+1</f>
+        <f>E53</f>
         <v>44596</v>
       </c>
       <c r="F54" s="29">
-        <f>E54+21</f>
+        <f>F53</f>
         <v>44617</v>
       </c>
       <c r="G54" s="13"/>
@@ -6662,24 +6693,24 @@
       <c r="BK54" s="15"/>
       <c r="BL54" s="15"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18"/>
       <c r="B55" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D55" s="14">
         <v>1</v>
       </c>
       <c r="E55" s="29">
-        <f>F54+1</f>
-        <v>44618</v>
+        <f>F51+1</f>
+        <v>44596</v>
       </c>
       <c r="F55" s="29">
-        <f>E55+4</f>
-        <v>44622</v>
+        <f>E55+21</f>
+        <v>44617</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
@@ -6740,30 +6771,27 @@
       <c r="BK55" s="15"/>
       <c r="BL55" s="15"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18"/>
-      <c r="B56" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="35">
+      <c r="B56" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="14">
         <v>1</v>
       </c>
-      <c r="E56" s="36">
-        <f>F47+37</f>
-        <v>44623</v>
-      </c>
-      <c r="F56" s="36">
-        <f>E56</f>
-        <v>44623</v>
+      <c r="E56" s="29">
+        <f>F55+1</f>
+        <v>44618</v>
+      </c>
+      <c r="F56" s="29">
+        <f>E56+4</f>
+        <v>44622</v>
       </c>
       <c r="G56" s="13"/>
-      <c r="H56" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="H56" s="13"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
@@ -6821,21 +6849,29 @@
       <c r="BK56" s="15"/>
       <c r="BL56" s="15"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="18"/>
+      <c r="B57" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="35">
+        <v>1</v>
+      </c>
+      <c r="E57" s="36">
+        <f>F48+37</f>
+        <v>44623</v>
+      </c>
+      <c r="F57" s="36">
+        <f>E57</f>
+        <v>44623</v>
+      </c>
       <c r="G57" s="13"/>
-      <c r="H57" s="13" t="str">
+      <c r="H57" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
@@ -6894,27 +6930,21 @@
       <c r="BK57" s="15"/>
       <c r="BL57" s="15"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="18"/>
-      <c r="B58" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="14">
-        <v>1</v>
-      </c>
-      <c r="E58" s="29">
-        <v>44624</v>
-      </c>
-      <c r="F58" s="29">
-        <v>44624</v>
-      </c>
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="13">
+      <c r="H58" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="15"/>
@@ -6973,27 +7003,27 @@
       <c r="BK58" s="15"/>
       <c r="BL58" s="15"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="18"/>
       <c r="B59" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D59" s="14">
         <v>1</v>
       </c>
       <c r="E59" s="29">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="F59" s="29">
-        <v>44631</v>
+        <v>44624</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
@@ -7052,25 +7082,28 @@
       <c r="BK59" s="15"/>
       <c r="BL59" s="15"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18"/>
       <c r="B60" s="24" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" s="14">
         <v>1</v>
       </c>
       <c r="E60" s="29">
-        <v>44632</v>
+        <v>44625</v>
       </c>
       <c r="F60" s="29">
-        <v>44645</v>
+        <v>44631</v>
       </c>
       <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+      <c r="H60" s="13">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
@@ -7128,13 +7161,13 @@
       <c r="BK60" s="15"/>
       <c r="BL60" s="15"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18"/>
       <c r="B61" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D61" s="14">
         <v>1</v>
@@ -7204,13 +7237,13 @@
       <c r="BK61" s="15"/>
       <c r="BL61" s="15"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D62" s="14">
         <v>1</v>
@@ -7280,16 +7313,16 @@
       <c r="BK62" s="15"/>
       <c r="BL62" s="15"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="18"/>
       <c r="B63" s="24" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D63" s="14">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E63" s="29">
         <v>44632</v>
@@ -7298,10 +7331,7 @@
         <v>44645</v>
       </c>
       <c r="G63" s="13"/>
-      <c r="H63" s="13">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
+      <c r="H63" s="13"/>
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
@@ -7359,16 +7389,16 @@
       <c r="BK63" s="15"/>
       <c r="BL63" s="15"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18"/>
       <c r="B64" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D64" s="14">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E64" s="29">
         <v>44632</v>
@@ -7377,7 +7407,10 @@
         <v>44645</v>
       </c>
       <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
+      <c r="H64" s="13">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
@@ -7435,22 +7468,25 @@
       <c r="BK64" s="15"/>
       <c r="BL64" s="15"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="38"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="18"/>
+      <c r="B65" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E65" s="29">
+        <v>44632</v>
+      </c>
+      <c r="F65" s="29">
+        <v>44645</v>
+      </c>
       <c r="G65" s="13"/>
-      <c r="H65" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H65" s="13"/>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
@@ -7508,27 +7544,21 @@
       <c r="BK65" s="15"/>
       <c r="BL65" s="15"/>
     </row>
-    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="18"/>
-      <c r="B66" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="14">
-        <v>0</v>
-      </c>
-      <c r="E66" s="29">
-        <v>44646</v>
-      </c>
-      <c r="F66" s="29">
-        <v>44653</v>
-      </c>
+    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="38"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="13">
+      <c r="H66" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="15"/>
@@ -7587,17 +7617,27 @@
       <c r="BK66" s="15"/>
       <c r="BL66" s="15"/>
     </row>
-    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="18"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
+      <c r="B67" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="14">
+        <v>0</v>
+      </c>
+      <c r="E67" s="29">
+        <v>44646</v>
+      </c>
+      <c r="F67" s="29">
+        <v>44646</v>
+      </c>
       <c r="G67" s="13"/>
-      <c r="H67" s="13" t="str">
+      <c r="H67" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
@@ -7656,29 +7696,25 @@
       <c r="BK67" s="15"/>
       <c r="BL67" s="15"/>
     </row>
-    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18"/>
-      <c r="B68" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D68" s="35">
+      <c r="B68" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="14">
         <v>0</v>
       </c>
-      <c r="E68" s="36">
-        <v>44655</v>
-      </c>
-      <c r="F68" s="36">
-        <f>E68+12</f>
-        <v>44667</v>
+      <c r="E68" s="29">
+        <v>44648</v>
+      </c>
+      <c r="F68" s="29">
+        <v>44651</v>
       </c>
       <c r="G68" s="13"/>
-      <c r="H68" s="13">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
+      <c r="H68" s="13"/>
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
@@ -7736,22 +7772,25 @@
       <c r="BK68" s="15"/>
       <c r="BL68" s="15"/>
     </row>
-    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
+    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="18"/>
+      <c r="B69" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="14">
+        <v>0</v>
+      </c>
+      <c r="E69" s="29">
+        <v>44655</v>
+      </c>
+      <c r="F69" s="29">
+        <v>44662</v>
+      </c>
       <c r="G69" s="13"/>
-      <c r="H69" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H69" s="13"/>
       <c r="I69" s="15"/>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
@@ -7809,22 +7848,25 @@
       <c r="BK69" s="15"/>
       <c r="BL69" s="15"/>
     </row>
-    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18"/>
       <c r="B70" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="22"/>
+        <v>98</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="D70" s="14">
-        <v>0</v>
-      </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
+        <v>0.4</v>
+      </c>
+      <c r="E70" s="29">
+        <v>44655</v>
+      </c>
+      <c r="F70" s="29">
+        <v>44659</v>
+      </c>
       <c r="G70" s="13"/>
-      <c r="H70" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H70" s="13"/>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
@@ -7882,24 +7924,25 @@
       <c r="BK70" s="15"/>
       <c r="BL70" s="15"/>
     </row>
-    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="18"/>
       <c r="B71" s="24" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D71" s="14">
         <v>0</v>
       </c>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
+      <c r="E71" s="29">
+        <v>44657</v>
+      </c>
+      <c r="F71" s="29">
+        <v>44664</v>
+      </c>
       <c r="G71" s="13"/>
-      <c r="H71" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H71" s="13"/>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
@@ -7957,18 +8000,25 @@
       <c r="BK71" s="15"/>
       <c r="BL71" s="15"/>
     </row>
-    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
+      <c r="B72" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E72" s="29">
+        <v>44651</v>
+      </c>
+      <c r="F72" s="29">
+        <v>44655</v>
+      </c>
       <c r="G72" s="13"/>
-      <c r="H72" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H72" s="13"/>
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
@@ -8026,30 +8076,25 @@
       <c r="BK72" s="15"/>
       <c r="BL72" s="15"/>
     </row>
-    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="18"/>
-      <c r="B73" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73" s="35">
-        <v>0</v>
-      </c>
-      <c r="E73" s="36">
-        <f>E68+35</f>
-        <v>44690</v>
-      </c>
-      <c r="F73" s="36">
-        <f>E73+12</f>
-        <v>44702</v>
+      <c r="B73" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E73" s="29">
+        <v>44648</v>
+      </c>
+      <c r="F73" s="29">
+        <v>44662</v>
       </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="13">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
+      <c r="H73" s="13"/>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
@@ -8107,21 +8152,27 @@
       <c r="BK73" s="15"/>
       <c r="BL73" s="15"/>
     </row>
-    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
+    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="18"/>
+      <c r="B74" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="14">
+        <v>0</v>
+      </c>
+      <c r="E74" s="29">
+        <v>44662</v>
+      </c>
+      <c r="F74" s="29">
+        <v>44666</v>
+      </c>
       <c r="G74" s="13"/>
-      <c r="H74" s="13" t="str">
+      <c r="H74" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
@@ -8180,21 +8231,28 @@
       <c r="BK74" s="15"/>
       <c r="BL74" s="15"/>
     </row>
-    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="18"/>
-      <c r="B75" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C75" s="22"/>
-      <c r="D75" s="14">
+      <c r="B75" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="35">
         <v>0</v>
       </c>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
+      <c r="E75" s="36">
+        <v>44655</v>
+      </c>
+      <c r="F75" s="36">
+        <f>E75+12</f>
+        <v>44667</v>
+      </c>
       <c r="G75" s="13"/>
-      <c r="H75" s="13" t="str">
+      <c r="H75" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
@@ -8253,19 +8311,17 @@
       <c r="BK75" s="15"/>
       <c r="BL75" s="15"/>
     </row>
-    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="18"/>
-      <c r="B76" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" s="14">
-        <v>0</v>
-      </c>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
+    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="38"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13" t="str">
         <f t="shared" si="4"/>
@@ -8328,11 +8384,15 @@
       <c r="BK76" s="15"/>
       <c r="BL76" s="15"/>
     </row>
-    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="18"/>
-      <c r="B77" s="24"/>
+      <c r="B77" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="C77" s="22"/>
-      <c r="D77" s="14"/>
+      <c r="D77" s="14">
+        <v>0</v>
+      </c>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
       <c r="G77" s="13"/>
@@ -8397,27 +8457,23 @@
       <c r="BK77" s="15"/>
       <c r="BL77" s="15"/>
     </row>
-    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18"/>
-      <c r="B78" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" s="34" t="s">
+      <c r="B78" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="35"/>
-      <c r="E78" s="36">
-        <f>E73+5</f>
-        <v>44695</v>
-      </c>
-      <c r="F78" s="36">
-        <f>E78</f>
-        <v>44695</v>
-      </c>
+      <c r="D78" s="14">
+        <v>0</v>
+      </c>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="13">
+      <c r="H78" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
@@ -8476,20 +8532,19 @@
       <c r="BK78" s="15"/>
       <c r="BL78" s="15"/>
     </row>
-    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="25"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
+    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="18"/>
+      <c r="B79" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="14">
+        <v>0</v>
+      </c>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H79" s="13"/>
       <c r="I79" s="15"/>
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
@@ -8547,15 +8602,752 @@
       <c r="BK79" s="15"/>
       <c r="BL79" s="15"/>
     </row>
-    <row r="80" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G80" s="6"/>
+    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="18"/>
+      <c r="B80" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="14">
+        <v>0</v>
+      </c>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="15"/>
+      <c r="U80" s="15"/>
+      <c r="V80" s="15"/>
+      <c r="W80" s="15"/>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="15"/>
+      <c r="AA80" s="15"/>
+      <c r="AB80" s="15"/>
+      <c r="AC80" s="15"/>
+      <c r="AD80" s="15"/>
+      <c r="AE80" s="15"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="15"/>
+      <c r="AH80" s="15"/>
+      <c r="AI80" s="15"/>
+      <c r="AJ80" s="15"/>
+      <c r="AK80" s="15"/>
+      <c r="AL80" s="15"/>
+      <c r="AM80" s="15"/>
+      <c r="AN80" s="15"/>
+      <c r="AO80" s="15"/>
+      <c r="AP80" s="15"/>
+      <c r="AQ80" s="15"/>
+      <c r="AR80" s="15"/>
+      <c r="AS80" s="15"/>
+      <c r="AT80" s="15"/>
+      <c r="AU80" s="15"/>
+      <c r="AV80" s="15"/>
+      <c r="AW80" s="15"/>
+      <c r="AX80" s="15"/>
+      <c r="AY80" s="15"/>
+      <c r="AZ80" s="15"/>
+      <c r="BA80" s="15"/>
+      <c r="BB80" s="15"/>
+      <c r="BC80" s="15"/>
+      <c r="BD80" s="15"/>
+      <c r="BE80" s="15"/>
+      <c r="BF80" s="15"/>
+      <c r="BG80" s="15"/>
+      <c r="BH80" s="15"/>
+      <c r="BI80" s="15"/>
+      <c r="BJ80" s="15"/>
+      <c r="BK80" s="15"/>
+      <c r="BL80" s="15"/>
     </row>
-    <row r="81" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C81" s="10"/>
-      <c r="F81" s="20"/>
+    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="18"/>
+      <c r="B81" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="14">
+        <v>0</v>
+      </c>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="15"/>
+      <c r="U81" s="15"/>
+      <c r="V81" s="15"/>
+      <c r="W81" s="15"/>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="15"/>
+      <c r="AA81" s="15"/>
+      <c r="AB81" s="15"/>
+      <c r="AC81" s="15"/>
+      <c r="AD81" s="15"/>
+      <c r="AE81" s="15"/>
+      <c r="AF81" s="15"/>
+      <c r="AG81" s="15"/>
+      <c r="AH81" s="15"/>
+      <c r="AI81" s="15"/>
+      <c r="AJ81" s="15"/>
+      <c r="AK81" s="15"/>
+      <c r="AL81" s="15"/>
+      <c r="AM81" s="15"/>
+      <c r="AN81" s="15"/>
+      <c r="AO81" s="15"/>
+      <c r="AP81" s="15"/>
+      <c r="AQ81" s="15"/>
+      <c r="AR81" s="15"/>
+      <c r="AS81" s="15"/>
+      <c r="AT81" s="15"/>
+      <c r="AU81" s="15"/>
+      <c r="AV81" s="15"/>
+      <c r="AW81" s="15"/>
+      <c r="AX81" s="15"/>
+      <c r="AY81" s="15"/>
+      <c r="AZ81" s="15"/>
+      <c r="BA81" s="15"/>
+      <c r="BB81" s="15"/>
+      <c r="BC81" s="15"/>
+      <c r="BD81" s="15"/>
+      <c r="BE81" s="15"/>
+      <c r="BF81" s="15"/>
+      <c r="BG81" s="15"/>
+      <c r="BH81" s="15"/>
+      <c r="BI81" s="15"/>
+      <c r="BJ81" s="15"/>
+      <c r="BK81" s="15"/>
+      <c r="BL81" s="15"/>
     </row>
-    <row r="82" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C82" s="11"/>
+    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="18"/>
+      <c r="B82" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="35">
+        <v>0</v>
+      </c>
+      <c r="E82" s="36">
+        <f>E75+35</f>
+        <v>44690</v>
+      </c>
+      <c r="F82" s="36">
+        <f>E82+12</f>
+        <v>44702</v>
+      </c>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="15"/>
+      <c r="V82" s="15"/>
+      <c r="W82" s="15"/>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="15"/>
+      <c r="AA82" s="15"/>
+      <c r="AB82" s="15"/>
+      <c r="AC82" s="15"/>
+      <c r="AD82" s="15"/>
+      <c r="AE82" s="15"/>
+      <c r="AF82" s="15"/>
+      <c r="AG82" s="15"/>
+      <c r="AH82" s="15"/>
+      <c r="AI82" s="15"/>
+      <c r="AJ82" s="15"/>
+      <c r="AK82" s="15"/>
+      <c r="AL82" s="15"/>
+      <c r="AM82" s="15"/>
+      <c r="AN82" s="15"/>
+      <c r="AO82" s="15"/>
+      <c r="AP82" s="15"/>
+      <c r="AQ82" s="15"/>
+      <c r="AR82" s="15"/>
+      <c r="AS82" s="15"/>
+      <c r="AT82" s="15"/>
+      <c r="AU82" s="15"/>
+      <c r="AV82" s="15"/>
+      <c r="AW82" s="15"/>
+      <c r="AX82" s="15"/>
+      <c r="AY82" s="15"/>
+      <c r="AZ82" s="15"/>
+      <c r="BA82" s="15"/>
+      <c r="BB82" s="15"/>
+      <c r="BC82" s="15"/>
+      <c r="BD82" s="15"/>
+      <c r="BE82" s="15"/>
+      <c r="BF82" s="15"/>
+      <c r="BG82" s="15"/>
+      <c r="BH82" s="15"/>
+      <c r="BI82" s="15"/>
+      <c r="BJ82" s="15"/>
+      <c r="BK82" s="15"/>
+      <c r="BL82" s="15"/>
+    </row>
+    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="38"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
+      <c r="S83" s="15"/>
+      <c r="T83" s="15"/>
+      <c r="U83" s="15"/>
+      <c r="V83" s="15"/>
+      <c r="W83" s="15"/>
+      <c r="X83" s="15"/>
+      <c r="Y83" s="15"/>
+      <c r="Z83" s="15"/>
+      <c r="AA83" s="15"/>
+      <c r="AB83" s="15"/>
+      <c r="AC83" s="15"/>
+      <c r="AD83" s="15"/>
+      <c r="AE83" s="15"/>
+      <c r="AF83" s="15"/>
+      <c r="AG83" s="15"/>
+      <c r="AH83" s="15"/>
+      <c r="AI83" s="15"/>
+      <c r="AJ83" s="15"/>
+      <c r="AK83" s="15"/>
+      <c r="AL83" s="15"/>
+      <c r="AM83" s="15"/>
+      <c r="AN83" s="15"/>
+      <c r="AO83" s="15"/>
+      <c r="AP83" s="15"/>
+      <c r="AQ83" s="15"/>
+      <c r="AR83" s="15"/>
+      <c r="AS83" s="15"/>
+      <c r="AT83" s="15"/>
+      <c r="AU83" s="15"/>
+      <c r="AV83" s="15"/>
+      <c r="AW83" s="15"/>
+      <c r="AX83" s="15"/>
+      <c r="AY83" s="15"/>
+      <c r="AZ83" s="15"/>
+      <c r="BA83" s="15"/>
+      <c r="BB83" s="15"/>
+      <c r="BC83" s="15"/>
+      <c r="BD83" s="15"/>
+      <c r="BE83" s="15"/>
+      <c r="BF83" s="15"/>
+      <c r="BG83" s="15"/>
+      <c r="BH83" s="15"/>
+      <c r="BI83" s="15"/>
+      <c r="BJ83" s="15"/>
+      <c r="BK83" s="15"/>
+      <c r="BL83" s="15"/>
+    </row>
+    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="18"/>
+      <c r="B84" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="22"/>
+      <c r="D84" s="14">
+        <v>0</v>
+      </c>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
+      <c r="AA84" s="15"/>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="15"/>
+      <c r="AD84" s="15"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="15"/>
+      <c r="AH84" s="15"/>
+      <c r="AI84" s="15"/>
+      <c r="AJ84" s="15"/>
+      <c r="AK84" s="15"/>
+      <c r="AL84" s="15"/>
+      <c r="AM84" s="15"/>
+      <c r="AN84" s="15"/>
+      <c r="AO84" s="15"/>
+      <c r="AP84" s="15"/>
+      <c r="AQ84" s="15"/>
+      <c r="AR84" s="15"/>
+      <c r="AS84" s="15"/>
+      <c r="AT84" s="15"/>
+      <c r="AU84" s="15"/>
+      <c r="AV84" s="15"/>
+      <c r="AW84" s="15"/>
+      <c r="AX84" s="15"/>
+      <c r="AY84" s="15"/>
+      <c r="AZ84" s="15"/>
+      <c r="BA84" s="15"/>
+      <c r="BB84" s="15"/>
+      <c r="BC84" s="15"/>
+      <c r="BD84" s="15"/>
+      <c r="BE84" s="15"/>
+      <c r="BF84" s="15"/>
+      <c r="BG84" s="15"/>
+      <c r="BH84" s="15"/>
+      <c r="BI84" s="15"/>
+      <c r="BJ84" s="15"/>
+      <c r="BK84" s="15"/>
+      <c r="BL84" s="15"/>
+    </row>
+    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="18"/>
+      <c r="B85" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="14">
+        <v>0</v>
+      </c>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="15"/>
+      <c r="U85" s="15"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="15"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="15"/>
+      <c r="AA85" s="15"/>
+      <c r="AB85" s="15"/>
+      <c r="AC85" s="15"/>
+      <c r="AD85" s="15"/>
+      <c r="AE85" s="15"/>
+      <c r="AF85" s="15"/>
+      <c r="AG85" s="15"/>
+      <c r="AH85" s="15"/>
+      <c r="AI85" s="15"/>
+      <c r="AJ85" s="15"/>
+      <c r="AK85" s="15"/>
+      <c r="AL85" s="15"/>
+      <c r="AM85" s="15"/>
+      <c r="AN85" s="15"/>
+      <c r="AO85" s="15"/>
+      <c r="AP85" s="15"/>
+      <c r="AQ85" s="15"/>
+      <c r="AR85" s="15"/>
+      <c r="AS85" s="15"/>
+      <c r="AT85" s="15"/>
+      <c r="AU85" s="15"/>
+      <c r="AV85" s="15"/>
+      <c r="AW85" s="15"/>
+      <c r="AX85" s="15"/>
+      <c r="AY85" s="15"/>
+      <c r="AZ85" s="15"/>
+      <c r="BA85" s="15"/>
+      <c r="BB85" s="15"/>
+      <c r="BC85" s="15"/>
+      <c r="BD85" s="15"/>
+      <c r="BE85" s="15"/>
+      <c r="BF85" s="15"/>
+      <c r="BG85" s="15"/>
+      <c r="BH85" s="15"/>
+      <c r="BI85" s="15"/>
+      <c r="BJ85" s="15"/>
+      <c r="BK85" s="15"/>
+      <c r="BL85" s="15"/>
+    </row>
+    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="18"/>
+      <c r="B86" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="14">
+        <v>0</v>
+      </c>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="15"/>
+      <c r="U86" s="15"/>
+      <c r="V86" s="15"/>
+      <c r="W86" s="15"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="15"/>
+      <c r="AA86" s="15"/>
+      <c r="AB86" s="15"/>
+      <c r="AC86" s="15"/>
+      <c r="AD86" s="15"/>
+      <c r="AE86" s="15"/>
+      <c r="AF86" s="15"/>
+      <c r="AG86" s="15"/>
+      <c r="AH86" s="15"/>
+      <c r="AI86" s="15"/>
+      <c r="AJ86" s="15"/>
+      <c r="AK86" s="15"/>
+      <c r="AL86" s="15"/>
+      <c r="AM86" s="15"/>
+      <c r="AN86" s="15"/>
+      <c r="AO86" s="15"/>
+      <c r="AP86" s="15"/>
+      <c r="AQ86" s="15"/>
+      <c r="AR86" s="15"/>
+      <c r="AS86" s="15"/>
+      <c r="AT86" s="15"/>
+      <c r="AU86" s="15"/>
+      <c r="AV86" s="15"/>
+      <c r="AW86" s="15"/>
+      <c r="AX86" s="15"/>
+      <c r="AY86" s="15"/>
+      <c r="AZ86" s="15"/>
+      <c r="BA86" s="15"/>
+      <c r="BB86" s="15"/>
+      <c r="BC86" s="15"/>
+      <c r="BD86" s="15"/>
+      <c r="BE86" s="15"/>
+      <c r="BF86" s="15"/>
+      <c r="BG86" s="15"/>
+      <c r="BH86" s="15"/>
+      <c r="BI86" s="15"/>
+      <c r="BJ86" s="15"/>
+      <c r="BK86" s="15"/>
+      <c r="BL86" s="15"/>
+    </row>
+    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="18"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="15"/>
+      <c r="U87" s="15"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="15"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="15"/>
+      <c r="AA87" s="15"/>
+      <c r="AB87" s="15"/>
+      <c r="AC87" s="15"/>
+      <c r="AD87" s="15"/>
+      <c r="AE87" s="15"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="15"/>
+      <c r="AH87" s="15"/>
+      <c r="AI87" s="15"/>
+      <c r="AJ87" s="15"/>
+      <c r="AK87" s="15"/>
+      <c r="AL87" s="15"/>
+      <c r="AM87" s="15"/>
+      <c r="AN87" s="15"/>
+      <c r="AO87" s="15"/>
+      <c r="AP87" s="15"/>
+      <c r="AQ87" s="15"/>
+      <c r="AR87" s="15"/>
+      <c r="AS87" s="15"/>
+      <c r="AT87" s="15"/>
+      <c r="AU87" s="15"/>
+      <c r="AV87" s="15"/>
+      <c r="AW87" s="15"/>
+      <c r="AX87" s="15"/>
+      <c r="AY87" s="15"/>
+      <c r="AZ87" s="15"/>
+      <c r="BA87" s="15"/>
+      <c r="BB87" s="15"/>
+      <c r="BC87" s="15"/>
+      <c r="BD87" s="15"/>
+      <c r="BE87" s="15"/>
+      <c r="BF87" s="15"/>
+      <c r="BG87" s="15"/>
+      <c r="BH87" s="15"/>
+      <c r="BI87" s="15"/>
+      <c r="BJ87" s="15"/>
+      <c r="BK87" s="15"/>
+      <c r="BL87" s="15"/>
+    </row>
+    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="18"/>
+      <c r="B88" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="35"/>
+      <c r="E88" s="36">
+        <f>E82+5</f>
+        <v>44695</v>
+      </c>
+      <c r="F88" s="36">
+        <f>E88</f>
+        <v>44695</v>
+      </c>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
+      <c r="S88" s="15"/>
+      <c r="T88" s="15"/>
+      <c r="U88" s="15"/>
+      <c r="V88" s="15"/>
+      <c r="W88" s="15"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="15"/>
+      <c r="AA88" s="15"/>
+      <c r="AB88" s="15"/>
+      <c r="AC88" s="15"/>
+      <c r="AD88" s="15"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="15"/>
+      <c r="AH88" s="15"/>
+      <c r="AI88" s="15"/>
+      <c r="AJ88" s="15"/>
+      <c r="AK88" s="15"/>
+      <c r="AL88" s="15"/>
+      <c r="AM88" s="15"/>
+      <c r="AN88" s="15"/>
+      <c r="AO88" s="15"/>
+      <c r="AP88" s="15"/>
+      <c r="AQ88" s="15"/>
+      <c r="AR88" s="15"/>
+      <c r="AS88" s="15"/>
+      <c r="AT88" s="15"/>
+      <c r="AU88" s="15"/>
+      <c r="AV88" s="15"/>
+      <c r="AW88" s="15"/>
+      <c r="AX88" s="15"/>
+      <c r="AY88" s="15"/>
+      <c r="AZ88" s="15"/>
+      <c r="BA88" s="15"/>
+      <c r="BB88" s="15"/>
+      <c r="BC88" s="15"/>
+      <c r="BD88" s="15"/>
+      <c r="BE88" s="15"/>
+      <c r="BF88" s="15"/>
+      <c r="BG88" s="15"/>
+      <c r="BH88" s="15"/>
+      <c r="BI88" s="15"/>
+      <c r="BJ88" s="15"/>
+      <c r="BK88" s="15"/>
+      <c r="BL88" s="15"/>
+    </row>
+    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="25"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="15"/>
+      <c r="U89" s="15"/>
+      <c r="V89" s="15"/>
+      <c r="W89" s="15"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="15"/>
+      <c r="AA89" s="15"/>
+      <c r="AB89" s="15"/>
+      <c r="AC89" s="15"/>
+      <c r="AD89" s="15"/>
+      <c r="AE89" s="15"/>
+      <c r="AF89" s="15"/>
+      <c r="AG89" s="15"/>
+      <c r="AH89" s="15"/>
+      <c r="AI89" s="15"/>
+      <c r="AJ89" s="15"/>
+      <c r="AK89" s="15"/>
+      <c r="AL89" s="15"/>
+      <c r="AM89" s="15"/>
+      <c r="AN89" s="15"/>
+      <c r="AO89" s="15"/>
+      <c r="AP89" s="15"/>
+      <c r="AQ89" s="15"/>
+      <c r="AR89" s="15"/>
+      <c r="AS89" s="15"/>
+      <c r="AT89" s="15"/>
+      <c r="AU89" s="15"/>
+      <c r="AV89" s="15"/>
+      <c r="AW89" s="15"/>
+      <c r="AX89" s="15"/>
+      <c r="AY89" s="15"/>
+      <c r="AZ89" s="15"/>
+      <c r="BA89" s="15"/>
+      <c r="BB89" s="15"/>
+      <c r="BC89" s="15"/>
+      <c r="BD89" s="15"/>
+      <c r="BE89" s="15"/>
+      <c r="BF89" s="15"/>
+      <c r="BG89" s="15"/>
+      <c r="BH89" s="15"/>
+      <c r="BI89" s="15"/>
+      <c r="BJ89" s="15"/>
+      <c r="BK89" s="15"/>
+      <c r="BL89" s="15"/>
+    </row>
+    <row r="90" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="10"/>
+      <c r="F91" s="20"/>
+    </row>
+    <row r="92" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8573,7 +9365,7 @@
     <mergeCell ref="AK5:AQ5"/>
     <mergeCell ref="AR5:AX5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D15:D16 D79 D23:D26 D18:D21 D66:D67 D49:D55">
+  <conditionalFormatting sqref="D16:D17 D89 D24:D27 D19:D22 D50:D56 D67:D74">
     <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8587,12 +9379,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I79:BL79 I33:BL35 I6:BL26 I28:BL30 I65:BL67 I48:BL55">
+  <conditionalFormatting sqref="I89:BL89 I34:BL36 I6:BL27 I29:BL31 I66:BL74 I49:BL56">
     <cfRule type="expression" dxfId="50" priority="124">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I79:BL79 I33:BL35 I8:BL26 I28:BL30 I65:BL67 I48:BL55">
+  <conditionalFormatting sqref="I89:BL89 I34:BL36 I8:BL27 I29:BL31 I66:BL74 I49:BL56">
     <cfRule type="expression" dxfId="49" priority="122">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8600,7 +9392,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D34 D29:D30">
+  <conditionalFormatting sqref="D34:D35 D30:D31">
     <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8614,7 +9406,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8628,12 +9420,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL44 I46:BL46">
+  <conditionalFormatting sqref="I43:BL45 I47:BL47">
     <cfRule type="expression" dxfId="47" priority="119">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL44 I46:BL46">
+  <conditionalFormatting sqref="I43:BL45 I47:BL47">
     <cfRule type="expression" dxfId="46" priority="117">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8641,7 +9433,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D44">
+  <conditionalFormatting sqref="D44:D45">
     <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8655,12 +9447,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
+  <conditionalFormatting sqref="I48:BL48">
     <cfRule type="expression" dxfId="44" priority="113">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BL47">
+  <conditionalFormatting sqref="I48:BL48">
     <cfRule type="expression" dxfId="43" priority="111">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8668,12 +9460,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
+  <conditionalFormatting sqref="I57:BL57">
     <cfRule type="expression" dxfId="41" priority="104">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL56">
+  <conditionalFormatting sqref="I57:BL57">
     <cfRule type="expression" dxfId="40" priority="102">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8681,7 +9473,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:D64">
+  <conditionalFormatting sqref="D64:D65">
     <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8695,12 +9487,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL64">
+  <conditionalFormatting sqref="I58:BL65">
     <cfRule type="expression" dxfId="38" priority="101">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BL64">
+  <conditionalFormatting sqref="I58:BL65">
     <cfRule type="expression" dxfId="37" priority="99">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8708,7 +9500,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58:D62">
+  <conditionalFormatting sqref="D59:D63">
     <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8722,7 +9514,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D13">
+  <conditionalFormatting sqref="D12:D14">
     <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8750,26 +9542,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="dataBar" priority="80">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DEED8560-2EDB-4507-858D-EC48F4358421}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BL72">
+  <conditionalFormatting sqref="I76:BL81">
     <cfRule type="expression" dxfId="35" priority="83">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BL72">
+  <conditionalFormatting sqref="I76:BL81">
     <cfRule type="expression" dxfId="34" priority="81">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8777,12 +9555,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL68">
+  <conditionalFormatting sqref="I75:BL75">
     <cfRule type="expression" dxfId="32" priority="79">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL68">
+  <conditionalFormatting sqref="I75:BL75">
     <cfRule type="expression" dxfId="31" priority="77">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8790,7 +9568,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:D71">
+  <conditionalFormatting sqref="D77:D81">
     <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8804,7 +9582,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
+  <conditionalFormatting sqref="D87">
     <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8818,12 +9596,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:BL77">
+  <conditionalFormatting sqref="I83:BL87">
     <cfRule type="expression" dxfId="29" priority="73">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:BL77">
+  <conditionalFormatting sqref="I83:BL87">
     <cfRule type="expression" dxfId="28" priority="71">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8831,12 +9609,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73:BL73">
+  <conditionalFormatting sqref="I82:BL82">
     <cfRule type="expression" dxfId="26" priority="69">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73:BL73">
+  <conditionalFormatting sqref="I82:BL82">
     <cfRule type="expression" dxfId="25" priority="67">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8844,7 +9622,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75:D76">
+  <conditionalFormatting sqref="D84:D86">
     <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8858,12 +9636,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I78:BL78">
+  <conditionalFormatting sqref="I88:BL88">
     <cfRule type="expression" dxfId="23" priority="63">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I78:BL78">
+  <conditionalFormatting sqref="I88:BL88">
     <cfRule type="expression" dxfId="22" priority="61">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8871,12 +9649,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
+  <conditionalFormatting sqref="I32:BL32">
     <cfRule type="expression" dxfId="20" priority="59">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
+  <conditionalFormatting sqref="I32:BL32">
     <cfRule type="expression" dxfId="19" priority="57">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8884,7 +9662,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8898,12 +9676,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
+  <conditionalFormatting sqref="I33:BL33">
     <cfRule type="expression" dxfId="17" priority="55">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
+  <conditionalFormatting sqref="I33:BL33">
     <cfRule type="expression" dxfId="16" priority="53">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8911,7 +9689,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8925,12 +9703,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL37 I41:BL41">
+  <conditionalFormatting sqref="I37:BL38 I42:BL42">
     <cfRule type="expression" dxfId="14" priority="51">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL37 I41:BL41">
+  <conditionalFormatting sqref="I37:BL38 I42:BL42">
     <cfRule type="expression" dxfId="13" priority="49">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8938,7 +9716,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D38">
     <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8952,12 +9730,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
+  <conditionalFormatting sqref="I39:BL39">
     <cfRule type="expression" dxfId="11" priority="47">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL38">
+  <conditionalFormatting sqref="I39:BL39">
     <cfRule type="expression" dxfId="10" priority="45">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8965,7 +9743,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D39">
     <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8979,12 +9757,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL40">
+  <conditionalFormatting sqref="I40:BL41">
     <cfRule type="expression" dxfId="8" priority="43">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BL40">
+  <conditionalFormatting sqref="I40:BL41">
     <cfRule type="expression" dxfId="7" priority="41">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -8992,7 +9770,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D40">
+  <conditionalFormatting sqref="D40:D41">
     <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9006,7 +9784,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9020,12 +9798,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
+  <conditionalFormatting sqref="I46:BL46">
     <cfRule type="expression" dxfId="5" priority="39">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BL45">
+  <conditionalFormatting sqref="I46:BL46">
     <cfRule type="expression" dxfId="4" priority="37">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -9061,7 +9839,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="D15">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9075,7 +9853,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D18">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9089,7 +9867,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="D23">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9103,7 +9881,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9117,7 +9895,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9131,7 +9909,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9145,7 +9923,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9159,7 +9937,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D75">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9173,7 +9951,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
+  <conditionalFormatting sqref="D82">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9187,7 +9965,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
+  <conditionalFormatting sqref="D88">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9201,7 +9979,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9215,7 +9993,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9229,7 +10007,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9243,7 +10021,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9257,7 +10035,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9271,7 +10049,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9285,7 +10063,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
+  <conditionalFormatting sqref="D76">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9299,7 +10077,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
+  <conditionalFormatting sqref="D83">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9313,12 +10091,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL27">
+  <conditionalFormatting sqref="I28:BL28">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL27">
+  <conditionalFormatting sqref="I28:BL28">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -9326,7 +10104,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D28">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9367,7 +10145,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D15:D16 D79 D23:D26 D18:D21 D66:D67 D49:D55</xm:sqref>
+          <xm:sqref>D16:D17 D89 D24:D27 D19:D22 D50:D56 D67:D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61BAFCB1-C9D1-4453-9835-894AAFFB2D48}">
@@ -9382,7 +10160,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33:D34 D29:D30</xm:sqref>
+          <xm:sqref>D34:D35 D30:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AD57E977-98C8-4463-AF63-0B910B22A855}">
@@ -9397,7 +10175,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D46</xm:sqref>
+          <xm:sqref>D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85DD6914-E53C-41B0-AFBA-86F7B9451DA6}">
@@ -9412,7 +10190,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D43:D44</xm:sqref>
+          <xm:sqref>D44:D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F7F63C90-679F-41E1-9DD7-C7641723B832}">
@@ -9427,7 +10205,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D63:D64</xm:sqref>
+          <xm:sqref>D64:D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C1F1D87-2F5D-4508-9015-0F4807608336}">
@@ -9442,7 +10220,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D58:D62</xm:sqref>
+          <xm:sqref>D59:D63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85676472-4DEA-4B47-8076-2B079F7EB722}">
@@ -9457,7 +10235,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D12:D13</xm:sqref>
+          <xm:sqref>D12:D14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{31E90CF3-9F5F-44CA-B687-A51E64DCC915}">
@@ -9475,21 +10253,6 @@
           <xm:sqref>D10:D11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DEED8560-2EDB-4507-858D-EC48F4358421}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D72</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D92EFAD8-9A39-41D6-8E74-09FCB7C99446}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -9502,7 +10265,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D70:D71</xm:sqref>
+          <xm:sqref>D77:D81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49690BEA-F1DA-49A9-87E0-BC10D33392B4}">
@@ -9517,7 +10280,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D77</xm:sqref>
+          <xm:sqref>D87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F3BCBE8B-1131-4EC4-93C6-93A3D2241A3A}">
@@ -9532,7 +10295,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D75:D76</xm:sqref>
+          <xm:sqref>D84:D86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{70FE4911-65CD-4B63-902B-DAD573D9D1E7}">
@@ -9547,7 +10310,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D31</xm:sqref>
+          <xm:sqref>D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{107B3D2A-9D99-4B77-A0C1-E7D4234EC328}">
@@ -9562,7 +10325,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D32</xm:sqref>
+          <xm:sqref>D33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4BDF0497-329E-4ACE-A091-C6666647B0A6}">
@@ -9577,7 +10340,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
+          <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2616EACB-B142-4ABA-AB98-D0EFAE3192B1}">
@@ -9592,7 +10355,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38</xm:sqref>
+          <xm:sqref>D39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9179826B-45ED-4988-BB2A-78DA7424E602}">
@@ -9607,7 +10370,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D39:D40</xm:sqref>
+          <xm:sqref>D40:D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9795FCF7-A67A-433E-B155-AD1C0E7C374A}">
@@ -9622,7 +10385,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D45</xm:sqref>
+          <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{36C8D48B-9FF9-4463-BC3F-14FABEE2DEF7}">
@@ -9667,7 +10430,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D14</xm:sqref>
+          <xm:sqref>D15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B4ED5E57-C950-47E4-A099-DCA192DFE477}">
@@ -9682,7 +10445,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D17</xm:sqref>
+          <xm:sqref>D18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{164A214E-470A-43CF-8C6A-55A5991E08E9}">
@@ -9697,7 +10460,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D22</xm:sqref>
+          <xm:sqref>D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DE1AD479-0A37-44F4-AC20-51FF297665D3}">
@@ -9712,7 +10475,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35</xm:sqref>
+          <xm:sqref>D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49FBE34D-D83B-497D-AB99-28B0686734FB}">
@@ -9727,7 +10490,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
+          <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FFA7516B-0875-4D87-99ED-B7E4CACCC0E1}">
@@ -9742,7 +10505,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D47</xm:sqref>
+          <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{66BA6DFA-1489-4D78-8D16-D0BABA15730F}">
@@ -9757,7 +10520,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D56</xm:sqref>
+          <xm:sqref>D57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F9FF2D8E-4C48-4314-AE00-D91E4BEBF00D}">
@@ -9772,7 +10535,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D68</xm:sqref>
+          <xm:sqref>D75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{47FD5541-751B-48F2-895B-231260031964}">
@@ -9787,7 +10550,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D73</xm:sqref>
+          <xm:sqref>D82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CB458C94-EC1D-48A0-8F37-BA38EE604418}">
@@ -9802,7 +10565,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D78</xm:sqref>
+          <xm:sqref>D88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC19E591-9826-41D2-8753-21A5AEC1982F}">
@@ -9817,7 +10580,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D28</xm:sqref>
+          <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7E87486C-C83F-46B9-BB58-D6A8CEED9048}">
@@ -9832,7 +10595,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36</xm:sqref>
+          <xm:sqref>D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1FF748D9-3BCB-4034-9208-1F2D65C79F13}">
@@ -9847,7 +10610,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42</xm:sqref>
+          <xm:sqref>D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F2C994C7-19E2-44FD-954A-AB7D6DE46441}">
@@ -9862,7 +10625,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D48</xm:sqref>
+          <xm:sqref>D49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8CA27610-5A3B-4302-BEA5-774F42E0EC59}">
@@ -9877,7 +10640,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D57</xm:sqref>
+          <xm:sqref>D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B566DAE9-59F0-494F-B4A5-6CA202ED05AF}">
@@ -9892,7 +10655,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D65</xm:sqref>
+          <xm:sqref>D66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E8B7A00D-0A45-4E39-935E-0EF6E104B91A}">
@@ -9907,7 +10670,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D69</xm:sqref>
+          <xm:sqref>D76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61C46EA8-F9E7-45B9-92F2-CA890223D6D5}">
@@ -9922,7 +10685,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D74</xm:sqref>
+          <xm:sqref>D83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8A618AE5-6A10-402E-8877-7F8471EF9C36}">
@@ -9937,7 +10700,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D27</xm:sqref>
+          <xm:sqref>D28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E434DCB-B18E-4498-8F7E-2D461C7C4D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447E7576-DBA6-4970-94F3-7BFAB71DE725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1248" yWindow="1152" windowWidth="17280" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="111">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -430,6 +430,12 @@
   </si>
   <si>
     <t xml:space="preserve">Document étude d'opportunité </t>
+  </si>
+  <si>
+    <t>Sprint 10</t>
+  </si>
+  <si>
+    <t>Sprint 11</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1267,6 @@
     <xf numFmtId="168" fontId="24" fillId="37" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1283,6 +1288,7 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2314,27 +2320,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL92"/>
+  <dimension ref="A1:BL97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <pane ySplit="7" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="53.77734375" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2348,9 +2354,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1"/>
@@ -2360,9 +2366,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19"/>
-      <c r="B3" s="45"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2370,122 +2376,122 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48">
+      <c r="D4" s="46"/>
+      <c r="E4" s="47">
         <v>44459</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="31">
         <v>23</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="41">
         <f>I6</f>
         <v>44613</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="42">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="41">
         <f>P6</f>
         <v>44620</v>
       </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="42">
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="41">
         <f>W6</f>
         <v>44627</v>
       </c>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="42">
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="41">
         <f>AD6</f>
         <v>44634</v>
       </c>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="42">
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="41">
         <f>AK6</f>
         <v>44641</v>
       </c>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="42">
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="41">
         <f>AR6</f>
         <v>44648</v>
       </c>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="43"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="42">
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="41">
         <f>AY6</f>
         <v>44655</v>
       </c>
-      <c r="AZ5" s="43"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="42">
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="41">
         <f>BF6</f>
         <v>44662</v>
       </c>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="43"/>
-      <c r="BK5" s="43"/>
-      <c r="BL5" s="44"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="43"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44613</v>
@@ -2711,7 +2717,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
@@ -2959,7 +2965,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -2972,7 +2978,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H89" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H94" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="15"/>
@@ -3032,7 +3038,7 @@
       <c r="BK8" s="15"/>
       <c r="BL8" s="15"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -3114,7 +3120,7 @@
       <c r="BK9" s="15"/>
       <c r="BL9" s="15"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
@@ -3197,7 +3203,7 @@
       <c r="BK10" s="15"/>
       <c r="BL10" s="15"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="24" t="s">
         <v>21</v>
@@ -3278,7 +3284,7 @@
       <c r="BK11" s="15"/>
       <c r="BL11" s="15"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="24" t="s">
         <v>108</v>
@@ -3359,7 +3365,7 @@
       <c r="BK12" s="15"/>
       <c r="BL12" s="15"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="24" t="s">
         <v>107</v>
@@ -3435,7 +3441,7 @@
       <c r="BK13" s="15"/>
       <c r="BL13" s="15"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="24" t="s">
         <v>22</v>
@@ -3516,7 +3522,7 @@
       <c r="BK14" s="15"/>
       <c r="BL14" s="15"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="33" t="s">
         <v>63</v>
@@ -3597,7 +3603,7 @@
       <c r="BK15" s="15"/>
       <c r="BL15" s="15"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="24" t="s">
         <v>23</v>
@@ -3678,7 +3684,7 @@
       <c r="BK16" s="15"/>
       <c r="BL16" s="15"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="24" t="s">
         <v>82</v>
@@ -3759,7 +3765,7 @@
       <c r="BK17" s="15"/>
       <c r="BL17" s="15"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>8</v>
       </c>
@@ -3832,7 +3838,7 @@
       <c r="BK18" s="15"/>
       <c r="BL18" s="15"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="24" t="s">
         <v>80</v>
@@ -3913,7 +3919,7 @@
       <c r="BK19" s="15"/>
       <c r="BL19" s="15"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="24" t="s">
         <v>88</v>
@@ -3991,7 +3997,7 @@
       <c r="BK20" s="15"/>
       <c r="BL20" s="15"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="24" t="s">
         <v>83</v>
@@ -4072,7 +4078,7 @@
       <c r="BK21" s="15"/>
       <c r="BL21" s="15"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="24" t="s">
         <v>81</v>
@@ -4153,7 +4159,7 @@
       <c r="BK22" s="15"/>
       <c r="BL22" s="15"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="33" t="s">
         <v>24</v>
@@ -4234,7 +4240,7 @@
       <c r="BK23" s="15"/>
       <c r="BL23" s="15"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="24" t="s">
         <v>25</v>
@@ -4315,7 +4321,7 @@
       <c r="BK24" s="15"/>
       <c r="BL24" s="15"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="24" t="s">
         <v>33</v>
@@ -4396,7 +4402,7 @@
       <c r="BK25" s="15"/>
       <c r="BL25" s="15"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="24" t="s">
         <v>81</v>
@@ -4477,7 +4483,7 @@
       <c r="BK26" s="15"/>
       <c r="BL26" s="15"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="24" t="s">
         <v>79</v>
@@ -4558,7 +4564,7 @@
       <c r="BK27" s="15"/>
       <c r="BL27" s="15"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="33" t="s">
         <v>34</v>
@@ -4636,7 +4642,7 @@
       <c r="BK28" s="15"/>
       <c r="BL28" s="15"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>8</v>
       </c>
@@ -4709,7 +4715,7 @@
       <c r="BK29" s="15"/>
       <c r="BL29" s="15"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>35</v>
@@ -4790,7 +4796,7 @@
       <c r="BK30" s="15"/>
       <c r="BL30" s="15"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="24" t="s">
         <v>36</v>
@@ -4871,7 +4877,7 @@
       <c r="BK31" s="15"/>
       <c r="BL31" s="15"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="24" t="s">
         <v>89</v>
@@ -4952,7 +4958,7 @@
       <c r="BK32" s="15"/>
       <c r="BL32" s="15"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="24" t="s">
         <v>84</v>
@@ -5033,7 +5039,7 @@
       <c r="BK33" s="15"/>
       <c r="BL33" s="15"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="24" t="s">
         <v>78</v>
@@ -5114,7 +5120,7 @@
       <c r="BK34" s="15"/>
       <c r="BL34" s="15"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="24" t="s">
         <v>79</v>
@@ -5192,7 +5198,7 @@
       <c r="BK35" s="15"/>
       <c r="BL35" s="15"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="33" t="s">
         <v>43</v>
@@ -5273,7 +5279,7 @@
       <c r="BK36" s="15"/>
       <c r="BL36" s="15"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>8</v>
       </c>
@@ -5346,7 +5352,7 @@
       <c r="BK37" s="15"/>
       <c r="BL37" s="15"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>51</v>
@@ -5427,7 +5433,7 @@
       <c r="BK38" s="15"/>
       <c r="BL38" s="15"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="24" t="s">
         <v>87</v>
@@ -5508,7 +5514,7 @@
       <c r="BK39" s="15"/>
       <c r="BL39" s="15"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
       <c r="B40" s="24" t="s">
         <v>86</v>
@@ -5589,7 +5595,7 @@
       <c r="BK40" s="15"/>
       <c r="BL40" s="15"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
       <c r="B41" s="24" t="s">
         <v>85</v>
@@ -5667,7 +5673,7 @@
       <c r="BK41" s="15"/>
       <c r="BL41" s="15"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
       <c r="B42" s="33" t="s">
         <v>52</v>
@@ -5748,7 +5754,7 @@
       <c r="BK42" s="15"/>
       <c r="BL42" s="15"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>8</v>
       </c>
@@ -5821,7 +5827,7 @@
       <c r="BK43" s="15"/>
       <c r="BL43" s="15"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="24" t="s">
         <v>53</v>
@@ -5902,7 +5908,7 @@
       <c r="BK44" s="15"/>
       <c r="BL44" s="15"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="32" t="s">
         <v>54</v>
@@ -5983,7 +5989,7 @@
       <c r="BK45" s="15"/>
       <c r="BL45" s="15"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="24" t="s">
         <v>90</v>
@@ -6064,7 +6070,7 @@
       <c r="BK46" s="15"/>
       <c r="BL46" s="15"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="24" t="s">
         <v>94</v>
@@ -6145,7 +6151,7 @@
       <c r="BK47" s="15"/>
       <c r="BL47" s="15"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18"/>
       <c r="B48" s="33" t="s">
         <v>37</v>
@@ -6226,7 +6232,7 @@
       <c r="BK48" s="15"/>
       <c r="BL48" s="15"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>8</v>
       </c>
@@ -6299,7 +6305,7 @@
       <c r="BK49" s="15"/>
       <c r="BL49" s="15"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18"/>
       <c r="B50" s="24" t="s">
         <v>38</v>
@@ -6378,7 +6384,7 @@
       <c r="BK50" s="15"/>
       <c r="BL50" s="15"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="24" t="s">
         <v>39</v>
@@ -6459,7 +6465,7 @@
       <c r="BK51" s="15"/>
       <c r="BL51" s="15"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
       <c r="B52" s="24" t="s">
         <v>58</v>
@@ -6537,7 +6543,7 @@
       <c r="BK52" s="15"/>
       <c r="BL52" s="15"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18"/>
       <c r="B53" s="24" t="s">
         <v>59</v>
@@ -6615,7 +6621,7 @@
       <c r="BK53" s="15"/>
       <c r="BL53" s="15"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
       <c r="B54" s="24" t="s">
         <v>60</v>
@@ -6693,7 +6699,7 @@
       <c r="BK54" s="15"/>
       <c r="BL54" s="15"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="24" t="s">
         <v>92</v>
@@ -6771,7 +6777,7 @@
       <c r="BK55" s="15"/>
       <c r="BL55" s="15"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="B56" s="24" t="s">
         <v>91</v>
@@ -6849,7 +6855,7 @@
       <c r="BK56" s="15"/>
       <c r="BL56" s="15"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18"/>
       <c r="B57" s="33" t="s">
         <v>40</v>
@@ -6930,7 +6936,7 @@
       <c r="BK57" s="15"/>
       <c r="BL57" s="15"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
         <v>8</v>
       </c>
@@ -7003,7 +7009,7 @@
       <c r="BK58" s="15"/>
       <c r="BL58" s="15"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18"/>
       <c r="B59" s="24" t="s">
         <v>41</v>
@@ -7082,7 +7088,7 @@
       <c r="BK59" s="15"/>
       <c r="BL59" s="15"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
       <c r="B60" s="24" t="s">
         <v>42</v>
@@ -7161,7 +7167,7 @@
       <c r="BK60" s="15"/>
       <c r="BL60" s="15"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
       <c r="B61" s="24" t="s">
         <v>74</v>
@@ -7237,7 +7243,7 @@
       <c r="BK61" s="15"/>
       <c r="BL61" s="15"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="24" t="s">
         <v>77</v>
@@ -7313,7 +7319,7 @@
       <c r="BK62" s="15"/>
       <c r="BL62" s="15"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="18"/>
       <c r="B63" s="24" t="s">
         <v>76</v>
@@ -7389,7 +7395,7 @@
       <c r="BK63" s="15"/>
       <c r="BL63" s="15"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="18"/>
       <c r="B64" s="24" t="s">
         <v>93</v>
@@ -7468,7 +7474,7 @@
       <c r="BK64" s="15"/>
       <c r="BL64" s="15"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="24" t="s">
         <v>95</v>
@@ -7544,7 +7550,7 @@
       <c r="BK65" s="15"/>
       <c r="BL65" s="15"/>
     </row>
-    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>8</v>
       </c>
@@ -7617,7 +7623,7 @@
       <c r="BK66" s="15"/>
       <c r="BL66" s="15"/>
     </row>
-    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="18"/>
       <c r="B67" s="24" t="s">
         <v>42</v>
@@ -7696,7 +7702,7 @@
       <c r="BK67" s="15"/>
       <c r="BL67" s="15"/>
     </row>
-    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="24" t="s">
         <v>96</v>
@@ -7772,7 +7778,7 @@
       <c r="BK68" s="15"/>
       <c r="BL68" s="15"/>
     </row>
-    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
       <c r="B69" s="24" t="s">
         <v>97</v>
@@ -7848,7 +7854,7 @@
       <c r="BK69" s="15"/>
       <c r="BL69" s="15"/>
     </row>
-    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18"/>
       <c r="B70" s="24" t="s">
         <v>98</v>
@@ -7924,7 +7930,7 @@
       <c r="BK70" s="15"/>
       <c r="BL70" s="15"/>
     </row>
-    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="24" t="s">
         <v>99</v>
@@ -8000,7 +8006,7 @@
       <c r="BK71" s="15"/>
       <c r="BL71" s="15"/>
     </row>
-    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="24" t="s">
         <v>100</v>
@@ -8076,7 +8082,7 @@
       <c r="BK72" s="15"/>
       <c r="BL72" s="15"/>
     </row>
-    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
       <c r="B73" s="24" t="s">
         <v>101</v>
@@ -8152,7 +8158,7 @@
       <c r="BK73" s="15"/>
       <c r="BL73" s="15"/>
     </row>
-    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
       <c r="B74" s="24" t="s">
         <v>102</v>
@@ -8231,7 +8237,7 @@
       <c r="BK74" s="15"/>
       <c r="BL74" s="15"/>
     </row>
-    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="33" t="s">
         <v>44</v>
@@ -8311,7 +8317,7 @@
       <c r="BK75" s="15"/>
       <c r="BL75" s="15"/>
     </row>
-    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18" t="s">
         <v>8</v>
       </c>
@@ -8384,7 +8390,7 @@
       <c r="BK76" s="15"/>
       <c r="BL76" s="15"/>
     </row>
-    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18"/>
       <c r="B77" s="24" t="s">
         <v>45</v>
@@ -8393,12 +8399,16 @@
       <c r="D77" s="14">
         <v>0</v>
       </c>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
+      <c r="E77" s="29">
+        <v>44663</v>
+      </c>
+      <c r="F77" s="29">
+        <v>44663</v>
+      </c>
       <c r="G77" s="13"/>
-      <c r="H77" s="13" t="str">
+      <c r="H77" s="13">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
@@ -8457,7 +8467,7 @@
       <c r="BK77" s="15"/>
       <c r="BL77" s="15"/>
     </row>
-    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18"/>
       <c r="B78" s="24" t="s">
         <v>46</v>
@@ -8468,7 +8478,9 @@
       <c r="D78" s="14">
         <v>0</v>
       </c>
-      <c r="E78" s="29"/>
+      <c r="E78" s="29">
+        <v>44669</v>
+      </c>
       <c r="F78" s="29"/>
       <c r="G78" s="13"/>
       <c r="H78" s="13" t="str">
@@ -8532,7 +8544,7 @@
       <c r="BK78" s="15"/>
       <c r="BL78" s="15"/>
     </row>
-    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18"/>
       <c r="B79" s="24" t="s">
         <v>103</v>
@@ -8602,7 +8614,7 @@
       <c r="BK79" s="15"/>
       <c r="BL79" s="15"/>
     </row>
-    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="18"/>
       <c r="B80" s="24" t="s">
         <v>104</v>
@@ -8674,7 +8686,7 @@
       <c r="BK80" s="15"/>
       <c r="BL80" s="15"/>
     </row>
-    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
       <c r="B81" s="24" t="s">
         <v>105</v>
@@ -8746,7 +8758,7 @@
       <c r="BK81" s="15"/>
       <c r="BL81" s="15"/>
     </row>
-    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18"/>
       <c r="B82" s="33" t="s">
         <v>49</v>
@@ -8827,7 +8839,7 @@
       <c r="BK82" s="15"/>
       <c r="BL82" s="15"/>
     </row>
-    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="18" t="s">
         <v>8</v>
       </c>
@@ -8900,7 +8912,7 @@
       <c r="BK83" s="15"/>
       <c r="BL83" s="15"/>
     </row>
-    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="18"/>
       <c r="B84" s="24" t="s">
         <v>48</v>
@@ -8973,7 +8985,7 @@
       <c r="BK84" s="15"/>
       <c r="BL84" s="15"/>
     </row>
-    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="18"/>
       <c r="B85" s="24" t="s">
         <v>47</v>
@@ -9048,7 +9060,7 @@
       <c r="BK85" s="15"/>
       <c r="BL85" s="15"/>
     </row>
-    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="18"/>
       <c r="B86" s="24" t="s">
         <v>106</v>
@@ -9120,7 +9132,7 @@
       <c r="BK86" s="15"/>
       <c r="BL86" s="15"/>
     </row>
-    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="18"/>
       <c r="B87" s="24"/>
       <c r="C87" s="22"/>
@@ -9189,28 +9201,17 @@
       <c r="BK87" s="15"/>
       <c r="BL87" s="15"/>
     </row>
-    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="18"/>
-      <c r="B88" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D88" s="35"/>
-      <c r="E88" s="36">
-        <f>E82+5</f>
-        <v>44695</v>
-      </c>
-      <c r="F88" s="36">
-        <f>E88</f>
-        <v>44695</v>
-      </c>
+      <c r="B88" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="38"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
       <c r="G88" s="13"/>
-      <c r="H88" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="H88" s="13"/>
       <c r="I88" s="15"/>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
@@ -9268,20 +9269,15 @@
       <c r="BK88" s="15"/>
       <c r="BL88" s="15"/>
     </row>
-    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" s="25"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
+    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="18"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H89" s="13"/>
       <c r="I89" s="15"/>
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
@@ -9339,18 +9335,379 @@
       <c r="BK89" s="15"/>
       <c r="BL89" s="15"/>
     </row>
-    <row r="90" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G90" s="6"/>
+    <row r="90" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="18"/>
+      <c r="B90" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="14">
+        <v>0</v>
+      </c>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
+      <c r="S90" s="15"/>
+      <c r="T90" s="15"/>
+      <c r="U90" s="15"/>
+      <c r="V90" s="15"/>
+      <c r="W90" s="15"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="15"/>
+      <c r="AA90" s="15"/>
+      <c r="AB90" s="15"/>
+      <c r="AC90" s="15"/>
+      <c r="AD90" s="15"/>
+      <c r="AE90" s="15"/>
+      <c r="AF90" s="15"/>
+      <c r="AG90" s="15"/>
+      <c r="AH90" s="15"/>
+      <c r="AI90" s="15"/>
+      <c r="AJ90" s="15"/>
+      <c r="AK90" s="15"/>
+      <c r="AL90" s="15"/>
+      <c r="AM90" s="15"/>
+      <c r="AN90" s="15"/>
+      <c r="AO90" s="15"/>
+      <c r="AP90" s="15"/>
+      <c r="AQ90" s="15"/>
+      <c r="AR90" s="15"/>
+      <c r="AS90" s="15"/>
+      <c r="AT90" s="15"/>
+      <c r="AU90" s="15"/>
+      <c r="AV90" s="15"/>
+      <c r="AW90" s="15"/>
+      <c r="AX90" s="15"/>
+      <c r="AY90" s="15"/>
+      <c r="AZ90" s="15"/>
+      <c r="BA90" s="15"/>
+      <c r="BB90" s="15"/>
+      <c r="BC90" s="15"/>
+      <c r="BD90" s="15"/>
+      <c r="BE90" s="15"/>
+      <c r="BF90" s="15"/>
+      <c r="BG90" s="15"/>
+      <c r="BH90" s="15"/>
+      <c r="BI90" s="15"/>
+      <c r="BJ90" s="15"/>
+      <c r="BK90" s="15"/>
+      <c r="BL90" s="15"/>
     </row>
-    <row r="91" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="10"/>
-      <c r="F91" s="20"/>
+    <row r="91" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="18"/>
+      <c r="B91" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="38"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
+      <c r="S91" s="15"/>
+      <c r="T91" s="15"/>
+      <c r="U91" s="15"/>
+      <c r="V91" s="15"/>
+      <c r="W91" s="15"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="15"/>
+      <c r="AA91" s="15"/>
+      <c r="AB91" s="15"/>
+      <c r="AC91" s="15"/>
+      <c r="AD91" s="15"/>
+      <c r="AE91" s="15"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="15"/>
+      <c r="AH91" s="15"/>
+      <c r="AI91" s="15"/>
+      <c r="AJ91" s="15"/>
+      <c r="AK91" s="15"/>
+      <c r="AL91" s="15"/>
+      <c r="AM91" s="15"/>
+      <c r="AN91" s="15"/>
+      <c r="AO91" s="15"/>
+      <c r="AP91" s="15"/>
+      <c r="AQ91" s="15"/>
+      <c r="AR91" s="15"/>
+      <c r="AS91" s="15"/>
+      <c r="AT91" s="15"/>
+      <c r="AU91" s="15"/>
+      <c r="AV91" s="15"/>
+      <c r="AW91" s="15"/>
+      <c r="AX91" s="15"/>
+      <c r="AY91" s="15"/>
+      <c r="AZ91" s="15"/>
+      <c r="BA91" s="15"/>
+      <c r="BB91" s="15"/>
+      <c r="BC91" s="15"/>
+      <c r="BD91" s="15"/>
+      <c r="BE91" s="15"/>
+      <c r="BF91" s="15"/>
+      <c r="BG91" s="15"/>
+      <c r="BH91" s="15"/>
+      <c r="BI91" s="15"/>
+      <c r="BJ91" s="15"/>
+      <c r="BK91" s="15"/>
+      <c r="BL91" s="15"/>
     </row>
-    <row r="92" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="11"/>
+    <row r="92" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="18"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
+      <c r="S92" s="15"/>
+      <c r="T92" s="15"/>
+      <c r="U92" s="15"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="15"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="15"/>
+      <c r="AA92" s="15"/>
+      <c r="AB92" s="15"/>
+      <c r="AC92" s="15"/>
+      <c r="AD92" s="15"/>
+      <c r="AE92" s="15"/>
+      <c r="AF92" s="15"/>
+      <c r="AG92" s="15"/>
+      <c r="AH92" s="15"/>
+      <c r="AI92" s="15"/>
+      <c r="AJ92" s="15"/>
+      <c r="AK92" s="15"/>
+      <c r="AL92" s="15"/>
+      <c r="AM92" s="15"/>
+      <c r="AN92" s="15"/>
+      <c r="AO92" s="15"/>
+      <c r="AP92" s="15"/>
+      <c r="AQ92" s="15"/>
+      <c r="AR92" s="15"/>
+      <c r="AS92" s="15"/>
+      <c r="AT92" s="15"/>
+      <c r="AU92" s="15"/>
+      <c r="AV92" s="15"/>
+      <c r="AW92" s="15"/>
+      <c r="AX92" s="15"/>
+      <c r="AY92" s="15"/>
+      <c r="AZ92" s="15"/>
+      <c r="BA92" s="15"/>
+      <c r="BB92" s="15"/>
+      <c r="BC92" s="15"/>
+      <c r="BD92" s="15"/>
+      <c r="BE92" s="15"/>
+      <c r="BF92" s="15"/>
+      <c r="BG92" s="15"/>
+      <c r="BH92" s="15"/>
+      <c r="BI92" s="15"/>
+      <c r="BJ92" s="15"/>
+      <c r="BK92" s="15"/>
+      <c r="BL92" s="15"/>
+    </row>
+    <row r="93" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="18"/>
+      <c r="B93" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="35"/>
+      <c r="E93" s="36">
+        <f>E82+5</f>
+        <v>44695</v>
+      </c>
+      <c r="F93" s="36">
+        <f>E93</f>
+        <v>44695</v>
+      </c>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
+      <c r="S93" s="15"/>
+      <c r="T93" s="15"/>
+      <c r="U93" s="15"/>
+      <c r="V93" s="15"/>
+      <c r="W93" s="15"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="15"/>
+      <c r="AA93" s="15"/>
+      <c r="AB93" s="15"/>
+      <c r="AC93" s="15"/>
+      <c r="AD93" s="15"/>
+      <c r="AE93" s="15"/>
+      <c r="AF93" s="15"/>
+      <c r="AG93" s="15"/>
+      <c r="AH93" s="15"/>
+      <c r="AI93" s="15"/>
+      <c r="AJ93" s="15"/>
+      <c r="AK93" s="15"/>
+      <c r="AL93" s="15"/>
+      <c r="AM93" s="15"/>
+      <c r="AN93" s="15"/>
+      <c r="AO93" s="15"/>
+      <c r="AP93" s="15"/>
+      <c r="AQ93" s="15"/>
+      <c r="AR93" s="15"/>
+      <c r="AS93" s="15"/>
+      <c r="AT93" s="15"/>
+      <c r="AU93" s="15"/>
+      <c r="AV93" s="15"/>
+      <c r="AW93" s="15"/>
+      <c r="AX93" s="15"/>
+      <c r="AY93" s="15"/>
+      <c r="AZ93" s="15"/>
+      <c r="BA93" s="15"/>
+      <c r="BB93" s="15"/>
+      <c r="BC93" s="15"/>
+      <c r="BD93" s="15"/>
+      <c r="BE93" s="15"/>
+      <c r="BF93" s="15"/>
+      <c r="BG93" s="15"/>
+      <c r="BH93" s="15"/>
+      <c r="BI93" s="15"/>
+      <c r="BJ93" s="15"/>
+      <c r="BK93" s="15"/>
+      <c r="BL93" s="15"/>
+    </row>
+    <row r="94" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="25"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="15"/>
+      <c r="S94" s="15"/>
+      <c r="T94" s="15"/>
+      <c r="U94" s="15"/>
+      <c r="V94" s="15"/>
+      <c r="W94" s="15"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="15"/>
+      <c r="AA94" s="15"/>
+      <c r="AB94" s="15"/>
+      <c r="AC94" s="15"/>
+      <c r="AD94" s="15"/>
+      <c r="AE94" s="15"/>
+      <c r="AF94" s="15"/>
+      <c r="AG94" s="15"/>
+      <c r="AH94" s="15"/>
+      <c r="AI94" s="15"/>
+      <c r="AJ94" s="15"/>
+      <c r="AK94" s="15"/>
+      <c r="AL94" s="15"/>
+      <c r="AM94" s="15"/>
+      <c r="AN94" s="15"/>
+      <c r="AO94" s="15"/>
+      <c r="AP94" s="15"/>
+      <c r="AQ94" s="15"/>
+      <c r="AR94" s="15"/>
+      <c r="AS94" s="15"/>
+      <c r="AT94" s="15"/>
+      <c r="AU94" s="15"/>
+      <c r="AV94" s="15"/>
+      <c r="AW94" s="15"/>
+      <c r="AX94" s="15"/>
+      <c r="AY94" s="15"/>
+      <c r="AZ94" s="15"/>
+      <c r="BA94" s="15"/>
+      <c r="BB94" s="15"/>
+      <c r="BC94" s="15"/>
+      <c r="BD94" s="15"/>
+      <c r="BE94" s="15"/>
+      <c r="BF94" s="15"/>
+      <c r="BG94" s="15"/>
+      <c r="BH94" s="15"/>
+      <c r="BI94" s="15"/>
+      <c r="BJ94" s="15"/>
+      <c r="BK94" s="15"/>
+      <c r="BL94" s="15"/>
+    </row>
+    <row r="95" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G95" s="6"/>
+    </row>
+    <row r="96" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="10"/>
+      <c r="F96" s="20"/>
+    </row>
+    <row r="97" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -9359,14 +9716,9 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D16:D17 D89 D24:D27 D19:D22 D50:D56 D67:D74">
-    <cfRule type="dataBar" priority="121">
+  <conditionalFormatting sqref="D16:D17 D94 D24:D27 D19:D22 D50:D56 D67:D74">
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9379,21 +9731,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I89:BL89 I34:BL36 I6:BL27 I29:BL31 I66:BL74 I49:BL56">
-    <cfRule type="expression" dxfId="50" priority="124">
+  <conditionalFormatting sqref="I94:BL94 I34:BL36 I6:BL27 I29:BL31 I66:BL74 I49:BL56">
+    <cfRule type="expression" dxfId="50" priority="130">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I89:BL89 I34:BL36 I8:BL27 I29:BL31 I66:BL74 I49:BL56">
-    <cfRule type="expression" dxfId="49" priority="122">
+  <conditionalFormatting sqref="I94:BL94 I34:BL36 I8:BL27 I29:BL31 I66:BL74 I49:BL56">
+    <cfRule type="expression" dxfId="49" priority="128">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="129" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D35 D30:D31">
-    <cfRule type="dataBar" priority="120">
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9407,7 +9759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="dataBar" priority="116">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9421,20 +9773,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL45 I47:BL47">
-    <cfRule type="expression" dxfId="47" priority="119">
+    <cfRule type="expression" dxfId="47" priority="125">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL45 I47:BL47">
-    <cfRule type="expression" dxfId="46" priority="117">
+    <cfRule type="expression" dxfId="46" priority="123">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="124" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="dataBar" priority="115">
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9448,33 +9800,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="44" priority="113">
+    <cfRule type="expression" dxfId="44" priority="119">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="43" priority="111">
+    <cfRule type="expression" dxfId="43" priority="117">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="118" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="41" priority="104">
+    <cfRule type="expression" dxfId="41" priority="110">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="40" priority="102">
+    <cfRule type="expression" dxfId="40" priority="108">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="109" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="dataBar" priority="98">
+    <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9488,20 +9840,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL65">
-    <cfRule type="expression" dxfId="38" priority="101">
+    <cfRule type="expression" dxfId="38" priority="107">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL65">
-    <cfRule type="expression" dxfId="37" priority="99">
+    <cfRule type="expression" dxfId="37" priority="105">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="106" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:D63">
-    <cfRule type="dataBar" priority="97">
+    <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9515,7 +9867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="dataBar" priority="87">
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9529,7 +9881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="dataBar" priority="86">
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9543,33 +9895,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76:BL81">
-    <cfRule type="expression" dxfId="35" priority="83">
+    <cfRule type="expression" dxfId="35" priority="89">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76:BL81">
-    <cfRule type="expression" dxfId="34" priority="81">
+    <cfRule type="expression" dxfId="34" priority="87">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="88" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75:BL75">
-    <cfRule type="expression" dxfId="32" priority="79">
+    <cfRule type="expression" dxfId="32" priority="85">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75:BL75">
-    <cfRule type="expression" dxfId="31" priority="77">
+    <cfRule type="expression" dxfId="31" priority="83">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="84" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D81">
-    <cfRule type="dataBar" priority="75">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9582,8 +9934,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="dataBar" priority="70">
+  <conditionalFormatting sqref="D89 D87 D92">
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9596,34 +9948,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83:BL87">
-    <cfRule type="expression" dxfId="29" priority="73">
+  <conditionalFormatting sqref="I83:BL92">
+    <cfRule type="expression" dxfId="29" priority="79">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83:BL87">
-    <cfRule type="expression" dxfId="28" priority="71">
+  <conditionalFormatting sqref="I83:BL92">
+    <cfRule type="expression" dxfId="28" priority="77">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="78" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82:BL82">
-    <cfRule type="expression" dxfId="26" priority="69">
+    <cfRule type="expression" dxfId="26" priority="75">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82:BL82">
-    <cfRule type="expression" dxfId="25" priority="67">
+    <cfRule type="expression" dxfId="25" priority="73">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="74" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84:D86">
-    <cfRule type="dataBar" priority="65">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9636,34 +9988,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I88:BL88">
-    <cfRule type="expression" dxfId="23" priority="63">
+  <conditionalFormatting sqref="I93:BL93">
+    <cfRule type="expression" dxfId="23" priority="69">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I88:BL88">
-    <cfRule type="expression" dxfId="22" priority="61">
+  <conditionalFormatting sqref="I93:BL93">
+    <cfRule type="expression" dxfId="22" priority="67">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="68" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="20" priority="59">
+    <cfRule type="expression" dxfId="20" priority="65">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="19" priority="57">
+    <cfRule type="expression" dxfId="19" priority="63">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="64" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="dataBar" priority="56">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9677,20 +10029,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="17" priority="55">
+    <cfRule type="expression" dxfId="17" priority="61">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="16" priority="53">
+    <cfRule type="expression" dxfId="16" priority="59">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="60" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="dataBar" priority="52">
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9704,20 +10056,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL38 I42:BL42">
-    <cfRule type="expression" dxfId="14" priority="51">
+    <cfRule type="expression" dxfId="14" priority="57">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL38 I42:BL42">
-    <cfRule type="expression" dxfId="13" priority="49">
+    <cfRule type="expression" dxfId="13" priority="55">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="56" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="dataBar" priority="48">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9731,20 +10083,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="11" priority="47">
+    <cfRule type="expression" dxfId="11" priority="53">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="10" priority="45">
+    <cfRule type="expression" dxfId="10" priority="51">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="52" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="dataBar" priority="44">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9758,20 +10110,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL41">
-    <cfRule type="expression" dxfId="8" priority="43">
+    <cfRule type="expression" dxfId="8" priority="49">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL41">
-    <cfRule type="expression" dxfId="7" priority="41">
+    <cfRule type="expression" dxfId="7" priority="47">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="48" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D41">
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9785,7 +10137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9799,20 +10151,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="5" priority="39">
+    <cfRule type="expression" dxfId="5" priority="45">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="4" priority="37">
+    <cfRule type="expression" dxfId="4" priority="43">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="44" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9826,7 +10178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9840,7 +10192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9854,7 +10206,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9868,7 +10220,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9882,7 +10234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9896,7 +10248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9910,7 +10262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9924,7 +10276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9938,7 +10290,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9952,7 +10304,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9965,8 +10317,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="D93">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9980,7 +10332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9994,7 +10346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10008,7 +10360,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10022,7 +10374,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10036,7 +10388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10050,7 +10402,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10064,7 +10416,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10078,7 +10430,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10092,19 +10444,61 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8A618AE5-6A10-402E-8877-7F8471EF9C36}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E2B4ABA-02E8-4FF3-89D1-329856E1BE71}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D91">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{26001960-37B1-42FE-9E96-FEAA0B2DA74C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10113,7 +10507,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8A618AE5-6A10-402E-8877-7F8471EF9C36}</x14:id>
+          <x14:id>{0A6167C4-A7EE-409C-874E-2192EE4396C1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10145,7 +10539,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D16:D17 D89 D24:D27 D19:D22 D50:D56 D67:D74</xm:sqref>
+          <xm:sqref>D16:D17 D94 D24:D27 D19:D22 D50:D56 D67:D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61BAFCB1-C9D1-4453-9835-894AAFFB2D48}">
@@ -10280,7 +10674,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D87</xm:sqref>
+          <xm:sqref>D89 D87 D92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F3BCBE8B-1131-4EC4-93C6-93A3D2241A3A}">
@@ -10565,7 +10959,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D88</xm:sqref>
+          <xm:sqref>D93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC19E591-9826-41D2-8753-21A5AEC1982F}">
@@ -10702,6 +11096,51 @@
           </x14:cfRule>
           <xm:sqref>D28</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E2B4ABA-02E8-4FF3-89D1-329856E1BE71}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{26001960-37B1-42FE-9E96-FEAA0B2DA74C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D91</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0A6167C4-A7EE-409C-874E-2192EE4396C1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D90</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447E7576-DBA6-4970-94F3-7BFAB71DE725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956555C4-81D3-49DF-BD66-C3DC9EEDAA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1248" yWindow="1152" windowWidth="17280" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="117">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>Réunion A5</t>
-  </si>
-  <si>
-    <t>Reddition à 12h00</t>
   </si>
   <si>
     <t>PV réunion A2.1</t>
@@ -399,18 +396,9 @@
     <t>Améliorer performance API</t>
   </si>
   <si>
-    <t>Créer le backEnd partie WavMap</t>
-  </si>
-  <si>
     <t>Lier la base de données à WavMap</t>
   </si>
   <si>
-    <t>Jeux de tests sécurité et performance</t>
-  </si>
-  <si>
-    <t>Créer le frontEnd partie WavMap</t>
-  </si>
-  <si>
     <t>Connecter la base de données WavCom</t>
   </si>
   <si>
@@ -423,19 +411,49 @@
     <t>Vérifier toutes les fonctionnalités WavCom</t>
   </si>
   <si>
-    <t>Liaison calendrier disponibiltés Waview avec leur calendrier personnel</t>
-  </si>
-  <si>
     <t>Création liste des risques</t>
   </si>
   <si>
     <t xml:space="preserve">Document étude d'opportunité </t>
   </si>
   <si>
-    <t>Sprint 10</t>
-  </si>
-  <si>
-    <t>Sprint 11</t>
+    <t>Créer le back-end partie WavMap</t>
+  </si>
+  <si>
+    <t>Créer le front-end partie WavMap</t>
+  </si>
+  <si>
+    <t>Continuation code back-end pour WavMap</t>
+  </si>
+  <si>
+    <t>Continuation code front-end pour WavMap</t>
+  </si>
+  <si>
+    <t>Suite de la création des jeux de tests pour WavCom</t>
+  </si>
+  <si>
+    <t>Jeux de tests unitaires et performance pour WavCom</t>
+  </si>
+  <si>
+    <t>Finalisation de la création des jeux de tests pour WavMap</t>
+  </si>
+  <si>
+    <t>Finalisation jeux de tests unitaires et performance pour WavMap</t>
+  </si>
+  <si>
+    <t>Finalisation des documents manuel d'utilisation</t>
+  </si>
+  <si>
+    <t>Finalisation des documents jeux de test pour WavCom et WavMap</t>
+  </si>
+  <si>
+    <t>Liaison calendrier disponibiltés Waview avec leur calendrier personnel (bonus)</t>
+  </si>
+  <si>
+    <t>Peaufinage du projet et correction de bug</t>
+  </si>
+  <si>
+    <t>Reddition du projet à 12h00</t>
   </si>
 </sst>
 </file>
@@ -452,7 +470,7 @@
     <numFmt numFmtId="170" formatCode="d"/>
     <numFmt numFmtId="171" formatCode="d\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +680,29 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1153,7 +1194,7 @@
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1267,6 +1308,7 @@
     <xf numFmtId="168" fontId="24" fillId="37" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1288,7 +1330,28 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1346,67 +1409,7 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill>
@@ -1953,15 +1956,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="59"/>
-      <tableStyleElement type="headerRow" dxfId="58"/>
-      <tableStyleElement type="totalRow" dxfId="57"/>
-      <tableStyleElement type="firstColumn" dxfId="56"/>
-      <tableStyleElement type="lastColumn" dxfId="55"/>
-      <tableStyleElement type="firstRowStripe" dxfId="54"/>
-      <tableStyleElement type="secondRowStripe" dxfId="53"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="52"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="51"/>
+      <tableStyleElement type="wholeTable" dxfId="53"/>
+      <tableStyleElement type="headerRow" dxfId="52"/>
+      <tableStyleElement type="totalRow" dxfId="51"/>
+      <tableStyleElement type="firstColumn" dxfId="50"/>
+      <tableStyleElement type="lastColumn" dxfId="49"/>
+      <tableStyleElement type="firstRowStripe" dxfId="48"/>
+      <tableStyleElement type="secondRowStripe" dxfId="47"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="46"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="45"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2320,27 +2323,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL97"/>
+  <dimension ref="A1:BL99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <pane ySplit="7" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.26953125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="69.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="2.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2354,9 +2357,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="19"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1"/>
@@ -2366,9 +2369,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="19"/>
-      <c r="B3" s="44"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2376,348 +2379,348 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47">
+      <c r="D4" s="47"/>
+      <c r="E4" s="48">
         <v>44459</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="48"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="31">
-        <v>23</v>
-      </c>
-      <c r="I5" s="41">
+        <v>33</v>
+      </c>
+      <c r="I5" s="42">
         <f>I6</f>
-        <v>44613</v>
-      </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="41">
+        <v>44683</v>
+      </c>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="42">
         <f>P6</f>
-        <v>44620</v>
-      </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="41">
+        <v>44690</v>
+      </c>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="42">
         <f>W6</f>
-        <v>44627</v>
-      </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="41">
+        <v>44697</v>
+      </c>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="42">
         <f>AD6</f>
-        <v>44634</v>
-      </c>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="41">
+        <v>44704</v>
+      </c>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="42">
         <f>AK6</f>
-        <v>44641</v>
-      </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="41">
+        <v>44711</v>
+      </c>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="42">
         <f>AR6</f>
-        <v>44648</v>
-      </c>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="41">
+        <v>44718</v>
+      </c>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="42">
         <f>AY6</f>
-        <v>44655</v>
-      </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="41">
+        <v>44725</v>
+      </c>
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="42">
         <f>BF6</f>
-        <v>44662</v>
-      </c>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="43"/>
+        <v>44732</v>
+      </c>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="43"/>
+      <c r="BK5" s="43"/>
+      <c r="BL5" s="44"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
-        <v>44613</v>
+        <v>44683</v>
       </c>
       <c r="J6" s="27">
         <f>I6+1</f>
-        <v>44614</v>
+        <v>44684</v>
       </c>
       <c r="K6" s="27">
         <f t="shared" ref="K6:AX6" si="0">J6+1</f>
-        <v>44615</v>
+        <v>44685</v>
       </c>
       <c r="L6" s="27">
         <f t="shared" si="0"/>
-        <v>44616</v>
+        <v>44686</v>
       </c>
       <c r="M6" s="27">
         <f t="shared" si="0"/>
-        <v>44617</v>
+        <v>44687</v>
       </c>
       <c r="N6" s="27">
         <f t="shared" si="0"/>
-        <v>44618</v>
+        <v>44688</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" si="0"/>
-        <v>44619</v>
+        <v>44689</v>
       </c>
       <c r="P6" s="26">
         <f>O6+1</f>
-        <v>44620</v>
+        <v>44690</v>
       </c>
       <c r="Q6" s="27">
         <f>P6+1</f>
-        <v>44621</v>
+        <v>44691</v>
       </c>
       <c r="R6" s="27">
         <f t="shared" si="0"/>
-        <v>44622</v>
+        <v>44692</v>
       </c>
       <c r="S6" s="27">
         <f t="shared" si="0"/>
-        <v>44623</v>
+        <v>44693</v>
       </c>
       <c r="T6" s="27">
         <f t="shared" si="0"/>
-        <v>44624</v>
+        <v>44694</v>
       </c>
       <c r="U6" s="27">
         <f t="shared" si="0"/>
-        <v>44625</v>
+        <v>44695</v>
       </c>
       <c r="V6" s="28">
         <f t="shared" si="0"/>
-        <v>44626</v>
+        <v>44696</v>
       </c>
       <c r="W6" s="26">
         <f>V6+1</f>
-        <v>44627</v>
+        <v>44697</v>
       </c>
       <c r="X6" s="27">
         <f>W6+1</f>
-        <v>44628</v>
+        <v>44698</v>
       </c>
       <c r="Y6" s="27">
         <f t="shared" si="0"/>
-        <v>44629</v>
+        <v>44699</v>
       </c>
       <c r="Z6" s="27">
         <f t="shared" si="0"/>
-        <v>44630</v>
+        <v>44700</v>
       </c>
       <c r="AA6" s="27">
         <f t="shared" si="0"/>
-        <v>44631</v>
+        <v>44701</v>
       </c>
       <c r="AB6" s="27">
         <f t="shared" si="0"/>
-        <v>44632</v>
+        <v>44702</v>
       </c>
       <c r="AC6" s="28">
         <f t="shared" si="0"/>
-        <v>44633</v>
+        <v>44703</v>
       </c>
       <c r="AD6" s="26">
         <f>AC6+1</f>
-        <v>44634</v>
+        <v>44704</v>
       </c>
       <c r="AE6" s="27">
         <f>AD6+1</f>
-        <v>44635</v>
+        <v>44705</v>
       </c>
       <c r="AF6" s="27">
         <f t="shared" si="0"/>
-        <v>44636</v>
+        <v>44706</v>
       </c>
       <c r="AG6" s="27">
         <f t="shared" si="0"/>
-        <v>44637</v>
+        <v>44707</v>
       </c>
       <c r="AH6" s="27">
         <f t="shared" si="0"/>
-        <v>44638</v>
+        <v>44708</v>
       </c>
       <c r="AI6" s="27">
         <f t="shared" si="0"/>
-        <v>44639</v>
+        <v>44709</v>
       </c>
       <c r="AJ6" s="28">
         <f t="shared" si="0"/>
-        <v>44640</v>
+        <v>44710</v>
       </c>
       <c r="AK6" s="26">
         <f>AJ6+1</f>
-        <v>44641</v>
+        <v>44711</v>
       </c>
       <c r="AL6" s="27">
         <f>AK6+1</f>
-        <v>44642</v>
+        <v>44712</v>
       </c>
       <c r="AM6" s="27">
         <f t="shared" si="0"/>
-        <v>44643</v>
+        <v>44713</v>
       </c>
       <c r="AN6" s="27">
         <f t="shared" si="0"/>
-        <v>44644</v>
+        <v>44714</v>
       </c>
       <c r="AO6" s="27">
         <f t="shared" si="0"/>
-        <v>44645</v>
+        <v>44715</v>
       </c>
       <c r="AP6" s="27">
         <f t="shared" si="0"/>
-        <v>44646</v>
+        <v>44716</v>
       </c>
       <c r="AQ6" s="28">
         <f t="shared" si="0"/>
-        <v>44647</v>
+        <v>44717</v>
       </c>
       <c r="AR6" s="26">
         <f>AQ6+1</f>
-        <v>44648</v>
+        <v>44718</v>
       </c>
       <c r="AS6" s="27">
         <f>AR6+1</f>
-        <v>44649</v>
+        <v>44719</v>
       </c>
       <c r="AT6" s="27">
         <f t="shared" si="0"/>
-        <v>44650</v>
+        <v>44720</v>
       </c>
       <c r="AU6" s="27">
         <f t="shared" si="0"/>
-        <v>44651</v>
+        <v>44721</v>
       </c>
       <c r="AV6" s="27">
         <f t="shared" si="0"/>
-        <v>44652</v>
+        <v>44722</v>
       </c>
       <c r="AW6" s="27">
         <f t="shared" si="0"/>
-        <v>44653</v>
+        <v>44723</v>
       </c>
       <c r="AX6" s="28">
         <f t="shared" si="0"/>
-        <v>44654</v>
+        <v>44724</v>
       </c>
       <c r="AY6" s="26">
         <f>AX6+1</f>
-        <v>44655</v>
+        <v>44725</v>
       </c>
       <c r="AZ6" s="27">
         <f>AY6+1</f>
-        <v>44656</v>
+        <v>44726</v>
       </c>
       <c r="BA6" s="27">
         <f t="shared" ref="BA6:BE6" si="1">AZ6+1</f>
-        <v>44657</v>
+        <v>44727</v>
       </c>
       <c r="BB6" s="27">
         <f t="shared" si="1"/>
-        <v>44658</v>
+        <v>44728</v>
       </c>
       <c r="BC6" s="27">
         <f t="shared" si="1"/>
-        <v>44659</v>
+        <v>44729</v>
       </c>
       <c r="BD6" s="27">
         <f t="shared" si="1"/>
-        <v>44660</v>
+        <v>44730</v>
       </c>
       <c r="BE6" s="28">
         <f t="shared" si="1"/>
-        <v>44661</v>
+        <v>44731</v>
       </c>
       <c r="BF6" s="26">
         <f>BE6+1</f>
-        <v>44662</v>
+        <v>44732</v>
       </c>
       <c r="BG6" s="27">
         <f>BF6+1</f>
-        <v>44663</v>
+        <v>44733</v>
       </c>
       <c r="BH6" s="27">
         <f t="shared" ref="BH6:BL6" si="2">BG6+1</f>
-        <v>44664</v>
+        <v>44734</v>
       </c>
       <c r="BI6" s="27">
         <f t="shared" si="2"/>
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="BJ6" s="27">
         <f t="shared" si="2"/>
-        <v>44666</v>
+        <v>44736</v>
       </c>
       <c r="BK6" s="27">
         <f t="shared" si="2"/>
-        <v>44667</v>
+        <v>44737</v>
       </c>
       <c r="BL6" s="28">
         <f t="shared" si="2"/>
-        <v>44668</v>
+        <v>44738</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
@@ -2965,12 +2968,12 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="39"/>
@@ -2978,7 +2981,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H94" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H96" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="15"/>
@@ -3038,7 +3041,7 @@
       <c r="BK8" s="15"/>
       <c r="BL8" s="15"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -3120,7 +3123,7 @@
       <c r="BK9" s="15"/>
       <c r="BL9" s="15"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
@@ -3203,7 +3206,7 @@
       <c r="BK10" s="15"/>
       <c r="BL10" s="15"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18"/>
       <c r="B11" s="24" t="s">
         <v>21</v>
@@ -3284,10 +3287,10 @@
       <c r="BK11" s="15"/>
       <c r="BL11" s="15"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
       <c r="B12" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>26</v>
@@ -3365,13 +3368,13 @@
       <c r="BK12" s="15"/>
       <c r="BL12" s="15"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19"/>
       <c r="B13" s="24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
@@ -3441,7 +3444,7 @@
       <c r="BK13" s="15"/>
       <c r="BL13" s="15"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="18"/>
       <c r="B14" s="24" t="s">
         <v>22</v>
@@ -3522,10 +3525,10 @@
       <c r="BK14" s="15"/>
       <c r="BL14" s="15"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18"/>
       <c r="B15" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>26</v>
@@ -3603,7 +3606,7 @@
       <c r="BK15" s="15"/>
       <c r="BL15" s="15"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18"/>
       <c r="B16" s="24" t="s">
         <v>23</v>
@@ -3684,10 +3687,10 @@
       <c r="BK16" s="15"/>
       <c r="BL16" s="15"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18"/>
       <c r="B17" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>26</v>
@@ -3765,12 +3768,12 @@
       <c r="BK17" s="15"/>
       <c r="BL17" s="15"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="39"/>
@@ -3838,10 +3841,10 @@
       <c r="BK18" s="15"/>
       <c r="BL18" s="15"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18"/>
       <c r="B19" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>26</v>
@@ -3919,10 +3922,10 @@
       <c r="BK19" s="15"/>
       <c r="BL19" s="15"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18"/>
       <c r="B20" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>26</v>
@@ -3997,16 +4000,16 @@
       <c r="BK20" s="15"/>
       <c r="BL20" s="15"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18"/>
       <c r="B21" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="29">
         <f>F17+1</f>
@@ -4078,16 +4081,16 @@
       <c r="BK21" s="15"/>
       <c r="BL21" s="15"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18"/>
       <c r="B22" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="29">
         <f>F17+1</f>
@@ -4159,7 +4162,7 @@
       <c r="BK22" s="15"/>
       <c r="BL22" s="15"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18"/>
       <c r="B23" s="33" t="s">
         <v>24</v>
@@ -4240,7 +4243,7 @@
       <c r="BK23" s="15"/>
       <c r="BL23" s="15"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="18"/>
       <c r="B24" s="24" t="s">
         <v>25</v>
@@ -4321,7 +4324,7 @@
       <c r="BK24" s="15"/>
       <c r="BL24" s="15"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18"/>
       <c r="B25" s="24" t="s">
         <v>33</v>
@@ -4402,10 +4405,10 @@
       <c r="BK25" s="15"/>
       <c r="BL25" s="15"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="18"/>
       <c r="B26" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>30</v>
@@ -4483,16 +4486,16 @@
       <c r="BK26" s="15"/>
       <c r="BL26" s="15"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18"/>
       <c r="B27" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E27" s="29">
         <f>E24+1</f>
@@ -4564,7 +4567,7 @@
       <c r="BK27" s="15"/>
       <c r="BL27" s="15"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="18"/>
       <c r="B28" s="33" t="s">
         <v>34</v>
@@ -4642,12 +4645,12 @@
       <c r="BK28" s="15"/>
       <c r="BL28" s="15"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="39"/>
@@ -4715,13 +4718,13 @@
       <c r="BK29" s="15"/>
       <c r="BL29" s="15"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="14">
         <v>1</v>
@@ -4796,7 +4799,7 @@
       <c r="BK30" s="15"/>
       <c r="BL30" s="15"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="18"/>
       <c r="B31" s="24" t="s">
         <v>36</v>
@@ -4877,10 +4880,10 @@
       <c r="BK31" s="15"/>
       <c r="BL31" s="15"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="18"/>
       <c r="B32" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>31</v>
@@ -4958,10 +4961,10 @@
       <c r="BK32" s="15"/>
       <c r="BL32" s="15"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="18"/>
       <c r="B33" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>28</v>
@@ -5039,10 +5042,10 @@
       <c r="BK33" s="15"/>
       <c r="BL33" s="15"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="18"/>
       <c r="B34" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>30</v>
@@ -5120,16 +5123,16 @@
       <c r="BK34" s="15"/>
       <c r="BL34" s="15"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="18"/>
       <c r="B35" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="14">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E35" s="29">
         <f>F32+1</f>
@@ -5198,7 +5201,7 @@
       <c r="BK35" s="15"/>
       <c r="BL35" s="15"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="18"/>
       <c r="B36" s="33" t="s">
         <v>43</v>
@@ -5279,12 +5282,12 @@
       <c r="BK36" s="15"/>
       <c r="BL36" s="15"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
@@ -5352,13 +5355,13 @@
       <c r="BK37" s="15"/>
       <c r="BL37" s="15"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="14">
         <v>1</v>
@@ -5433,10 +5436,10 @@
       <c r="BK38" s="15"/>
       <c r="BL38" s="15"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18"/>
       <c r="B39" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>30</v>
@@ -5514,10 +5517,10 @@
       <c r="BK39" s="15"/>
       <c r="BL39" s="15"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="18"/>
       <c r="B40" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>31</v>
@@ -5595,13 +5598,13 @@
       <c r="BK40" s="15"/>
       <c r="BL40" s="15"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="18"/>
       <c r="B41" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="14">
         <v>1</v>
@@ -5673,10 +5676,10 @@
       <c r="BK41" s="15"/>
       <c r="BL41" s="15"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="18"/>
       <c r="B42" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="34" t="s">
         <v>26</v>
@@ -5754,12 +5757,12 @@
       <c r="BK42" s="15"/>
       <c r="BL42" s="15"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="39"/>
@@ -5827,10 +5830,10 @@
       <c r="BK43" s="15"/>
       <c r="BL43" s="15"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18"/>
       <c r="B44" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>28</v>
@@ -5908,10 +5911,10 @@
       <c r="BK44" s="15"/>
       <c r="BL44" s="15"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="18"/>
       <c r="B45" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>26</v>
@@ -5989,10 +5992,10 @@
       <c r="BK45" s="15"/>
       <c r="BL45" s="15"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="18"/>
       <c r="B46" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>30</v>
@@ -6070,16 +6073,16 @@
       <c r="BK46" s="15"/>
       <c r="BL46" s="15"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="18"/>
       <c r="B47" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E47" s="29">
         <f>F44+1</f>
@@ -6151,7 +6154,7 @@
       <c r="BK47" s="15"/>
       <c r="BL47" s="15"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="18"/>
       <c r="B48" s="33" t="s">
         <v>37</v>
@@ -6232,12 +6235,12 @@
       <c r="BK48" s="15"/>
       <c r="BL48" s="15"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
@@ -6305,7 +6308,7 @@
       <c r="BK49" s="15"/>
       <c r="BL49" s="15"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="18"/>
       <c r="B50" s="24" t="s">
         <v>38</v>
@@ -6384,7 +6387,7 @@
       <c r="BK50" s="15"/>
       <c r="BL50" s="15"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="18"/>
       <c r="B51" s="24" t="s">
         <v>39</v>
@@ -6465,10 +6468,10 @@
       <c r="BK51" s="15"/>
       <c r="BL51" s="15"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="18"/>
       <c r="B52" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>27</v>
@@ -6543,10 +6546,10 @@
       <c r="BK52" s="15"/>
       <c r="BL52" s="15"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="18"/>
       <c r="B53" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>31</v>
@@ -6621,10 +6624,10 @@
       <c r="BK53" s="15"/>
       <c r="BL53" s="15"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="18"/>
       <c r="B54" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>31</v>
@@ -6699,13 +6702,13 @@
       <c r="BK54" s="15"/>
       <c r="BL54" s="15"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="18"/>
       <c r="B55" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D55" s="14">
         <v>1</v>
@@ -6777,13 +6780,13 @@
       <c r="BK55" s="15"/>
       <c r="BL55" s="15"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="18"/>
       <c r="B56" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" s="14">
         <v>1</v>
@@ -6855,7 +6858,7 @@
       <c r="BK56" s="15"/>
       <c r="BL56" s="15"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="18"/>
       <c r="B57" s="33" t="s">
         <v>40</v>
@@ -6936,12 +6939,12 @@
       <c r="BK57" s="15"/>
       <c r="BL57" s="15"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="39"/>
@@ -7009,13 +7012,13 @@
       <c r="BK58" s="15"/>
       <c r="BL58" s="15"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18"/>
       <c r="B59" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59" s="14">
         <v>1</v>
@@ -7088,7 +7091,7 @@
       <c r="BK59" s="15"/>
       <c r="BL59" s="15"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="18"/>
       <c r="B60" s="24" t="s">
         <v>42</v>
@@ -7167,10 +7170,10 @@
       <c r="BK60" s="15"/>
       <c r="BL60" s="15"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18"/>
       <c r="B61" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>27</v>
@@ -7243,13 +7246,13 @@
       <c r="BK61" s="15"/>
       <c r="BL61" s="15"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="18"/>
       <c r="B62" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" s="14">
         <v>1</v>
@@ -7319,10 +7322,10 @@
       <c r="BK62" s="15"/>
       <c r="BL62" s="15"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="18"/>
       <c r="B63" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>27</v>
@@ -7395,13 +7398,13 @@
       <c r="BK63" s="15"/>
       <c r="BL63" s="15"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="18"/>
       <c r="B64" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D64" s="14">
         <v>0.4</v>
@@ -7474,13 +7477,13 @@
       <c r="BK64" s="15"/>
       <c r="BL64" s="15"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="18"/>
       <c r="B65" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D65" s="14">
         <v>0.1</v>
@@ -7550,12 +7553,12 @@
       <c r="BK65" s="15"/>
       <c r="BL65" s="15"/>
     </row>
-    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66" s="38"/>
       <c r="D66" s="39"/>
@@ -7623,28 +7626,25 @@
       <c r="BK66" s="15"/>
       <c r="BL66" s="15"/>
     </row>
-    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="18"/>
       <c r="B67" s="24" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D67" s="14">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E67" s="29">
-        <v>44646</v>
+        <v>44648</v>
       </c>
       <c r="F67" s="29">
-        <v>44646</v>
+        <v>44651</v>
       </c>
       <c r="G67" s="13"/>
-      <c r="H67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="H67" s="13"/>
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
       <c r="K67" s="15"/>
@@ -7702,22 +7702,22 @@
       <c r="BK67" s="15"/>
       <c r="BL67" s="15"/>
     </row>
-    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="18"/>
       <c r="B68" s="24" t="s">
         <v>96</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="D68" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="29">
-        <v>44648</v>
+        <v>44655</v>
       </c>
       <c r="F68" s="29">
-        <v>44651</v>
+        <v>44662</v>
       </c>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
@@ -7778,22 +7778,22 @@
       <c r="BK68" s="15"/>
       <c r="BL68" s="15"/>
     </row>
-    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="18"/>
       <c r="B69" s="24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D69" s="14">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E69" s="29">
         <v>44655</v>
       </c>
       <c r="F69" s="29">
-        <v>44662</v>
+        <v>44659</v>
       </c>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
@@ -7854,22 +7854,22 @@
       <c r="BK69" s="15"/>
       <c r="BL69" s="15"/>
     </row>
-    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="18"/>
       <c r="B70" s="24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D70" s="14">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E70" s="29">
-        <v>44655</v>
+        <v>44648</v>
       </c>
       <c r="F70" s="29">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
@@ -7930,16 +7930,16 @@
       <c r="BK70" s="15"/>
       <c r="BL70" s="15"/>
     </row>
-    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="18"/>
       <c r="B71" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D71" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="29">
         <v>44657</v>
@@ -8006,10 +8006,10 @@
       <c r="BK71" s="15"/>
       <c r="BL71" s="15"/>
     </row>
-    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="18"/>
       <c r="B72" s="24" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C72" s="22" t="s">
         <v>31</v>
@@ -8082,25 +8082,28 @@
       <c r="BK72" s="15"/>
       <c r="BL72" s="15"/>
     </row>
-    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18"/>
       <c r="B73" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D73" s="14">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E73" s="29">
-        <v>44648</v>
+        <v>44662</v>
       </c>
       <c r="F73" s="29">
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
+      <c r="H73" s="13">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
@@ -8158,27 +8161,27 @@
       <c r="BK73" s="15"/>
       <c r="BL73" s="15"/>
     </row>
-    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="18"/>
-      <c r="B74" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" s="14">
+      <c r="B74" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="35">
         <v>0</v>
       </c>
-      <c r="E74" s="29">
-        <v>44662</v>
-      </c>
-      <c r="F74" s="29">
-        <v>44666</v>
+      <c r="E74" s="36">
+        <v>44663</v>
+      </c>
+      <c r="F74" s="36">
+        <v>44663</v>
       </c>
       <c r="G74" s="13"/>
       <c r="H74" s="13">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
@@ -8237,29 +8240,23 @@
       <c r="BK74" s="15"/>
       <c r="BL74" s="15"/>
     </row>
-    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="18"/>
-      <c r="B75" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D75" s="35">
+      <c r="B75" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="14">
         <v>0</v>
       </c>
-      <c r="E75" s="36">
-        <v>44655</v>
-      </c>
-      <c r="F75" s="36">
-        <f>E75+12</f>
-        <v>44667</v>
+      <c r="E75" s="29">
+        <v>44663</v>
+      </c>
+      <c r="F75" s="29">
+        <v>44663</v>
       </c>
       <c r="G75" s="13"/>
-      <c r="H75" s="13">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
+      <c r="H75" s="13"/>
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
@@ -8317,12 +8314,12 @@
       <c r="BK75" s="15"/>
       <c r="BL75" s="15"/>
     </row>
-    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" s="38"/>
       <c r="D76" s="39"/>
@@ -8390,25 +8387,27 @@
       <c r="BK76" s="15"/>
       <c r="BL76" s="15"/>
     </row>
-    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="18"/>
       <c r="B77" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="D77" s="14">
         <v>0</v>
       </c>
       <c r="E77" s="29">
-        <v>44663</v>
+        <v>44669</v>
       </c>
       <c r="F77" s="29">
-        <v>44663</v>
+        <v>44690</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
@@ -8467,13 +8466,13 @@
       <c r="BK77" s="15"/>
       <c r="BL77" s="15"/>
     </row>
-    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="18"/>
       <c r="B78" s="24" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D78" s="14">
         <v>0</v>
@@ -8481,12 +8480,11 @@
       <c r="E78" s="29">
         <v>44669</v>
       </c>
-      <c r="F78" s="29"/>
+      <c r="F78" s="29">
+        <v>44690</v>
+      </c>
       <c r="G78" s="13"/>
-      <c r="H78" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H78" s="13"/>
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
@@ -8544,17 +8542,23 @@
       <c r="BK78" s="15"/>
       <c r="BL78" s="15"/>
     </row>
-    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="18"/>
       <c r="B79" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C79" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="D79" s="14">
         <v>0</v>
       </c>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
+      <c r="E79" s="29">
+        <v>44669</v>
+      </c>
+      <c r="F79" s="29">
+        <v>44690</v>
+      </c>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
       <c r="I79" s="15"/>
@@ -8614,19 +8618,23 @@
       <c r="BK79" s="15"/>
       <c r="BL79" s="15"/>
     </row>
-    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="18"/>
       <c r="B80" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D80" s="14">
         <v>0</v>
       </c>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
+      <c r="E80" s="29">
+        <v>44669</v>
+      </c>
+      <c r="F80" s="29">
+        <v>44690</v>
+      </c>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
       <c r="I80" s="15"/>
@@ -8686,19 +8694,23 @@
       <c r="BK80" s="15"/>
       <c r="BL80" s="15"/>
     </row>
-    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="18"/>
       <c r="B81" s="24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D81" s="14">
         <v>0</v>
       </c>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
+      <c r="E81" s="29">
+        <v>44669</v>
+      </c>
+      <c r="F81" s="29">
+        <v>44690</v>
+      </c>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
       <c r="I81" s="15"/>
@@ -8758,30 +8770,25 @@
       <c r="BK81" s="15"/>
       <c r="BL81" s="15"/>
     </row>
-    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="18"/>
-      <c r="B82" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C82" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" s="35">
+      <c r="B82" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" s="14">
         <v>0</v>
       </c>
-      <c r="E82" s="36">
-        <f>E75+35</f>
+      <c r="E82" s="29">
+        <v>44669</v>
+      </c>
+      <c r="F82" s="29">
         <v>44690</v>
       </c>
-      <c r="F82" s="36">
-        <f>E82+12</f>
-        <v>44702</v>
-      </c>
       <c r="G82" s="13"/>
-      <c r="H82" s="13">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
+      <c r="H82" s="13"/>
       <c r="I82" s="15"/>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
@@ -8839,22 +8846,25 @@
       <c r="BK82" s="15"/>
       <c r="BL82" s="15"/>
     </row>
-    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
+    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="18"/>
+      <c r="B83" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="14">
+        <v>0</v>
+      </c>
+      <c r="E83" s="29">
+        <v>44669</v>
+      </c>
+      <c r="F83" s="29">
+        <v>44690</v>
+      </c>
       <c r="G83" s="13"/>
-      <c r="H83" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H83" s="13"/>
       <c r="I83" s="15"/>
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
@@ -8912,22 +8922,25 @@
       <c r="BK83" s="15"/>
       <c r="BL83" s="15"/>
     </row>
-    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="18"/>
       <c r="B84" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" s="22"/>
+        <v>111</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="D84" s="14">
         <v>0</v>
       </c>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
+      <c r="E84" s="29">
+        <v>44669</v>
+      </c>
+      <c r="F84" s="29">
+        <v>44690</v>
+      </c>
       <c r="G84" s="13"/>
-      <c r="H84" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H84" s="13"/>
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
@@ -8985,19 +8998,17 @@
       <c r="BK84" s="15"/>
       <c r="BL84" s="15"/>
     </row>
-    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="18"/>
-      <c r="B85" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" s="14">
-        <v>0</v>
-      </c>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
+    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="38"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
       <c r="G85" s="13"/>
       <c r="H85" s="13" t="str">
         <f t="shared" si="4"/>
@@ -9060,19 +9071,24 @@
       <c r="BK85" s="15"/>
       <c r="BL85" s="15"/>
     </row>
-    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="18"/>
-      <c r="B86" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C86" s="22" t="s">
+      <c r="B86" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D86" s="35">
         <v>0</v>
       </c>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
+      <c r="E86" s="36">
+        <v>44690</v>
+      </c>
+      <c r="F86" s="36">
+        <f>E86+12</f>
+        <v>44702</v>
+      </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
       <c r="I86" s="15"/>
@@ -9132,18 +9148,25 @@
       <c r="BK86" s="15"/>
       <c r="BL86" s="15"/>
     </row>
-    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="18"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
+      <c r="B87" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="14">
+        <v>0</v>
+      </c>
+      <c r="E87" s="29">
+        <v>44690</v>
+      </c>
+      <c r="F87" s="29">
+        <v>44702</v>
+      </c>
       <c r="G87" s="13"/>
-      <c r="H87" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H87" s="13"/>
       <c r="I87" s="15"/>
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
@@ -9201,17 +9224,28 @@
       <c r="BK87" s="15"/>
       <c r="BL87" s="15"/>
     </row>
-    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="18"/>
-      <c r="B88" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" s="38"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="40"/>
+      <c r="B88" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="14">
+        <v>0</v>
+      </c>
+      <c r="E88" s="29">
+        <v>44698</v>
+      </c>
+      <c r="F88" s="29">
+        <v>44715</v>
+      </c>
       <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
+      <c r="H88" s="13">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
       <c r="I88" s="15"/>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
@@ -9269,13 +9303,23 @@
       <c r="BK88" s="15"/>
       <c r="BL88" s="15"/>
     </row>
-    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="18"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
+      <c r="B89" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="14">
+        <v>0</v>
+      </c>
+      <c r="E89" s="29">
+        <v>44691</v>
+      </c>
+      <c r="F89" s="29">
+        <v>44698</v>
+      </c>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
       <c r="I89" s="15"/>
@@ -9335,19 +9379,23 @@
       <c r="BK89" s="15"/>
       <c r="BL89" s="15"/>
     </row>
-    <row r="90" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="18"/>
       <c r="B90" s="24" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D90" s="14">
         <v>0</v>
       </c>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
+      <c r="E90" s="29">
+        <v>44691</v>
+      </c>
+      <c r="F90" s="29">
+        <v>44698</v>
+      </c>
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
       <c r="I90" s="15"/>
@@ -9407,15 +9455,21 @@
       <c r="BK90" s="15"/>
       <c r="BL90" s="15"/>
     </row>
-    <row r="91" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="18"/>
-      <c r="B91" s="37" t="s">
+      <c r="B91" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C91" s="38"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="40"/>
+      <c r="C91" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="14"/>
+      <c r="E91" s="29">
+        <v>44691</v>
+      </c>
+      <c r="F91" s="29">
+        <v>44698</v>
+      </c>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
       <c r="I91" s="15"/>
@@ -9475,94 +9529,93 @@
       <c r="BK91" s="15"/>
       <c r="BL91" s="15"/>
     </row>
-    <row r="92" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="18"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="15"/>
-      <c r="S92" s="15"/>
-      <c r="T92" s="15"/>
-      <c r="U92" s="15"/>
-      <c r="V92" s="15"/>
-      <c r="W92" s="15"/>
-      <c r="X92" s="15"/>
-      <c r="Y92" s="15"/>
-      <c r="Z92" s="15"/>
-      <c r="AA92" s="15"/>
-      <c r="AB92" s="15"/>
-      <c r="AC92" s="15"/>
-      <c r="AD92" s="15"/>
-      <c r="AE92" s="15"/>
-      <c r="AF92" s="15"/>
-      <c r="AG92" s="15"/>
-      <c r="AH92" s="15"/>
-      <c r="AI92" s="15"/>
-      <c r="AJ92" s="15"/>
-      <c r="AK92" s="15"/>
-      <c r="AL92" s="15"/>
-      <c r="AM92" s="15"/>
-      <c r="AN92" s="15"/>
-      <c r="AO92" s="15"/>
-      <c r="AP92" s="15"/>
-      <c r="AQ92" s="15"/>
-      <c r="AR92" s="15"/>
-      <c r="AS92" s="15"/>
-      <c r="AT92" s="15"/>
-      <c r="AU92" s="15"/>
-      <c r="AV92" s="15"/>
-      <c r="AW92" s="15"/>
-      <c r="AX92" s="15"/>
-      <c r="AY92" s="15"/>
-      <c r="AZ92" s="15"/>
-      <c r="BA92" s="15"/>
-      <c r="BB92" s="15"/>
-      <c r="BC92" s="15"/>
-      <c r="BD92" s="15"/>
-      <c r="BE92" s="15"/>
-      <c r="BF92" s="15"/>
-      <c r="BG92" s="15"/>
-      <c r="BH92" s="15"/>
-      <c r="BI92" s="15"/>
-      <c r="BJ92" s="15"/>
-      <c r="BK92" s="15"/>
-      <c r="BL92" s="15"/>
+    <row r="92" spans="1:64" s="56" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="49"/>
+      <c r="B92" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="52">
+        <v>0</v>
+      </c>
+      <c r="E92" s="53">
+        <v>44691</v>
+      </c>
+      <c r="F92" s="53">
+        <v>44711</v>
+      </c>
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="55"/>
+      <c r="K92" s="55"/>
+      <c r="L92" s="55"/>
+      <c r="M92" s="55"/>
+      <c r="N92" s="55"/>
+      <c r="O92" s="55"/>
+      <c r="P92" s="55"/>
+      <c r="Q92" s="55"/>
+      <c r="R92" s="55"/>
+      <c r="S92" s="55"/>
+      <c r="T92" s="55"/>
+      <c r="U92" s="55"/>
+      <c r="V92" s="55"/>
+      <c r="W92" s="55"/>
+      <c r="X92" s="55"/>
+      <c r="Y92" s="55"/>
+      <c r="Z92" s="55"/>
+      <c r="AA92" s="55"/>
+      <c r="AB92" s="55"/>
+      <c r="AC92" s="55"/>
+      <c r="AD92" s="55"/>
+      <c r="AE92" s="55"/>
+      <c r="AF92" s="55"/>
+      <c r="AG92" s="55"/>
+      <c r="AH92" s="55"/>
+      <c r="AI92" s="55"/>
+      <c r="AJ92" s="55"/>
+      <c r="AK92" s="55"/>
+      <c r="AL92" s="55"/>
+      <c r="AM92" s="55"/>
+      <c r="AN92" s="55"/>
+      <c r="AO92" s="55"/>
+      <c r="AP92" s="55"/>
+      <c r="AQ92" s="55"/>
+      <c r="AR92" s="55"/>
+      <c r="AS92" s="55"/>
+      <c r="AT92" s="55"/>
+      <c r="AU92" s="55"/>
+      <c r="AV92" s="55"/>
+      <c r="AW92" s="55"/>
+      <c r="AX92" s="55"/>
+      <c r="AY92" s="55"/>
+      <c r="AZ92" s="55"/>
+      <c r="BA92" s="55"/>
+      <c r="BB92" s="55"/>
+      <c r="BC92" s="55"/>
+      <c r="BD92" s="55"/>
+      <c r="BE92" s="55"/>
+      <c r="BF92" s="55"/>
+      <c r="BG92" s="55"/>
+      <c r="BH92" s="55"/>
+      <c r="BI92" s="55"/>
+      <c r="BJ92" s="55"/>
+      <c r="BK92" s="55"/>
+      <c r="BL92" s="55"/>
     </row>
-    <row r="93" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="18"/>
-      <c r="B93" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C93" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="35"/>
-      <c r="E93" s="36">
-        <f>E82+5</f>
-        <v>44695</v>
-      </c>
-      <c r="F93" s="36">
-        <f>E93</f>
-        <v>44695</v>
-      </c>
+      <c r="B93" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="38"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="40"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="H93" s="13"/>
       <c r="I93" s="15"/>
       <c r="J93" s="15"/>
       <c r="K93" s="15"/>
@@ -9620,20 +9673,25 @@
       <c r="BK93" s="15"/>
       <c r="BL93" s="15"/>
     </row>
-    <row r="94" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" s="25"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
+    <row r="94" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="18"/>
+      <c r="B94" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="14">
+        <v>0</v>
+      </c>
+      <c r="E94" s="29">
+        <v>44713</v>
+      </c>
+      <c r="F94" s="29">
+        <v>44716</v>
+      </c>
       <c r="G94" s="13"/>
-      <c r="H94" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H94" s="13"/>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
@@ -9691,23 +9749,169 @@
       <c r="BK94" s="15"/>
       <c r="BL94" s="15"/>
     </row>
-    <row r="95" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G95" s="6"/>
+    <row r="95" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="18"/>
+      <c r="B95" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="35">
+        <v>0</v>
+      </c>
+      <c r="E95" s="36">
+        <v>44716</v>
+      </c>
+      <c r="F95" s="36">
+        <f>E95</f>
+        <v>44716</v>
+      </c>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="15"/>
+      <c r="S95" s="15"/>
+      <c r="T95" s="15"/>
+      <c r="U95" s="15"/>
+      <c r="V95" s="15"/>
+      <c r="W95" s="15"/>
+      <c r="X95" s="15"/>
+      <c r="Y95" s="15"/>
+      <c r="Z95" s="15"/>
+      <c r="AA95" s="15"/>
+      <c r="AB95" s="15"/>
+      <c r="AC95" s="15"/>
+      <c r="AD95" s="15"/>
+      <c r="AE95" s="15"/>
+      <c r="AF95" s="15"/>
+      <c r="AG95" s="15"/>
+      <c r="AH95" s="15"/>
+      <c r="AI95" s="15"/>
+      <c r="AJ95" s="15"/>
+      <c r="AK95" s="15"/>
+      <c r="AL95" s="15"/>
+      <c r="AM95" s="15"/>
+      <c r="AN95" s="15"/>
+      <c r="AO95" s="15"/>
+      <c r="AP95" s="15"/>
+      <c r="AQ95" s="15"/>
+      <c r="AR95" s="15"/>
+      <c r="AS95" s="15"/>
+      <c r="AT95" s="15"/>
+      <c r="AU95" s="15"/>
+      <c r="AV95" s="15"/>
+      <c r="AW95" s="15"/>
+      <c r="AX95" s="15"/>
+      <c r="AY95" s="15"/>
+      <c r="AZ95" s="15"/>
+      <c r="BA95" s="15"/>
+      <c r="BB95" s="15"/>
+      <c r="BC95" s="15"/>
+      <c r="BD95" s="15"/>
+      <c r="BE95" s="15"/>
+      <c r="BF95" s="15"/>
+      <c r="BG95" s="15"/>
+      <c r="BH95" s="15"/>
+      <c r="BI95" s="15"/>
+      <c r="BJ95" s="15"/>
+      <c r="BK95" s="15"/>
+      <c r="BL95" s="15"/>
     </row>
-    <row r="96" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="10"/>
-      <c r="F96" s="20"/>
+    <row r="96" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="25"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="15"/>
+      <c r="S96" s="15"/>
+      <c r="T96" s="15"/>
+      <c r="U96" s="15"/>
+      <c r="V96" s="15"/>
+      <c r="W96" s="15"/>
+      <c r="X96" s="15"/>
+      <c r="Y96" s="15"/>
+      <c r="Z96" s="15"/>
+      <c r="AA96" s="15"/>
+      <c r="AB96" s="15"/>
+      <c r="AC96" s="15"/>
+      <c r="AD96" s="15"/>
+      <c r="AE96" s="15"/>
+      <c r="AF96" s="15"/>
+      <c r="AG96" s="15"/>
+      <c r="AH96" s="15"/>
+      <c r="AI96" s="15"/>
+      <c r="AJ96" s="15"/>
+      <c r="AK96" s="15"/>
+      <c r="AL96" s="15"/>
+      <c r="AM96" s="15"/>
+      <c r="AN96" s="15"/>
+      <c r="AO96" s="15"/>
+      <c r="AP96" s="15"/>
+      <c r="AQ96" s="15"/>
+      <c r="AR96" s="15"/>
+      <c r="AS96" s="15"/>
+      <c r="AT96" s="15"/>
+      <c r="AU96" s="15"/>
+      <c r="AV96" s="15"/>
+      <c r="AW96" s="15"/>
+      <c r="AX96" s="15"/>
+      <c r="AY96" s="15"/>
+      <c r="AZ96" s="15"/>
+      <c r="BA96" s="15"/>
+      <c r="BB96" s="15"/>
+      <c r="BC96" s="15"/>
+      <c r="BD96" s="15"/>
+      <c r="BE96" s="15"/>
+      <c r="BF96" s="15"/>
+      <c r="BG96" s="15"/>
+      <c r="BH96" s="15"/>
+      <c r="BI96" s="15"/>
+      <c r="BJ96" s="15"/>
+      <c r="BK96" s="15"/>
+      <c r="BL96" s="15"/>
     </row>
-    <row r="97" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="11"/>
+    <row r="97" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C98" s="10"/>
+      <c r="F98" s="20"/>
+    </row>
+    <row r="99" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C99" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -9716,9 +9920,14 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D16:D17 D94 D24:D27 D19:D22 D50:D56 D67:D74">
-    <cfRule type="dataBar" priority="127">
+  <conditionalFormatting sqref="D16:D17 D96 D24:D27 D19:D22 D50:D56 D77:D84 D75 D67:D73 D92 D87:D88">
+    <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9731,21 +9940,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I94:BL94 I34:BL36 I6:BL27 I29:BL31 I66:BL74 I49:BL56">
-    <cfRule type="expression" dxfId="50" priority="130">
+  <conditionalFormatting sqref="I96:BL96 I34:BL36 I6:BL27 I29:BL31 I49:BL56 I66:BL73 I76:BL94">
+    <cfRule type="expression" dxfId="44" priority="133">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I94:BL94 I34:BL36 I8:BL27 I29:BL31 I66:BL74 I49:BL56">
-    <cfRule type="expression" dxfId="49" priority="128">
+  <conditionalFormatting sqref="I96:BL96 I34:BL36 I8:BL27 I29:BL31 I49:BL56 I66:BL73 I76:BL94">
+    <cfRule type="expression" dxfId="43" priority="131">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="132" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D35 D30:D31">
-    <cfRule type="dataBar" priority="126">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9759,7 +9968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="dataBar" priority="122">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9773,20 +9982,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL45 I47:BL47">
-    <cfRule type="expression" dxfId="47" priority="125">
+    <cfRule type="expression" dxfId="41" priority="128">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL45 I47:BL47">
-    <cfRule type="expression" dxfId="46" priority="123">
+    <cfRule type="expression" dxfId="40" priority="126">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="127" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="dataBar" priority="121">
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9800,33 +10009,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="44" priority="119">
+    <cfRule type="expression" dxfId="38" priority="122">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="43" priority="117">
+    <cfRule type="expression" dxfId="37" priority="120">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="121" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="41" priority="110">
+    <cfRule type="expression" dxfId="35" priority="113">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:BL57">
-    <cfRule type="expression" dxfId="40" priority="108">
+    <cfRule type="expression" dxfId="34" priority="111">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="112" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D65">
-    <cfRule type="dataBar" priority="104">
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9840,20 +10049,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL65">
-    <cfRule type="expression" dxfId="38" priority="107">
+    <cfRule type="expression" dxfId="32" priority="110">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BL65">
-    <cfRule type="expression" dxfId="37" priority="105">
+    <cfRule type="expression" dxfId="31" priority="108">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="109" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:D63">
-    <cfRule type="dataBar" priority="103">
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9867,7 +10076,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="dataBar" priority="93">
+    <cfRule type="dataBar" priority="96">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9881,7 +10090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="dataBar" priority="92">
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9894,48 +10103,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I76:BL81">
-    <cfRule type="expression" dxfId="35" priority="89">
+  <conditionalFormatting sqref="I74:BL75">
+    <cfRule type="expression" dxfId="29" priority="88">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I76:BL81">
-    <cfRule type="expression" dxfId="34" priority="87">
+  <conditionalFormatting sqref="I74:BL75">
+    <cfRule type="expression" dxfId="28" priority="86">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="87" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I75:BL75">
-    <cfRule type="expression" dxfId="32" priority="85">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75:BL75">
-    <cfRule type="expression" dxfId="31" priority="83">
-      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="84" stopIfTrue="1">
-      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D77:D81">
-    <cfRule type="dataBar" priority="81">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D92EFAD8-9A39-41D6-8E74-09FCB7C99446}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89 D87 D92">
-    <cfRule type="dataBar" priority="76">
+  <conditionalFormatting sqref="D86:D91">
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9948,74 +10130,47 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83:BL92">
-    <cfRule type="expression" dxfId="29" priority="79">
+  <conditionalFormatting sqref="I86:BL91">
+    <cfRule type="expression" dxfId="26" priority="78">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83:BL92">
-    <cfRule type="expression" dxfId="28" priority="77">
+  <conditionalFormatting sqref="I86:BL91">
+    <cfRule type="expression" dxfId="25" priority="76">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="77" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I82:BL82">
-    <cfRule type="expression" dxfId="26" priority="75">
+  <conditionalFormatting sqref="I95:BL95">
+    <cfRule type="expression" dxfId="23" priority="72">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I82:BL82">
-    <cfRule type="expression" dxfId="25" priority="73">
+  <conditionalFormatting sqref="I95:BL95">
+    <cfRule type="expression" dxfId="22" priority="70">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="74" stopIfTrue="1">
-      <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84:D86">
-    <cfRule type="dataBar" priority="71">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F3BCBE8B-1131-4EC4-93C6-93A3D2241A3A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I93:BL93">
-    <cfRule type="expression" dxfId="23" priority="69">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I93:BL93">
-    <cfRule type="expression" dxfId="22" priority="67">
-      <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="71" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="20" priority="65">
+    <cfRule type="expression" dxfId="20" priority="68">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="19" priority="63">
+    <cfRule type="expression" dxfId="19" priority="66">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="67" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="dataBar" priority="62">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10029,20 +10184,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="17" priority="61">
+    <cfRule type="expression" dxfId="17" priority="64">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="16" priority="59">
+    <cfRule type="expression" dxfId="16" priority="62">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="63" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="dataBar" priority="58">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10056,20 +10211,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL38 I42:BL42">
-    <cfRule type="expression" dxfId="14" priority="57">
+    <cfRule type="expression" dxfId="14" priority="60">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BL38 I42:BL42">
-    <cfRule type="expression" dxfId="13" priority="55">
+    <cfRule type="expression" dxfId="13" priority="58">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="59" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="dataBar" priority="54">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10083,20 +10238,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="11" priority="53">
+    <cfRule type="expression" dxfId="11" priority="56">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="10" priority="51">
+    <cfRule type="expression" dxfId="10" priority="54">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="55" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="dataBar" priority="50">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10110,20 +10265,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL41">
-    <cfRule type="expression" dxfId="8" priority="49">
+    <cfRule type="expression" dxfId="8" priority="52">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL41">
-    <cfRule type="expression" dxfId="7" priority="47">
+    <cfRule type="expression" dxfId="7" priority="50">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="51" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D41">
-    <cfRule type="dataBar" priority="46">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10137,7 +10292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="dataBar" priority="42">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10151,20 +10306,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="5" priority="45">
+    <cfRule type="expression" dxfId="5" priority="48">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="4" priority="43">
+    <cfRule type="expression" dxfId="4" priority="46">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="47" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="dataBar" priority="39">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10178,7 +10333,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10192,7 +10347,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10206,7 +10361,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="dataBar" priority="30">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10220,7 +10375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10234,7 +10389,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10248,7 +10403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10262,7 +10417,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10276,7 +10431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10289,8 +10444,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="D74:D75">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10303,8 +10458,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82">
-    <cfRule type="dataBar" priority="20">
+  <conditionalFormatting sqref="D86">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10317,8 +10472,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="dataBar" priority="19">
+  <conditionalFormatting sqref="D95">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10332,7 +10487,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10346,7 +10501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10360,7 +10515,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10374,7 +10529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10388,7 +10543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10402,7 +10557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10416,7 +10571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10429,8 +10584,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="dataBar" priority="11">
+  <conditionalFormatting sqref="D85:D86">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10444,20 +10599,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10470,8 +10625,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="D93">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10479,26 +10634,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9E2B4ABA-02E8-4FF3-89D1-329856E1BE71}</x14:id>
+          <x14:id>{A52B9A9A-9069-4620-8E19-50503A0D492D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{26001960-37B1-42FE-9E96-FEAA0B2DA74C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90">
+  <conditionalFormatting sqref="D94">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10507,7 +10648,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0A6167C4-A7EE-409C-874E-2192EE4396C1}</x14:id>
+          <x14:id>{265A8D0E-6EC0-416D-AE24-C0891B72B939}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10539,7 +10680,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D16:D17 D94 D24:D27 D19:D22 D50:D56 D67:D74</xm:sqref>
+          <xm:sqref>D16:D17 D96 D24:D27 D19:D22 D50:D56 D77:D84 D75 D67:D73 D92 D87:D88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61BAFCB1-C9D1-4453-9835-894AAFFB2D48}">
@@ -10647,21 +10788,6 @@
           <xm:sqref>D10:D11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D92EFAD8-9A39-41D6-8E74-09FCB7C99446}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D77:D81</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{49690BEA-F1DA-49A9-87E0-BC10D33392B4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -10674,22 +10800,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D89 D87 D92</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F3BCBE8B-1131-4EC4-93C6-93A3D2241A3A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D84:D86</xm:sqref>
+          <xm:sqref>D86:D91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{70FE4911-65CD-4B63-902B-DAD573D9D1E7}">
@@ -10929,7 +11040,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D75</xm:sqref>
+          <xm:sqref>D74:D75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{47FD5541-751B-48F2-895B-231260031964}">
@@ -10944,7 +11055,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D82</xm:sqref>
+          <xm:sqref>D86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CB458C94-EC1D-48A0-8F37-BA38EE604418}">
@@ -10959,7 +11070,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D93</xm:sqref>
+          <xm:sqref>D95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC19E591-9826-41D2-8753-21A5AEC1982F}">
@@ -11079,7 +11190,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D83</xm:sqref>
+          <xm:sqref>D85:D86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8A618AE5-6A10-402E-8877-7F8471EF9C36}">
@@ -11097,7 +11208,7 @@
           <xm:sqref>D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9E2B4ABA-02E8-4FF3-89D1-329856E1BE71}">
+          <x14:cfRule type="dataBar" id="{A52B9A9A-9069-4620-8E19-50503A0D492D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11109,10 +11220,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D88</xm:sqref>
+          <xm:sqref>D93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{26001960-37B1-42FE-9E96-FEAA0B2DA74C}">
+          <x14:cfRule type="dataBar" id="{265A8D0E-6EC0-416D-AE24-C0891B72B939}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11124,22 +11235,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D91</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0A6167C4-A7EE-409C-874E-2192EE4396C1}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D90</xm:sqref>
+          <xm:sqref>D94</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956555C4-81D3-49DF-BD66-C3DC9EEDAA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6743691-C8FC-4354-84F6-513760BE02CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="118">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>Reddition du projet à 12h00</t>
+  </si>
+  <si>
+    <t>Sprint 10</t>
   </si>
 </sst>
 </file>
@@ -1308,28 +1311,6 @@
     <xf numFmtId="168" fontId="24" fillId="37" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1352,6 +1333,28 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2326,24 +2329,24 @@
   <dimension ref="A1:BL99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
+      <pane ySplit="7" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.26953125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="69.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="2.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2357,9 +2360,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="52" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1"/>
@@ -2369,9 +2372,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19"/>
-      <c r="B3" s="45"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2379,348 +2382,348 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48">
+      <c r="D4" s="54"/>
+      <c r="E4" s="55">
         <v>44459</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="55"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="31">
-        <v>33</v>
-      </c>
-      <c r="I5" s="42">
+        <v>28</v>
+      </c>
+      <c r="I5" s="49">
         <f>I6</f>
+        <v>44648</v>
+      </c>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="49">
+        <f>P6</f>
+        <v>44655</v>
+      </c>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="49">
+        <f>W6</f>
+        <v>44662</v>
+      </c>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="49">
+        <f>AD6</f>
+        <v>44669</v>
+      </c>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="49">
+        <f>AK6</f>
+        <v>44676</v>
+      </c>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="51"/>
+      <c r="AR5" s="49">
+        <f>AR6</f>
         <v>44683</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="42">
-        <f>P6</f>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="49">
+        <f>AY6</f>
         <v>44690</v>
       </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="42">
-        <f>W6</f>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="49">
+        <f>BF6</f>
         <v>44697</v>
       </c>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="42">
-        <f>AD6</f>
-        <v>44704</v>
-      </c>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="42">
-        <f>AK6</f>
-        <v>44711</v>
-      </c>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="42">
-        <f>AR6</f>
-        <v>44718</v>
-      </c>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="43"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="42">
-        <f>AY6</f>
-        <v>44725</v>
-      </c>
-      <c r="AZ5" s="43"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="42">
-        <f>BF6</f>
-        <v>44732</v>
-      </c>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="43"/>
-      <c r="BK5" s="43"/>
-      <c r="BL5" s="44"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="51"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
-        <v>44683</v>
+        <v>44648</v>
       </c>
       <c r="J6" s="27">
         <f>I6+1</f>
-        <v>44684</v>
+        <v>44649</v>
       </c>
       <c r="K6" s="27">
         <f t="shared" ref="K6:AX6" si="0">J6+1</f>
-        <v>44685</v>
+        <v>44650</v>
       </c>
       <c r="L6" s="27">
         <f t="shared" si="0"/>
-        <v>44686</v>
+        <v>44651</v>
       </c>
       <c r="M6" s="27">
         <f t="shared" si="0"/>
-        <v>44687</v>
+        <v>44652</v>
       </c>
       <c r="N6" s="27">
         <f t="shared" si="0"/>
-        <v>44688</v>
+        <v>44653</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" si="0"/>
-        <v>44689</v>
+        <v>44654</v>
       </c>
       <c r="P6" s="26">
         <f>O6+1</f>
-        <v>44690</v>
+        <v>44655</v>
       </c>
       <c r="Q6" s="27">
         <f>P6+1</f>
-        <v>44691</v>
+        <v>44656</v>
       </c>
       <c r="R6" s="27">
         <f t="shared" si="0"/>
-        <v>44692</v>
+        <v>44657</v>
       </c>
       <c r="S6" s="27">
         <f t="shared" si="0"/>
-        <v>44693</v>
+        <v>44658</v>
       </c>
       <c r="T6" s="27">
         <f t="shared" si="0"/>
-        <v>44694</v>
+        <v>44659</v>
       </c>
       <c r="U6" s="27">
         <f t="shared" si="0"/>
-        <v>44695</v>
+        <v>44660</v>
       </c>
       <c r="V6" s="28">
         <f t="shared" si="0"/>
-        <v>44696</v>
+        <v>44661</v>
       </c>
       <c r="W6" s="26">
         <f>V6+1</f>
-        <v>44697</v>
+        <v>44662</v>
       </c>
       <c r="X6" s="27">
         <f>W6+1</f>
-        <v>44698</v>
+        <v>44663</v>
       </c>
       <c r="Y6" s="27">
         <f t="shared" si="0"/>
-        <v>44699</v>
+        <v>44664</v>
       </c>
       <c r="Z6" s="27">
         <f t="shared" si="0"/>
-        <v>44700</v>
+        <v>44665</v>
       </c>
       <c r="AA6" s="27">
         <f t="shared" si="0"/>
-        <v>44701</v>
+        <v>44666</v>
       </c>
       <c r="AB6" s="27">
         <f t="shared" si="0"/>
-        <v>44702</v>
+        <v>44667</v>
       </c>
       <c r="AC6" s="28">
         <f t="shared" si="0"/>
-        <v>44703</v>
+        <v>44668</v>
       </c>
       <c r="AD6" s="26">
         <f>AC6+1</f>
-        <v>44704</v>
+        <v>44669</v>
       </c>
       <c r="AE6" s="27">
         <f>AD6+1</f>
-        <v>44705</v>
+        <v>44670</v>
       </c>
       <c r="AF6" s="27">
         <f t="shared" si="0"/>
-        <v>44706</v>
+        <v>44671</v>
       </c>
       <c r="AG6" s="27">
         <f t="shared" si="0"/>
-        <v>44707</v>
+        <v>44672</v>
       </c>
       <c r="AH6" s="27">
         <f t="shared" si="0"/>
-        <v>44708</v>
+        <v>44673</v>
       </c>
       <c r="AI6" s="27">
         <f t="shared" si="0"/>
-        <v>44709</v>
+        <v>44674</v>
       </c>
       <c r="AJ6" s="28">
         <f t="shared" si="0"/>
-        <v>44710</v>
+        <v>44675</v>
       </c>
       <c r="AK6" s="26">
         <f>AJ6+1</f>
-        <v>44711</v>
+        <v>44676</v>
       </c>
       <c r="AL6" s="27">
         <f>AK6+1</f>
-        <v>44712</v>
+        <v>44677</v>
       </c>
       <c r="AM6" s="27">
         <f t="shared" si="0"/>
-        <v>44713</v>
+        <v>44678</v>
       </c>
       <c r="AN6" s="27">
         <f t="shared" si="0"/>
-        <v>44714</v>
+        <v>44679</v>
       </c>
       <c r="AO6" s="27">
         <f t="shared" si="0"/>
-        <v>44715</v>
+        <v>44680</v>
       </c>
       <c r="AP6" s="27">
         <f t="shared" si="0"/>
-        <v>44716</v>
+        <v>44681</v>
       </c>
       <c r="AQ6" s="28">
         <f t="shared" si="0"/>
-        <v>44717</v>
+        <v>44682</v>
       </c>
       <c r="AR6" s="26">
         <f>AQ6+1</f>
-        <v>44718</v>
+        <v>44683</v>
       </c>
       <c r="AS6" s="27">
         <f>AR6+1</f>
-        <v>44719</v>
+        <v>44684</v>
       </c>
       <c r="AT6" s="27">
         <f t="shared" si="0"/>
-        <v>44720</v>
+        <v>44685</v>
       </c>
       <c r="AU6" s="27">
         <f t="shared" si="0"/>
-        <v>44721</v>
+        <v>44686</v>
       </c>
       <c r="AV6" s="27">
         <f t="shared" si="0"/>
-        <v>44722</v>
+        <v>44687</v>
       </c>
       <c r="AW6" s="27">
         <f t="shared" si="0"/>
-        <v>44723</v>
+        <v>44688</v>
       </c>
       <c r="AX6" s="28">
         <f t="shared" si="0"/>
-        <v>44724</v>
+        <v>44689</v>
       </c>
       <c r="AY6" s="26">
         <f>AX6+1</f>
-        <v>44725</v>
+        <v>44690</v>
       </c>
       <c r="AZ6" s="27">
         <f>AY6+1</f>
-        <v>44726</v>
+        <v>44691</v>
       </c>
       <c r="BA6" s="27">
         <f t="shared" ref="BA6:BE6" si="1">AZ6+1</f>
-        <v>44727</v>
+        <v>44692</v>
       </c>
       <c r="BB6" s="27">
         <f t="shared" si="1"/>
-        <v>44728</v>
+        <v>44693</v>
       </c>
       <c r="BC6" s="27">
         <f t="shared" si="1"/>
-        <v>44729</v>
+        <v>44694</v>
       </c>
       <c r="BD6" s="27">
         <f t="shared" si="1"/>
-        <v>44730</v>
+        <v>44695</v>
       </c>
       <c r="BE6" s="28">
         <f t="shared" si="1"/>
-        <v>44731</v>
+        <v>44696</v>
       </c>
       <c r="BF6" s="26">
         <f>BE6+1</f>
-        <v>44732</v>
+        <v>44697</v>
       </c>
       <c r="BG6" s="27">
         <f>BF6+1</f>
-        <v>44733</v>
+        <v>44698</v>
       </c>
       <c r="BH6" s="27">
         <f t="shared" ref="BH6:BL6" si="2">BG6+1</f>
-        <v>44734</v>
+        <v>44699</v>
       </c>
       <c r="BI6" s="27">
         <f t="shared" si="2"/>
-        <v>44735</v>
+        <v>44700</v>
       </c>
       <c r="BJ6" s="27">
         <f t="shared" si="2"/>
-        <v>44736</v>
+        <v>44701</v>
       </c>
       <c r="BK6" s="27">
         <f t="shared" si="2"/>
-        <v>44737</v>
+        <v>44702</v>
       </c>
       <c r="BL6" s="28">
         <f t="shared" si="2"/>
-        <v>44738</v>
+        <v>44703</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -3041,7 +3044,7 @@
       <c r="BK8" s="15"/>
       <c r="BL8" s="15"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -3123,7 +3126,7 @@
       <c r="BK9" s="15"/>
       <c r="BL9" s="15"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
@@ -3206,7 +3209,7 @@
       <c r="BK10" s="15"/>
       <c r="BL10" s="15"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="24" t="s">
         <v>21</v>
@@ -3287,7 +3290,7 @@
       <c r="BK11" s="15"/>
       <c r="BL11" s="15"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="24" t="s">
         <v>103</v>
@@ -3368,7 +3371,7 @@
       <c r="BK12" s="15"/>
       <c r="BL12" s="15"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="24" t="s">
         <v>102</v>
@@ -3444,7 +3447,7 @@
       <c r="BK13" s="15"/>
       <c r="BL13" s="15"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="24" t="s">
         <v>22</v>
@@ -3525,7 +3528,7 @@
       <c r="BK14" s="15"/>
       <c r="BL14" s="15"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="33" t="s">
         <v>62</v>
@@ -3606,7 +3609,7 @@
       <c r="BK15" s="15"/>
       <c r="BL15" s="15"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="24" t="s">
         <v>23</v>
@@ -3687,7 +3690,7 @@
       <c r="BK16" s="15"/>
       <c r="BL16" s="15"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="24" t="s">
         <v>81</v>
@@ -3768,7 +3771,7 @@
       <c r="BK17" s="15"/>
       <c r="BL17" s="15"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>8</v>
       </c>
@@ -3841,7 +3844,7 @@
       <c r="BK18" s="15"/>
       <c r="BL18" s="15"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="24" t="s">
         <v>79</v>
@@ -3922,7 +3925,7 @@
       <c r="BK19" s="15"/>
       <c r="BL19" s="15"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="24" t="s">
         <v>87</v>
@@ -4000,7 +4003,7 @@
       <c r="BK20" s="15"/>
       <c r="BL20" s="15"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="24" t="s">
         <v>82</v>
@@ -4081,7 +4084,7 @@
       <c r="BK21" s="15"/>
       <c r="BL21" s="15"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="24" t="s">
         <v>80</v>
@@ -4162,7 +4165,7 @@
       <c r="BK22" s="15"/>
       <c r="BL22" s="15"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="33" t="s">
         <v>24</v>
@@ -4243,7 +4246,7 @@
       <c r="BK23" s="15"/>
       <c r="BL23" s="15"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="24" t="s">
         <v>25</v>
@@ -4324,7 +4327,7 @@
       <c r="BK24" s="15"/>
       <c r="BL24" s="15"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="24" t="s">
         <v>33</v>
@@ -4405,7 +4408,7 @@
       <c r="BK25" s="15"/>
       <c r="BL25" s="15"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="24" t="s">
         <v>80</v>
@@ -4486,7 +4489,7 @@
       <c r="BK26" s="15"/>
       <c r="BL26" s="15"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="24" t="s">
         <v>78</v>
@@ -4567,7 +4570,7 @@
       <c r="BK27" s="15"/>
       <c r="BL27" s="15"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="33" t="s">
         <v>34</v>
@@ -4645,7 +4648,7 @@
       <c r="BK28" s="15"/>
       <c r="BL28" s="15"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>8</v>
       </c>
@@ -4718,7 +4721,7 @@
       <c r="BK29" s="15"/>
       <c r="BL29" s="15"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>35</v>
@@ -4799,7 +4802,7 @@
       <c r="BK30" s="15"/>
       <c r="BL30" s="15"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="24" t="s">
         <v>36</v>
@@ -4880,7 +4883,7 @@
       <c r="BK31" s="15"/>
       <c r="BL31" s="15"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="24" t="s">
         <v>88</v>
@@ -4961,7 +4964,7 @@
       <c r="BK32" s="15"/>
       <c r="BL32" s="15"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="24" t="s">
         <v>83</v>
@@ -5042,7 +5045,7 @@
       <c r="BK33" s="15"/>
       <c r="BL33" s="15"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="24" t="s">
         <v>77</v>
@@ -5123,7 +5126,7 @@
       <c r="BK34" s="15"/>
       <c r="BL34" s="15"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="24" t="s">
         <v>78</v>
@@ -5201,7 +5204,7 @@
       <c r="BK35" s="15"/>
       <c r="BL35" s="15"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="33" t="s">
         <v>43</v>
@@ -5282,7 +5285,7 @@
       <c r="BK36" s="15"/>
       <c r="BL36" s="15"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>8</v>
       </c>
@@ -5355,7 +5358,7 @@
       <c r="BK37" s="15"/>
       <c r="BL37" s="15"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>50</v>
@@ -5436,7 +5439,7 @@
       <c r="BK38" s="15"/>
       <c r="BL38" s="15"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="24" t="s">
         <v>86</v>
@@ -5517,7 +5520,7 @@
       <c r="BK39" s="15"/>
       <c r="BL39" s="15"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
       <c r="B40" s="24" t="s">
         <v>85</v>
@@ -5598,7 +5601,7 @@
       <c r="BK40" s="15"/>
       <c r="BL40" s="15"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
       <c r="B41" s="24" t="s">
         <v>84</v>
@@ -5676,7 +5679,7 @@
       <c r="BK41" s="15"/>
       <c r="BL41" s="15"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
       <c r="B42" s="33" t="s">
         <v>51</v>
@@ -5757,7 +5760,7 @@
       <c r="BK42" s="15"/>
       <c r="BL42" s="15"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>8</v>
       </c>
@@ -5830,7 +5833,7 @@
       <c r="BK43" s="15"/>
       <c r="BL43" s="15"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="24" t="s">
         <v>52</v>
@@ -5911,7 +5914,7 @@
       <c r="BK44" s="15"/>
       <c r="BL44" s="15"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="32" t="s">
         <v>53</v>
@@ -5992,7 +5995,7 @@
       <c r="BK45" s="15"/>
       <c r="BL45" s="15"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="24" t="s">
         <v>89</v>
@@ -6073,7 +6076,7 @@
       <c r="BK46" s="15"/>
       <c r="BL46" s="15"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="24" t="s">
         <v>93</v>
@@ -6154,7 +6157,7 @@
       <c r="BK47" s="15"/>
       <c r="BL47" s="15"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18"/>
       <c r="B48" s="33" t="s">
         <v>37</v>
@@ -6235,7 +6238,7 @@
       <c r="BK48" s="15"/>
       <c r="BL48" s="15"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>8</v>
       </c>
@@ -6308,7 +6311,7 @@
       <c r="BK49" s="15"/>
       <c r="BL49" s="15"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18"/>
       <c r="B50" s="24" t="s">
         <v>38</v>
@@ -6387,7 +6390,7 @@
       <c r="BK50" s="15"/>
       <c r="BL50" s="15"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="24" t="s">
         <v>39</v>
@@ -6468,7 +6471,7 @@
       <c r="BK51" s="15"/>
       <c r="BL51" s="15"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
       <c r="B52" s="24" t="s">
         <v>57</v>
@@ -6546,7 +6549,7 @@
       <c r="BK52" s="15"/>
       <c r="BL52" s="15"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18"/>
       <c r="B53" s="24" t="s">
         <v>58</v>
@@ -6624,7 +6627,7 @@
       <c r="BK53" s="15"/>
       <c r="BL53" s="15"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
       <c r="B54" s="24" t="s">
         <v>59</v>
@@ -6702,7 +6705,7 @@
       <c r="BK54" s="15"/>
       <c r="BL54" s="15"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="24" t="s">
         <v>91</v>
@@ -6780,7 +6783,7 @@
       <c r="BK55" s="15"/>
       <c r="BL55" s="15"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="B56" s="24" t="s">
         <v>90</v>
@@ -6858,7 +6861,7 @@
       <c r="BK56" s="15"/>
       <c r="BL56" s="15"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18"/>
       <c r="B57" s="33" t="s">
         <v>40</v>
@@ -6939,7 +6942,7 @@
       <c r="BK57" s="15"/>
       <c r="BL57" s="15"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
         <v>8</v>
       </c>
@@ -7012,7 +7015,7 @@
       <c r="BK58" s="15"/>
       <c r="BL58" s="15"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18"/>
       <c r="B59" s="24" t="s">
         <v>41</v>
@@ -7091,7 +7094,7 @@
       <c r="BK59" s="15"/>
       <c r="BL59" s="15"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
       <c r="B60" s="24" t="s">
         <v>42</v>
@@ -7170,7 +7173,7 @@
       <c r="BK60" s="15"/>
       <c r="BL60" s="15"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
       <c r="B61" s="24" t="s">
         <v>73</v>
@@ -7246,7 +7249,7 @@
       <c r="BK61" s="15"/>
       <c r="BL61" s="15"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="24" t="s">
         <v>76</v>
@@ -7322,7 +7325,7 @@
       <c r="BK62" s="15"/>
       <c r="BL62" s="15"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="18"/>
       <c r="B63" s="24" t="s">
         <v>75</v>
@@ -7398,7 +7401,7 @@
       <c r="BK63" s="15"/>
       <c r="BL63" s="15"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="18"/>
       <c r="B64" s="24" t="s">
         <v>92</v>
@@ -7477,7 +7480,7 @@
       <c r="BK64" s="15"/>
       <c r="BL64" s="15"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="24" t="s">
         <v>94</v>
@@ -7553,7 +7556,7 @@
       <c r="BK65" s="15"/>
       <c r="BL65" s="15"/>
     </row>
-    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>8</v>
       </c>
@@ -7626,7 +7629,7 @@
       <c r="BK66" s="15"/>
       <c r="BL66" s="15"/>
     </row>
-    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="18"/>
       <c r="B67" s="24" t="s">
         <v>95</v>
@@ -7635,7 +7638,7 @@
         <v>72</v>
       </c>
       <c r="D67" s="14">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="E67" s="29">
         <v>44648</v>
@@ -7702,7 +7705,7 @@
       <c r="BK67" s="15"/>
       <c r="BL67" s="15"/>
     </row>
-    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="24" t="s">
         <v>96</v>
@@ -7778,7 +7781,7 @@
       <c r="BK68" s="15"/>
       <c r="BL68" s="15"/>
     </row>
-    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
       <c r="B69" s="24" t="s">
         <v>104</v>
@@ -7787,7 +7790,7 @@
         <v>71</v>
       </c>
       <c r="D69" s="14">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E69" s="29">
         <v>44655</v>
@@ -7854,7 +7857,7 @@
       <c r="BK69" s="15"/>
       <c r="BL69" s="15"/>
     </row>
-    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18"/>
       <c r="B70" s="24" t="s">
         <v>105</v>
@@ -7863,7 +7866,7 @@
         <v>27</v>
       </c>
       <c r="D70" s="14">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E70" s="29">
         <v>44648</v>
@@ -7930,7 +7933,7 @@
       <c r="BK70" s="15"/>
       <c r="BL70" s="15"/>
     </row>
-    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="24" t="s">
         <v>97</v>
@@ -8006,7 +8009,7 @@
       <c r="BK71" s="15"/>
       <c r="BL71" s="15"/>
     </row>
-    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="24" t="s">
         <v>109</v>
@@ -8015,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="D72" s="14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E72" s="29">
         <v>44651</v>
@@ -8082,7 +8085,7 @@
       <c r="BK72" s="15"/>
       <c r="BL72" s="15"/>
     </row>
-    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
       <c r="B73" s="24" t="s">
         <v>98</v>
@@ -8091,7 +8094,7 @@
         <v>31</v>
       </c>
       <c r="D73" s="14">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E73" s="29">
         <v>44662</v>
@@ -8161,7 +8164,7 @@
       <c r="BK73" s="15"/>
       <c r="BL73" s="15"/>
     </row>
-    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
       <c r="B74" s="33" t="s">
         <v>44</v>
@@ -8240,7 +8243,7 @@
       <c r="BK74" s="15"/>
       <c r="BL74" s="15"/>
     </row>
-    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="24" t="s">
         <v>45</v>
@@ -8314,7 +8317,7 @@
       <c r="BK75" s="15"/>
       <c r="BL75" s="15"/>
     </row>
-    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18" t="s">
         <v>8</v>
       </c>
@@ -8387,7 +8390,7 @@
       <c r="BK76" s="15"/>
       <c r="BL76" s="15"/>
     </row>
-    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18"/>
       <c r="B77" s="24" t="s">
         <v>46</v>
@@ -8466,7 +8469,7 @@
       <c r="BK77" s="15"/>
       <c r="BL77" s="15"/>
     </row>
-    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18"/>
       <c r="B78" s="24" t="s">
         <v>99</v>
@@ -8542,7 +8545,7 @@
       <c r="BK78" s="15"/>
       <c r="BL78" s="15"/>
     </row>
-    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18"/>
       <c r="B79" s="24" t="s">
         <v>100</v>
@@ -8618,7 +8621,7 @@
       <c r="BK79" s="15"/>
       <c r="BL79" s="15"/>
     </row>
-    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="18"/>
       <c r="B80" s="24" t="s">
         <v>101</v>
@@ -8694,7 +8697,7 @@
       <c r="BK80" s="15"/>
       <c r="BL80" s="15"/>
     </row>
-    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
       <c r="B81" s="24" t="s">
         <v>108</v>
@@ -8770,7 +8773,7 @@
       <c r="BK81" s="15"/>
       <c r="BL81" s="15"/>
     </row>
-    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18"/>
       <c r="B82" s="24" t="s">
         <v>106</v>
@@ -8846,7 +8849,7 @@
       <c r="BK82" s="15"/>
       <c r="BL82" s="15"/>
     </row>
-    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="18"/>
       <c r="B83" s="24" t="s">
         <v>107</v>
@@ -8922,7 +8925,7 @@
       <c r="BK83" s="15"/>
       <c r="BL83" s="15"/>
     </row>
-    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="18"/>
       <c r="B84" s="24" t="s">
         <v>111</v>
@@ -8998,7 +9001,7 @@
       <c r="BK84" s="15"/>
       <c r="BL84" s="15"/>
     </row>
-    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
         <v>8</v>
       </c>
@@ -9071,7 +9074,7 @@
       <c r="BK85" s="15"/>
       <c r="BL85" s="15"/>
     </row>
-    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="18"/>
       <c r="B86" s="33" t="s">
         <v>49</v>
@@ -9148,7 +9151,7 @@
       <c r="BK86" s="15"/>
       <c r="BL86" s="15"/>
     </row>
-    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="18"/>
       <c r="B87" s="24" t="s">
         <v>48</v>
@@ -9224,7 +9227,7 @@
       <c r="BK87" s="15"/>
       <c r="BL87" s="15"/>
     </row>
-    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="18"/>
       <c r="B88" s="24" t="s">
         <v>47</v>
@@ -9303,7 +9306,7 @@
       <c r="BK88" s="15"/>
       <c r="BL88" s="15"/>
     </row>
-    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="18"/>
       <c r="B89" s="24" t="s">
         <v>113</v>
@@ -9379,7 +9382,7 @@
       <c r="BK89" s="15"/>
       <c r="BL89" s="15"/>
     </row>
-    <row r="90" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="18"/>
       <c r="B90" s="24" t="s">
         <v>112</v>
@@ -9455,7 +9458,7 @@
       <c r="BK90" s="15"/>
       <c r="BL90" s="15"/>
     </row>
-    <row r="91" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="18"/>
       <c r="B91" s="24" t="s">
         <v>110</v>
@@ -9529,86 +9532,86 @@
       <c r="BK91" s="15"/>
       <c r="BL91" s="15"/>
     </row>
-    <row r="92" spans="1:64" s="56" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="49"/>
-      <c r="B92" s="50" t="s">
+    <row r="92" spans="1:64" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="41"/>
+      <c r="B92" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C92" s="51" t="s">
+      <c r="C92" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="52">
+      <c r="D92" s="44">
         <v>0</v>
       </c>
-      <c r="E92" s="53">
+      <c r="E92" s="45">
         <v>44691</v>
       </c>
-      <c r="F92" s="53">
+      <c r="F92" s="45">
         <v>44711</v>
       </c>
-      <c r="G92" s="54"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="55"/>
-      <c r="J92" s="55"/>
-      <c r="K92" s="55"/>
-      <c r="L92" s="55"/>
-      <c r="M92" s="55"/>
-      <c r="N92" s="55"/>
-      <c r="O92" s="55"/>
-      <c r="P92" s="55"/>
-      <c r="Q92" s="55"/>
-      <c r="R92" s="55"/>
-      <c r="S92" s="55"/>
-      <c r="T92" s="55"/>
-      <c r="U92" s="55"/>
-      <c r="V92" s="55"/>
-      <c r="W92" s="55"/>
-      <c r="X92" s="55"/>
-      <c r="Y92" s="55"/>
-      <c r="Z92" s="55"/>
-      <c r="AA92" s="55"/>
-      <c r="AB92" s="55"/>
-      <c r="AC92" s="55"/>
-      <c r="AD92" s="55"/>
-      <c r="AE92" s="55"/>
-      <c r="AF92" s="55"/>
-      <c r="AG92" s="55"/>
-      <c r="AH92" s="55"/>
-      <c r="AI92" s="55"/>
-      <c r="AJ92" s="55"/>
-      <c r="AK92" s="55"/>
-      <c r="AL92" s="55"/>
-      <c r="AM92" s="55"/>
-      <c r="AN92" s="55"/>
-      <c r="AO92" s="55"/>
-      <c r="AP92" s="55"/>
-      <c r="AQ92" s="55"/>
-      <c r="AR92" s="55"/>
-      <c r="AS92" s="55"/>
-      <c r="AT92" s="55"/>
-      <c r="AU92" s="55"/>
-      <c r="AV92" s="55"/>
-      <c r="AW92" s="55"/>
-      <c r="AX92" s="55"/>
-      <c r="AY92" s="55"/>
-      <c r="AZ92" s="55"/>
-      <c r="BA92" s="55"/>
-      <c r="BB92" s="55"/>
-      <c r="BC92" s="55"/>
-      <c r="BD92" s="55"/>
-      <c r="BE92" s="55"/>
-      <c r="BF92" s="55"/>
-      <c r="BG92" s="55"/>
-      <c r="BH92" s="55"/>
-      <c r="BI92" s="55"/>
-      <c r="BJ92" s="55"/>
-      <c r="BK92" s="55"/>
-      <c r="BL92" s="55"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="47"/>
+      <c r="Q92" s="47"/>
+      <c r="R92" s="47"/>
+      <c r="S92" s="47"/>
+      <c r="T92" s="47"/>
+      <c r="U92" s="47"/>
+      <c r="V92" s="47"/>
+      <c r="W92" s="47"/>
+      <c r="X92" s="47"/>
+      <c r="Y92" s="47"/>
+      <c r="Z92" s="47"/>
+      <c r="AA92" s="47"/>
+      <c r="AB92" s="47"/>
+      <c r="AC92" s="47"/>
+      <c r="AD92" s="47"/>
+      <c r="AE92" s="47"/>
+      <c r="AF92" s="47"/>
+      <c r="AG92" s="47"/>
+      <c r="AH92" s="47"/>
+      <c r="AI92" s="47"/>
+      <c r="AJ92" s="47"/>
+      <c r="AK92" s="47"/>
+      <c r="AL92" s="47"/>
+      <c r="AM92" s="47"/>
+      <c r="AN92" s="47"/>
+      <c r="AO92" s="47"/>
+      <c r="AP92" s="47"/>
+      <c r="AQ92" s="47"/>
+      <c r="AR92" s="47"/>
+      <c r="AS92" s="47"/>
+      <c r="AT92" s="47"/>
+      <c r="AU92" s="47"/>
+      <c r="AV92" s="47"/>
+      <c r="AW92" s="47"/>
+      <c r="AX92" s="47"/>
+      <c r="AY92" s="47"/>
+      <c r="AZ92" s="47"/>
+      <c r="BA92" s="47"/>
+      <c r="BB92" s="47"/>
+      <c r="BC92" s="47"/>
+      <c r="BD92" s="47"/>
+      <c r="BE92" s="47"/>
+      <c r="BF92" s="47"/>
+      <c r="BG92" s="47"/>
+      <c r="BH92" s="47"/>
+      <c r="BI92" s="47"/>
+      <c r="BJ92" s="47"/>
+      <c r="BK92" s="47"/>
+      <c r="BL92" s="47"/>
     </row>
-    <row r="93" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="18"/>
       <c r="B93" s="37" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="C93" s="38"/>
       <c r="D93" s="39"/>
@@ -9673,7 +9676,7 @@
       <c r="BK93" s="15"/>
       <c r="BL93" s="15"/>
     </row>
-    <row r="94" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="18"/>
       <c r="B94" s="24" t="s">
         <v>115</v>
@@ -9749,7 +9752,7 @@
       <c r="BK94" s="15"/>
       <c r="BL94" s="15"/>
     </row>
-    <row r="95" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="18"/>
       <c r="B95" s="33" t="s">
         <v>116</v>
@@ -9829,7 +9832,7 @@
       <c r="BK95" s="15"/>
       <c r="BL95" s="15"/>
     </row>
-    <row r="96" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="18" t="s">
         <v>9</v>
       </c>
@@ -9900,18 +9903,23 @@
       <c r="BK96" s="15"/>
       <c r="BL96" s="15"/>
     </row>
-    <row r="97" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" s="10"/>
       <c r="F98" s="20"/>
     </row>
-    <row r="99" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C99" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -9920,11 +9928,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
   <conditionalFormatting sqref="D16:D17 D96 D24:D27 D19:D22 D50:D56 D77:D84 D75 D67:D73 D92 D87:D88">
     <cfRule type="dataBar" priority="130">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6743691-C8FC-4354-84F6-513760BE02CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399C25A7-FC34-6B43-A7C1-F8F330D91B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -1333,6 +1333,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1354,7 +1355,6 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2329,24 +2329,24 @@
   <dimension ref="A1:BL99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:G6"/>
+      <pane ySplit="7" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="9.5" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2360,9 +2360,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1"/>
@@ -2372,9 +2372,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
-      <c r="B3" s="52"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2382,122 +2382,122 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55">
+      <c r="D4" s="55"/>
+      <c r="E4" s="56">
         <v>44459</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="56"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="31">
         <v>28</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="50">
         <f>I6</f>
         <v>44648</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="49">
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="50">
         <f>P6</f>
         <v>44655</v>
       </c>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="49">
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="50">
         <f>W6</f>
         <v>44662</v>
       </c>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="49">
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="50">
         <f>AD6</f>
         <v>44669</v>
       </c>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="49">
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="50">
         <f>AK6</f>
         <v>44676</v>
       </c>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="49">
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="51"/>
+      <c r="AP5" s="51"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="50">
         <f>AR6</f>
         <v>44683</v>
       </c>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="50"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="51"/>
-      <c r="AY5" s="49">
+      <c r="AS5" s="51"/>
+      <c r="AT5" s="51"/>
+      <c r="AU5" s="51"/>
+      <c r="AV5" s="51"/>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="50">
         <f>AY6</f>
         <v>44690</v>
       </c>
-      <c r="AZ5" s="50"/>
-      <c r="BA5" s="50"/>
-      <c r="BB5" s="50"/>
-      <c r="BC5" s="50"/>
-      <c r="BD5" s="50"/>
-      <c r="BE5" s="51"/>
-      <c r="BF5" s="49">
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="51"/>
+      <c r="BC5" s="51"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="52"/>
+      <c r="BF5" s="50">
         <f>BF6</f>
         <v>44697</v>
       </c>
-      <c r="BG5" s="50"/>
-      <c r="BH5" s="50"/>
-      <c r="BI5" s="50"/>
-      <c r="BJ5" s="50"/>
-      <c r="BK5" s="50"/>
-      <c r="BL5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="51"/>
+      <c r="BK5" s="51"/>
+      <c r="BL5" s="52"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44648</v>
@@ -2723,7 +2723,7 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="BK8" s="15"/>
       <c r="BL8" s="15"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -3126,7 +3126,7 @@
       <c r="BK9" s="15"/>
       <c r="BL9" s="15"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="BK10" s="15"/>
       <c r="BL10" s="15"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="24" t="s">
         <v>21</v>
@@ -3290,7 +3290,7 @@
       <c r="BK11" s="15"/>
       <c r="BL11" s="15"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="24" t="s">
         <v>103</v>
@@ -3371,7 +3371,7 @@
       <c r="BK12" s="15"/>
       <c r="BL12" s="15"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="24" t="s">
         <v>102</v>
@@ -3447,7 +3447,7 @@
       <c r="BK13" s="15"/>
       <c r="BL13" s="15"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="24" t="s">
         <v>22</v>
@@ -3528,7 +3528,7 @@
       <c r="BK14" s="15"/>
       <c r="BL14" s="15"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="33" t="s">
         <v>62</v>
@@ -3609,7 +3609,7 @@
       <c r="BK15" s="15"/>
       <c r="BL15" s="15"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="24" t="s">
         <v>23</v>
@@ -3690,7 +3690,7 @@
       <c r="BK16" s="15"/>
       <c r="BL16" s="15"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="24" t="s">
         <v>81</v>
@@ -3771,7 +3771,7 @@
       <c r="BK17" s="15"/>
       <c r="BL17" s="15"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>8</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="BK18" s="15"/>
       <c r="BL18" s="15"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="24" t="s">
         <v>79</v>
@@ -3925,7 +3925,7 @@
       <c r="BK19" s="15"/>
       <c r="BL19" s="15"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="24" t="s">
         <v>87</v>
@@ -4003,7 +4003,7 @@
       <c r="BK20" s="15"/>
       <c r="BL20" s="15"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="24" t="s">
         <v>82</v>
@@ -4084,7 +4084,7 @@
       <c r="BK21" s="15"/>
       <c r="BL21" s="15"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="24" t="s">
         <v>80</v>
@@ -4165,7 +4165,7 @@
       <c r="BK22" s="15"/>
       <c r="BL22" s="15"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="33" t="s">
         <v>24</v>
@@ -4246,7 +4246,7 @@
       <c r="BK23" s="15"/>
       <c r="BL23" s="15"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="24" t="s">
         <v>25</v>
@@ -4327,7 +4327,7 @@
       <c r="BK24" s="15"/>
       <c r="BL24" s="15"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="24" t="s">
         <v>33</v>
@@ -4408,7 +4408,7 @@
       <c r="BK25" s="15"/>
       <c r="BL25" s="15"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="24" t="s">
         <v>80</v>
@@ -4489,7 +4489,7 @@
       <c r="BK26" s="15"/>
       <c r="BL26" s="15"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="24" t="s">
         <v>78</v>
@@ -4570,7 +4570,7 @@
       <c r="BK27" s="15"/>
       <c r="BL27" s="15"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="33" t="s">
         <v>34</v>
@@ -4648,7 +4648,7 @@
       <c r="BK28" s="15"/>
       <c r="BL28" s="15"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>8</v>
       </c>
@@ -4721,7 +4721,7 @@
       <c r="BK29" s="15"/>
       <c r="BL29" s="15"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>35</v>
@@ -4802,7 +4802,7 @@
       <c r="BK30" s="15"/>
       <c r="BL30" s="15"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="24" t="s">
         <v>36</v>
@@ -4883,7 +4883,7 @@
       <c r="BK31" s="15"/>
       <c r="BL31" s="15"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="24" t="s">
         <v>88</v>
@@ -4964,7 +4964,7 @@
       <c r="BK32" s="15"/>
       <c r="BL32" s="15"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="24" t="s">
         <v>83</v>
@@ -5045,7 +5045,7 @@
       <c r="BK33" s="15"/>
       <c r="BL33" s="15"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="24" t="s">
         <v>77</v>
@@ -5126,7 +5126,7 @@
       <c r="BK34" s="15"/>
       <c r="BL34" s="15"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="24" t="s">
         <v>78</v>
@@ -5204,7 +5204,7 @@
       <c r="BK35" s="15"/>
       <c r="BL35" s="15"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="33" t="s">
         <v>43</v>
@@ -5285,7 +5285,7 @@
       <c r="BK36" s="15"/>
       <c r="BL36" s="15"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>8</v>
       </c>
@@ -5358,7 +5358,7 @@
       <c r="BK37" s="15"/>
       <c r="BL37" s="15"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>50</v>
@@ -5439,7 +5439,7 @@
       <c r="BK38" s="15"/>
       <c r="BL38" s="15"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="24" t="s">
         <v>86</v>
@@ -5520,7 +5520,7 @@
       <c r="BK39" s="15"/>
       <c r="BL39" s="15"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="24" t="s">
         <v>85</v>
@@ -5601,7 +5601,7 @@
       <c r="BK40" s="15"/>
       <c r="BL40" s="15"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="24" t="s">
         <v>84</v>
@@ -5679,7 +5679,7 @@
       <c r="BK41" s="15"/>
       <c r="BL41" s="15"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="33" t="s">
         <v>51</v>
@@ -5760,7 +5760,7 @@
       <c r="BK42" s="15"/>
       <c r="BL42" s="15"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>8</v>
       </c>
@@ -5833,7 +5833,7 @@
       <c r="BK43" s="15"/>
       <c r="BL43" s="15"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="24" t="s">
         <v>52</v>
@@ -5914,7 +5914,7 @@
       <c r="BK44" s="15"/>
       <c r="BL44" s="15"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="32" t="s">
         <v>53</v>
@@ -5995,7 +5995,7 @@
       <c r="BK45" s="15"/>
       <c r="BL45" s="15"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="24" t="s">
         <v>89</v>
@@ -6076,7 +6076,7 @@
       <c r="BK46" s="15"/>
       <c r="BL46" s="15"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="24" t="s">
         <v>93</v>
@@ -6157,7 +6157,7 @@
       <c r="BK47" s="15"/>
       <c r="BL47" s="15"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="33" t="s">
         <v>37</v>
@@ -6238,7 +6238,7 @@
       <c r="BK48" s="15"/>
       <c r="BL48" s="15"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>8</v>
       </c>
@@ -6311,7 +6311,7 @@
       <c r="BK49" s="15"/>
       <c r="BL49" s="15"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="24" t="s">
         <v>38</v>
@@ -6390,7 +6390,7 @@
       <c r="BK50" s="15"/>
       <c r="BL50" s="15"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="24" t="s">
         <v>39</v>
@@ -6471,7 +6471,7 @@
       <c r="BK51" s="15"/>
       <c r="BL51" s="15"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="24" t="s">
         <v>57</v>
@@ -6549,7 +6549,7 @@
       <c r="BK52" s="15"/>
       <c r="BL52" s="15"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="24" t="s">
         <v>58</v>
@@ -6627,7 +6627,7 @@
       <c r="BK53" s="15"/>
       <c r="BL53" s="15"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="24" t="s">
         <v>59</v>
@@ -6705,7 +6705,7 @@
       <c r="BK54" s="15"/>
       <c r="BL54" s="15"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="24" t="s">
         <v>91</v>
@@ -6783,7 +6783,7 @@
       <c r="BK55" s="15"/>
       <c r="BL55" s="15"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="24" t="s">
         <v>90</v>
@@ -6861,7 +6861,7 @@
       <c r="BK56" s="15"/>
       <c r="BL56" s="15"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="33" t="s">
         <v>40</v>
@@ -6942,7 +6942,7 @@
       <c r="BK57" s="15"/>
       <c r="BL57" s="15"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>8</v>
       </c>
@@ -7015,7 +7015,7 @@
       <c r="BK58" s="15"/>
       <c r="BL58" s="15"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="24" t="s">
         <v>41</v>
@@ -7094,7 +7094,7 @@
       <c r="BK59" s="15"/>
       <c r="BL59" s="15"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="24" t="s">
         <v>42</v>
@@ -7173,7 +7173,7 @@
       <c r="BK60" s="15"/>
       <c r="BL60" s="15"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="24" t="s">
         <v>73</v>
@@ -7249,7 +7249,7 @@
       <c r="BK61" s="15"/>
       <c r="BL61" s="15"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="24" t="s">
         <v>76</v>
@@ -7325,7 +7325,7 @@
       <c r="BK62" s="15"/>
       <c r="BL62" s="15"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="24" t="s">
         <v>75</v>
@@ -7401,7 +7401,7 @@
       <c r="BK63" s="15"/>
       <c r="BL63" s="15"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
       <c r="B64" s="24" t="s">
         <v>92</v>
@@ -7480,7 +7480,7 @@
       <c r="BK64" s="15"/>
       <c r="BL64" s="15"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="24" t="s">
         <v>94</v>
@@ -7556,7 +7556,7 @@
       <c r="BK65" s="15"/>
       <c r="BL65" s="15"/>
     </row>
-    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>8</v>
       </c>
@@ -7629,7 +7629,7 @@
       <c r="BK66" s="15"/>
       <c r="BL66" s="15"/>
     </row>
-    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="24" t="s">
         <v>95</v>
@@ -7705,7 +7705,7 @@
       <c r="BK67" s="15"/>
       <c r="BL67" s="15"/>
     </row>
-    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="24" t="s">
         <v>96</v>
@@ -7781,7 +7781,7 @@
       <c r="BK68" s="15"/>
       <c r="BL68" s="15"/>
     </row>
-    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="24" t="s">
         <v>104</v>
@@ -7857,7 +7857,7 @@
       <c r="BK69" s="15"/>
       <c r="BL69" s="15"/>
     </row>
-    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="24" t="s">
         <v>105</v>
@@ -7933,7 +7933,7 @@
       <c r="BK70" s="15"/>
       <c r="BL70" s="15"/>
     </row>
-    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="24" t="s">
         <v>97</v>
@@ -8009,7 +8009,7 @@
       <c r="BK71" s="15"/>
       <c r="BL71" s="15"/>
     </row>
-    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
       <c r="B72" s="24" t="s">
         <v>109</v>
@@ -8085,7 +8085,7 @@
       <c r="BK72" s="15"/>
       <c r="BL72" s="15"/>
     </row>
-    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="24" t="s">
         <v>98</v>
@@ -8164,7 +8164,7 @@
       <c r="BK73" s="15"/>
       <c r="BL73" s="15"/>
     </row>
-    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="33" t="s">
         <v>44</v>
@@ -8173,7 +8173,7 @@
         <v>26</v>
       </c>
       <c r="D74" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="36">
         <v>44663</v>
@@ -8243,14 +8243,14 @@
       <c r="BK74" s="15"/>
       <c r="BL74" s="15"/>
     </row>
-    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="29">
         <v>44663</v>
@@ -8317,7 +8317,7 @@
       <c r="BK75" s="15"/>
       <c r="BL75" s="15"/>
     </row>
-    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>8</v>
       </c>
@@ -8390,7 +8390,7 @@
       <c r="BK76" s="15"/>
       <c r="BL76" s="15"/>
     </row>
-    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="24" t="s">
         <v>46</v>
@@ -8469,7 +8469,7 @@
       <c r="BK77" s="15"/>
       <c r="BL77" s="15"/>
     </row>
-    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
       <c r="B78" s="24" t="s">
         <v>99</v>
@@ -8545,7 +8545,7 @@
       <c r="BK78" s="15"/>
       <c r="BL78" s="15"/>
     </row>
-    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="24" t="s">
         <v>100</v>
@@ -8621,7 +8621,7 @@
       <c r="BK79" s="15"/>
       <c r="BL79" s="15"/>
     </row>
-    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18"/>
       <c r="B80" s="24" t="s">
         <v>101</v>
@@ -8697,7 +8697,7 @@
       <c r="BK80" s="15"/>
       <c r="BL80" s="15"/>
     </row>
-    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="24" t="s">
         <v>108</v>
@@ -8773,7 +8773,7 @@
       <c r="BK81" s="15"/>
       <c r="BL81" s="15"/>
     </row>
-    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="24" t="s">
         <v>106</v>
@@ -8849,7 +8849,7 @@
       <c r="BK82" s="15"/>
       <c r="BL82" s="15"/>
     </row>
-    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="24" t="s">
         <v>107</v>
@@ -8925,7 +8925,7 @@
       <c r="BK83" s="15"/>
       <c r="BL83" s="15"/>
     </row>
-    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18"/>
       <c r="B84" s="24" t="s">
         <v>111</v>
@@ -9001,7 +9001,7 @@
       <c r="BK84" s="15"/>
       <c r="BL84" s="15"/>
     </row>
-    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>8</v>
       </c>
@@ -9074,7 +9074,7 @@
       <c r="BK85" s="15"/>
       <c r="BL85" s="15"/>
     </row>
-    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="33" t="s">
         <v>49</v>
@@ -9151,7 +9151,7 @@
       <c r="BK86" s="15"/>
       <c r="BL86" s="15"/>
     </row>
-    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18"/>
       <c r="B87" s="24" t="s">
         <v>48</v>
@@ -9227,7 +9227,7 @@
       <c r="BK87" s="15"/>
       <c r="BL87" s="15"/>
     </row>
-    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18"/>
       <c r="B88" s="24" t="s">
         <v>47</v>
@@ -9306,7 +9306,7 @@
       <c r="BK88" s="15"/>
       <c r="BL88" s="15"/>
     </row>
-    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
       <c r="B89" s="24" t="s">
         <v>113</v>
@@ -9382,7 +9382,7 @@
       <c r="BK89" s="15"/>
       <c r="BL89" s="15"/>
     </row>
-    <row r="90" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="24" t="s">
         <v>112</v>
@@ -9458,7 +9458,7 @@
       <c r="BK90" s="15"/>
       <c r="BL90" s="15"/>
     </row>
-    <row r="91" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="24" t="s">
         <v>110</v>
@@ -9532,7 +9532,7 @@
       <c r="BK91" s="15"/>
       <c r="BL91" s="15"/>
     </row>
-    <row r="92" spans="1:64" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:64" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="42" t="s">
         <v>114</v>
@@ -9608,7 +9608,7 @@
       <c r="BK92" s="47"/>
       <c r="BL92" s="47"/>
     </row>
-    <row r="93" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="18"/>
       <c r="B93" s="37" t="s">
         <v>117</v>
@@ -9676,7 +9676,7 @@
       <c r="BK93" s="15"/>
       <c r="BL93" s="15"/>
     </row>
-    <row r="94" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="18"/>
       <c r="B94" s="24" t="s">
         <v>115</v>
@@ -9752,7 +9752,7 @@
       <c r="BK94" s="15"/>
       <c r="BL94" s="15"/>
     </row>
-    <row r="95" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18"/>
       <c r="B95" s="33" t="s">
         <v>116</v>
@@ -9832,7 +9832,7 @@
       <c r="BK95" s="15"/>
       <c r="BL95" s="15"/>
     </row>
-    <row r="96" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>9</v>
       </c>
@@ -9903,23 +9903,18 @@
       <c r="BK96" s="15"/>
       <c r="BL96" s="15"/>
     </row>
-    <row r="97" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="10"/>
       <c r="F98" s="20"/>
     </row>
-    <row r="99" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -9928,6 +9923,11 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
   <conditionalFormatting sqref="D16:D17 D96 D24:D27 D19:D22 D50:D56 D77:D84 D75 D67:D73 D92 D87:D88">
     <cfRule type="dataBar" priority="130">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399C25A7-FC34-6B43-A7C1-F8F330D91B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7FB3DF-5E4A-4F4D-ABD6-863CAC1E3A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="117">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -436,9 +436,6 @@
   </si>
   <si>
     <t>Finalisation de la création des jeux de tests pour WavMap</t>
-  </si>
-  <si>
-    <t>Finalisation jeux de tests unitaires et performance pour WavMap</t>
   </si>
   <si>
     <t>Finalisation des documents manuel d'utilisation</t>
@@ -1333,7 +1330,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1355,6 +1351,7 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2326,27 +2323,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL99"/>
+  <dimension ref="A1:BL98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <pane ySplit="7" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="69.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="2.5" customWidth="1"/>
-    <col min="8" max="8" width="9.5" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="2.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2360,9 +2357,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="19"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1"/>
@@ -2372,9 +2369,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="19"/>
-      <c r="B3" s="53"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2382,122 +2379,122 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56">
+      <c r="D4" s="54"/>
+      <c r="E4" s="55">
         <v>44459</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="55"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="31">
         <v>28</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="49">
         <f>I6</f>
         <v>44648</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="50">
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="49">
         <f>P6</f>
         <v>44655</v>
       </c>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="50">
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="49">
         <f>W6</f>
         <v>44662</v>
       </c>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="50">
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="49">
         <f>AD6</f>
         <v>44669</v>
       </c>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="50">
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="49">
         <f>AK6</f>
         <v>44676</v>
       </c>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="50">
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="51"/>
+      <c r="AR5" s="49">
         <f>AR6</f>
         <v>44683</v>
       </c>
-      <c r="AS5" s="51"/>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="51"/>
-      <c r="AV5" s="51"/>
-      <c r="AW5" s="51"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="50">
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="49">
         <f>AY6</f>
         <v>44690</v>
       </c>
-      <c r="AZ5" s="51"/>
-      <c r="BA5" s="51"/>
-      <c r="BB5" s="51"/>
-      <c r="BC5" s="51"/>
-      <c r="BD5" s="51"/>
-      <c r="BE5" s="52"/>
-      <c r="BF5" s="50">
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="49">
         <f>BF6</f>
         <v>44697</v>
       </c>
-      <c r="BG5" s="51"/>
-      <c r="BH5" s="51"/>
-      <c r="BI5" s="51"/>
-      <c r="BJ5" s="51"/>
-      <c r="BK5" s="51"/>
-      <c r="BL5" s="52"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="51"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44648</v>
@@ -2723,7 +2720,7 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
@@ -2971,7 +2968,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -2984,7 +2981,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H96" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H95" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="15"/>
@@ -3044,7 +3041,7 @@
       <c r="BK8" s="15"/>
       <c r="BL8" s="15"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -3126,7 +3123,7 @@
       <c r="BK9" s="15"/>
       <c r="BL9" s="15"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
@@ -3209,7 +3206,7 @@
       <c r="BK10" s="15"/>
       <c r="BL10" s="15"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18"/>
       <c r="B11" s="24" t="s">
         <v>21</v>
@@ -3290,7 +3287,7 @@
       <c r="BK11" s="15"/>
       <c r="BL11" s="15"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
       <c r="B12" s="24" t="s">
         <v>103</v>
@@ -3371,7 +3368,7 @@
       <c r="BK12" s="15"/>
       <c r="BL12" s="15"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19"/>
       <c r="B13" s="24" t="s">
         <v>102</v>
@@ -3447,7 +3444,7 @@
       <c r="BK13" s="15"/>
       <c r="BL13" s="15"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="18"/>
       <c r="B14" s="24" t="s">
         <v>22</v>
@@ -3528,7 +3525,7 @@
       <c r="BK14" s="15"/>
       <c r="BL14" s="15"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18"/>
       <c r="B15" s="33" t="s">
         <v>62</v>
@@ -3609,7 +3606,7 @@
       <c r="BK15" s="15"/>
       <c r="BL15" s="15"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18"/>
       <c r="B16" s="24" t="s">
         <v>23</v>
@@ -3690,7 +3687,7 @@
       <c r="BK16" s="15"/>
       <c r="BL16" s="15"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18"/>
       <c r="B17" s="24" t="s">
         <v>81</v>
@@ -3771,7 +3768,7 @@
       <c r="BK17" s="15"/>
       <c r="BL17" s="15"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18" t="s">
         <v>8</v>
       </c>
@@ -3844,7 +3841,7 @@
       <c r="BK18" s="15"/>
       <c r="BL18" s="15"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18"/>
       <c r="B19" s="24" t="s">
         <v>79</v>
@@ -3925,7 +3922,7 @@
       <c r="BK19" s="15"/>
       <c r="BL19" s="15"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18"/>
       <c r="B20" s="24" t="s">
         <v>87</v>
@@ -4003,7 +4000,7 @@
       <c r="BK20" s="15"/>
       <c r="BL20" s="15"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18"/>
       <c r="B21" s="24" t="s">
         <v>82</v>
@@ -4084,7 +4081,7 @@
       <c r="BK21" s="15"/>
       <c r="BL21" s="15"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18"/>
       <c r="B22" s="24" t="s">
         <v>80</v>
@@ -4165,7 +4162,7 @@
       <c r="BK22" s="15"/>
       <c r="BL22" s="15"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18"/>
       <c r="B23" s="33" t="s">
         <v>24</v>
@@ -4246,7 +4243,7 @@
       <c r="BK23" s="15"/>
       <c r="BL23" s="15"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="18"/>
       <c r="B24" s="24" t="s">
         <v>25</v>
@@ -4327,7 +4324,7 @@
       <c r="BK24" s="15"/>
       <c r="BL24" s="15"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18"/>
       <c r="B25" s="24" t="s">
         <v>33</v>
@@ -4408,7 +4405,7 @@
       <c r="BK25" s="15"/>
       <c r="BL25" s="15"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="18"/>
       <c r="B26" s="24" t="s">
         <v>80</v>
@@ -4489,7 +4486,7 @@
       <c r="BK26" s="15"/>
       <c r="BL26" s="15"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18"/>
       <c r="B27" s="24" t="s">
         <v>78</v>
@@ -4570,7 +4567,7 @@
       <c r="BK27" s="15"/>
       <c r="BL27" s="15"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="18"/>
       <c r="B28" s="33" t="s">
         <v>34</v>
@@ -4648,7 +4645,7 @@
       <c r="BK28" s="15"/>
       <c r="BL28" s="15"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18" t="s">
         <v>8</v>
       </c>
@@ -4721,7 +4718,7 @@
       <c r="BK29" s="15"/>
       <c r="BL29" s="15"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>35</v>
@@ -4802,7 +4799,7 @@
       <c r="BK30" s="15"/>
       <c r="BL30" s="15"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="18"/>
       <c r="B31" s="24" t="s">
         <v>36</v>
@@ -4883,7 +4880,7 @@
       <c r="BK31" s="15"/>
       <c r="BL31" s="15"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="18"/>
       <c r="B32" s="24" t="s">
         <v>88</v>
@@ -4964,7 +4961,7 @@
       <c r="BK32" s="15"/>
       <c r="BL32" s="15"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="18"/>
       <c r="B33" s="24" t="s">
         <v>83</v>
@@ -5045,7 +5042,7 @@
       <c r="BK33" s="15"/>
       <c r="BL33" s="15"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="18"/>
       <c r="B34" s="24" t="s">
         <v>77</v>
@@ -5126,7 +5123,7 @@
       <c r="BK34" s="15"/>
       <c r="BL34" s="15"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="18"/>
       <c r="B35" s="24" t="s">
         <v>78</v>
@@ -5204,7 +5201,7 @@
       <c r="BK35" s="15"/>
       <c r="BL35" s="15"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="18"/>
       <c r="B36" s="33" t="s">
         <v>43</v>
@@ -5285,7 +5282,7 @@
       <c r="BK36" s="15"/>
       <c r="BL36" s="15"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
         <v>8</v>
       </c>
@@ -5358,7 +5355,7 @@
       <c r="BK37" s="15"/>
       <c r="BL37" s="15"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>50</v>
@@ -5439,7 +5436,7 @@
       <c r="BK38" s="15"/>
       <c r="BL38" s="15"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18"/>
       <c r="B39" s="24" t="s">
         <v>86</v>
@@ -5520,7 +5517,7 @@
       <c r="BK39" s="15"/>
       <c r="BL39" s="15"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="18"/>
       <c r="B40" s="24" t="s">
         <v>85</v>
@@ -5601,7 +5598,7 @@
       <c r="BK40" s="15"/>
       <c r="BL40" s="15"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="18"/>
       <c r="B41" s="24" t="s">
         <v>84</v>
@@ -5679,7 +5676,7 @@
       <c r="BK41" s="15"/>
       <c r="BL41" s="15"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="18"/>
       <c r="B42" s="33" t="s">
         <v>51</v>
@@ -5760,7 +5757,7 @@
       <c r="BK42" s="15"/>
       <c r="BL42" s="15"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="18" t="s">
         <v>8</v>
       </c>
@@ -5833,7 +5830,7 @@
       <c r="BK43" s="15"/>
       <c r="BL43" s="15"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18"/>
       <c r="B44" s="24" t="s">
         <v>52</v>
@@ -5914,7 +5911,7 @@
       <c r="BK44" s="15"/>
       <c r="BL44" s="15"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="18"/>
       <c r="B45" s="32" t="s">
         <v>53</v>
@@ -5995,7 +5992,7 @@
       <c r="BK45" s="15"/>
       <c r="BL45" s="15"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="18"/>
       <c r="B46" s="24" t="s">
         <v>89</v>
@@ -6076,7 +6073,7 @@
       <c r="BK46" s="15"/>
       <c r="BL46" s="15"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="18"/>
       <c r="B47" s="24" t="s">
         <v>93</v>
@@ -6157,7 +6154,7 @@
       <c r="BK47" s="15"/>
       <c r="BL47" s="15"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="18"/>
       <c r="B48" s="33" t="s">
         <v>37</v>
@@ -6238,7 +6235,7 @@
       <c r="BK48" s="15"/>
       <c r="BL48" s="15"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="18" t="s">
         <v>8</v>
       </c>
@@ -6311,7 +6308,7 @@
       <c r="BK49" s="15"/>
       <c r="BL49" s="15"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="18"/>
       <c r="B50" s="24" t="s">
         <v>38</v>
@@ -6390,7 +6387,7 @@
       <c r="BK50" s="15"/>
       <c r="BL50" s="15"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="18"/>
       <c r="B51" s="24" t="s">
         <v>39</v>
@@ -6471,7 +6468,7 @@
       <c r="BK51" s="15"/>
       <c r="BL51" s="15"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="18"/>
       <c r="B52" s="24" t="s">
         <v>57</v>
@@ -6549,7 +6546,7 @@
       <c r="BK52" s="15"/>
       <c r="BL52" s="15"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="18"/>
       <c r="B53" s="24" t="s">
         <v>58</v>
@@ -6627,7 +6624,7 @@
       <c r="BK53" s="15"/>
       <c r="BL53" s="15"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="18"/>
       <c r="B54" s="24" t="s">
         <v>59</v>
@@ -6705,7 +6702,7 @@
       <c r="BK54" s="15"/>
       <c r="BL54" s="15"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="18"/>
       <c r="B55" s="24" t="s">
         <v>91</v>
@@ -6783,7 +6780,7 @@
       <c r="BK55" s="15"/>
       <c r="BL55" s="15"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="18"/>
       <c r="B56" s="24" t="s">
         <v>90</v>
@@ -6861,7 +6858,7 @@
       <c r="BK56" s="15"/>
       <c r="BL56" s="15"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="18"/>
       <c r="B57" s="33" t="s">
         <v>40</v>
@@ -6942,7 +6939,7 @@
       <c r="BK57" s="15"/>
       <c r="BL57" s="15"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="18" t="s">
         <v>8</v>
       </c>
@@ -7015,7 +7012,7 @@
       <c r="BK58" s="15"/>
       <c r="BL58" s="15"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18"/>
       <c r="B59" s="24" t="s">
         <v>41</v>
@@ -7094,7 +7091,7 @@
       <c r="BK59" s="15"/>
       <c r="BL59" s="15"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="18"/>
       <c r="B60" s="24" t="s">
         <v>42</v>
@@ -7173,7 +7170,7 @@
       <c r="BK60" s="15"/>
       <c r="BL60" s="15"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18"/>
       <c r="B61" s="24" t="s">
         <v>73</v>
@@ -7249,7 +7246,7 @@
       <c r="BK61" s="15"/>
       <c r="BL61" s="15"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="18"/>
       <c r="B62" s="24" t="s">
         <v>76</v>
@@ -7325,7 +7322,7 @@
       <c r="BK62" s="15"/>
       <c r="BL62" s="15"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="18"/>
       <c r="B63" s="24" t="s">
         <v>75</v>
@@ -7401,7 +7398,7 @@
       <c r="BK63" s="15"/>
       <c r="BL63" s="15"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="18"/>
       <c r="B64" s="24" t="s">
         <v>92</v>
@@ -7480,7 +7477,7 @@
       <c r="BK64" s="15"/>
       <c r="BL64" s="15"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="18"/>
       <c r="B65" s="24" t="s">
         <v>94</v>
@@ -7556,7 +7553,7 @@
       <c r="BK65" s="15"/>
       <c r="BL65" s="15"/>
     </row>
-    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="18" t="s">
         <v>8</v>
       </c>
@@ -7629,7 +7626,7 @@
       <c r="BK66" s="15"/>
       <c r="BL66" s="15"/>
     </row>
-    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="18"/>
       <c r="B67" s="24" t="s">
         <v>95</v>
@@ -7705,7 +7702,7 @@
       <c r="BK67" s="15"/>
       <c r="BL67" s="15"/>
     </row>
-    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="18"/>
       <c r="B68" s="24" t="s">
         <v>96</v>
@@ -7781,7 +7778,7 @@
       <c r="BK68" s="15"/>
       <c r="BL68" s="15"/>
     </row>
-    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="18"/>
       <c r="B69" s="24" t="s">
         <v>104</v>
@@ -7857,7 +7854,7 @@
       <c r="BK69" s="15"/>
       <c r="BL69" s="15"/>
     </row>
-    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="18"/>
       <c r="B70" s="24" t="s">
         <v>105</v>
@@ -7933,7 +7930,7 @@
       <c r="BK70" s="15"/>
       <c r="BL70" s="15"/>
     </row>
-    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="18"/>
       <c r="B71" s="24" t="s">
         <v>97</v>
@@ -8009,7 +8006,7 @@
       <c r="BK71" s="15"/>
       <c r="BL71" s="15"/>
     </row>
-    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="18"/>
       <c r="B72" s="24" t="s">
         <v>109</v>
@@ -8085,7 +8082,7 @@
       <c r="BK72" s="15"/>
       <c r="BL72" s="15"/>
     </row>
-    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18"/>
       <c r="B73" s="24" t="s">
         <v>98</v>
@@ -8164,7 +8161,7 @@
       <c r="BK73" s="15"/>
       <c r="BL73" s="15"/>
     </row>
-    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="18"/>
       <c r="B74" s="33" t="s">
         <v>44</v>
@@ -8243,7 +8240,7 @@
       <c r="BK74" s="15"/>
       <c r="BL74" s="15"/>
     </row>
-    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="18"/>
       <c r="B75" s="24" t="s">
         <v>45</v>
@@ -8317,7 +8314,7 @@
       <c r="BK75" s="15"/>
       <c r="BL75" s="15"/>
     </row>
-    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="18" t="s">
         <v>8</v>
       </c>
@@ -8390,7 +8387,7 @@
       <c r="BK76" s="15"/>
       <c r="BL76" s="15"/>
     </row>
-    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="18"/>
       <c r="B77" s="24" t="s">
         <v>46</v>
@@ -8399,7 +8396,7 @@
         <v>26</v>
       </c>
       <c r="D77" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="29">
         <v>44669</v>
@@ -8469,7 +8466,7 @@
       <c r="BK77" s="15"/>
       <c r="BL77" s="15"/>
     </row>
-    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="18"/>
       <c r="B78" s="24" t="s">
         <v>99</v>
@@ -8545,7 +8542,7 @@
       <c r="BK78" s="15"/>
       <c r="BL78" s="15"/>
     </row>
-    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="18"/>
       <c r="B79" s="24" t="s">
         <v>100</v>
@@ -8621,7 +8618,7 @@
       <c r="BK79" s="15"/>
       <c r="BL79" s="15"/>
     </row>
-    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="18"/>
       <c r="B80" s="24" t="s">
         <v>101</v>
@@ -8697,7 +8694,7 @@
       <c r="BK80" s="15"/>
       <c r="BL80" s="15"/>
     </row>
-    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="18"/>
       <c r="B81" s="24" t="s">
         <v>108</v>
@@ -8773,7 +8770,7 @@
       <c r="BK81" s="15"/>
       <c r="BL81" s="15"/>
     </row>
-    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="18"/>
       <c r="B82" s="24" t="s">
         <v>106</v>
@@ -8782,7 +8779,7 @@
         <v>71</v>
       </c>
       <c r="D82" s="14">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E82" s="29">
         <v>44669</v>
@@ -8849,7 +8846,7 @@
       <c r="BK82" s="15"/>
       <c r="BL82" s="15"/>
     </row>
-    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="18"/>
       <c r="B83" s="24" t="s">
         <v>107</v>
@@ -8858,7 +8855,7 @@
         <v>27</v>
       </c>
       <c r="D83" s="14">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E83" s="29">
         <v>44669</v>
@@ -8925,25 +8922,22 @@
       <c r="BK83" s="15"/>
       <c r="BL83" s="15"/>
     </row>
-    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
-      <c r="B84" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84" s="14">
-        <v>0</v>
-      </c>
-      <c r="E84" s="29">
-        <v>44669</v>
-      </c>
-      <c r="F84" s="29">
-        <v>44690</v>
-      </c>
+    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" s="38"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
+      <c r="H84" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
@@ -9001,22 +8995,26 @@
       <c r="BK84" s="15"/>
       <c r="BL84" s="15"/>
     </row>
-    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C85" s="38"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
+    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="18"/>
+      <c r="B85" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="35">
+        <v>0</v>
+      </c>
+      <c r="E85" s="36">
+        <v>44690</v>
+      </c>
+      <c r="F85" s="36">
+        <f>E85+12</f>
+        <v>44702</v>
+      </c>
       <c r="G85" s="13"/>
-      <c r="H85" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H85" s="13"/>
       <c r="I85" s="15"/>
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
@@ -9074,22 +9072,21 @@
       <c r="BK85" s="15"/>
       <c r="BL85" s="15"/>
     </row>
-    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="18"/>
-      <c r="B86" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C86" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" s="35">
+      <c r="B86" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="14">
         <v>0</v>
       </c>
-      <c r="E86" s="36">
-        <v>44690</v>
-      </c>
-      <c r="F86" s="36">
-        <f>E86+12</f>
+      <c r="E86" s="29">
+        <v>44698</v>
+      </c>
+      <c r="F86" s="29">
         <v>44702</v>
       </c>
       <c r="G86" s="13"/>
@@ -9151,25 +9148,28 @@
       <c r="BK86" s="15"/>
       <c r="BL86" s="15"/>
     </row>
-    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="18"/>
       <c r="B87" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D87" s="14">
         <v>0</v>
       </c>
       <c r="E87" s="29">
-        <v>44690</v>
+        <v>44698</v>
       </c>
       <c r="F87" s="29">
-        <v>44702</v>
+        <v>44715</v>
       </c>
       <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
+      <c r="H87" s="13">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
       <c r="I87" s="15"/>
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
@@ -9227,28 +9227,25 @@
       <c r="BK87" s="15"/>
       <c r="BL87" s="15"/>
     </row>
-    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="18"/>
       <c r="B88" s="24" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D88" s="14">
         <v>0</v>
       </c>
       <c r="E88" s="29">
+        <v>44691</v>
+      </c>
+      <c r="F88" s="29">
         <v>44698</v>
       </c>
-      <c r="F88" s="29">
-        <v>44715</v>
-      </c>
       <c r="G88" s="13"/>
-      <c r="H88" s="13">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
+      <c r="H88" s="13"/>
       <c r="I88" s="15"/>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
@@ -9306,10 +9303,10 @@
       <c r="BK88" s="15"/>
       <c r="BL88" s="15"/>
     </row>
-    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="18"/>
       <c r="B89" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C89" s="22" t="s">
         <v>30</v>
@@ -9382,13 +9379,13 @@
       <c r="BK89" s="15"/>
       <c r="BL89" s="15"/>
     </row>
-    <row r="90" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="18"/>
       <c r="B90" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D90" s="14">
         <v>0</v>
@@ -9458,165 +9455,167 @@
       <c r="BK90" s="15"/>
       <c r="BL90" s="15"/>
     </row>
-    <row r="91" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="18"/>
-      <c r="B91" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D91" s="14"/>
-      <c r="E91" s="29">
+    <row r="91" spans="1:64" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="41"/>
+      <c r="B91" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="44">
+        <v>0</v>
+      </c>
+      <c r="E91" s="45">
         <v>44691</v>
       </c>
-      <c r="F91" s="29">
-        <v>44698</v>
-      </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="15"/>
-      <c r="S91" s="15"/>
-      <c r="T91" s="15"/>
-      <c r="U91" s="15"/>
-      <c r="V91" s="15"/>
-      <c r="W91" s="15"/>
-      <c r="X91" s="15"/>
-      <c r="Y91" s="15"/>
-      <c r="Z91" s="15"/>
-      <c r="AA91" s="15"/>
-      <c r="AB91" s="15"/>
-      <c r="AC91" s="15"/>
-      <c r="AD91" s="15"/>
-      <c r="AE91" s="15"/>
-      <c r="AF91" s="15"/>
-      <c r="AG91" s="15"/>
-      <c r="AH91" s="15"/>
-      <c r="AI91" s="15"/>
-      <c r="AJ91" s="15"/>
-      <c r="AK91" s="15"/>
-      <c r="AL91" s="15"/>
-      <c r="AM91" s="15"/>
-      <c r="AN91" s="15"/>
-      <c r="AO91" s="15"/>
-      <c r="AP91" s="15"/>
-      <c r="AQ91" s="15"/>
-      <c r="AR91" s="15"/>
-      <c r="AS91" s="15"/>
-      <c r="AT91" s="15"/>
-      <c r="AU91" s="15"/>
-      <c r="AV91" s="15"/>
-      <c r="AW91" s="15"/>
-      <c r="AX91" s="15"/>
-      <c r="AY91" s="15"/>
-      <c r="AZ91" s="15"/>
-      <c r="BA91" s="15"/>
-      <c r="BB91" s="15"/>
-      <c r="BC91" s="15"/>
-      <c r="BD91" s="15"/>
-      <c r="BE91" s="15"/>
-      <c r="BF91" s="15"/>
-      <c r="BG91" s="15"/>
-      <c r="BH91" s="15"/>
-      <c r="BI91" s="15"/>
-      <c r="BJ91" s="15"/>
-      <c r="BK91" s="15"/>
-      <c r="BL91" s="15"/>
+      <c r="F91" s="45">
+        <v>44711</v>
+      </c>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="47"/>
+      <c r="N91" s="47"/>
+      <c r="O91" s="47"/>
+      <c r="P91" s="47"/>
+      <c r="Q91" s="47"/>
+      <c r="R91" s="47"/>
+      <c r="S91" s="47"/>
+      <c r="T91" s="47"/>
+      <c r="U91" s="47"/>
+      <c r="V91" s="47"/>
+      <c r="W91" s="47"/>
+      <c r="X91" s="47"/>
+      <c r="Y91" s="47"/>
+      <c r="Z91" s="47"/>
+      <c r="AA91" s="47"/>
+      <c r="AB91" s="47"/>
+      <c r="AC91" s="47"/>
+      <c r="AD91" s="47"/>
+      <c r="AE91" s="47"/>
+      <c r="AF91" s="47"/>
+      <c r="AG91" s="47"/>
+      <c r="AH91" s="47"/>
+      <c r="AI91" s="47"/>
+      <c r="AJ91" s="47"/>
+      <c r="AK91" s="47"/>
+      <c r="AL91" s="47"/>
+      <c r="AM91" s="47"/>
+      <c r="AN91" s="47"/>
+      <c r="AO91" s="47"/>
+      <c r="AP91" s="47"/>
+      <c r="AQ91" s="47"/>
+      <c r="AR91" s="47"/>
+      <c r="AS91" s="47"/>
+      <c r="AT91" s="47"/>
+      <c r="AU91" s="47"/>
+      <c r="AV91" s="47"/>
+      <c r="AW91" s="47"/>
+      <c r="AX91" s="47"/>
+      <c r="AY91" s="47"/>
+      <c r="AZ91" s="47"/>
+      <c r="BA91" s="47"/>
+      <c r="BB91" s="47"/>
+      <c r="BC91" s="47"/>
+      <c r="BD91" s="47"/>
+      <c r="BE91" s="47"/>
+      <c r="BF91" s="47"/>
+      <c r="BG91" s="47"/>
+      <c r="BH91" s="47"/>
+      <c r="BI91" s="47"/>
+      <c r="BJ91" s="47"/>
+      <c r="BK91" s="47"/>
+      <c r="BL91" s="47"/>
     </row>
-    <row r="92" spans="1:64" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
-      <c r="B92" s="42" t="s">
+    <row r="92" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="18"/>
+      <c r="B92" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" s="38"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
+      <c r="S92" s="15"/>
+      <c r="T92" s="15"/>
+      <c r="U92" s="15"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="15"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="15"/>
+      <c r="AA92" s="15"/>
+      <c r="AB92" s="15"/>
+      <c r="AC92" s="15"/>
+      <c r="AD92" s="15"/>
+      <c r="AE92" s="15"/>
+      <c r="AF92" s="15"/>
+      <c r="AG92" s="15"/>
+      <c r="AH92" s="15"/>
+      <c r="AI92" s="15"/>
+      <c r="AJ92" s="15"/>
+      <c r="AK92" s="15"/>
+      <c r="AL92" s="15"/>
+      <c r="AM92" s="15"/>
+      <c r="AN92" s="15"/>
+      <c r="AO92" s="15"/>
+      <c r="AP92" s="15"/>
+      <c r="AQ92" s="15"/>
+      <c r="AR92" s="15"/>
+      <c r="AS92" s="15"/>
+      <c r="AT92" s="15"/>
+      <c r="AU92" s="15"/>
+      <c r="AV92" s="15"/>
+      <c r="AW92" s="15"/>
+      <c r="AX92" s="15"/>
+      <c r="AY92" s="15"/>
+      <c r="AZ92" s="15"/>
+      <c r="BA92" s="15"/>
+      <c r="BB92" s="15"/>
+      <c r="BC92" s="15"/>
+      <c r="BD92" s="15"/>
+      <c r="BE92" s="15"/>
+      <c r="BF92" s="15"/>
+      <c r="BG92" s="15"/>
+      <c r="BH92" s="15"/>
+      <c r="BI92" s="15"/>
+      <c r="BJ92" s="15"/>
+      <c r="BK92" s="15"/>
+      <c r="BL92" s="15"/>
+    </row>
+    <row r="93" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="18"/>
+      <c r="B93" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C92" s="43" t="s">
+      <c r="C93" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="44">
+      <c r="D93" s="14">
         <v>0</v>
       </c>
-      <c r="E92" s="45">
-        <v>44691</v>
-      </c>
-      <c r="F92" s="45">
-        <v>44711</v>
-      </c>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="47"/>
-      <c r="P92" s="47"/>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="47"/>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
-      <c r="U92" s="47"/>
-      <c r="V92" s="47"/>
-      <c r="W92" s="47"/>
-      <c r="X92" s="47"/>
-      <c r="Y92" s="47"/>
-      <c r="Z92" s="47"/>
-      <c r="AA92" s="47"/>
-      <c r="AB92" s="47"/>
-      <c r="AC92" s="47"/>
-      <c r="AD92" s="47"/>
-      <c r="AE92" s="47"/>
-      <c r="AF92" s="47"/>
-      <c r="AG92" s="47"/>
-      <c r="AH92" s="47"/>
-      <c r="AI92" s="47"/>
-      <c r="AJ92" s="47"/>
-      <c r="AK92" s="47"/>
-      <c r="AL92" s="47"/>
-      <c r="AM92" s="47"/>
-      <c r="AN92" s="47"/>
-      <c r="AO92" s="47"/>
-      <c r="AP92" s="47"/>
-      <c r="AQ92" s="47"/>
-      <c r="AR92" s="47"/>
-      <c r="AS92" s="47"/>
-      <c r="AT92" s="47"/>
-      <c r="AU92" s="47"/>
-      <c r="AV92" s="47"/>
-      <c r="AW92" s="47"/>
-      <c r="AX92" s="47"/>
-      <c r="AY92" s="47"/>
-      <c r="AZ92" s="47"/>
-      <c r="BA92" s="47"/>
-      <c r="BB92" s="47"/>
-      <c r="BC92" s="47"/>
-      <c r="BD92" s="47"/>
-      <c r="BE92" s="47"/>
-      <c r="BF92" s="47"/>
-      <c r="BG92" s="47"/>
-      <c r="BH92" s="47"/>
-      <c r="BI92" s="47"/>
-      <c r="BJ92" s="47"/>
-      <c r="BK92" s="47"/>
-      <c r="BL92" s="47"/>
-    </row>
-    <row r="93" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="18"/>
-      <c r="B93" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C93" s="38"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="40"/>
-      <c r="F93" s="40"/>
+      <c r="E93" s="29">
+        <v>44713</v>
+      </c>
+      <c r="F93" s="29">
+        <v>44716</v>
+      </c>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
       <c r="I93" s="15"/>
@@ -9676,25 +9675,29 @@
       <c r="BK93" s="15"/>
       <c r="BL93" s="15"/>
     </row>
-    <row r="94" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="18"/>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D94" s="14">
+      <c r="D94" s="35">
         <v>0</v>
       </c>
-      <c r="E94" s="29">
-        <v>44713</v>
-      </c>
-      <c r="F94" s="29">
+      <c r="E94" s="36">
         <v>44716</v>
       </c>
+      <c r="F94" s="36">
+        <f>E94</f>
+        <v>44716</v>
+      </c>
       <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
+      <c r="H94" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
@@ -9752,28 +9755,19 @@
       <c r="BK94" s="15"/>
       <c r="BL94" s="15"/>
     </row>
-    <row r="95" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
-      <c r="B95" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C95" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D95" s="35">
-        <v>0</v>
-      </c>
-      <c r="E95" s="36">
-        <v>44716</v>
-      </c>
-      <c r="F95" s="36">
-        <f>E95</f>
-        <v>44716</v>
-      </c>
+    <row r="95" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="25"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
       <c r="G95" s="13"/>
-      <c r="H95" s="13">
+      <c r="H95" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
@@ -9832,89 +9826,23 @@
       <c r="BK95" s="15"/>
       <c r="BL95" s="15"/>
     </row>
-    <row r="96" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="25"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="15"/>
-      <c r="S96" s="15"/>
-      <c r="T96" s="15"/>
-      <c r="U96" s="15"/>
-      <c r="V96" s="15"/>
-      <c r="W96" s="15"/>
-      <c r="X96" s="15"/>
-      <c r="Y96" s="15"/>
-      <c r="Z96" s="15"/>
-      <c r="AA96" s="15"/>
-      <c r="AB96" s="15"/>
-      <c r="AC96" s="15"/>
-      <c r="AD96" s="15"/>
-      <c r="AE96" s="15"/>
-      <c r="AF96" s="15"/>
-      <c r="AG96" s="15"/>
-      <c r="AH96" s="15"/>
-      <c r="AI96" s="15"/>
-      <c r="AJ96" s="15"/>
-      <c r="AK96" s="15"/>
-      <c r="AL96" s="15"/>
-      <c r="AM96" s="15"/>
-      <c r="AN96" s="15"/>
-      <c r="AO96" s="15"/>
-      <c r="AP96" s="15"/>
-      <c r="AQ96" s="15"/>
-      <c r="AR96" s="15"/>
-      <c r="AS96" s="15"/>
-      <c r="AT96" s="15"/>
-      <c r="AU96" s="15"/>
-      <c r="AV96" s="15"/>
-      <c r="AW96" s="15"/>
-      <c r="AX96" s="15"/>
-      <c r="AY96" s="15"/>
-      <c r="AZ96" s="15"/>
-      <c r="BA96" s="15"/>
-      <c r="BB96" s="15"/>
-      <c r="BC96" s="15"/>
-      <c r="BD96" s="15"/>
-      <c r="BE96" s="15"/>
-      <c r="BF96" s="15"/>
-      <c r="BG96" s="15"/>
-      <c r="BH96" s="15"/>
-      <c r="BI96" s="15"/>
-      <c r="BJ96" s="15"/>
-      <c r="BK96" s="15"/>
-      <c r="BL96" s="15"/>
+    <row r="96" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G97" s="6"/>
+    <row r="97" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C97" s="10"/>
+      <c r="F97" s="20"/>
     </row>
-    <row r="98" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="10"/>
-      <c r="F98" s="20"/>
-    </row>
-    <row r="99" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C99" s="11"/>
+    <row r="98" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C98" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -9923,13 +9851,8 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D16:D17 D96 D24:D27 D19:D22 D50:D56 D77:D84 D75 D67:D73 D92 D87:D88">
+  <conditionalFormatting sqref="D16:D17 D95 D24:D27 D19:D22 D50:D56 D77:D83 D75 D67:D73 D91 D86:D87">
     <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9943,12 +9866,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I96:BL96 I34:BL36 I6:BL27 I29:BL31 I49:BL56 I66:BL73 I76:BL94">
+  <conditionalFormatting sqref="I95:BL95 I34:BL36 I6:BL27 I29:BL31 I49:BL56 I66:BL73 I76:BL93">
     <cfRule type="expression" dxfId="44" priority="133">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I96:BL96 I34:BL36 I8:BL27 I29:BL31 I49:BL56 I66:BL73 I76:BL94">
+  <conditionalFormatting sqref="I95:BL95 I34:BL36 I8:BL27 I29:BL31 I49:BL56 I66:BL73 I76:BL93">
     <cfRule type="expression" dxfId="43" priority="131">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -10119,7 +10042,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D86:D91">
+  <conditionalFormatting sqref="D85:D90">
     <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10133,12 +10056,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I86:BL91">
+  <conditionalFormatting sqref="I85:BL90">
     <cfRule type="expression" dxfId="26" priority="78">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I86:BL91">
+  <conditionalFormatting sqref="I85:BL90">
     <cfRule type="expression" dxfId="25" priority="76">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -10146,12 +10069,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I95:BL95">
+  <conditionalFormatting sqref="I94:BL94">
     <cfRule type="expression" dxfId="23" priority="72">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I95:BL95">
+  <conditionalFormatting sqref="I94:BL94">
     <cfRule type="expression" dxfId="22" priority="70">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -10461,7 +10384,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
+  <conditionalFormatting sqref="D85">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10475,7 +10398,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D95">
+  <conditionalFormatting sqref="D94">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10587,7 +10510,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D85:D86">
+  <conditionalFormatting sqref="D84:D85">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10628,7 +10551,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
+  <conditionalFormatting sqref="D92">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10642,7 +10565,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
+  <conditionalFormatting sqref="D93">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10683,7 +10606,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D16:D17 D96 D24:D27 D19:D22 D50:D56 D77:D84 D75 D67:D73 D92 D87:D88</xm:sqref>
+          <xm:sqref>D16:D17 D95 D24:D27 D19:D22 D50:D56 D77:D83 D75 D67:D73 D91 D86:D87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61BAFCB1-C9D1-4453-9835-894AAFFB2D48}">
@@ -10803,7 +10726,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D86:D91</xm:sqref>
+          <xm:sqref>D85:D90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{70FE4911-65CD-4B63-902B-DAD573D9D1E7}">
@@ -11058,7 +10981,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D86</xm:sqref>
+          <xm:sqref>D85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CB458C94-EC1D-48A0-8F37-BA38EE604418}">
@@ -11073,7 +10996,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D95</xm:sqref>
+          <xm:sqref>D94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC19E591-9826-41D2-8753-21A5AEC1982F}">
@@ -11193,7 +11116,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D85:D86</xm:sqref>
+          <xm:sqref>D84:D85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8A618AE5-6A10-402E-8877-7F8471EF9C36}">
@@ -11223,7 +11146,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D93</xm:sqref>
+          <xm:sqref>D92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{265A8D0E-6EC0-416D-AE24-C0891B72B939}">
@@ -11238,7 +11161,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D94</xm:sqref>
+          <xm:sqref>D93</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7FB3DF-5E4A-4F4D-ABD6-863CAC1E3A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206FA57F-109C-5642-B0DA-D010097A3EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -1330,6 +1330,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1351,7 +1352,6 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2326,24 +2326,24 @@
   <dimension ref="A1:BL98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
+      <pane ySplit="7" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.36328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="69.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="2.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="9.5" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2357,9 +2357,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1"/>
@@ -2369,9 +2369,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
-      <c r="B3" s="52"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2379,122 +2379,122 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55">
+      <c r="D4" s="55"/>
+      <c r="E4" s="56">
         <v>44459</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="56"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="31">
         <v>28</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="50">
         <f>I6</f>
         <v>44648</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="49">
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="50">
         <f>P6</f>
         <v>44655</v>
       </c>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="49">
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="50">
         <f>W6</f>
         <v>44662</v>
       </c>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="49">
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="50">
         <f>AD6</f>
         <v>44669</v>
       </c>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="49">
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="50">
         <f>AK6</f>
         <v>44676</v>
       </c>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="49">
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="51"/>
+      <c r="AP5" s="51"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="50">
         <f>AR6</f>
         <v>44683</v>
       </c>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="50"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="51"/>
-      <c r="AY5" s="49">
+      <c r="AS5" s="51"/>
+      <c r="AT5" s="51"/>
+      <c r="AU5" s="51"/>
+      <c r="AV5" s="51"/>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="50">
         <f>AY6</f>
         <v>44690</v>
       </c>
-      <c r="AZ5" s="50"/>
-      <c r="BA5" s="50"/>
-      <c r="BB5" s="50"/>
-      <c r="BC5" s="50"/>
-      <c r="BD5" s="50"/>
-      <c r="BE5" s="51"/>
-      <c r="BF5" s="49">
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="51"/>
+      <c r="BC5" s="51"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="52"/>
+      <c r="BF5" s="50">
         <f>BF6</f>
         <v>44697</v>
       </c>
-      <c r="BG5" s="50"/>
-      <c r="BH5" s="50"/>
-      <c r="BI5" s="50"/>
-      <c r="BJ5" s="50"/>
-      <c r="BK5" s="50"/>
-      <c r="BL5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="51"/>
+      <c r="BK5" s="51"/>
+      <c r="BL5" s="52"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44648</v>
@@ -2720,7 +2720,7 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="BK8" s="15"/>
       <c r="BL8" s="15"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -3123,7 +3123,7 @@
       <c r="BK9" s="15"/>
       <c r="BL9" s="15"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
@@ -3206,7 +3206,7 @@
       <c r="BK10" s="15"/>
       <c r="BL10" s="15"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="24" t="s">
         <v>21</v>
@@ -3287,7 +3287,7 @@
       <c r="BK11" s="15"/>
       <c r="BL11" s="15"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="24" t="s">
         <v>103</v>
@@ -3368,7 +3368,7 @@
       <c r="BK12" s="15"/>
       <c r="BL12" s="15"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="24" t="s">
         <v>102</v>
@@ -3444,7 +3444,7 @@
       <c r="BK13" s="15"/>
       <c r="BL13" s="15"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="24" t="s">
         <v>22</v>
@@ -3525,7 +3525,7 @@
       <c r="BK14" s="15"/>
       <c r="BL14" s="15"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="33" t="s">
         <v>62</v>
@@ -3606,7 +3606,7 @@
       <c r="BK15" s="15"/>
       <c r="BL15" s="15"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="24" t="s">
         <v>23</v>
@@ -3687,7 +3687,7 @@
       <c r="BK16" s="15"/>
       <c r="BL16" s="15"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="24" t="s">
         <v>81</v>
@@ -3768,7 +3768,7 @@
       <c r="BK17" s="15"/>
       <c r="BL17" s="15"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>8</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="BK18" s="15"/>
       <c r="BL18" s="15"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="24" t="s">
         <v>79</v>
@@ -3922,7 +3922,7 @@
       <c r="BK19" s="15"/>
       <c r="BL19" s="15"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="24" t="s">
         <v>87</v>
@@ -4000,7 +4000,7 @@
       <c r="BK20" s="15"/>
       <c r="BL20" s="15"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="24" t="s">
         <v>82</v>
@@ -4081,7 +4081,7 @@
       <c r="BK21" s="15"/>
       <c r="BL21" s="15"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="24" t="s">
         <v>80</v>
@@ -4162,7 +4162,7 @@
       <c r="BK22" s="15"/>
       <c r="BL22" s="15"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="33" t="s">
         <v>24</v>
@@ -4243,7 +4243,7 @@
       <c r="BK23" s="15"/>
       <c r="BL23" s="15"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="24" t="s">
         <v>25</v>
@@ -4324,7 +4324,7 @@
       <c r="BK24" s="15"/>
       <c r="BL24" s="15"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="24" t="s">
         <v>33</v>
@@ -4405,7 +4405,7 @@
       <c r="BK25" s="15"/>
       <c r="BL25" s="15"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="24" t="s">
         <v>80</v>
@@ -4486,7 +4486,7 @@
       <c r="BK26" s="15"/>
       <c r="BL26" s="15"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="24" t="s">
         <v>78</v>
@@ -4567,7 +4567,7 @@
       <c r="BK27" s="15"/>
       <c r="BL27" s="15"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="33" t="s">
         <v>34</v>
@@ -4645,7 +4645,7 @@
       <c r="BK28" s="15"/>
       <c r="BL28" s="15"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>8</v>
       </c>
@@ -4718,7 +4718,7 @@
       <c r="BK29" s="15"/>
       <c r="BL29" s="15"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>35</v>
@@ -4799,7 +4799,7 @@
       <c r="BK30" s="15"/>
       <c r="BL30" s="15"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="24" t="s">
         <v>36</v>
@@ -4880,7 +4880,7 @@
       <c r="BK31" s="15"/>
       <c r="BL31" s="15"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="24" t="s">
         <v>88</v>
@@ -4961,7 +4961,7 @@
       <c r="BK32" s="15"/>
       <c r="BL32" s="15"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="24" t="s">
         <v>83</v>
@@ -5042,7 +5042,7 @@
       <c r="BK33" s="15"/>
       <c r="BL33" s="15"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="24" t="s">
         <v>77</v>
@@ -5123,7 +5123,7 @@
       <c r="BK34" s="15"/>
       <c r="BL34" s="15"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="24" t="s">
         <v>78</v>
@@ -5201,7 +5201,7 @@
       <c r="BK35" s="15"/>
       <c r="BL35" s="15"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="33" t="s">
         <v>43</v>
@@ -5282,7 +5282,7 @@
       <c r="BK36" s="15"/>
       <c r="BL36" s="15"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>8</v>
       </c>
@@ -5355,7 +5355,7 @@
       <c r="BK37" s="15"/>
       <c r="BL37" s="15"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>50</v>
@@ -5436,7 +5436,7 @@
       <c r="BK38" s="15"/>
       <c r="BL38" s="15"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="24" t="s">
         <v>86</v>
@@ -5517,7 +5517,7 @@
       <c r="BK39" s="15"/>
       <c r="BL39" s="15"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="24" t="s">
         <v>85</v>
@@ -5598,7 +5598,7 @@
       <c r="BK40" s="15"/>
       <c r="BL40" s="15"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="24" t="s">
         <v>84</v>
@@ -5676,7 +5676,7 @@
       <c r="BK41" s="15"/>
       <c r="BL41" s="15"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="33" t="s">
         <v>51</v>
@@ -5757,7 +5757,7 @@
       <c r="BK42" s="15"/>
       <c r="BL42" s="15"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>8</v>
       </c>
@@ -5830,7 +5830,7 @@
       <c r="BK43" s="15"/>
       <c r="BL43" s="15"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="24" t="s">
         <v>52</v>
@@ -5911,7 +5911,7 @@
       <c r="BK44" s="15"/>
       <c r="BL44" s="15"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="32" t="s">
         <v>53</v>
@@ -5992,7 +5992,7 @@
       <c r="BK45" s="15"/>
       <c r="BL45" s="15"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="24" t="s">
         <v>89</v>
@@ -6073,7 +6073,7 @@
       <c r="BK46" s="15"/>
       <c r="BL46" s="15"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="24" t="s">
         <v>93</v>
@@ -6154,7 +6154,7 @@
       <c r="BK47" s="15"/>
       <c r="BL47" s="15"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="33" t="s">
         <v>37</v>
@@ -6235,7 +6235,7 @@
       <c r="BK48" s="15"/>
       <c r="BL48" s="15"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>8</v>
       </c>
@@ -6308,7 +6308,7 @@
       <c r="BK49" s="15"/>
       <c r="BL49" s="15"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="24" t="s">
         <v>38</v>
@@ -6387,7 +6387,7 @@
       <c r="BK50" s="15"/>
       <c r="BL50" s="15"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="24" t="s">
         <v>39</v>
@@ -6468,7 +6468,7 @@
       <c r="BK51" s="15"/>
       <c r="BL51" s="15"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="24" t="s">
         <v>57</v>
@@ -6546,7 +6546,7 @@
       <c r="BK52" s="15"/>
       <c r="BL52" s="15"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="24" t="s">
         <v>58</v>
@@ -6624,7 +6624,7 @@
       <c r="BK53" s="15"/>
       <c r="BL53" s="15"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="24" t="s">
         <v>59</v>
@@ -6702,7 +6702,7 @@
       <c r="BK54" s="15"/>
       <c r="BL54" s="15"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="24" t="s">
         <v>91</v>
@@ -6780,7 +6780,7 @@
       <c r="BK55" s="15"/>
       <c r="BL55" s="15"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="24" t="s">
         <v>90</v>
@@ -6858,7 +6858,7 @@
       <c r="BK56" s="15"/>
       <c r="BL56" s="15"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="33" t="s">
         <v>40</v>
@@ -6939,7 +6939,7 @@
       <c r="BK57" s="15"/>
       <c r="BL57" s="15"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>8</v>
       </c>
@@ -7012,7 +7012,7 @@
       <c r="BK58" s="15"/>
       <c r="BL58" s="15"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="24" t="s">
         <v>41</v>
@@ -7091,7 +7091,7 @@
       <c r="BK59" s="15"/>
       <c r="BL59" s="15"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="24" t="s">
         <v>42</v>
@@ -7170,7 +7170,7 @@
       <c r="BK60" s="15"/>
       <c r="BL60" s="15"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="24" t="s">
         <v>73</v>
@@ -7246,7 +7246,7 @@
       <c r="BK61" s="15"/>
       <c r="BL61" s="15"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="24" t="s">
         <v>76</v>
@@ -7322,7 +7322,7 @@
       <c r="BK62" s="15"/>
       <c r="BL62" s="15"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="24" t="s">
         <v>75</v>
@@ -7398,7 +7398,7 @@
       <c r="BK63" s="15"/>
       <c r="BL63" s="15"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
       <c r="B64" s="24" t="s">
         <v>92</v>
@@ -7477,7 +7477,7 @@
       <c r="BK64" s="15"/>
       <c r="BL64" s="15"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="24" t="s">
         <v>94</v>
@@ -7553,7 +7553,7 @@
       <c r="BK65" s="15"/>
       <c r="BL65" s="15"/>
     </row>
-    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>8</v>
       </c>
@@ -7626,7 +7626,7 @@
       <c r="BK66" s="15"/>
       <c r="BL66" s="15"/>
     </row>
-    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="24" t="s">
         <v>95</v>
@@ -7702,7 +7702,7 @@
       <c r="BK67" s="15"/>
       <c r="BL67" s="15"/>
     </row>
-    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="24" t="s">
         <v>96</v>
@@ -7778,7 +7778,7 @@
       <c r="BK68" s="15"/>
       <c r="BL68" s="15"/>
     </row>
-    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="24" t="s">
         <v>104</v>
@@ -7854,7 +7854,7 @@
       <c r="BK69" s="15"/>
       <c r="BL69" s="15"/>
     </row>
-    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="24" t="s">
         <v>105</v>
@@ -7930,7 +7930,7 @@
       <c r="BK70" s="15"/>
       <c r="BL70" s="15"/>
     </row>
-    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="24" t="s">
         <v>97</v>
@@ -8006,7 +8006,7 @@
       <c r="BK71" s="15"/>
       <c r="BL71" s="15"/>
     </row>
-    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
       <c r="B72" s="24" t="s">
         <v>109</v>
@@ -8082,7 +8082,7 @@
       <c r="BK72" s="15"/>
       <c r="BL72" s="15"/>
     </row>
-    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="24" t="s">
         <v>98</v>
@@ -8161,7 +8161,7 @@
       <c r="BK73" s="15"/>
       <c r="BL73" s="15"/>
     </row>
-    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="33" t="s">
         <v>44</v>
@@ -8240,7 +8240,7 @@
       <c r="BK74" s="15"/>
       <c r="BL74" s="15"/>
     </row>
-    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="24" t="s">
         <v>45</v>
@@ -8314,7 +8314,7 @@
       <c r="BK75" s="15"/>
       <c r="BL75" s="15"/>
     </row>
-    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>8</v>
       </c>
@@ -8387,7 +8387,7 @@
       <c r="BK76" s="15"/>
       <c r="BL76" s="15"/>
     </row>
-    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="24" t="s">
         <v>46</v>
@@ -8466,7 +8466,7 @@
       <c r="BK77" s="15"/>
       <c r="BL77" s="15"/>
     </row>
-    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
       <c r="B78" s="24" t="s">
         <v>99</v>
@@ -8542,7 +8542,7 @@
       <c r="BK78" s="15"/>
       <c r="BL78" s="15"/>
     </row>
-    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="24" t="s">
         <v>100</v>
@@ -8618,7 +8618,7 @@
       <c r="BK79" s="15"/>
       <c r="BL79" s="15"/>
     </row>
-    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18"/>
       <c r="B80" s="24" t="s">
         <v>101</v>
@@ -8694,7 +8694,7 @@
       <c r="BK80" s="15"/>
       <c r="BL80" s="15"/>
     </row>
-    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="24" t="s">
         <v>108</v>
@@ -8770,7 +8770,7 @@
       <c r="BK81" s="15"/>
       <c r="BL81" s="15"/>
     </row>
-    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="24" t="s">
         <v>106</v>
@@ -8846,7 +8846,7 @@
       <c r="BK82" s="15"/>
       <c r="BL82" s="15"/>
     </row>
-    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="24" t="s">
         <v>107</v>
@@ -8922,7 +8922,7 @@
       <c r="BK83" s="15"/>
       <c r="BL83" s="15"/>
     </row>
-    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>8</v>
       </c>
@@ -8995,7 +8995,7 @@
       <c r="BK84" s="15"/>
       <c r="BL84" s="15"/>
     </row>
-    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
       <c r="B85" s="33" t="s">
         <v>49</v>
@@ -9007,11 +9007,11 @@
         <v>0</v>
       </c>
       <c r="E85" s="36">
-        <v>44690</v>
+        <v>44698</v>
       </c>
       <c r="F85" s="36">
-        <f>E85+12</f>
-        <v>44702</v>
+        <f>E85</f>
+        <v>44698</v>
       </c>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
@@ -9072,7 +9072,7 @@
       <c r="BK85" s="15"/>
       <c r="BL85" s="15"/>
     </row>
-    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="24" t="s">
         <v>48</v>
@@ -9148,7 +9148,7 @@
       <c r="BK86" s="15"/>
       <c r="BL86" s="15"/>
     </row>
-    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18"/>
       <c r="B87" s="24" t="s">
         <v>47</v>
@@ -9227,7 +9227,7 @@
       <c r="BK87" s="15"/>
       <c r="BL87" s="15"/>
     </row>
-    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18"/>
       <c r="B88" s="24" t="s">
         <v>112</v>
@@ -9303,7 +9303,7 @@
       <c r="BK88" s="15"/>
       <c r="BL88" s="15"/>
     </row>
-    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
       <c r="B89" s="24" t="s">
         <v>111</v>
@@ -9379,7 +9379,7 @@
       <c r="BK89" s="15"/>
       <c r="BL89" s="15"/>
     </row>
-    <row r="90" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="24" t="s">
         <v>110</v>
@@ -9455,7 +9455,7 @@
       <c r="BK90" s="15"/>
       <c r="BL90" s="15"/>
     </row>
-    <row r="91" spans="1:64" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:64" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="42" t="s">
         <v>113</v>
@@ -9531,7 +9531,7 @@
       <c r="BK91" s="47"/>
       <c r="BL91" s="47"/>
     </row>
-    <row r="92" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="18"/>
       <c r="B92" s="37" t="s">
         <v>116</v>
@@ -9599,7 +9599,7 @@
       <c r="BK92" s="15"/>
       <c r="BL92" s="15"/>
     </row>
-    <row r="93" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="18"/>
       <c r="B93" s="24" t="s">
         <v>114</v>
@@ -9675,7 +9675,7 @@
       <c r="BK93" s="15"/>
       <c r="BL93" s="15"/>
     </row>
-    <row r="94" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="18"/>
       <c r="B94" s="33" t="s">
         <v>115</v>
@@ -9755,7 +9755,7 @@
       <c r="BK94" s="15"/>
       <c r="BL94" s="15"/>
     </row>
-    <row r="95" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>9</v>
       </c>
@@ -9826,23 +9826,18 @@
       <c r="BK95" s="15"/>
       <c r="BL95" s="15"/>
     </row>
-    <row r="96" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="10"/>
       <c r="F97" s="20"/>
     </row>
-    <row r="98" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -9851,6 +9846,11 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
   <conditionalFormatting sqref="D16:D17 D95 D24:D27 D19:D22 D50:D56 D77:D83 D75 D67:D73 D91 D86:D87">
     <cfRule type="dataBar" priority="130">

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206FA57F-109C-5642-B0DA-D010097A3EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF7DAB5-2ABC-49DA-8476-08B691A97F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="123">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -402,12 +402,6 @@
     <t>Connecter la base de données WavCom</t>
   </si>
   <si>
-    <t xml:space="preserve">Fonctionnalité réserver le matériel </t>
-  </si>
-  <si>
-    <t>Fonctionnalité chat WavCom</t>
-  </si>
-  <si>
     <t>Vérifier toutes les fonctionnalités WavCom</t>
   </si>
   <si>
@@ -438,9 +432,6 @@
     <t>Finalisation de la création des jeux de tests pour WavMap</t>
   </si>
   <si>
-    <t>Finalisation des documents manuel d'utilisation</t>
-  </si>
-  <si>
     <t>Finalisation des documents jeux de test pour WavCom et WavMap</t>
   </si>
   <si>
@@ -454,6 +445,33 @@
   </si>
   <si>
     <t>Sprint 10</t>
+  </si>
+  <si>
+    <t>Fonctionnalité réserver matériel tournage</t>
+  </si>
+  <si>
+    <t>Fonctionnalité envoi de documents (Contrats, Devis, Factures) de Waview au Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer manuel installation WavMap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer manuel installation WavCom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalisation manuel utilisateur WavMap et WavCom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonctionnalité WavCom calendrier </t>
+  </si>
+  <si>
+    <t>Fonctionnalité WavCom chat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonctionnalité WavCom gestion stock matériel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier toutes les fonctionnalités WavMap </t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1348,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1352,6 +1369,7 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2323,27 +2341,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL98"/>
+  <dimension ref="A1:BL104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <pane ySplit="7" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="2.5" customWidth="1"/>
-    <col min="8" max="8" width="9.5" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2357,9 +2375,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="19"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1"/>
@@ -2369,9 +2387,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="19"/>
-      <c r="B3" s="53"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2379,122 +2397,122 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56">
+      <c r="D4" s="54"/>
+      <c r="E4" s="55">
         <v>44459</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="55"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="31">
         <v>28</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="49">
         <f>I6</f>
         <v>44648</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="50">
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="49">
         <f>P6</f>
         <v>44655</v>
       </c>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="50">
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="49">
         <f>W6</f>
         <v>44662</v>
       </c>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="50">
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="49">
         <f>AD6</f>
         <v>44669</v>
       </c>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="50">
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="49">
         <f>AK6</f>
         <v>44676</v>
       </c>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="50">
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="51"/>
+      <c r="AR5" s="49">
         <f>AR6</f>
         <v>44683</v>
       </c>
-      <c r="AS5" s="51"/>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="51"/>
-      <c r="AV5" s="51"/>
-      <c r="AW5" s="51"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="50">
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="49">
         <f>AY6</f>
         <v>44690</v>
       </c>
-      <c r="AZ5" s="51"/>
-      <c r="BA5" s="51"/>
-      <c r="BB5" s="51"/>
-      <c r="BC5" s="51"/>
-      <c r="BD5" s="51"/>
-      <c r="BE5" s="52"/>
-      <c r="BF5" s="50">
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="49">
         <f>BF6</f>
         <v>44697</v>
       </c>
-      <c r="BG5" s="51"/>
-      <c r="BH5" s="51"/>
-      <c r="BI5" s="51"/>
-      <c r="BJ5" s="51"/>
-      <c r="BK5" s="51"/>
-      <c r="BL5" s="52"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="51"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44648</v>
@@ -2720,7 +2738,7 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
@@ -2968,7 +2986,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -2981,7 +2999,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H95" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H101" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="15"/>
@@ -3041,7 +3059,7 @@
       <c r="BK8" s="15"/>
       <c r="BL8" s="15"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -3123,7 +3141,7 @@
       <c r="BK9" s="15"/>
       <c r="BL9" s="15"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
@@ -3206,7 +3224,7 @@
       <c r="BK10" s="15"/>
       <c r="BL10" s="15"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18"/>
       <c r="B11" s="24" t="s">
         <v>21</v>
@@ -3287,10 +3305,10 @@
       <c r="BK11" s="15"/>
       <c r="BL11" s="15"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>26</v>
@@ -3368,10 +3386,10 @@
       <c r="BK12" s="15"/>
       <c r="BL12" s="15"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>72</v>
@@ -3444,7 +3462,7 @@
       <c r="BK13" s="15"/>
       <c r="BL13" s="15"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18"/>
       <c r="B14" s="24" t="s">
         <v>22</v>
@@ -3525,7 +3543,7 @@
       <c r="BK14" s="15"/>
       <c r="BL14" s="15"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18"/>
       <c r="B15" s="33" t="s">
         <v>62</v>
@@ -3606,7 +3624,7 @@
       <c r="BK15" s="15"/>
       <c r="BL15" s="15"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18"/>
       <c r="B16" s="24" t="s">
         <v>23</v>
@@ -3687,7 +3705,7 @@
       <c r="BK16" s="15"/>
       <c r="BL16" s="15"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
       <c r="B17" s="24" t="s">
         <v>81</v>
@@ -3768,7 +3786,7 @@
       <c r="BK17" s="15"/>
       <c r="BL17" s="15"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>8</v>
       </c>
@@ -3841,7 +3859,7 @@
       <c r="BK18" s="15"/>
       <c r="BL18" s="15"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18"/>
       <c r="B19" s="24" t="s">
         <v>79</v>
@@ -3922,7 +3940,7 @@
       <c r="BK19" s="15"/>
       <c r="BL19" s="15"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18"/>
       <c r="B20" s="24" t="s">
         <v>87</v>
@@ -4000,7 +4018,7 @@
       <c r="BK20" s="15"/>
       <c r="BL20" s="15"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="24" t="s">
         <v>82</v>
@@ -4081,7 +4099,7 @@
       <c r="BK21" s="15"/>
       <c r="BL21" s="15"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
       <c r="B22" s="24" t="s">
         <v>80</v>
@@ -4162,7 +4180,7 @@
       <c r="BK22" s="15"/>
       <c r="BL22" s="15"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18"/>
       <c r="B23" s="33" t="s">
         <v>24</v>
@@ -4243,7 +4261,7 @@
       <c r="BK23" s="15"/>
       <c r="BL23" s="15"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18"/>
       <c r="B24" s="24" t="s">
         <v>25</v>
@@ -4324,7 +4342,7 @@
       <c r="BK24" s="15"/>
       <c r="BL24" s="15"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18"/>
       <c r="B25" s="24" t="s">
         <v>33</v>
@@ -4405,7 +4423,7 @@
       <c r="BK25" s="15"/>
       <c r="BL25" s="15"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
       <c r="B26" s="24" t="s">
         <v>80</v>
@@ -4486,7 +4504,7 @@
       <c r="BK26" s="15"/>
       <c r="BL26" s="15"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18"/>
       <c r="B27" s="24" t="s">
         <v>78</v>
@@ -4567,7 +4585,7 @@
       <c r="BK27" s="15"/>
       <c r="BL27" s="15"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18"/>
       <c r="B28" s="33" t="s">
         <v>34</v>
@@ -4645,7 +4663,7 @@
       <c r="BK28" s="15"/>
       <c r="BL28" s="15"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>8</v>
       </c>
@@ -4718,7 +4736,7 @@
       <c r="BK29" s="15"/>
       <c r="BL29" s="15"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>35</v>
@@ -4799,7 +4817,7 @@
       <c r="BK30" s="15"/>
       <c r="BL30" s="15"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
       <c r="B31" s="24" t="s">
         <v>36</v>
@@ -4880,7 +4898,7 @@
       <c r="BK31" s="15"/>
       <c r="BL31" s="15"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="18"/>
       <c r="B32" s="24" t="s">
         <v>88</v>
@@ -4961,7 +4979,7 @@
       <c r="BK32" s="15"/>
       <c r="BL32" s="15"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18"/>
       <c r="B33" s="24" t="s">
         <v>83</v>
@@ -5042,7 +5060,7 @@
       <c r="BK33" s="15"/>
       <c r="BL33" s="15"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
       <c r="B34" s="24" t="s">
         <v>77</v>
@@ -5123,7 +5141,7 @@
       <c r="BK34" s="15"/>
       <c r="BL34" s="15"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="18"/>
       <c r="B35" s="24" t="s">
         <v>78</v>
@@ -5201,7 +5219,7 @@
       <c r="BK35" s="15"/>
       <c r="BL35" s="15"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18"/>
       <c r="B36" s="33" t="s">
         <v>43</v>
@@ -5282,7 +5300,7 @@
       <c r="BK36" s="15"/>
       <c r="BL36" s="15"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>8</v>
       </c>
@@ -5355,7 +5373,7 @@
       <c r="BK37" s="15"/>
       <c r="BL37" s="15"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>50</v>
@@ -5436,7 +5454,7 @@
       <c r="BK38" s="15"/>
       <c r="BL38" s="15"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18"/>
       <c r="B39" s="24" t="s">
         <v>86</v>
@@ -5517,7 +5535,7 @@
       <c r="BK39" s="15"/>
       <c r="BL39" s="15"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18"/>
       <c r="B40" s="24" t="s">
         <v>85</v>
@@ -5598,7 +5616,7 @@
       <c r="BK40" s="15"/>
       <c r="BL40" s="15"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18"/>
       <c r="B41" s="24" t="s">
         <v>84</v>
@@ -5676,7 +5694,7 @@
       <c r="BK41" s="15"/>
       <c r="BL41" s="15"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18"/>
       <c r="B42" s="33" t="s">
         <v>51</v>
@@ -5757,7 +5775,7 @@
       <c r="BK42" s="15"/>
       <c r="BL42" s="15"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>8</v>
       </c>
@@ -5830,7 +5848,7 @@
       <c r="BK43" s="15"/>
       <c r="BL43" s="15"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18"/>
       <c r="B44" s="24" t="s">
         <v>52</v>
@@ -5911,7 +5929,7 @@
       <c r="BK44" s="15"/>
       <c r="BL44" s="15"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18"/>
       <c r="B45" s="32" t="s">
         <v>53</v>
@@ -5992,7 +6010,7 @@
       <c r="BK45" s="15"/>
       <c r="BL45" s="15"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18"/>
       <c r="B46" s="24" t="s">
         <v>89</v>
@@ -6073,7 +6091,7 @@
       <c r="BK46" s="15"/>
       <c r="BL46" s="15"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
       <c r="B47" s="24" t="s">
         <v>93</v>
@@ -6154,7 +6172,7 @@
       <c r="BK47" s="15"/>
       <c r="BL47" s="15"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18"/>
       <c r="B48" s="33" t="s">
         <v>37</v>
@@ -6235,7 +6253,7 @@
       <c r="BK48" s="15"/>
       <c r="BL48" s="15"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>8</v>
       </c>
@@ -6308,7 +6326,7 @@
       <c r="BK49" s="15"/>
       <c r="BL49" s="15"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18"/>
       <c r="B50" s="24" t="s">
         <v>38</v>
@@ -6387,7 +6405,7 @@
       <c r="BK50" s="15"/>
       <c r="BL50" s="15"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18"/>
       <c r="B51" s="24" t="s">
         <v>39</v>
@@ -6468,7 +6486,7 @@
       <c r="BK51" s="15"/>
       <c r="BL51" s="15"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18"/>
       <c r="B52" s="24" t="s">
         <v>57</v>
@@ -6546,7 +6564,7 @@
       <c r="BK52" s="15"/>
       <c r="BL52" s="15"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="18"/>
       <c r="B53" s="24" t="s">
         <v>58</v>
@@ -6624,7 +6642,7 @@
       <c r="BK53" s="15"/>
       <c r="BL53" s="15"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18"/>
       <c r="B54" s="24" t="s">
         <v>59</v>
@@ -6702,7 +6720,7 @@
       <c r="BK54" s="15"/>
       <c r="BL54" s="15"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18"/>
       <c r="B55" s="24" t="s">
         <v>91</v>
@@ -6780,7 +6798,7 @@
       <c r="BK55" s="15"/>
       <c r="BL55" s="15"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18"/>
       <c r="B56" s="24" t="s">
         <v>90</v>
@@ -6858,7 +6876,7 @@
       <c r="BK56" s="15"/>
       <c r="BL56" s="15"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="18"/>
       <c r="B57" s="33" t="s">
         <v>40</v>
@@ -6939,7 +6957,7 @@
       <c r="BK57" s="15"/>
       <c r="BL57" s="15"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>8</v>
       </c>
@@ -7012,7 +7030,7 @@
       <c r="BK58" s="15"/>
       <c r="BL58" s="15"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="18"/>
       <c r="B59" s="24" t="s">
         <v>41</v>
@@ -7091,7 +7109,7 @@
       <c r="BK59" s="15"/>
       <c r="BL59" s="15"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18"/>
       <c r="B60" s="24" t="s">
         <v>42</v>
@@ -7170,7 +7188,7 @@
       <c r="BK60" s="15"/>
       <c r="BL60" s="15"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18"/>
       <c r="B61" s="24" t="s">
         <v>73</v>
@@ -7246,7 +7264,7 @@
       <c r="BK61" s="15"/>
       <c r="BL61" s="15"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="24" t="s">
         <v>76</v>
@@ -7322,7 +7340,7 @@
       <c r="BK62" s="15"/>
       <c r="BL62" s="15"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="18"/>
       <c r="B63" s="24" t="s">
         <v>75</v>
@@ -7398,7 +7416,7 @@
       <c r="BK63" s="15"/>
       <c r="BL63" s="15"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18"/>
       <c r="B64" s="24" t="s">
         <v>92</v>
@@ -7477,7 +7495,7 @@
       <c r="BK64" s="15"/>
       <c r="BL64" s="15"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18"/>
       <c r="B65" s="24" t="s">
         <v>94</v>
@@ -7553,7 +7571,7 @@
       <c r="BK65" s="15"/>
       <c r="BL65" s="15"/>
     </row>
-    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>8</v>
       </c>
@@ -7626,7 +7644,7 @@
       <c r="BK66" s="15"/>
       <c r="BL66" s="15"/>
     </row>
-    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="18"/>
       <c r="B67" s="24" t="s">
         <v>95</v>
@@ -7702,7 +7720,7 @@
       <c r="BK67" s="15"/>
       <c r="BL67" s="15"/>
     </row>
-    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18"/>
       <c r="B68" s="24" t="s">
         <v>96</v>
@@ -7778,10 +7796,10 @@
       <c r="BK68" s="15"/>
       <c r="BL68" s="15"/>
     </row>
-    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18"/>
       <c r="B69" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C69" s="22" t="s">
         <v>71</v>
@@ -7854,10 +7872,10 @@
       <c r="BK69" s="15"/>
       <c r="BL69" s="15"/>
     </row>
-    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18"/>
       <c r="B70" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C70" s="22" t="s">
         <v>27</v>
@@ -7930,7 +7948,7 @@
       <c r="BK70" s="15"/>
       <c r="BL70" s="15"/>
     </row>
-    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="18"/>
       <c r="B71" s="24" t="s">
         <v>97</v>
@@ -8006,10 +8024,10 @@
       <c r="BK71" s="15"/>
       <c r="BL71" s="15"/>
     </row>
-    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18"/>
       <c r="B72" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C72" s="22" t="s">
         <v>31</v>
@@ -8082,7 +8100,7 @@
       <c r="BK72" s="15"/>
       <c r="BL72" s="15"/>
     </row>
-    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="18"/>
       <c r="B73" s="24" t="s">
         <v>98</v>
@@ -8161,7 +8179,7 @@
       <c r="BK73" s="15"/>
       <c r="BL73" s="15"/>
     </row>
-    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="18"/>
       <c r="B74" s="33" t="s">
         <v>44</v>
@@ -8240,7 +8258,7 @@
       <c r="BK74" s="15"/>
       <c r="BL74" s="15"/>
     </row>
-    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="18"/>
       <c r="B75" s="24" t="s">
         <v>45</v>
@@ -8314,7 +8332,7 @@
       <c r="BK75" s="15"/>
       <c r="BL75" s="15"/>
     </row>
-    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
         <v>8</v>
       </c>
@@ -8387,7 +8405,7 @@
       <c r="BK76" s="15"/>
       <c r="BL76" s="15"/>
     </row>
-    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="18"/>
       <c r="B77" s="24" t="s">
         <v>46</v>
@@ -8466,16 +8484,16 @@
       <c r="BK77" s="15"/>
       <c r="BL77" s="15"/>
     </row>
-    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18"/>
       <c r="B78" s="24" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C78" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D78" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="29">
         <v>44669</v>
@@ -8542,16 +8560,16 @@
       <c r="BK78" s="15"/>
       <c r="BL78" s="15"/>
     </row>
-    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="18"/>
       <c r="B79" s="24" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C79" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D79" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="29">
         <v>44669</v>
@@ -8618,16 +8636,16 @@
       <c r="BK79" s="15"/>
       <c r="BL79" s="15"/>
     </row>
-    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="18"/>
       <c r="B80" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C80" s="22" t="s">
         <v>72</v>
       </c>
       <c r="D80" s="14">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E80" s="29">
         <v>44669</v>
@@ -8694,10 +8712,10 @@
       <c r="BK80" s="15"/>
       <c r="BL80" s="15"/>
     </row>
-    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="18"/>
       <c r="B81" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>31</v>
@@ -8770,16 +8788,16 @@
       <c r="BK81" s="15"/>
       <c r="BL81" s="15"/>
     </row>
-    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18"/>
       <c r="B82" s="24" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D82" s="14">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E82" s="29">
         <v>44669</v>
@@ -8846,16 +8864,16 @@
       <c r="BK82" s="15"/>
       <c r="BL82" s="15"/>
     </row>
-    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="18"/>
       <c r="B83" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D83" s="14">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E83" s="29">
         <v>44669</v>
@@ -8922,22 +8940,25 @@
       <c r="BK83" s="15"/>
       <c r="BL83" s="15"/>
     </row>
-    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C84" s="38"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
+    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="18"/>
+      <c r="B84" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="E84" s="29">
+        <v>44669</v>
+      </c>
+      <c r="F84" s="29">
+        <v>44690</v>
+      </c>
       <c r="G84" s="13"/>
-      <c r="H84" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H84" s="13"/>
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
@@ -8995,26 +9016,22 @@
       <c r="BK84" s="15"/>
       <c r="BL84" s="15"/>
     </row>
-    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
-      <c r="B85" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" s="35">
-        <v>0</v>
-      </c>
-      <c r="E85" s="36">
-        <v>44698</v>
-      </c>
-      <c r="F85" s="36">
-        <f>E85</f>
-        <v>44698</v>
-      </c>
+    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="38"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
+      <c r="H85" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="I85" s="15"/>
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
@@ -9072,22 +9089,23 @@
       <c r="BK85" s="15"/>
       <c r="BL85" s="15"/>
     </row>
-    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="18"/>
-      <c r="B86" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D86" s="14">
+      <c r="B86" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="35">
         <v>0</v>
       </c>
-      <c r="E86" s="29">
+      <c r="E86" s="36">
         <v>44698</v>
       </c>
-      <c r="F86" s="29">
-        <v>44702</v>
+      <c r="F86" s="36">
+        <f>E86</f>
+        <v>44698</v>
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
@@ -9148,13 +9166,13 @@
       <c r="BK86" s="15"/>
       <c r="BL86" s="15"/>
     </row>
-    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="18"/>
       <c r="B87" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D87" s="14">
         <v>0</v>
@@ -9163,13 +9181,10 @@
         <v>44698</v>
       </c>
       <c r="F87" s="29">
-        <v>44715</v>
+        <v>44702</v>
       </c>
       <c r="G87" s="13"/>
-      <c r="H87" s="13">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
+      <c r="H87" s="13"/>
       <c r="I87" s="15"/>
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
@@ -9227,25 +9242,28 @@
       <c r="BK87" s="15"/>
       <c r="BL87" s="15"/>
     </row>
-    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="18"/>
       <c r="B88" s="24" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D88" s="14">
         <v>0</v>
       </c>
       <c r="E88" s="29">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="F88" s="29">
-        <v>44698</v>
+        <v>44715</v>
       </c>
       <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
+      <c r="H88" s="13">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
       <c r="I88" s="15"/>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
@@ -9303,16 +9321,16 @@
       <c r="BK88" s="15"/>
       <c r="BL88" s="15"/>
     </row>
-    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="18"/>
       <c r="B89" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D89" s="14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E89" s="29">
         <v>44691</v>
@@ -9379,16 +9397,16 @@
       <c r="BK89" s="15"/>
       <c r="BL89" s="15"/>
     </row>
-    <row r="90" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="18"/>
       <c r="B90" s="24" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D90" s="14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E90" s="29">
         <v>44691</v>
@@ -9455,91 +9473,99 @@
       <c r="BK90" s="15"/>
       <c r="BL90" s="15"/>
     </row>
-    <row r="91" spans="1:64" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
-      <c r="B91" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="C91" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91" s="44">
-        <v>0</v>
-      </c>
-      <c r="E91" s="45">
+    <row r="91" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="18"/>
+      <c r="B91" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E91" s="29">
         <v>44691</v>
       </c>
-      <c r="F91" s="45">
-        <v>44711</v>
-      </c>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="47"/>
-      <c r="K91" s="47"/>
-      <c r="L91" s="47"/>
-      <c r="M91" s="47"/>
-      <c r="N91" s="47"/>
-      <c r="O91" s="47"/>
-      <c r="P91" s="47"/>
-      <c r="Q91" s="47"/>
-      <c r="R91" s="47"/>
-      <c r="S91" s="47"/>
-      <c r="T91" s="47"/>
-      <c r="U91" s="47"/>
-      <c r="V91" s="47"/>
-      <c r="W91" s="47"/>
-      <c r="X91" s="47"/>
-      <c r="Y91" s="47"/>
-      <c r="Z91" s="47"/>
-      <c r="AA91" s="47"/>
-      <c r="AB91" s="47"/>
-      <c r="AC91" s="47"/>
-      <c r="AD91" s="47"/>
-      <c r="AE91" s="47"/>
-      <c r="AF91" s="47"/>
-      <c r="AG91" s="47"/>
-      <c r="AH91" s="47"/>
-      <c r="AI91" s="47"/>
-      <c r="AJ91" s="47"/>
-      <c r="AK91" s="47"/>
-      <c r="AL91" s="47"/>
-      <c r="AM91" s="47"/>
-      <c r="AN91" s="47"/>
-      <c r="AO91" s="47"/>
-      <c r="AP91" s="47"/>
-      <c r="AQ91" s="47"/>
-      <c r="AR91" s="47"/>
-      <c r="AS91" s="47"/>
-      <c r="AT91" s="47"/>
-      <c r="AU91" s="47"/>
-      <c r="AV91" s="47"/>
-      <c r="AW91" s="47"/>
-      <c r="AX91" s="47"/>
-      <c r="AY91" s="47"/>
-      <c r="AZ91" s="47"/>
-      <c r="BA91" s="47"/>
-      <c r="BB91" s="47"/>
-      <c r="BC91" s="47"/>
-      <c r="BD91" s="47"/>
-      <c r="BE91" s="47"/>
-      <c r="BF91" s="47"/>
-      <c r="BG91" s="47"/>
-      <c r="BH91" s="47"/>
-      <c r="BI91" s="47"/>
-      <c r="BJ91" s="47"/>
-      <c r="BK91" s="47"/>
-      <c r="BL91" s="47"/>
+      <c r="F91" s="29">
+        <v>44698</v>
+      </c>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
+      <c r="S91" s="15"/>
+      <c r="T91" s="15"/>
+      <c r="U91" s="15"/>
+      <c r="V91" s="15"/>
+      <c r="W91" s="15"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="15"/>
+      <c r="AA91" s="15"/>
+      <c r="AB91" s="15"/>
+      <c r="AC91" s="15"/>
+      <c r="AD91" s="15"/>
+      <c r="AE91" s="15"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="15"/>
+      <c r="AH91" s="15"/>
+      <c r="AI91" s="15"/>
+      <c r="AJ91" s="15"/>
+      <c r="AK91" s="15"/>
+      <c r="AL91" s="15"/>
+      <c r="AM91" s="15"/>
+      <c r="AN91" s="15"/>
+      <c r="AO91" s="15"/>
+      <c r="AP91" s="15"/>
+      <c r="AQ91" s="15"/>
+      <c r="AR91" s="15"/>
+      <c r="AS91" s="15"/>
+      <c r="AT91" s="15"/>
+      <c r="AU91" s="15"/>
+      <c r="AV91" s="15"/>
+      <c r="AW91" s="15"/>
+      <c r="AX91" s="15"/>
+      <c r="AY91" s="15"/>
+      <c r="AZ91" s="15"/>
+      <c r="BA91" s="15"/>
+      <c r="BB91" s="15"/>
+      <c r="BC91" s="15"/>
+      <c r="BD91" s="15"/>
+      <c r="BE91" s="15"/>
+      <c r="BF91" s="15"/>
+      <c r="BG91" s="15"/>
+      <c r="BH91" s="15"/>
+      <c r="BI91" s="15"/>
+      <c r="BJ91" s="15"/>
+      <c r="BK91" s="15"/>
+      <c r="BL91" s="15"/>
     </row>
-    <row r="92" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="18"/>
-      <c r="B92" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C92" s="38"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="40"/>
+      <c r="B92" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="14">
+        <v>1</v>
+      </c>
+      <c r="E92" s="29">
+        <v>44691</v>
+      </c>
+      <c r="F92" s="29">
+        <v>44701</v>
+      </c>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
       <c r="I92" s="15"/>
@@ -9599,22 +9625,22 @@
       <c r="BK92" s="15"/>
       <c r="BL92" s="15"/>
     </row>
-    <row r="93" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="18"/>
       <c r="B93" s="24" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D93" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="29">
-        <v>44713</v>
+        <v>44691</v>
       </c>
       <c r="F93" s="29">
-        <v>44716</v>
+        <v>44701</v>
       </c>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
@@ -9675,29 +9701,25 @@
       <c r="BK93" s="15"/>
       <c r="BL93" s="15"/>
     </row>
-    <row r="94" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="18"/>
-      <c r="B94" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C94" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D94" s="35">
-        <v>0</v>
-      </c>
-      <c r="E94" s="36">
-        <v>44716</v>
-      </c>
-      <c r="F94" s="36">
-        <f>E94</f>
-        <v>44716</v>
+      <c r="B94" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" s="14">
+        <v>1</v>
+      </c>
+      <c r="E94" s="29">
+        <v>44691</v>
+      </c>
+      <c r="F94" s="29">
+        <v>44701</v>
       </c>
       <c r="G94" s="13"/>
-      <c r="H94" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="H94" s="13"/>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
@@ -9755,20 +9777,25 @@
       <c r="BK94" s="15"/>
       <c r="BL94" s="15"/>
     </row>
-    <row r="95" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
+    <row r="95" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="18"/>
+      <c r="B95" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="14">
+        <v>0</v>
+      </c>
+      <c r="E95" s="29">
+        <v>44691</v>
+      </c>
+      <c r="F95" s="29">
+        <v>44701</v>
+      </c>
       <c r="G95" s="13"/>
-      <c r="H95" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H95" s="13"/>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
       <c r="K95" s="15"/>
@@ -9826,18 +9853,468 @@
       <c r="BK95" s="15"/>
       <c r="BL95" s="15"/>
     </row>
-    <row r="96" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G96" s="6"/>
+    <row r="96" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="18"/>
+      <c r="B96" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="14">
+        <v>0</v>
+      </c>
+      <c r="E96" s="29">
+        <v>44691</v>
+      </c>
+      <c r="F96" s="29"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="15"/>
+      <c r="S96" s="15"/>
+      <c r="T96" s="15"/>
+      <c r="U96" s="15"/>
+      <c r="V96" s="15"/>
+      <c r="W96" s="15"/>
+      <c r="X96" s="15"/>
+      <c r="Y96" s="15"/>
+      <c r="Z96" s="15"/>
+      <c r="AA96" s="15"/>
+      <c r="AB96" s="15"/>
+      <c r="AC96" s="15"/>
+      <c r="AD96" s="15"/>
+      <c r="AE96" s="15"/>
+      <c r="AF96" s="15"/>
+      <c r="AG96" s="15"/>
+      <c r="AH96" s="15"/>
+      <c r="AI96" s="15"/>
+      <c r="AJ96" s="15"/>
+      <c r="AK96" s="15"/>
+      <c r="AL96" s="15"/>
+      <c r="AM96" s="15"/>
+      <c r="AN96" s="15"/>
+      <c r="AO96" s="15"/>
+      <c r="AP96" s="15"/>
+      <c r="AQ96" s="15"/>
+      <c r="AR96" s="15"/>
+      <c r="AS96" s="15"/>
+      <c r="AT96" s="15"/>
+      <c r="AU96" s="15"/>
+      <c r="AV96" s="15"/>
+      <c r="AW96" s="15"/>
+      <c r="AX96" s="15"/>
+      <c r="AY96" s="15"/>
+      <c r="AZ96" s="15"/>
+      <c r="BA96" s="15"/>
+      <c r="BB96" s="15"/>
+      <c r="BC96" s="15"/>
+      <c r="BD96" s="15"/>
+      <c r="BE96" s="15"/>
+      <c r="BF96" s="15"/>
+      <c r="BG96" s="15"/>
+      <c r="BH96" s="15"/>
+      <c r="BI96" s="15"/>
+      <c r="BJ96" s="15"/>
+      <c r="BK96" s="15"/>
+      <c r="BL96" s="15"/>
     </row>
-    <row r="97" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C97" s="10"/>
-      <c r="F97" s="20"/>
+    <row r="97" spans="1:64" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="41"/>
+      <c r="B97" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="44">
+        <v>0</v>
+      </c>
+      <c r="E97" s="45">
+        <v>44691</v>
+      </c>
+      <c r="F97" s="45">
+        <v>44711</v>
+      </c>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="47"/>
+      <c r="K97" s="47"/>
+      <c r="L97" s="47"/>
+      <c r="M97" s="47"/>
+      <c r="N97" s="47"/>
+      <c r="O97" s="47"/>
+      <c r="P97" s="47"/>
+      <c r="Q97" s="47"/>
+      <c r="R97" s="47"/>
+      <c r="S97" s="47"/>
+      <c r="T97" s="47"/>
+      <c r="U97" s="47"/>
+      <c r="V97" s="47"/>
+      <c r="W97" s="47"/>
+      <c r="X97" s="47"/>
+      <c r="Y97" s="47"/>
+      <c r="Z97" s="47"/>
+      <c r="AA97" s="47"/>
+      <c r="AB97" s="47"/>
+      <c r="AC97" s="47"/>
+      <c r="AD97" s="47"/>
+      <c r="AE97" s="47"/>
+      <c r="AF97" s="47"/>
+      <c r="AG97" s="47"/>
+      <c r="AH97" s="47"/>
+      <c r="AI97" s="47"/>
+      <c r="AJ97" s="47"/>
+      <c r="AK97" s="47"/>
+      <c r="AL97" s="47"/>
+      <c r="AM97" s="47"/>
+      <c r="AN97" s="47"/>
+      <c r="AO97" s="47"/>
+      <c r="AP97" s="47"/>
+      <c r="AQ97" s="47"/>
+      <c r="AR97" s="47"/>
+      <c r="AS97" s="47"/>
+      <c r="AT97" s="47"/>
+      <c r="AU97" s="47"/>
+      <c r="AV97" s="47"/>
+      <c r="AW97" s="47"/>
+      <c r="AX97" s="47"/>
+      <c r="AY97" s="47"/>
+      <c r="AZ97" s="47"/>
+      <c r="BA97" s="47"/>
+      <c r="BB97" s="47"/>
+      <c r="BC97" s="47"/>
+      <c r="BD97" s="47"/>
+      <c r="BE97" s="47"/>
+      <c r="BF97" s="47"/>
+      <c r="BG97" s="47"/>
+      <c r="BH97" s="47"/>
+      <c r="BI97" s="47"/>
+      <c r="BJ97" s="47"/>
+      <c r="BK97" s="47"/>
+      <c r="BL97" s="47"/>
     </row>
-    <row r="98" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="11"/>
+    <row r="98" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="18"/>
+      <c r="B98" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" s="38"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="15"/>
+      <c r="S98" s="15"/>
+      <c r="T98" s="15"/>
+      <c r="U98" s="15"/>
+      <c r="V98" s="15"/>
+      <c r="W98" s="15"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="15"/>
+      <c r="Z98" s="15"/>
+      <c r="AA98" s="15"/>
+      <c r="AB98" s="15"/>
+      <c r="AC98" s="15"/>
+      <c r="AD98" s="15"/>
+      <c r="AE98" s="15"/>
+      <c r="AF98" s="15"/>
+      <c r="AG98" s="15"/>
+      <c r="AH98" s="15"/>
+      <c r="AI98" s="15"/>
+      <c r="AJ98" s="15"/>
+      <c r="AK98" s="15"/>
+      <c r="AL98" s="15"/>
+      <c r="AM98" s="15"/>
+      <c r="AN98" s="15"/>
+      <c r="AO98" s="15"/>
+      <c r="AP98" s="15"/>
+      <c r="AQ98" s="15"/>
+      <c r="AR98" s="15"/>
+      <c r="AS98" s="15"/>
+      <c r="AT98" s="15"/>
+      <c r="AU98" s="15"/>
+      <c r="AV98" s="15"/>
+      <c r="AW98" s="15"/>
+      <c r="AX98" s="15"/>
+      <c r="AY98" s="15"/>
+      <c r="AZ98" s="15"/>
+      <c r="BA98" s="15"/>
+      <c r="BB98" s="15"/>
+      <c r="BC98" s="15"/>
+      <c r="BD98" s="15"/>
+      <c r="BE98" s="15"/>
+      <c r="BF98" s="15"/>
+      <c r="BG98" s="15"/>
+      <c r="BH98" s="15"/>
+      <c r="BI98" s="15"/>
+      <c r="BJ98" s="15"/>
+      <c r="BK98" s="15"/>
+      <c r="BL98" s="15"/>
+    </row>
+    <row r="99" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="18"/>
+      <c r="B99" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="14">
+        <v>0</v>
+      </c>
+      <c r="E99" s="29">
+        <v>44713</v>
+      </c>
+      <c r="F99" s="29">
+        <v>44716</v>
+      </c>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="15"/>
+      <c r="S99" s="15"/>
+      <c r="T99" s="15"/>
+      <c r="U99" s="15"/>
+      <c r="V99" s="15"/>
+      <c r="W99" s="15"/>
+      <c r="X99" s="15"/>
+      <c r="Y99" s="15"/>
+      <c r="Z99" s="15"/>
+      <c r="AA99" s="15"/>
+      <c r="AB99" s="15"/>
+      <c r="AC99" s="15"/>
+      <c r="AD99" s="15"/>
+      <c r="AE99" s="15"/>
+      <c r="AF99" s="15"/>
+      <c r="AG99" s="15"/>
+      <c r="AH99" s="15"/>
+      <c r="AI99" s="15"/>
+      <c r="AJ99" s="15"/>
+      <c r="AK99" s="15"/>
+      <c r="AL99" s="15"/>
+      <c r="AM99" s="15"/>
+      <c r="AN99" s="15"/>
+      <c r="AO99" s="15"/>
+      <c r="AP99" s="15"/>
+      <c r="AQ99" s="15"/>
+      <c r="AR99" s="15"/>
+      <c r="AS99" s="15"/>
+      <c r="AT99" s="15"/>
+      <c r="AU99" s="15"/>
+      <c r="AV99" s="15"/>
+      <c r="AW99" s="15"/>
+      <c r="AX99" s="15"/>
+      <c r="AY99" s="15"/>
+      <c r="AZ99" s="15"/>
+      <c r="BA99" s="15"/>
+      <c r="BB99" s="15"/>
+      <c r="BC99" s="15"/>
+      <c r="BD99" s="15"/>
+      <c r="BE99" s="15"/>
+      <c r="BF99" s="15"/>
+      <c r="BG99" s="15"/>
+      <c r="BH99" s="15"/>
+      <c r="BI99" s="15"/>
+      <c r="BJ99" s="15"/>
+      <c r="BK99" s="15"/>
+      <c r="BL99" s="15"/>
+    </row>
+    <row r="100" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="18"/>
+      <c r="B100" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="35">
+        <v>0</v>
+      </c>
+      <c r="E100" s="36">
+        <v>44716</v>
+      </c>
+      <c r="F100" s="36">
+        <f>E100</f>
+        <v>44716</v>
+      </c>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="15"/>
+      <c r="S100" s="15"/>
+      <c r="T100" s="15"/>
+      <c r="U100" s="15"/>
+      <c r="V100" s="15"/>
+      <c r="W100" s="15"/>
+      <c r="X100" s="15"/>
+      <c r="Y100" s="15"/>
+      <c r="Z100" s="15"/>
+      <c r="AA100" s="15"/>
+      <c r="AB100" s="15"/>
+      <c r="AC100" s="15"/>
+      <c r="AD100" s="15"/>
+      <c r="AE100" s="15"/>
+      <c r="AF100" s="15"/>
+      <c r="AG100" s="15"/>
+      <c r="AH100" s="15"/>
+      <c r="AI100" s="15"/>
+      <c r="AJ100" s="15"/>
+      <c r="AK100" s="15"/>
+      <c r="AL100" s="15"/>
+      <c r="AM100" s="15"/>
+      <c r="AN100" s="15"/>
+      <c r="AO100" s="15"/>
+      <c r="AP100" s="15"/>
+      <c r="AQ100" s="15"/>
+      <c r="AR100" s="15"/>
+      <c r="AS100" s="15"/>
+      <c r="AT100" s="15"/>
+      <c r="AU100" s="15"/>
+      <c r="AV100" s="15"/>
+      <c r="AW100" s="15"/>
+      <c r="AX100" s="15"/>
+      <c r="AY100" s="15"/>
+      <c r="AZ100" s="15"/>
+      <c r="BA100" s="15"/>
+      <c r="BB100" s="15"/>
+      <c r="BC100" s="15"/>
+      <c r="BD100" s="15"/>
+      <c r="BE100" s="15"/>
+      <c r="BF100" s="15"/>
+      <c r="BG100" s="15"/>
+      <c r="BH100" s="15"/>
+      <c r="BI100" s="15"/>
+      <c r="BJ100" s="15"/>
+      <c r="BK100" s="15"/>
+      <c r="BL100" s="15"/>
+    </row>
+    <row r="101" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="25"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="15"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="15"/>
+      <c r="S101" s="15"/>
+      <c r="T101" s="15"/>
+      <c r="U101" s="15"/>
+      <c r="V101" s="15"/>
+      <c r="W101" s="15"/>
+      <c r="X101" s="15"/>
+      <c r="Y101" s="15"/>
+      <c r="Z101" s="15"/>
+      <c r="AA101" s="15"/>
+      <c r="AB101" s="15"/>
+      <c r="AC101" s="15"/>
+      <c r="AD101" s="15"/>
+      <c r="AE101" s="15"/>
+      <c r="AF101" s="15"/>
+      <c r="AG101" s="15"/>
+      <c r="AH101" s="15"/>
+      <c r="AI101" s="15"/>
+      <c r="AJ101" s="15"/>
+      <c r="AK101" s="15"/>
+      <c r="AL101" s="15"/>
+      <c r="AM101" s="15"/>
+      <c r="AN101" s="15"/>
+      <c r="AO101" s="15"/>
+      <c r="AP101" s="15"/>
+      <c r="AQ101" s="15"/>
+      <c r="AR101" s="15"/>
+      <c r="AS101" s="15"/>
+      <c r="AT101" s="15"/>
+      <c r="AU101" s="15"/>
+      <c r="AV101" s="15"/>
+      <c r="AW101" s="15"/>
+      <c r="AX101" s="15"/>
+      <c r="AY101" s="15"/>
+      <c r="AZ101" s="15"/>
+      <c r="BA101" s="15"/>
+      <c r="BB101" s="15"/>
+      <c r="BC101" s="15"/>
+      <c r="BD101" s="15"/>
+      <c r="BE101" s="15"/>
+      <c r="BF101" s="15"/>
+      <c r="BG101" s="15"/>
+      <c r="BH101" s="15"/>
+      <c r="BI101" s="15"/>
+      <c r="BJ101" s="15"/>
+      <c r="BK101" s="15"/>
+      <c r="BL101" s="15"/>
+    </row>
+    <row r="102" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="10"/>
+      <c r="F103" s="20"/>
+    </row>
+    <row r="104" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -9846,13 +10323,8 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D16:D17 D95 D24:D27 D19:D22 D50:D56 D77:D83 D75 D67:D73 D91 D86:D87">
+  <conditionalFormatting sqref="D16:D17 D101 D24:D27 D19:D22 D50:D56 D77:D84 D75 D67:D73 D97 D87:D88">
     <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9866,12 +10338,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I95:BL95 I34:BL36 I6:BL27 I29:BL31 I49:BL56 I66:BL73 I76:BL93">
+  <conditionalFormatting sqref="I101:BL101 I34:BL36 I6:BL27 I29:BL31 I49:BL56 I66:BL73 I76:BL99">
     <cfRule type="expression" dxfId="44" priority="133">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I95:BL95 I34:BL36 I8:BL27 I29:BL31 I49:BL56 I66:BL73 I76:BL93">
+  <conditionalFormatting sqref="I101:BL101 I34:BL36 I8:BL27 I29:BL31 I49:BL56 I66:BL73 I76:BL99">
     <cfRule type="expression" dxfId="43" priority="131">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -10042,7 +10514,7 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D85:D90">
+  <conditionalFormatting sqref="D86:D96">
     <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10056,12 +10528,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I85:BL90">
+  <conditionalFormatting sqref="I86:BL96">
     <cfRule type="expression" dxfId="26" priority="78">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I85:BL90">
+  <conditionalFormatting sqref="I86:BL96">
     <cfRule type="expression" dxfId="25" priority="76">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -10069,12 +10541,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I94:BL94">
+  <conditionalFormatting sqref="I100:BL100">
     <cfRule type="expression" dxfId="23" priority="72">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I94:BL94">
+  <conditionalFormatting sqref="I100:BL100">
     <cfRule type="expression" dxfId="22" priority="70">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -10384,7 +10856,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
+  <conditionalFormatting sqref="D86">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10398,7 +10870,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
+  <conditionalFormatting sqref="D100">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10510,7 +10982,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D84:D85">
+  <conditionalFormatting sqref="D85:D86">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10551,7 +11023,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D92">
+  <conditionalFormatting sqref="D98">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10565,7 +11037,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
+  <conditionalFormatting sqref="D99">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10606,7 +11078,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D16:D17 D95 D24:D27 D19:D22 D50:D56 D77:D83 D75 D67:D73 D91 D86:D87</xm:sqref>
+          <xm:sqref>D16:D17 D101 D24:D27 D19:D22 D50:D56 D77:D84 D75 D67:D73 D97 D87:D88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61BAFCB1-C9D1-4453-9835-894AAFFB2D48}">
@@ -10726,7 +11198,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D85:D90</xm:sqref>
+          <xm:sqref>D86:D96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{70FE4911-65CD-4B63-902B-DAD573D9D1E7}">
@@ -10981,7 +11453,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D85</xm:sqref>
+          <xm:sqref>D86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CB458C94-EC1D-48A0-8F37-BA38EE604418}">
@@ -10996,7 +11468,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D94</xm:sqref>
+          <xm:sqref>D100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC19E591-9826-41D2-8753-21A5AEC1982F}">
@@ -11116,7 +11588,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D84:D85</xm:sqref>
+          <xm:sqref>D85:D86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8A618AE5-6A10-402E-8877-7F8471EF9C36}">
@@ -11146,7 +11618,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D92</xm:sqref>
+          <xm:sqref>D98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{265A8D0E-6EC0-416D-AE24-C0891B72B939}">
@@ -11161,7 +11633,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D93</xm:sqref>
+          <xm:sqref>D99</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documents/0_Planning.xlsx
+++ b/Documents/0_Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF7DAB5-2ABC-49DA-8476-08B691A97F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E46E22-5368-4C4B-9C0A-6955BCD241A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="122">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -444,9 +444,6 @@
     <t>Reddition du projet à 12h00</t>
   </si>
   <si>
-    <t>Sprint 10</t>
-  </si>
-  <si>
     <t>Fonctionnalité réserver matériel tournage</t>
   </si>
   <si>
@@ -478,7 +475,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -487,6 +484,7 @@
     <numFmt numFmtId="169" formatCode="ddd\,\ dd/mm/yyyy"/>
     <numFmt numFmtId="170" formatCode="d"/>
     <numFmt numFmtId="171" formatCode="d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="173" formatCode="dd\.mm\.yy;@"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -1212,7 +1210,7 @@
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1290,9 +1288,6 @@
     <xf numFmtId="170" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1311,9 +1306,6 @@
     <xf numFmtId="9" fontId="4" fillId="38" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="38" borderId="2" xfId="10" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1327,16 +1319,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="31" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1348,6 +1334,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1369,7 +1356,21 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="38" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="7" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="24" fillId="37" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="30" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2341,27 +2342,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL104"/>
+  <dimension ref="A1:BL103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
+      <pane ySplit="7" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="75.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2375,9 +2376,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="49" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1"/>
@@ -2387,9 +2388,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19"/>
-      <c r="B3" s="52"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -2397,122 +2398,122 @@
       <c r="H3" s="2"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:64" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55">
+      <c r="D4" s="51"/>
+      <c r="E4" s="52">
         <v>44459</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="52"/>
     </row>
-    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="31">
+      <c r="D5" s="51"/>
+      <c r="E5" s="30">
         <v>28</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="46">
         <f>I6</f>
         <v>44648</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="49">
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="46">
         <f>P6</f>
         <v>44655</v>
       </c>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="49">
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="46">
         <f>W6</f>
         <v>44662</v>
       </c>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="49">
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="46">
         <f>AD6</f>
         <v>44669</v>
       </c>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="49">
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="46">
         <f>AK6</f>
         <v>44676</v>
       </c>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="49">
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="46">
         <f>AR6</f>
         <v>44683</v>
       </c>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="50"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="51"/>
-      <c r="AY5" s="49">
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="46">
         <f>AY6</f>
         <v>44690</v>
       </c>
-      <c r="AZ5" s="50"/>
-      <c r="BA5" s="50"/>
-      <c r="BB5" s="50"/>
-      <c r="BC5" s="50"/>
-      <c r="BD5" s="50"/>
-      <c r="BE5" s="51"/>
-      <c r="BF5" s="49">
+      <c r="AZ5" s="47"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="47"/>
+      <c r="BC5" s="47"/>
+      <c r="BD5" s="47"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="46">
         <f>BF6</f>
         <v>44697</v>
       </c>
-      <c r="BG5" s="50"/>
-      <c r="BH5" s="50"/>
-      <c r="BI5" s="50"/>
-      <c r="BJ5" s="50"/>
-      <c r="BK5" s="50"/>
-      <c r="BL5" s="51"/>
+      <c r="BG5" s="47"/>
+      <c r="BH5" s="47"/>
+      <c r="BI5" s="47"/>
+      <c r="BJ5" s="47"/>
+      <c r="BK5" s="47"/>
+      <c r="BL5" s="48"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
       <c r="I6" s="26">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44648</v>
@@ -2738,7 +2739,7 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
@@ -2986,20 +2987,20 @@
         <v>d</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H101" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H100" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="15"/>
@@ -3059,23 +3060,23 @@
       <c r="BK8" s="15"/>
       <c r="BL8" s="15"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>1</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="54">
         <v>44384</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="54">
         <f>E9</f>
         <v>44384</v>
       </c>
@@ -3141,7 +3142,7 @@
       <c r="BK9" s="15"/>
       <c r="BL9" s="15"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
@@ -3154,11 +3155,11 @@
       <c r="D10" s="14">
         <v>1</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="55">
         <f>Début_Projet</f>
         <v>44459</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="55">
         <f>E10+6</f>
         <v>44465</v>
       </c>
@@ -3224,7 +3225,7 @@
       <c r="BK10" s="15"/>
       <c r="BL10" s="15"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="24" t="s">
         <v>21</v>
@@ -3235,11 +3236,11 @@
       <c r="D11" s="14">
         <v>1</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="55">
         <f>F10</f>
         <v>44465</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="55">
         <f>E11</f>
         <v>44465</v>
       </c>
@@ -3305,7 +3306,7 @@
       <c r="BK11" s="15"/>
       <c r="BL11" s="15"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="24" t="s">
         <v>101</v>
@@ -3316,11 +3317,11 @@
       <c r="D12" s="14">
         <v>1</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="55">
         <f>E10</f>
         <v>44459</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="55">
         <f>E12+6</f>
         <v>44465</v>
       </c>
@@ -3386,7 +3387,7 @@
       <c r="BK12" s="15"/>
       <c r="BL12" s="15"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="24" t="s">
         <v>100</v>
@@ -3397,10 +3398,10 @@
       <c r="D13" s="14">
         <v>1</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="55">
         <v>44463</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="55">
         <v>44465</v>
       </c>
       <c r="G13" s="13"/>
@@ -3462,7 +3463,7 @@
       <c r="BK13" s="15"/>
       <c r="BL13" s="15"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="24" t="s">
         <v>22</v>
@@ -3473,11 +3474,11 @@
       <c r="D14" s="14">
         <v>1</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="55">
         <f>F10+1</f>
         <v>44466</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="55">
         <f>E14+3</f>
         <v>44469</v>
       </c>
@@ -3543,22 +3544,22 @@
       <c r="BK14" s="15"/>
       <c r="BL14" s="15"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>1</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="54">
         <f>F14+1</f>
         <v>44470</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="54">
         <f>E15</f>
         <v>44470</v>
       </c>
@@ -3624,7 +3625,7 @@
       <c r="BK15" s="15"/>
       <c r="BL15" s="15"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="24" t="s">
         <v>23</v>
@@ -3635,11 +3636,11 @@
       <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="55">
         <f>F15</f>
         <v>44470</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="55">
         <f>E16+3</f>
         <v>44473</v>
       </c>
@@ -3705,7 +3706,7 @@
       <c r="BK16" s="15"/>
       <c r="BL16" s="15"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="24" t="s">
         <v>81</v>
@@ -3716,11 +3717,11 @@
       <c r="D17" s="14">
         <v>1</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="55">
         <f>E16+1</f>
         <v>44471</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="55">
         <f>E17+6</f>
         <v>44477</v>
       </c>
@@ -3786,17 +3787,17 @@
       <c r="BK17" s="15"/>
       <c r="BL17" s="15"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3859,7 +3860,7 @@
       <c r="BK18" s="15"/>
       <c r="BL18" s="15"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="24" t="s">
         <v>79</v>
@@ -3870,11 +3871,11 @@
       <c r="D19" s="14">
         <v>1</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="55">
         <f>F17+1</f>
         <v>44478</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="55">
         <f>E19+9</f>
         <v>44487</v>
       </c>
@@ -3940,7 +3941,7 @@
       <c r="BK19" s="15"/>
       <c r="BL19" s="15"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="24" t="s">
         <v>87</v>
@@ -3951,11 +3952,11 @@
       <c r="D20" s="14">
         <v>1</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="55">
         <f>F17+1</f>
         <v>44478</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="55">
         <f>E20+9</f>
         <v>44487</v>
       </c>
@@ -4018,7 +4019,7 @@
       <c r="BK20" s="15"/>
       <c r="BL20" s="15"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="24" t="s">
         <v>82</v>
@@ -4029,11 +4030,11 @@
       <c r="D21" s="14">
         <v>0.5</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="55">
         <f>F17+1</f>
         <v>44478</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="55">
         <f>E21+7</f>
         <v>44485</v>
       </c>
@@ -4099,7 +4100,7 @@
       <c r="BK21" s="15"/>
       <c r="BL21" s="15"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="24" t="s">
         <v>80</v>
@@ -4110,11 +4111,11 @@
       <c r="D22" s="14">
         <v>0.5</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="55">
         <f>F17+1</f>
         <v>44478</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="55">
         <f>E22+4</f>
         <v>44482</v>
       </c>
@@ -4180,22 +4181,22 @@
       <c r="BK22" s="15"/>
       <c r="BL22" s="15"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="34">
         <v>1</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="54">
         <f>E15+18</f>
         <v>44488</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="54">
         <f>E23</f>
         <v>44488</v>
       </c>
@@ -4261,7 +4262,7 @@
       <c r="BK23" s="15"/>
       <c r="BL23" s="15"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="24" t="s">
         <v>25</v>
@@ -4272,11 +4273,11 @@
       <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="55">
         <f>F23</f>
         <v>44488</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="55">
         <f>E24+6</f>
         <v>44494</v>
       </c>
@@ -4342,7 +4343,7 @@
       <c r="BK24" s="15"/>
       <c r="BL24" s="15"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="24" t="s">
         <v>33</v>
@@ -4353,11 +4354,11 @@
       <c r="D25" s="14">
         <v>1</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="55">
         <f>E24+1</f>
         <v>44489</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="55">
         <f>E25+11</f>
         <v>44500</v>
       </c>
@@ -4423,7 +4424,7 @@
       <c r="BK25" s="15"/>
       <c r="BL25" s="15"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="24" t="s">
         <v>80</v>
@@ -4434,11 +4435,11 @@
       <c r="D26" s="14">
         <v>1</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="55">
         <f>E24+1</f>
         <v>44489</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="55">
         <f>E26+15</f>
         <v>44504</v>
       </c>
@@ -4504,7 +4505,7 @@
       <c r="BK26" s="15"/>
       <c r="BL26" s="15"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="24" t="s">
         <v>78</v>
@@ -4515,11 +4516,11 @@
       <c r="D27" s="14">
         <v>0.75</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="55">
         <f>E24+1</f>
         <v>44489</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="55">
         <f>E27+15</f>
         <v>44504</v>
       </c>
@@ -4585,22 +4586,22 @@
       <c r="BK27" s="15"/>
       <c r="BL27" s="15"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="34">
         <v>1</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="54">
         <f>F27+1</f>
         <v>44505</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="54">
         <f>E28</f>
         <v>44505</v>
       </c>
@@ -4663,17 +4664,17 @@
       <c r="BK28" s="15"/>
       <c r="BL28" s="15"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13" t="str">
         <f t="shared" si="4"/>
@@ -4736,7 +4737,7 @@
       <c r="BK29" s="15"/>
       <c r="BL29" s="15"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>35</v>
@@ -4747,11 +4748,11 @@
       <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="55">
         <f>F28</f>
         <v>44505</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="55">
         <f>E30+3</f>
         <v>44508</v>
       </c>
@@ -4817,7 +4818,7 @@
       <c r="BK30" s="15"/>
       <c r="BL30" s="15"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="24" t="s">
         <v>36</v>
@@ -4828,11 +4829,11 @@
       <c r="D31" s="14">
         <v>1</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="55">
         <f>E30+1</f>
         <v>44506</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="55">
         <f>E31+2</f>
         <v>44508</v>
       </c>
@@ -4898,7 +4899,7 @@
       <c r="BK31" s="15"/>
       <c r="BL31" s="15"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="24" t="s">
         <v>88</v>
@@ -4909,11 +4910,11 @@
       <c r="D32" s="14">
         <v>1</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="55">
         <f>F31</f>
         <v>44508</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="55">
         <f>E32+6</f>
         <v>44514</v>
       </c>
@@ -4979,7 +4980,7 @@
       <c r="BK32" s="15"/>
       <c r="BL32" s="15"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="24" t="s">
         <v>83</v>
@@ -4990,11 +4991,11 @@
       <c r="D33" s="14">
         <v>1</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="55">
         <f>F32+1</f>
         <v>44515</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="55">
         <f>E33+9</f>
         <v>44524</v>
       </c>
@@ -5060,7 +5061,7 @@
       <c r="BK33" s="15"/>
       <c r="BL33" s="15"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="24" t="s">
         <v>77</v>
@@ -5071,11 +5072,11 @@
       <c r="D34" s="14">
         <v>1</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="55">
         <f>F32+1</f>
         <v>44515</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="55">
         <f>E34+6</f>
         <v>44521</v>
       </c>
@@ -5141,7 +5142,7 @@
       <c r="BK34" s="15"/>
       <c r="BL34" s="15"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="24" t="s">
         <v>78</v>
@@ -5152,11 +5153,11 @@
       <c r="D35" s="14">
         <v>0.9</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="55">
         <f>F32+1</f>
         <v>44515</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="55">
         <f>E35+10</f>
         <v>44525</v>
       </c>
@@ -5219,22 +5220,22 @@
       <c r="BK35" s="15"/>
       <c r="BL35" s="15"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="34">
         <v>1</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="54">
         <f>E28+21</f>
         <v>44526</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="54">
         <f>E36</f>
         <v>44526</v>
       </c>
@@ -5300,17 +5301,17 @@
       <c r="BK36" s="15"/>
       <c r="BL36" s="15"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13" t="str">
         <f t="shared" si="4"/>
@@ -5373,7 +5374,7 @@
       <c r="BK37" s="15"/>
       <c r="BL37" s="15"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>50</v>
@@ -5384,11 +5385,11 @@
       <c r="D38" s="14">
         <v>1</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="55">
         <f>F36+1</f>
         <v>44527</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="55">
         <f>E38+2</f>
         <v>44529</v>
       </c>
@@ -5454,7 +5455,7 @@
       <c r="BK38" s="15"/>
       <c r="BL38" s="15"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="24" t="s">
         <v>86</v>
@@ -5465,11 +5466,11 @@
       <c r="D39" s="14">
         <v>1</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="55">
         <f>E38+1</f>
         <v>44528</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="55">
         <f>E42-1</f>
         <v>44546</v>
       </c>
@@ -5535,7 +5536,7 @@
       <c r="BK39" s="15"/>
       <c r="BL39" s="15"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
       <c r="B40" s="24" t="s">
         <v>85</v>
@@ -5546,11 +5547,11 @@
       <c r="D40" s="14">
         <v>0.8</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="55">
         <f>E39</f>
         <v>44528</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="55">
         <f>F39</f>
         <v>44546</v>
       </c>
@@ -5616,7 +5617,7 @@
       <c r="BK40" s="15"/>
       <c r="BL40" s="15"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
       <c r="B41" s="24" t="s">
         <v>84</v>
@@ -5627,11 +5628,11 @@
       <c r="D41" s="14">
         <v>1</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="55">
         <f>E40</f>
         <v>44528</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="55">
         <f>F40</f>
         <v>44546</v>
       </c>
@@ -5694,22 +5695,22 @@
       <c r="BK41" s="15"/>
       <c r="BL41" s="15"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="34">
         <v>1</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="54">
         <f>E36+21</f>
         <v>44547</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F42" s="54">
         <f>E42</f>
         <v>44547</v>
       </c>
@@ -5775,17 +5776,17 @@
       <c r="BK42" s="15"/>
       <c r="BL42" s="15"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13" t="str">
         <f t="shared" si="4"/>
@@ -5848,7 +5849,7 @@
       <c r="BK43" s="15"/>
       <c r="BL43" s="15"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="24" t="s">
         <v>52</v>
@@ -5859,11 +5860,11 @@
       <c r="D44" s="14">
         <v>1</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="55">
         <f>E42</f>
         <v>44547</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="55">
         <f>E44+1</f>
         <v>44548</v>
       </c>
@@ -5929,9 +5930,9 @@
       <c r="BK44" s="15"/>
       <c r="BL44" s="15"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="31" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="22" t="s">
@@ -5940,11 +5941,11 @@
       <c r="D45" s="14">
         <v>1</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="55">
         <f>F44+1</f>
         <v>44549</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="55">
         <f>E45+7</f>
         <v>44556</v>
       </c>
@@ -6010,7 +6011,7 @@
       <c r="BK45" s="15"/>
       <c r="BL45" s="15"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="24" t="s">
         <v>89</v>
@@ -6021,11 +6022,11 @@
       <c r="D46" s="14">
         <v>1</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="55">
         <f>F45</f>
         <v>44556</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="55">
         <f>E48-1</f>
         <v>44585</v>
       </c>
@@ -6091,7 +6092,7 @@
       <c r="BK46" s="15"/>
       <c r="BL46" s="15"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="24" t="s">
         <v>93</v>
@@ -6102,11 +6103,11 @@
       <c r="D47" s="14">
         <v>1</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="55">
         <f>F44+1</f>
         <v>44549</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F47" s="55">
         <f>E48-1</f>
         <v>44585</v>
       </c>
@@ -6172,22 +6173,22 @@
       <c r="BK47" s="15"/>
       <c r="BL47" s="15"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18"/>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="34">
         <v>1</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48" s="54">
         <f>E42+39</f>
         <v>44586</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="54">
         <f>E48</f>
         <v>44586</v>
       </c>
@@ -6253,17 +6254,17 @@
       <c r="BK48" s="15"/>
       <c r="BL48" s="15"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13" t="str">
         <f t="shared" si="4"/>
@@ -6326,7 +6327,7 @@
       <c r="BK49" s="15"/>
       <c r="BL49" s="15"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18"/>
       <c r="B50" s="24" t="s">
         <v>38</v>
@@ -6335,11 +6336,11 @@
       <c r="D50" s="14">
         <v>1</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="55">
         <f>F48+1</f>
         <v>44587</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="55">
         <f>E50</f>
         <v>44587</v>
       </c>
@@ -6405,7 +6406,7 @@
       <c r="BK50" s="15"/>
       <c r="BL50" s="15"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="24" t="s">
         <v>39</v>
@@ -6416,11 +6417,11 @@
       <c r="D51" s="14">
         <v>1</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="55">
         <f>F50+1</f>
         <v>44588</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F51" s="55">
         <f>E51+7</f>
         <v>44595</v>
       </c>
@@ -6486,7 +6487,7 @@
       <c r="BK51" s="15"/>
       <c r="BL51" s="15"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
       <c r="B52" s="24" t="s">
         <v>57</v>
@@ -6497,11 +6498,11 @@
       <c r="D52" s="14">
         <v>1</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="55">
         <f>F51+1</f>
         <v>44596</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="55">
         <f>E52+21</f>
         <v>44617</v>
       </c>
@@ -6564,7 +6565,7 @@
       <c r="BK52" s="15"/>
       <c r="BL52" s="15"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18"/>
       <c r="B53" s="24" t="s">
         <v>58</v>
@@ -6575,11 +6576,11 @@
       <c r="D53" s="14">
         <v>0.9</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="55">
         <f>E52</f>
         <v>44596</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F53" s="55">
         <f>F52</f>
         <v>44617</v>
       </c>
@@ -6642,7 +6643,7 @@
       <c r="BK53" s="15"/>
       <c r="BL53" s="15"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
       <c r="B54" s="24" t="s">
         <v>59</v>
@@ -6653,11 +6654,11 @@
       <c r="D54" s="14">
         <v>0.8</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="55">
         <f>E53</f>
         <v>44596</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="55">
         <f>F53</f>
         <v>44617</v>
       </c>
@@ -6720,7 +6721,7 @@
       <c r="BK54" s="15"/>
       <c r="BL54" s="15"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="24" t="s">
         <v>91</v>
@@ -6731,11 +6732,11 @@
       <c r="D55" s="14">
         <v>1</v>
       </c>
-      <c r="E55" s="29">
+      <c r="E55" s="55">
         <f>F51+1</f>
         <v>44596</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F55" s="55">
         <f>E55+21</f>
         <v>44617</v>
       </c>
@@ -6798,7 +6799,7 @@
       <c r="BK55" s="15"/>
       <c r="BL55" s="15"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="B56" s="24" t="s">
         <v>90</v>
@@ -6809,11 +6810,11 @@
       <c r="D56" s="14">
         <v>1</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="55">
         <f>F55+1</f>
         <v>44618</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="55">
         <f>E56+4</f>
         <v>44622</v>
       </c>
@@ -6876,22 +6877,22 @@
       <c r="BK56" s="15"/>
       <c r="BL56" s="15"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18"/>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="35">
+      <c r="D57" s="34">
         <v>1</v>
       </c>
-      <c r="E57" s="36">
+      <c r="E57" s="54">
         <f>F48+37</f>
         <v>44623</v>
       </c>
-      <c r="F57" s="36">
+      <c r="F57" s="54">
         <f>E57</f>
         <v>44623</v>
       </c>
@@ -6957,17 +6958,17 @@
       <c r="BK57" s="15"/>
       <c r="BL57" s="15"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="38"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13" t="str">
         <f t="shared" si="4"/>
@@ -7030,7 +7031,7 @@
       <c r="BK58" s="15"/>
       <c r="BL58" s="15"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18"/>
       <c r="B59" s="24" t="s">
         <v>41</v>
@@ -7041,10 +7042,10 @@
       <c r="D59" s="14">
         <v>1</v>
       </c>
-      <c r="E59" s="29">
+      <c r="E59" s="55">
         <v>44624</v>
       </c>
-      <c r="F59" s="29">
+      <c r="F59" s="55">
         <v>44624</v>
       </c>
       <c r="G59" s="13"/>
@@ -7109,7 +7110,7 @@
       <c r="BK59" s="15"/>
       <c r="BL59" s="15"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
       <c r="B60" s="24" t="s">
         <v>42</v>
@@ -7120,10 +7121,10 @@
       <c r="D60" s="14">
         <v>1</v>
       </c>
-      <c r="E60" s="29">
+      <c r="E60" s="55">
         <v>44625</v>
       </c>
-      <c r="F60" s="29">
+      <c r="F60" s="55">
         <v>44631</v>
       </c>
       <c r="G60" s="13"/>
@@ -7188,7 +7189,7 @@
       <c r="BK60" s="15"/>
       <c r="BL60" s="15"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
       <c r="B61" s="24" t="s">
         <v>73</v>
@@ -7199,10 +7200,10 @@
       <c r="D61" s="14">
         <v>1</v>
       </c>
-      <c r="E61" s="29">
+      <c r="E61" s="55">
         <v>44632</v>
       </c>
-      <c r="F61" s="29">
+      <c r="F61" s="55">
         <v>44645</v>
       </c>
       <c r="G61" s="13"/>
@@ -7264,7 +7265,7 @@
       <c r="BK61" s="15"/>
       <c r="BL61" s="15"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="24" t="s">
         <v>76</v>
@@ -7275,10 +7276,10 @@
       <c r="D62" s="14">
         <v>1</v>
       </c>
-      <c r="E62" s="29">
+      <c r="E62" s="55">
         <v>44632</v>
       </c>
-      <c r="F62" s="29">
+      <c r="F62" s="55">
         <v>44645</v>
       </c>
       <c r="G62" s="13"/>
@@ -7340,7 +7341,7 @@
       <c r="BK62" s="15"/>
       <c r="BL62" s="15"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="18"/>
       <c r="B63" s="24" t="s">
         <v>75</v>
@@ -7351,10 +7352,10 @@
       <c r="D63" s="14">
         <v>1</v>
       </c>
-      <c r="E63" s="29">
+      <c r="E63" s="55">
         <v>44632</v>
       </c>
-      <c r="F63" s="29">
+      <c r="F63" s="55">
         <v>44645</v>
       </c>
       <c r="G63" s="13"/>
@@ -7416,7 +7417,7 @@
       <c r="BK63" s="15"/>
       <c r="BL63" s="15"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="18"/>
       <c r="B64" s="24" t="s">
         <v>92</v>
@@ -7427,10 +7428,10 @@
       <c r="D64" s="14">
         <v>0.4</v>
       </c>
-      <c r="E64" s="29">
+      <c r="E64" s="55">
         <v>44632</v>
       </c>
-      <c r="F64" s="29">
+      <c r="F64" s="55">
         <v>44645</v>
       </c>
       <c r="G64" s="13"/>
@@ -7495,7 +7496,7 @@
       <c r="BK64" s="15"/>
       <c r="BL64" s="15"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="24" t="s">
         <v>94</v>
@@ -7506,10 +7507,10 @@
       <c r="D65" s="14">
         <v>0.1</v>
       </c>
-      <c r="E65" s="29">
+      <c r="E65" s="55">
         <v>44632</v>
       </c>
-      <c r="F65" s="29">
+      <c r="F65" s="55">
         <v>44645</v>
       </c>
       <c r="G65" s="13"/>
@@ -7571,17 +7572,17 @@
       <c r="BK65" s="15"/>
       <c r="BL65" s="15"/>
     </row>
-    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="37" t="s">
+      <c r="B66" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="38"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13" t="str">
         <f t="shared" si="4"/>
@@ -7644,7 +7645,7 @@
       <c r="BK66" s="15"/>
       <c r="BL66" s="15"/>
     </row>
-    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="18"/>
       <c r="B67" s="24" t="s">
         <v>95</v>
@@ -7655,10 +7656,10 @@
       <c r="D67" s="14">
         <v>0.95</v>
       </c>
-      <c r="E67" s="29">
+      <c r="E67" s="55">
         <v>44648</v>
       </c>
-      <c r="F67" s="29">
+      <c r="F67" s="55">
         <v>44651</v>
       </c>
       <c r="G67" s="13"/>
@@ -7720,7 +7721,7 @@
       <c r="BK67" s="15"/>
       <c r="BL67" s="15"/>
     </row>
-    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="24" t="s">
         <v>96</v>
@@ -7731,10 +7732,10 @@
       <c r="D68" s="14">
         <v>1</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E68" s="55">
         <v>44655</v>
       </c>
-      <c r="F68" s="29">
+      <c r="F68" s="55">
         <v>44662</v>
       </c>
       <c r="G68" s="13"/>
@@ -7796,7 +7797,7 @@
       <c r="BK68" s="15"/>
       <c r="BL68" s="15"/>
     </row>
-    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
       <c r="B69" s="24" t="s">
         <v>102</v>
@@ -7807,10 +7808,10 @@
       <c r="D69" s="14">
         <v>0.5</v>
       </c>
-      <c r="E69" s="29">
+      <c r="E69" s="55">
         <v>44655</v>
       </c>
-      <c r="F69" s="29">
+      <c r="F69" s="55">
         <v>44659</v>
       </c>
       <c r="G69" s="13"/>
@@ -7872,7 +7873,7 @@
       <c r="BK69" s="15"/>
       <c r="BL69" s="15"/>
     </row>
-    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18"/>
       <c r="B70" s="24" t="s">
         <v>103</v>
@@ -7883,10 +7884,10 @@
       <c r="D70" s="14">
         <v>0.8</v>
       </c>
-      <c r="E70" s="29">
+      <c r="E70" s="55">
         <v>44648</v>
       </c>
-      <c r="F70" s="29">
+      <c r="F70" s="55">
         <v>44662</v>
       </c>
       <c r="G70" s="13"/>
@@ -7948,7 +7949,7 @@
       <c r="BK70" s="15"/>
       <c r="BL70" s="15"/>
     </row>
-    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="24" t="s">
         <v>97</v>
@@ -7959,10 +7960,10 @@
       <c r="D71" s="14">
         <v>1</v>
       </c>
-      <c r="E71" s="29">
+      <c r="E71" s="55">
         <v>44657</v>
       </c>
-      <c r="F71" s="29">
+      <c r="F71" s="55">
         <v>44664</v>
       </c>
       <c r="G71" s="13"/>
@@ -8024,7 +8025,7 @@
       <c r="BK71" s="15"/>
       <c r="BL71" s="15"/>
     </row>
-    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="24" t="s">
         <v>107</v>
@@ -8035,10 +8036,10 @@
       <c r="D72" s="14">
         <v>0.6</v>
       </c>
-      <c r="E72" s="29">
+      <c r="E72" s="55">
         <v>44651</v>
       </c>
-      <c r="F72" s="29">
+      <c r="F72" s="55">
         <v>44655</v>
       </c>
       <c r="G72" s="13"/>
@@ -8100,7 +8101,7 @@
       <c r="BK72" s="15"/>
       <c r="BL72" s="15"/>
     </row>
-    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
       <c r="B73" s="24" t="s">
         <v>98</v>
@@ -8111,10 +8112,10 @@
       <c r="D73" s="14">
         <v>0.8</v>
       </c>
-      <c r="E73" s="29">
+      <c r="E73" s="55">
         <v>44662</v>
       </c>
-      <c r="F73" s="29">
+      <c r="F73" s="55">
         <v>44666</v>
       </c>
       <c r="G73" s="13"/>
@@ -8179,21 +8180,21 @@
       <c r="BK73" s="15"/>
       <c r="BL73" s="15"/>
     </row>
-    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="35">
+      <c r="D74" s="34">
         <v>1</v>
       </c>
-      <c r="E74" s="36">
+      <c r="E74" s="54">
         <v>44663</v>
       </c>
-      <c r="F74" s="36">
+      <c r="F74" s="54">
         <v>44663</v>
       </c>
       <c r="G74" s="13"/>
@@ -8258,7 +8259,7 @@
       <c r="BK74" s="15"/>
       <c r="BL74" s="15"/>
     </row>
-    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="24" t="s">
         <v>45</v>
@@ -8267,10 +8268,10 @@
       <c r="D75" s="14">
         <v>1</v>
       </c>
-      <c r="E75" s="29">
+      <c r="E75" s="55">
         <v>44663</v>
       </c>
-      <c r="F75" s="29">
+      <c r="F75" s="55">
         <v>44663</v>
       </c>
       <c r="G75" s="13"/>
@@ -8332,17 +8333,17 @@
       <c r="BK75" s="15"/>
       <c r="BL75" s="15"/>
     </row>
-    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="37" t="s">
+      <c r="B76" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C76" s="38"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13" t="str">
         <f t="shared" si="4"/>
@@ -8405,7 +8406,7 @@
       <c r="BK76" s="15"/>
       <c r="BL76" s="15"/>
     </row>
-    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18"/>
       <c r="B77" s="24" t="s">
         <v>46</v>
@@ -8416,10 +8417,10 @@
       <c r="D77" s="14">
         <v>1</v>
       </c>
-      <c r="E77" s="29">
+      <c r="E77" s="55">
         <v>44669</v>
       </c>
-      <c r="F77" s="29">
+      <c r="F77" s="55">
         <v>44690</v>
       </c>
       <c r="G77" s="13"/>
@@ -8484,10 +8485,10 @@
       <c r="BK77" s="15"/>
       <c r="BL77" s="15"/>
     </row>
-    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18"/>
       <c r="B78" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C78" s="22" t="s">
         <v>31</v>
@@ -8495,10 +8496,10 @@
       <c r="D78" s="14">
         <v>1</v>
       </c>
-      <c r="E78" s="29">
+      <c r="E78" s="55">
         <v>44669</v>
       </c>
-      <c r="F78" s="29">
+      <c r="F78" s="55">
         <v>44690</v>
       </c>
       <c r="G78" s="13"/>
@@ -8560,10 +8561,10 @@
       <c r="BK78" s="15"/>
       <c r="BL78" s="15"/>
     </row>
-    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18"/>
       <c r="B79" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C79" s="22" t="s">
         <v>31</v>
@@ -8571,10 +8572,10 @@
       <c r="D79" s="14">
         <v>1</v>
       </c>
-      <c r="E79" s="29">
+      <c r="E79" s="55">
         <v>44669</v>
       </c>
-      <c r="F79" s="29">
+      <c r="F79" s="55">
         <v>44690</v>
       </c>
       <c r="G79" s="13"/>
@@ -8636,7 +8637,7 @@
       <c r="BK79" s="15"/>
       <c r="BL79" s="15"/>
     </row>
-    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="18"/>
       <c r="B80" s="24" t="s">
         <v>99</v>
@@ -8647,10 +8648,10 @@
       <c r="D80" s="14">
         <v>0.7</v>
       </c>
-      <c r="E80" s="29">
+      <c r="E80" s="55">
         <v>44669</v>
       </c>
-      <c r="F80" s="29">
+      <c r="F80" s="55">
         <v>44690</v>
       </c>
       <c r="G80" s="13"/>
@@ -8712,7 +8713,7 @@
       <c r="BK80" s="15"/>
       <c r="BL80" s="15"/>
     </row>
-    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
       <c r="B81" s="24" t="s">
         <v>106</v>
@@ -8723,10 +8724,10 @@
       <c r="D81" s="14">
         <v>0</v>
       </c>
-      <c r="E81" s="29">
+      <c r="E81" s="55">
         <v>44669</v>
       </c>
-      <c r="F81" s="29">
+      <c r="F81" s="55">
         <v>44690</v>
       </c>
       <c r="G81" s="13"/>
@@ -8788,10 +8789,10 @@
       <c r="BK81" s="15"/>
       <c r="BL81" s="15"/>
     </row>
-    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18"/>
       <c r="B82" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>72</v>
@@ -8799,10 +8800,10 @@
       <c r="D82" s="14">
         <v>1</v>
       </c>
-      <c r="E82" s="29">
+      <c r="E82" s="55">
         <v>44669</v>
       </c>
-      <c r="F82" s="29">
+      <c r="F82" s="55">
         <v>44690</v>
       </c>
       <c r="G82" s="13"/>
@@ -8864,7 +8865,7 @@
       <c r="BK82" s="15"/>
       <c r="BL82" s="15"/>
     </row>
-    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="18"/>
       <c r="B83" s="24" t="s">
         <v>104</v>
@@ -8875,10 +8876,10 @@
       <c r="D83" s="14">
         <v>0.7</v>
       </c>
-      <c r="E83" s="29">
+      <c r="E83" s="55">
         <v>44669</v>
       </c>
-      <c r="F83" s="29">
+      <c r="F83" s="55">
         <v>44690</v>
       </c>
       <c r="G83" s="13"/>
@@ -8940,7 +8941,7 @@
       <c r="BK83" s="15"/>
       <c r="BL83" s="15"/>
     </row>
-    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="18"/>
       <c r="B84" s="24" t="s">
         <v>105</v>
@@ -8951,10 +8952,10 @@
       <c r="D84" s="14">
         <v>0.9</v>
       </c>
-      <c r="E84" s="29">
+      <c r="E84" s="55">
         <v>44669</v>
       </c>
-      <c r="F84" s="29">
+      <c r="F84" s="55">
         <v>44690</v>
       </c>
       <c r="G84" s="13"/>
@@ -9016,17 +9017,17 @@
       <c r="BK84" s="15"/>
       <c r="BL84" s="15"/>
     </row>
-    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C85" s="38"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56"/>
       <c r="G85" s="13"/>
       <c r="H85" s="13" t="str">
         <f t="shared" si="4"/>
@@ -9089,21 +9090,21 @@
       <c r="BK85" s="15"/>
       <c r="BL85" s="15"/>
     </row>
-    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="18"/>
-      <c r="B86" s="33" t="s">
+      <c r="B86" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C86" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="35">
+      <c r="D86" s="34">
         <v>0</v>
       </c>
-      <c r="E86" s="36">
+      <c r="E86" s="54">
         <v>44698</v>
       </c>
-      <c r="F86" s="36">
+      <c r="F86" s="54">
         <f>E86</f>
         <v>44698</v>
       </c>
@@ -9166,7 +9167,7 @@
       <c r="BK86" s="15"/>
       <c r="BL86" s="15"/>
     </row>
-    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="18"/>
       <c r="B87" s="24" t="s">
         <v>48</v>
@@ -9175,12 +9176,12 @@
         <v>72</v>
       </c>
       <c r="D87" s="14">
-        <v>0</v>
-      </c>
-      <c r="E87" s="29">
+        <v>1</v>
+      </c>
+      <c r="E87" s="55">
         <v>44698</v>
       </c>
-      <c r="F87" s="29">
+      <c r="F87" s="55">
         <v>44702</v>
       </c>
       <c r="G87" s="13"/>
@@ -9242,7 +9243,7 @@
       <c r="BK87" s="15"/>
       <c r="BL87" s="15"/>
     </row>
-    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="18"/>
       <c r="B88" s="24" t="s">
         <v>47</v>
@@ -9251,12 +9252,12 @@
         <v>26</v>
       </c>
       <c r="D88" s="14">
-        <v>0</v>
-      </c>
-      <c r="E88" s="29">
+        <v>1</v>
+      </c>
+      <c r="E88" s="55">
         <v>44698</v>
       </c>
-      <c r="F88" s="29">
+      <c r="F88" s="55">
         <v>44715</v>
       </c>
       <c r="G88" s="13"/>
@@ -9321,7 +9322,7 @@
       <c r="BK88" s="15"/>
       <c r="BL88" s="15"/>
     </row>
-    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="18"/>
       <c r="B89" s="24" t="s">
         <v>109</v>
@@ -9332,10 +9333,10 @@
       <c r="D89" s="14">
         <v>0.5</v>
       </c>
-      <c r="E89" s="29">
+      <c r="E89" s="55">
         <v>44691</v>
       </c>
-      <c r="F89" s="29">
+      <c r="F89" s="55">
         <v>44698</v>
       </c>
       <c r="G89" s="13"/>
@@ -9397,10 +9398,10 @@
       <c r="BK89" s="15"/>
       <c r="BL89" s="15"/>
     </row>
-    <row r="90" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="18"/>
       <c r="B90" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>72</v>
@@ -9408,10 +9409,10 @@
       <c r="D90" s="14">
         <v>0.5</v>
       </c>
-      <c r="E90" s="29">
+      <c r="E90" s="55">
         <v>44691</v>
       </c>
-      <c r="F90" s="29">
+      <c r="F90" s="55">
         <v>44698</v>
       </c>
       <c r="G90" s="13"/>
@@ -9473,10 +9474,10 @@
       <c r="BK90" s="15"/>
       <c r="BL90" s="15"/>
     </row>
-    <row r="91" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="18"/>
       <c r="B91" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C91" s="22" t="s">
         <v>72</v>
@@ -9484,10 +9485,10 @@
       <c r="D91" s="14">
         <v>0.5</v>
       </c>
-      <c r="E91" s="29">
+      <c r="E91" s="55">
         <v>44691</v>
       </c>
-      <c r="F91" s="29">
+      <c r="F91" s="55">
         <v>44698</v>
       </c>
       <c r="G91" s="13"/>
@@ -9549,10 +9550,10 @@
       <c r="BK91" s="15"/>
       <c r="BL91" s="15"/>
     </row>
-    <row r="92" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="18"/>
       <c r="B92" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C92" s="22" t="s">
         <v>31</v>
@@ -9560,10 +9561,10 @@
       <c r="D92" s="14">
         <v>1</v>
       </c>
-      <c r="E92" s="29">
+      <c r="E92" s="55">
         <v>44691</v>
       </c>
-      <c r="F92" s="29">
+      <c r="F92" s="55">
         <v>44701</v>
       </c>
       <c r="G92" s="13"/>
@@ -9625,10 +9626,10 @@
       <c r="BK92" s="15"/>
       <c r="BL92" s="15"/>
     </row>
-    <row r="93" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="18"/>
       <c r="B93" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C93" s="22" t="s">
         <v>31</v>
@@ -9636,10 +9637,10 @@
       <c r="D93" s="14">
         <v>1</v>
       </c>
-      <c r="E93" s="29">
+      <c r="E93" s="55">
         <v>44691</v>
       </c>
-      <c r="F93" s="29">
+      <c r="F93" s="55">
         <v>44701</v>
       </c>
       <c r="G93" s="13"/>
@@ -9701,10 +9702,10 @@
       <c r="BK93" s="15"/>
       <c r="BL93" s="15"/>
     </row>
-    <row r="94" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="18"/>
       <c r="B94" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C94" s="22" t="s">
         <v>31</v>
@@ -9712,10 +9713,10 @@
       <c r="D94" s="14">
         <v>1</v>
       </c>
-      <c r="E94" s="29">
+      <c r="E94" s="55">
         <v>44691</v>
       </c>
-      <c r="F94" s="29">
+      <c r="F94" s="55">
         <v>44701</v>
       </c>
       <c r="G94" s="13"/>
@@ -9777,7 +9778,7 @@
       <c r="BK94" s="15"/>
       <c r="BL94" s="15"/>
     </row>
-    <row r="95" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="18"/>
       <c r="B95" s="24" t="s">
         <v>108</v>
@@ -9788,10 +9789,10 @@
       <c r="D95" s="14">
         <v>0</v>
       </c>
-      <c r="E95" s="29">
+      <c r="E95" s="55">
         <v>44691</v>
       </c>
-      <c r="F95" s="29">
+      <c r="F95" s="55">
         <v>44701</v>
       </c>
       <c r="G95" s="13"/>
@@ -9853,21 +9854,23 @@
       <c r="BK95" s="15"/>
       <c r="BL95" s="15"/>
     </row>
-    <row r="96" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="18"/>
       <c r="B96" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C96" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D96" s="14">
-        <v>0</v>
-      </c>
-      <c r="E96" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="E96" s="55">
         <v>44691</v>
       </c>
-      <c r="F96" s="29"/>
+      <c r="F96" s="55">
+        <v>44711</v>
+      </c>
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
       <c r="I96" s="15"/>
@@ -9927,91 +9930,99 @@
       <c r="BK96" s="15"/>
       <c r="BL96" s="15"/>
     </row>
-    <row r="97" spans="1:64" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="41"/>
-      <c r="B97" s="42" t="s">
+    <row r="97" spans="1:64" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="39"/>
+      <c r="B97" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C97" s="43" t="s">
+      <c r="C97" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D97" s="44">
+      <c r="D97" s="41">
         <v>0</v>
       </c>
-      <c r="E97" s="45">
+      <c r="E97" s="57">
         <v>44691</v>
       </c>
-      <c r="F97" s="45">
+      <c r="F97" s="57">
         <v>44711</v>
       </c>
-      <c r="G97" s="46"/>
-      <c r="H97" s="46"/>
-      <c r="I97" s="47"/>
-      <c r="J97" s="47"/>
-      <c r="K97" s="47"/>
-      <c r="L97" s="47"/>
-      <c r="M97" s="47"/>
-      <c r="N97" s="47"/>
-      <c r="O97" s="47"/>
-      <c r="P97" s="47"/>
-      <c r="Q97" s="47"/>
-      <c r="R97" s="47"/>
-      <c r="S97" s="47"/>
-      <c r="T97" s="47"/>
-      <c r="U97" s="47"/>
-      <c r="V97" s="47"/>
-      <c r="W97" s="47"/>
-      <c r="X97" s="47"/>
-      <c r="Y97" s="47"/>
-      <c r="Z97" s="47"/>
-      <c r="AA97" s="47"/>
-      <c r="AB97" s="47"/>
-      <c r="AC97" s="47"/>
-      <c r="AD97" s="47"/>
-      <c r="AE97" s="47"/>
-      <c r="AF97" s="47"/>
-      <c r="AG97" s="47"/>
-      <c r="AH97" s="47"/>
-      <c r="AI97" s="47"/>
-      <c r="AJ97" s="47"/>
-      <c r="AK97" s="47"/>
-      <c r="AL97" s="47"/>
-      <c r="AM97" s="47"/>
-      <c r="AN97" s="47"/>
-      <c r="AO97" s="47"/>
-      <c r="AP97" s="47"/>
-      <c r="AQ97" s="47"/>
-      <c r="AR97" s="47"/>
-      <c r="AS97" s="47"/>
-      <c r="AT97" s="47"/>
-      <c r="AU97" s="47"/>
-      <c r="AV97" s="47"/>
-      <c r="AW97" s="47"/>
-      <c r="AX97" s="47"/>
-      <c r="AY97" s="47"/>
-      <c r="AZ97" s="47"/>
-      <c r="BA97" s="47"/>
-      <c r="BB97" s="47"/>
-      <c r="BC97" s="47"/>
-      <c r="BD97" s="47"/>
-      <c r="BE97" s="47"/>
-      <c r="BF97" s="47"/>
-      <c r="BG97" s="47"/>
-      <c r="BH97" s="47"/>
-      <c r="BI97" s="47"/>
-      <c r="BJ97" s="47"/>
-      <c r="BK97" s="47"/>
-      <c r="BL97" s="47"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="43"/>
+      <c r="J97" s="43"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="43"/>
+      <c r="M97" s="43"/>
+      <c r="N97" s="43"/>
+      <c r="O97" s="43"/>
+      <c r="P97" s="43"/>
+      <c r="Q97" s="43"/>
+      <c r="R97" s="43"/>
+      <c r="S97" s="43"/>
+      <c r="T97" s="43"/>
+      <c r="U97" s="43"/>
+      <c r="V97" s="43"/>
+      <c r="W97" s="43"/>
+      <c r="X97" s="43"/>
+      <c r="Y97" s="43"/>
+      <c r="Z97" s="43"/>
+      <c r="AA97" s="43"/>
+      <c r="AB97" s="43"/>
+      <c r="AC97" s="43"/>
+      <c r="AD97" s="43"/>
+      <c r="AE97" s="43"/>
+      <c r="AF97" s="43"/>
+      <c r="AG97" s="43"/>
+      <c r="AH97" s="43"/>
+      <c r="AI97" s="43"/>
+      <c r="AJ97" s="43"/>
+      <c r="AK97" s="43"/>
+      <c r="AL97" s="43"/>
+      <c r="AM97" s="43"/>
+      <c r="AN97" s="43"/>
+      <c r="AO97" s="43"/>
+      <c r="AP97" s="43"/>
+      <c r="AQ97" s="43"/>
+      <c r="AR97" s="43"/>
+      <c r="AS97" s="43"/>
+      <c r="AT97" s="43"/>
+      <c r="AU97" s="43"/>
+      <c r="AV97" s="43"/>
+      <c r="AW97" s="43"/>
+      <c r="AX97" s="43"/>
+      <c r="AY97" s="43"/>
+      <c r="AZ97" s="43"/>
+      <c r="BA97" s="43"/>
+      <c r="BB97" s="43"/>
+      <c r="BC97" s="43"/>
+      <c r="BD97" s="43"/>
+      <c r="BE97" s="43"/>
+      <c r="BF97" s="43"/>
+      <c r="BG97" s="43"/>
+      <c r="BH97" s="43"/>
+      <c r="BI97" s="43"/>
+      <c r="BJ97" s="43"/>
+      <c r="BK97" s="43"/>
+      <c r="BL97" s="43"/>
     </row>
-    <row r="98" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="18"/>
-      <c r="B98" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C98" s="38"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
+      <c r="B98" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="E98" s="55">
+        <v>44713</v>
+      </c>
+      <c r="F98" s="55">
+        <v>44715</v>
+      </c>
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
       <c r="I98" s="15"/>
@@ -10071,25 +10082,29 @@
       <c r="BK98" s="15"/>
       <c r="BL98" s="15"/>
     </row>
-    <row r="99" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="18"/>
-      <c r="B99" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C99" s="22" t="s">
+      <c r="B99" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D99" s="14">
+      <c r="D99" s="34">
         <v>0</v>
       </c>
-      <c r="E99" s="29">
-        <v>44713</v>
-      </c>
-      <c r="F99" s="29">
-        <v>44716</v>
+      <c r="E99" s="54">
+        <v>44715</v>
+      </c>
+      <c r="F99" s="54">
+        <f>E99</f>
+        <v>44715</v>
       </c>
       <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
+      <c r="H99" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="I99" s="15"/>
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
@@ -10147,28 +10162,19 @@
       <c r="BK99" s="15"/>
       <c r="BL99" s="15"/>
     </row>
-    <row r="100" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="18"/>
-      <c r="B100" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D100" s="35">
-        <v>0</v>
-      </c>
-      <c r="E100" s="36">
-        <v>44716</v>
-      </c>
-      <c r="F100" s="36">
-        <f>E100</f>
-        <v>44716</v>
-      </c>
+    <row r="100" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="25"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
       <c r="G100" s="13"/>
-      <c r="H100" s="13">
+      <c r="H100" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
@@ -10227,94 +10233,18 @@
       <c r="BK100" s="15"/>
       <c r="BL100" s="15"/>
     </row>
-    <row r="101" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" s="25"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="15"/>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="15"/>
-      <c r="S101" s="15"/>
-      <c r="T101" s="15"/>
-      <c r="U101" s="15"/>
-      <c r="V101" s="15"/>
-      <c r="W101" s="15"/>
-      <c r="X101" s="15"/>
-      <c r="Y101" s="15"/>
-      <c r="Z101" s="15"/>
-      <c r="AA101" s="15"/>
-      <c r="AB101" s="15"/>
-      <c r="AC101" s="15"/>
-      <c r="AD101" s="15"/>
-      <c r="AE101" s="15"/>
-      <c r="AF101" s="15"/>
-      <c r="AG101" s="15"/>
-      <c r="AH101" s="15"/>
-      <c r="AI101" s="15"/>
-      <c r="AJ101" s="15"/>
-      <c r="AK101" s="15"/>
-      <c r="AL101" s="15"/>
-      <c r="AM101" s="15"/>
-      <c r="AN101" s="15"/>
-      <c r="AO101" s="15"/>
-      <c r="AP101" s="15"/>
-      <c r="AQ101" s="15"/>
-      <c r="AR101" s="15"/>
-      <c r="AS101" s="15"/>
-      <c r="AT101" s="15"/>
-      <c r="AU101" s="15"/>
-      <c r="AV101" s="15"/>
-      <c r="AW101" s="15"/>
-      <c r="AX101" s="15"/>
-      <c r="AY101" s="15"/>
-      <c r="AZ101" s="15"/>
-      <c r="BA101" s="15"/>
-      <c r="BB101" s="15"/>
-      <c r="BC101" s="15"/>
-      <c r="BD101" s="15"/>
-      <c r="BE101" s="15"/>
-      <c r="BF101" s="15"/>
-      <c r="BG101" s="15"/>
-      <c r="BH101" s="15"/>
-      <c r="BI101" s="15"/>
-      <c r="BJ101" s="15"/>
-      <c r="BK101" s="15"/>
-      <c r="BL101" s="15"/>
+    <row r="101" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G102" s="6"/>
+    <row r="102" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="10"/>
+      <c r="F102" s="20"/>
     </row>
-    <row r="103" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="10"/>
-      <c r="F103" s="20"/>
-    </row>
-    <row r="104" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="11"/>
+    <row r="103" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:B4"/>
@@ -10323,8 +10253,13 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D16:D17 D101 D24:D27 D19:D22 D50:D56 D77:D84 D75 D67:D73 D97 D87:D88">
+  <conditionalFormatting sqref="D16:D17 D100 D24:D27 D19:D22 D50:D56 D77:D84 D75 D67:D73 D97 D87:D88">
     <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10338,12 +10273,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I101:BL101 I34:BL36 I6:BL27 I29:BL31 I49:BL56 I66:BL73 I76:BL99">
+  <conditionalFormatting sqref="I100:BL100 I34:BL36 I6:BL27 I29:BL31 I49:BL56 I66:BL73 I76:BL98">
     <cfRule type="expression" dxfId="44" priority="133">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I101:BL101 I34:BL36 I8:BL27 I29:BL31 I49:BL56 I66:BL73 I76:BL99">
+  <conditionalFormatting sqref="I100:BL100 I34:BL36 I8:BL27 I29:BL31 I49:BL56 I66:BL73 I76:BL98">
     <cfRule type="expression" dxfId="43" priority="131">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -10541,12 +10476,12 @@
       <formula>AND(fin_tâche&gt;=I$6,début_tâche&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I100:BL100">
+  <conditionalFormatting sqref="I99:BL99">
     <cfRule type="expression" dxfId="23" priority="72">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I100:BL100">
+  <conditionalFormatting sqref="I99:BL99">
     <cfRule type="expression" dxfId="22" priority="70">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -10870,7 +10805,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D100">
+  <conditionalFormatting sqref="D99">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11024,20 +10959,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A52B9A9A-9069-4620-8E19-50503A0D492D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11078,7 +10999,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D16:D17 D101 D24:D27 D19:D22 D50:D56 D77:D84 D75 D67:D73 D97 D87:D88</xm:sqref>
+          <xm:sqref>D16:D17 D100 D24:D27 D19:D22 D50:D56 D77:D84 D75 D67:D73 D97 D87:D88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61BAFCB1-C9D1-4453-9835-894AAFFB2D48}">
@@ -11468,7 +11389,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D100</xm:sqref>
+          <xm:sqref>D99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC19E591-9826-41D2-8753-21A5AEC1982F}">
@@ -11606,7 +11527,7 @@
           <xm:sqref>D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A52B9A9A-9069-4620-8E19-50503A0D492D}">
+          <x14:cfRule type="dataBar" id="{265A8D0E-6EC0-416D-AE24-C0891B72B939}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11620,21 +11541,6 @@
           </x14:cfRule>
           <xm:sqref>D98</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{265A8D0E-6EC0-416D-AE24-C0891B72B939}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D99</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
